--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -1760,14 +1760,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
       <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1869,12 +1869,12 @@
         <v>365</v>
       </c>
       <c r="E4" s="12" t="str">
-        <f t="shared" ref="E4:E11" si="0">B4&amp;"介绍"</f>
+        <f t="shared" ref="E4:E10" si="0">B4&amp;"介绍"</f>
         <v>总统府介绍</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="10" t="str">
-        <f t="shared" ref="G4:G11" si="1">"&lt;Scenic ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" MapID="""&amp;C4&amp;""" Image="""&amp;D4&amp;""" Text="""&amp;E4&amp;""" /&gt;"</f>
+        <f t="shared" ref="G4:G10" si="1">"&lt;Scenic ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" MapID="""&amp;C4&amp;""" Image="""&amp;D4&amp;""" Text="""&amp;E4&amp;""" /&gt;"</f>
         <v>&lt;Scenic ID="32010102" Name="总统府" MapID="320101" Image="Texture/Map/Scenic" Text="总统府介绍" /&gt;</v>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
         <v>32010108</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C10" s="10">
         <v>320101</v>
@@ -2008,12 +2008,12 @@
       </c>
       <c r="E10" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>栖霞山介绍</v>
+        <v>南京大屠杀纪念馆介绍</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Scenic ID="32010108" Name="栖霞山" MapID="320101" Image="Texture/Map/Scenic" Text="栖霞山介绍" /&gt;</v>
+        <v>&lt;Scenic ID="32010108" Name="南京大屠杀纪念馆" MapID="320101" Image="Texture/Map/Scenic" Text="南京大屠杀纪念馆介绍" /&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2021,7 +2021,7 @@
         <v>32010109</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C11" s="10">
         <v>320101</v>
@@ -2030,13 +2030,13 @@
         <v>365</v>
       </c>
       <c r="E11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>南京大屠杀纪念馆介绍</v>
+        <f>B11&amp;"介绍"</f>
+        <v>栖霞山介绍</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Scenic ID="32010109" Name="南京大屠杀纪念馆" MapID="320101" Image="Texture/Map/Scenic" Text="南京大屠杀纪念馆介绍" /&gt;</v>
+        <f>"&lt;Scenic ID="""&amp;A11&amp;""" Name="""&amp;B11&amp;""" MapID="""&amp;C11&amp;""" Image="""&amp;D11&amp;""" Text="""&amp;E11&amp;""" /&gt;"</f>
+        <v>&lt;Scenic ID="32010109" Name="栖霞山" MapID="320101" Image="Texture/Map/Scenic" Text="栖霞山介绍" /&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2046,6 +2046,8 @@
       <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:18">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:18">
@@ -2094,8 +2096,6 @@
       <c r="F23" s="15"/>
     </row>
     <row r="24" spans="4:6">
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
       <c r="F24" s="15"/>
     </row>
     <row r="25" spans="4:6">
@@ -2112,9 +2112,6 @@
     </row>
     <row r="29" spans="4:6">
       <c r="F29" s="15"/>
-    </row>
-    <row r="30" spans="4:6">
-      <c r="F30" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -10002,6 +9999,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="26" r:id="rId1"/>
     <sheet name="Scenic" sheetId="30" r:id="rId2"/>
     <sheet name="Audio" sheetId="31" r:id="rId3"/>
+    <sheet name="Module" sheetId="32" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -225,6 +226,92 @@
   </si>
   <si>
     <t>名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>code_bg</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>coin_bg</t>
+  </si>
+  <si>
+    <t>Enable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetDress/View/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块名字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件路径</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Module</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FilePath</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetDress</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>换装页</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xml</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否启用</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +513,28 @@
     <cellStyle name="常规 2 2" xfId="1"/>
     <cellStyle name="常规 2 2 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -843,7 +951,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1212,7 +1320,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1224,11 +1332,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1343,4 +1451,244 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="9" style="12"/>
+    <col min="4" max="4" width="18.25" style="12" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="18"/>
+      <c r="B2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="15"/>
+      <c r="H3" s="12" t="str">
+        <f>IF(A3=1,"&lt;Module Name="""&amp;B3&amp;""" Desc="""&amp;C3&amp;"""&gt;",IF(A3=2,"  &lt;File Name="""&amp;D3&amp;""" Path="""&amp;F3&amp;D3&amp;""" Type="""&amp;E3&amp;""" Enable="""&amp;G3&amp;""" /&gt;",IF(A3=3,"&lt;/Module&gt;","")))</f>
+        <v>&lt;Module Name="PetDress" Desc="换装页"&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12" t="str">
+        <f t="shared" ref="H4:H9" si="0">IF(A4=1,"&lt;Module Name="""&amp;B4&amp;""" Desc="""&amp;C4&amp;"""&gt;",IF(A4=2,"  &lt;File Name="""&amp;D4&amp;""" Path="""&amp;F4&amp;D4&amp;""" Type="""&amp;E4&amp;""" Enable="""&amp;G4&amp;""" /&gt;",IF(A4=3,"&lt;/Module&gt;","")))</f>
+        <v xml:space="preserve">  &lt;File Name="cash" Path="PetDress/View/cash" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="17">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  &lt;File Name="check" Path="PetDress/View/check" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="17">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  &lt;File Name="clock" Path="PetDress/View/clock" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="17">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  &lt;File Name="code_bg" Path="PetDress/View/code_bg" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="17">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  &lt;File Name="coin" Path="PetDress/View/coin" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="17">
+        <v>2</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  &lt;File Name="coin_bg" Path="PetDress/View/coin_bg" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="17">
+        <v>3</v>
+      </c>
+      <c r="H10" s="12" t="str">
+        <f t="shared" ref="H10" si="1">IF(A10=1,"&lt;Module Name="""&amp;B10&amp;""" Desc="""&amp;C10&amp;"""&gt;",IF(A10=2,"  &lt;File Name="""&amp;D10&amp;""" Path="""&amp;F10&amp;D10&amp;""" Type="""&amp;E10&amp;""" Enable="""&amp;G10&amp;""" /&gt;",IF(A10=3,"&lt;/Module&gt;","")))</f>
+        <v>&lt;/Module&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576">
+      <formula1>"Imag,Spine"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -229,32 +229,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>clock</t>
-  </si>
-  <si>
-    <t>code_bg</t>
-  </si>
-  <si>
-    <t>coin</t>
-  </si>
-  <si>
-    <t>coin_bg</t>
-  </si>
-  <si>
     <t>Enable</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PetDress/View/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -295,14 +273,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>PetDress</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>换装页</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Image</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -313,6 +283,40 @@
   <si>
     <t>是否启用</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cycling/View/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nanjing_bg</t>
+  </si>
+  <si>
+    <t>coord</t>
+  </si>
+  <si>
+    <t>location1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>location2</t>
+  </si>
+  <si>
+    <t>location3</t>
+  </si>
+  <si>
+    <t>Cycling</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑行游戏</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>path01</t>
+  </si>
+  <si>
+    <t>path02</t>
   </si>
 </sst>
 </file>
@@ -513,28 +517,7 @@
     <cellStyle name="常规 2 2" xfId="1"/>
     <cellStyle name="常规 2 2 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -951,7 +934,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1320,7 +1303,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1455,13 +1438,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1481,22 +1464,22 @@
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>45</v>
@@ -1505,25 +1488,25 @@
     <row r="2" spans="1:8">
       <c r="A2" s="18"/>
       <c r="B2" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1531,16 +1514,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="15"/>
       <c r="H3" s="12" t="str">
         <f>IF(A3=1,"&lt;Module Name="""&amp;B3&amp;""" Desc="""&amp;C3&amp;"""&gt;",IF(A3=2,"  &lt;File Name="""&amp;D3&amp;""" Path="""&amp;F3&amp;D3&amp;""" Type="""&amp;E3&amp;""" Enable="""&amp;G3&amp;""" /&gt;",IF(A3=3,"&lt;/Module&gt;","")))</f>
-        <v>&lt;Module Name="PetDress" Desc="换装页"&gt;</v>
+        <v>&lt;Module Name="Cycling" Desc="骑行游戏"&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1548,20 +1531,20 @@
         <v>2</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G4" s="12">
         <v>1</v>
       </c>
       <c r="H4" s="12" t="str">
-        <f t="shared" ref="H4:H9" si="0">IF(A4=1,"&lt;Module Name="""&amp;B4&amp;""" Desc="""&amp;C4&amp;"""&gt;",IF(A4=2,"  &lt;File Name="""&amp;D4&amp;""" Path="""&amp;F4&amp;D4&amp;""" Type="""&amp;E4&amp;""" Enable="""&amp;G4&amp;""" /&gt;",IF(A4=3,"&lt;/Module&gt;","")))</f>
-        <v xml:space="preserve">  &lt;File Name="cash" Path="PetDress/View/cash" Type="Image" Enable="1" /&gt;</v>
+        <f t="shared" ref="H4:H8" si="0">IF(A4=1,"&lt;Module Name="""&amp;B4&amp;""" Desc="""&amp;C4&amp;"""&gt;",IF(A4=2,"  &lt;File Name="""&amp;D4&amp;""" Path="""&amp;F4&amp;D4&amp;""" Type="""&amp;E4&amp;""" Enable="""&amp;G4&amp;""" /&gt;",IF(A4=3,"&lt;/Module&gt;","")))</f>
+        <v xml:space="preserve">  &lt;File Name="nanjing_bg" Path="Cycling/View/nanjing_bg" Type="Image" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1569,20 +1552,20 @@
         <v>2</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="F5" s="12" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G5" s="12">
         <v>1</v>
       </c>
       <c r="H5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="check" Path="PetDress/View/check" Type="Image" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="coord" Path="Cycling/View/coord" Type="Image" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1590,20 +1573,20 @@
         <v>2</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G6" s="12">
         <v>1</v>
       </c>
       <c r="H6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="clock" Path="PetDress/View/clock" Type="Image" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="location1" Path="Cycling/View/location1" Type="Image" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1611,20 +1594,20 @@
         <v>2</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G7" s="12">
         <v>1</v>
       </c>
       <c r="H7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="code_bg" Path="PetDress/View/code_bg" Type="Image" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="location2" Path="Cycling/View/location2" Type="Image" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1632,20 +1615,20 @@
         <v>2</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G8" s="12">
         <v>1</v>
       </c>
       <c r="H8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="coin" Path="PetDress/View/coin" Type="Image" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="location3" Path="Cycling/View/location3" Type="Image" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1653,28 +1636,49 @@
         <v>2</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G9" s="12">
         <v>1</v>
       </c>
       <c r="H9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="coin_bg" Path="PetDress/View/coin_bg" Type="Image" Enable="1" /&gt;</v>
+        <f t="shared" ref="H9:H10" si="1">IF(A9=1,"&lt;Module Name="""&amp;B9&amp;""" Desc="""&amp;C9&amp;"""&gt;",IF(A9=2,"  &lt;File Name="""&amp;D9&amp;""" Path="""&amp;F9&amp;D9&amp;""" Type="""&amp;E9&amp;""" Enable="""&amp;G9&amp;""" /&gt;",IF(A9=3,"&lt;/Module&gt;","")))</f>
+        <v xml:space="preserve">  &lt;File Name="path01" Path="Cycling/View/path01" Type="Image" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="17">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="path02" Path="Cycling/View/path02" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="H10" s="12" t="str">
-        <f t="shared" ref="H10" si="1">IF(A10=1,"&lt;Module Name="""&amp;B10&amp;""" Desc="""&amp;C10&amp;"""&gt;",IF(A10=2,"  &lt;File Name="""&amp;D10&amp;""" Path="""&amp;F10&amp;D10&amp;""" Type="""&amp;E10&amp;""" Enable="""&amp;G10&amp;""" /&gt;",IF(A10=3,"&lt;/Module&gt;","")))</f>
+      <c r="H11" s="12" t="str">
+        <f t="shared" ref="H11" si="2">IF(A11=1,"&lt;Module Name="""&amp;B11&amp;""" Desc="""&amp;C11&amp;"""&gt;",IF(A11=2,"  &lt;File Name="""&amp;D11&amp;""" Path="""&amp;F11&amp;D11&amp;""" Type="""&amp;E11&amp;""" Enable="""&amp;G11&amp;""" /&gt;",IF(A11=3,"&lt;/Module&gt;","")))</f>
         <v>&lt;/Module&gt;</v>
       </c>
     </row>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -233,10 +233,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Image</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>模块名字</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -273,10 +269,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Image</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Xml</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -317,6 +309,12 @@
   </si>
   <si>
     <t>path02</t>
+  </si>
+  <si>
+    <t>Texture</t>
+  </si>
+  <si>
+    <t>Sprite</t>
   </si>
 </sst>
 </file>
@@ -1464,22 +1462,22 @@
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>45</v>
@@ -1488,25 +1486,25 @@
     <row r="2" spans="1:8">
       <c r="A2" s="18"/>
       <c r="B2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>51</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1514,10 +1512,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="15"/>
@@ -1531,20 +1529,20 @@
         <v>2</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G4" s="12">
         <v>1</v>
       </c>
       <c r="H4" s="12" t="str">
         <f t="shared" ref="H4:H8" si="0">IF(A4=1,"&lt;Module Name="""&amp;B4&amp;""" Desc="""&amp;C4&amp;"""&gt;",IF(A4=2,"  &lt;File Name="""&amp;D4&amp;""" Path="""&amp;F4&amp;D4&amp;""" Type="""&amp;E4&amp;""" Enable="""&amp;G4&amp;""" /&gt;",IF(A4=3,"&lt;/Module&gt;","")))</f>
-        <v xml:space="preserve">  &lt;File Name="nanjing_bg" Path="Cycling/View/nanjing_bg" Type="Image" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="nanjing_bg" Path="Cycling/View/nanjing_bg" Type="Texture" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1552,20 +1550,20 @@
         <v>2</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>52</v>
+        <v>65</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G5" s="12">
         <v>1</v>
       </c>
       <c r="H5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="coord" Path="Cycling/View/coord" Type="Image" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="coord" Path="Cycling/View/coord" Type="Sprite" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1573,20 +1571,20 @@
         <v>2</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>52</v>
+        <v>66</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G6" s="12">
         <v>1</v>
       </c>
       <c r="H6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="location1" Path="Cycling/View/location1" Type="Image" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="location1" Path="Cycling/View/location1" Type="Sprite" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1594,20 +1592,20 @@
         <v>2</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>52</v>
+        <v>67</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G7" s="12">
         <v>1</v>
       </c>
       <c r="H7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="location2" Path="Cycling/View/location2" Type="Image" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="location2" Path="Cycling/View/location2" Type="Sprite" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1615,20 +1613,20 @@
         <v>2</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>52</v>
+        <v>68</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G8" s="12">
         <v>1</v>
       </c>
       <c r="H8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="location3" Path="Cycling/View/location3" Type="Image" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="location3" Path="Cycling/View/location3" Type="Sprite" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1636,20 +1634,20 @@
         <v>2</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="F9" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G9" s="12">
         <v>1</v>
       </c>
       <c r="H9" s="12" t="str">
         <f t="shared" ref="H9:H10" si="1">IF(A9=1,"&lt;Module Name="""&amp;B9&amp;""" Desc="""&amp;C9&amp;"""&gt;",IF(A9=2,"  &lt;File Name="""&amp;D9&amp;""" Path="""&amp;F9&amp;D9&amp;""" Type="""&amp;E9&amp;""" Enable="""&amp;G9&amp;""" /&gt;",IF(A9=3,"&lt;/Module&gt;","")))</f>
-        <v xml:space="preserve">  &lt;File Name="path01" Path="Cycling/View/path01" Type="Image" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="path01" Path="Cycling/View/path01" Type="Texture" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1657,20 +1655,20 @@
         <v>2</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G10" s="12">
         <v>1</v>
       </c>
       <c r="H10" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="path02" Path="Cycling/View/path02" Type="Image" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="path02" Path="Cycling/View/path02" Type="Texture" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1685,11 +1683,11 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576">
-      <formula1>"Imag,Spine"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>"0,1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>"Sprite,Texture,Spine"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -24,8 +24,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Volcano fish</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Sprite - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">用Image显示，后缀名为.png
+Texture1 - 用RawImage显示，后缀名为.png
+Texture2 - 用RawImage显示，后缀名.ab
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="81">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -245,10 +283,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>文件类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>文件路径</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -258,14 +292,6 @@
   </si>
   <si>
     <t>FileName</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FilePath</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -311,10 +337,44 @@
     <t>path02</t>
   </si>
   <si>
-    <t>Texture</t>
-  </si>
-  <si>
     <t>Sprite</t>
+  </si>
+  <si>
+    <t>cycling/nanjing</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件类型</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileType</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>ImagePath</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assetbundle包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture2</t>
+  </si>
+  <si>
+    <t>map4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -324,7 +384,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +475,21 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -835,7 +910,7 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.75" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="6" bestFit="1" customWidth="1"/>
@@ -952,7 +1027,7 @@
       <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.5" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="6" bestFit="1" customWidth="1"/>
@@ -1320,7 +1395,7 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.25" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" style="12" customWidth="1"/>
@@ -1436,28 +1511,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.25" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" style="12" customWidth="1"/>
     <col min="3" max="3" width="9" style="12"/>
     <col min="4" max="4" width="18.25" style="12" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="12"/>
+    <col min="5" max="5" width="14.375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="16" t="s">
         <v>30</v>
       </c>
@@ -1471,226 +1548,287 @@
         <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="18"/>
       <c r="B2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="17">
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" s="15"/>
-      <c r="H3" s="12" t="str">
-        <f>IF(A3=1,"&lt;Module Name="""&amp;B3&amp;""" Desc="""&amp;C3&amp;"""&gt;",IF(A3=2,"  &lt;File Name="""&amp;D3&amp;""" Path="""&amp;F3&amp;D3&amp;""" Type="""&amp;E3&amp;""" Enable="""&amp;G3&amp;""" /&gt;",IF(A3=3,"&lt;/Module&gt;","")))</f>
+      <c r="F3" s="15"/>
+      <c r="J3" s="12" t="str">
+        <f>IF(A3=1,"&lt;Module Name="""&amp;B3&amp;""" Desc="""&amp;C3&amp;"""&gt;",IF(A3=2,"  &lt;Image Name="""&amp;D3&amp;""" FileType="""&amp;F3&amp;""" AB="""&amp;H3&amp;""" Enable="""&amp;I3&amp;""" /&gt;",IF(A3=3,"  &lt;Image Name="""&amp;D3&amp;""" FileType="""&amp;F3&amp;""" Path="""&amp;G3&amp;D3&amp;""" Enable="""&amp;I3&amp;""" /&gt;", IF(A3=4,"&lt;/Module&gt;",""))))</f>
         <v>&lt;Module Name="Cycling" Desc="骑行游戏"&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" s="17">
         <v>2</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12" t="str">
+        <f t="shared" ref="J4:J12" si="0">IF(A4=1,"&lt;Module Name="""&amp;B4&amp;""" Desc="""&amp;C4&amp;"""&gt;",IF(A4=2,"  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" AB="""&amp;H4&amp;""" Enable="""&amp;I4&amp;""" /&gt;",IF(A4=3,"  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" Path="""&amp;G4&amp;D4&amp;""" Enable="""&amp;I4&amp;""" /&gt;", IF(A4=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="nanjing_bg" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="17">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="12">
+        <v>1</v>
+      </c>
+      <c r="J5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="17">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="12">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  &lt;Image Name="location1" FileType="Sprite" Path="Cycling/View/location1" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="17">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="E7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="12">
         <v>1</v>
       </c>
-      <c r="H4" s="12" t="str">
-        <f t="shared" ref="H4:H8" si="0">IF(A4=1,"&lt;Module Name="""&amp;B4&amp;""" Desc="""&amp;C4&amp;"""&gt;",IF(A4=2,"  &lt;File Name="""&amp;D4&amp;""" Path="""&amp;F4&amp;D4&amp;""" Type="""&amp;E4&amp;""" Enable="""&amp;G4&amp;""" /&gt;",IF(A4=3,"&lt;/Module&gt;","")))</f>
-        <v xml:space="preserve">  &lt;File Name="nanjing_bg" Path="Cycling/View/nanjing_bg" Type="Texture" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="17">
-        <v>2</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="J7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  &lt;Image Name="location2" FileType="Sprite" Path="Cycling/View/location2" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="17">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="F8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="12">
         <v>1</v>
       </c>
-      <c r="H5" s="12" t="str">
+      <c r="J8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="coord" Path="Cycling/View/coord" Type="Sprite" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="17">
-        <v>2</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="14" t="s">
+        <v xml:space="preserve">  &lt;Image Name="location3" FileType="Sprite" Path="Cycling/View/location3" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="17">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="F9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="12">
         <v>1</v>
       </c>
-      <c r="H6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="location1" Path="Cycling/View/location1" Type="Sprite" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="17">
-        <v>2</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="12">
-        <v>1</v>
-      </c>
-      <c r="H7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="location2" Path="Cycling/View/location2" Type="Sprite" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="17">
-        <v>2</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="12">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="location3" Path="Cycling/View/location3" Type="Sprite" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="17">
-        <v>2</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="12">
-        <v>1</v>
-      </c>
-      <c r="H9" s="12" t="str">
-        <f t="shared" ref="H9:H10" si="1">IF(A9=1,"&lt;Module Name="""&amp;B9&amp;""" Desc="""&amp;C9&amp;"""&gt;",IF(A9=2,"  &lt;File Name="""&amp;D9&amp;""" Path="""&amp;F9&amp;D9&amp;""" Type="""&amp;E9&amp;""" Enable="""&amp;G9&amp;""" /&gt;",IF(A9=3,"&lt;/Module&gt;","")))</f>
-        <v xml:space="preserve">  &lt;File Name="path01" Path="Cycling/View/path01" Type="Texture" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="J9" s="12" t="str">
+        <f t="shared" ref="J9" si="1">IF(A9=1,"&lt;Module Name="""&amp;B9&amp;""" Desc="""&amp;C9&amp;"""&gt;",IF(A9=2,"  &lt;Image Name="""&amp;D9&amp;""" FileType="""&amp;F9&amp;""" AB="""&amp;H9&amp;""" Enable="""&amp;I9&amp;""" /&gt;",IF(A9=3,"  &lt;Image Name="""&amp;D9&amp;""" FileType="""&amp;F9&amp;""" Path="""&amp;G9&amp;D9&amp;""" Enable="""&amp;I9&amp;""" /&gt;", IF(A9=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="map4" FileType="Sprite" Path="Cycling/View/map4" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="17">
         <v>2</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="12">
+        <v>68</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="12">
         <v>1</v>
       </c>
-      <c r="H10" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="path02" Path="Cycling/View/path02" Type="Texture" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="J10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  &lt;Image Name="path01" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="17">
-        <v>3</v>
-      </c>
-      <c r="H11" s="12" t="str">
-        <f t="shared" ref="H11" si="2">IF(A11=1,"&lt;Module Name="""&amp;B11&amp;""" Desc="""&amp;C11&amp;"""&gt;",IF(A11=2,"  &lt;File Name="""&amp;D11&amp;""" Path="""&amp;F11&amp;D11&amp;""" Type="""&amp;E11&amp;""" Enable="""&amp;G11&amp;""" /&gt;",IF(A11=3,"&lt;/Module&gt;","")))</f>
+        <v>2</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  &lt;Image Name="path02" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="17">
+        <v>4</v>
+      </c>
+      <c r="J12" s="12" t="str">
+        <f t="shared" si="0"/>
         <v>&lt;/Module&gt;</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
-      <formula1>"Sprite,Texture,Spine"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">
+      <formula1>"Single,Package"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
+      <formula1>"Sprite,Texture1,Texture2,Spine"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="90">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -313,16 +313,6 @@
     <t>coord</t>
   </si>
   <si>
-    <t>location1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>location2</t>
-  </si>
-  <si>
-    <t>location3</t>
-  </si>
-  <si>
     <t>Cycling</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -375,6 +365,42 @@
   <si>
     <t>map4</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar06</t>
+  </si>
+  <si>
+    <t>avatar07</t>
+  </si>
+  <si>
+    <t>avatar08</t>
+  </si>
+  <si>
+    <t>avatar09</t>
+  </si>
+  <si>
+    <t>avatar11</t>
+  </si>
+  <si>
+    <t>avatar12</t>
+  </si>
+  <si>
+    <t>food_chicken_small</t>
+  </si>
+  <si>
+    <t>food_flagjuice_small</t>
+  </si>
+  <si>
+    <t>food_opensandwich_small</t>
+  </si>
+  <si>
+    <t>food_ricecakefish_small</t>
+  </si>
+  <si>
+    <t>food_salad_small</t>
+  </si>
+  <si>
+    <t>food_spider_cake_small</t>
   </si>
 </sst>
 </file>
@@ -1511,13 +1537,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1548,16 +1574,16 @@
         <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>59</v>
@@ -1578,16 +1604,16 @@
         <v>57</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>51</v>
@@ -1601,10 +1627,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D3" s="13"/>
       <c r="F3" s="15"/>
@@ -1621,19 +1647,19 @@
         <v>61</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I4" s="12">
         <v>1</v>
       </c>
       <c r="J4" s="12" t="str">
-        <f t="shared" ref="J4:J12" si="0">IF(A4=1,"&lt;Module Name="""&amp;B4&amp;""" Desc="""&amp;C4&amp;"""&gt;",IF(A4=2,"  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" AB="""&amp;H4&amp;""" Enable="""&amp;I4&amp;""" /&gt;",IF(A4=3,"  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" Path="""&amp;G4&amp;D4&amp;""" Enable="""&amp;I4&amp;""" /&gt;", IF(A4=4,"&lt;/Module&gt;",""))))</f>
+        <f t="shared" ref="J4:J21" si="0">IF(A4=1,"&lt;Module Name="""&amp;B4&amp;""" Desc="""&amp;C4&amp;"""&gt;",IF(A4=2,"  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" AB="""&amp;H4&amp;""" Enable="""&amp;I4&amp;""" /&gt;",IF(A4=3,"  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" Path="""&amp;G4&amp;D4&amp;""" Enable="""&amp;I4&amp;""" /&gt;", IF(A4=4,"&lt;/Module&gt;",""))))</f>
         <v xml:space="preserve">  &lt;Image Name="nanjing_bg" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
       </c>
     </row>
@@ -1645,10 +1671,10 @@
         <v>62</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>60</v>
@@ -1666,13 +1692,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>60</v>
@@ -1682,7 +1708,7 @@
       </c>
       <c r="J6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="location1" FileType="Sprite" Path="Cycling/View/location1" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="avatar06" FileType="Sprite" Path="Cycling/View/avatar06" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1690,13 +1716,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>60</v>
@@ -1706,7 +1732,7 @@
       </c>
       <c r="J7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="location2" FileType="Sprite" Path="Cycling/View/location2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="avatar07" FileType="Sprite" Path="Cycling/View/avatar07" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1714,13 +1740,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>60</v>
@@ -1730,7 +1756,7 @@
       </c>
       <c r="J8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="location3" FileType="Sprite" Path="Cycling/View/location3" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="avatar08" FileType="Sprite" Path="Cycling/View/avatar08" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1738,13 +1764,13 @@
         <v>3</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>60</v>
@@ -1753,63 +1779,279 @@
         <v>1</v>
       </c>
       <c r="J9" s="12" t="str">
-        <f t="shared" ref="J9" si="1">IF(A9=1,"&lt;Module Name="""&amp;B9&amp;""" Desc="""&amp;C9&amp;"""&gt;",IF(A9=2,"  &lt;Image Name="""&amp;D9&amp;""" FileType="""&amp;F9&amp;""" AB="""&amp;H9&amp;""" Enable="""&amp;I9&amp;""" /&gt;",IF(A9=3,"  &lt;Image Name="""&amp;D9&amp;""" FileType="""&amp;F9&amp;""" Path="""&amp;G9&amp;D9&amp;""" Enable="""&amp;I9&amp;""" /&gt;", IF(A9=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="map4" FileType="Sprite" Path="Cycling/View/map4" Enable="1" /&gt;</v>
+        <f t="shared" ref="J9:J14" si="1">IF(A9=1,"&lt;Module Name="""&amp;B9&amp;""" Desc="""&amp;C9&amp;"""&gt;",IF(A9=2,"  &lt;Image Name="""&amp;D9&amp;""" FileType="""&amp;F9&amp;""" AB="""&amp;H9&amp;""" Enable="""&amp;I9&amp;""" /&gt;",IF(A9=3,"  &lt;Image Name="""&amp;D9&amp;""" FileType="""&amp;F9&amp;""" Path="""&amp;G9&amp;D9&amp;""" Enable="""&amp;I9&amp;""" /&gt;", IF(A9=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="avatar09" FileType="Sprite" Path="Cycling/View/avatar09" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="I10" s="12">
         <v>1</v>
       </c>
       <c r="J10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="avatar11" FileType="Sprite" Path="Cycling/View/avatar11" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="17">
+        <v>3</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="avatar12" FileType="Sprite" Path="Cycling/View/avatar12" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="17">
+        <v>3</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="food_chicken_small" FileType="Sprite" Path="Cycling/View/food_chicken_small" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="17">
+        <v>3</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1</v>
+      </c>
+      <c r="J13" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="food_flagjuice_small" FileType="Sprite" Path="Cycling/View/food_flagjuice_small" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="17">
+        <v>3</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1</v>
+      </c>
+      <c r="J14" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="food_opensandwich_small" FileType="Sprite" Path="Cycling/View/food_opensandwich_small" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="17">
+        <v>3</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="12">
+        <v>1</v>
+      </c>
+      <c r="J15" s="12" t="str">
+        <f t="shared" ref="J15:J17" si="2">IF(A15=1,"&lt;Module Name="""&amp;B15&amp;""" Desc="""&amp;C15&amp;"""&gt;",IF(A15=2,"  &lt;Image Name="""&amp;D15&amp;""" FileType="""&amp;F15&amp;""" AB="""&amp;H15&amp;""" Enable="""&amp;I15&amp;""" /&gt;",IF(A15=3,"  &lt;Image Name="""&amp;D15&amp;""" FileType="""&amp;F15&amp;""" Path="""&amp;G15&amp;D15&amp;""" Enable="""&amp;I15&amp;""" /&gt;", IF(A15=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="food_ricecakefish_small" FileType="Sprite" Path="Cycling/View/food_ricecakefish_small" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="17">
+        <v>3</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="12">
+        <v>1</v>
+      </c>
+      <c r="J16" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="food_salad_small" FileType="Sprite" Path="Cycling/View/food_salad_small" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="17">
+        <v>3</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="12">
+        <v>1</v>
+      </c>
+      <c r="J17" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="food_spider_cake_small" FileType="Sprite" Path="Cycling/View/food_spider_cake_small" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="17">
+        <v>3</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="12">
+        <v>1</v>
+      </c>
+      <c r="J18" s="12" t="str">
+        <f t="shared" ref="J18" si="3">IF(A18=1,"&lt;Module Name="""&amp;B18&amp;""" Desc="""&amp;C18&amp;"""&gt;",IF(A18=2,"  &lt;Image Name="""&amp;D18&amp;""" FileType="""&amp;F18&amp;""" AB="""&amp;H18&amp;""" Enable="""&amp;I18&amp;""" /&gt;",IF(A18=3,"  &lt;Image Name="""&amp;D18&amp;""" FileType="""&amp;F18&amp;""" Path="""&amp;G18&amp;D18&amp;""" Enable="""&amp;I18&amp;""" /&gt;", IF(A18=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="map4" FileType="Sprite" Path="Cycling/View/map4" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="17">
+        <v>2</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="12">
+        <v>1</v>
+      </c>
+      <c r="J19" s="12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="path01" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="17">
+    <row r="20" spans="1:10">
+      <c r="A20" s="17">
         <v>2</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="12">
+      <c r="D20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="12">
         <v>1</v>
       </c>
-      <c r="J11" s="12" t="str">
+      <c r="J20" s="12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="path02" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="17">
+    <row r="21" spans="1:10">
+      <c r="A21" s="17">
         <v>4</v>
       </c>
-      <c r="J12" s="12" t="str">
+      <c r="J21" s="12" t="str">
         <f t="shared" si="0"/>
         <v>&lt;/Module&gt;</v>
       </c>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -936,7 +936,7 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="6.75" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="6" bestFit="1" customWidth="1"/>
@@ -1053,7 +1053,7 @@
       <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="8.5" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="6" bestFit="1" customWidth="1"/>
@@ -1421,7 +1421,7 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="5.25" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" style="12" customWidth="1"/>
@@ -1543,20 +1543,18 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="5.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="9" style="12"/>
-    <col min="4" max="4" width="18.25" style="12" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="22.625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="12" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
@@ -1635,7 +1633,7 @@
       <c r="D3" s="13"/>
       <c r="F3" s="15"/>
       <c r="J3" s="12" t="str">
-        <f>IF(A3=1,"&lt;Module Name="""&amp;B3&amp;""" Desc="""&amp;C3&amp;"""&gt;",IF(A3=2,"  &lt;Image Name="""&amp;D3&amp;""" FileType="""&amp;F3&amp;""" AB="""&amp;H3&amp;""" Enable="""&amp;I3&amp;""" /&gt;",IF(A3=3,"  &lt;Image Name="""&amp;D3&amp;""" FileType="""&amp;F3&amp;""" Path="""&amp;G3&amp;D3&amp;""" Enable="""&amp;I3&amp;""" /&gt;", IF(A3=4,"&lt;/Module&gt;",""))))</f>
+        <f>IF(A3=1,"&lt;Module Name="""&amp;B3&amp;""" Desc="""&amp;C3&amp;"""&gt;",IF(E3="Package","  &lt;Image Name="""&amp;D3&amp;""" FileType="""&amp;F3&amp;""" AB="""&amp;H3&amp;""" Enable="""&amp;I3&amp;""" /&gt;",IF(E3="Single","  &lt;Image Name="""&amp;D3&amp;""" FileType="""&amp;F3&amp;""" Path="""&amp;G3&amp;D3&amp;""" Enable="""&amp;I3&amp;""" /&gt;", IF(A3=4,"&lt;/Module&gt;",""))))</f>
         <v>&lt;Module Name="Cycling" Desc="骑行游戏"&gt;</v>
       </c>
     </row>
@@ -1659,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="12" t="str">
-        <f t="shared" ref="J4:J21" si="0">IF(A4=1,"&lt;Module Name="""&amp;B4&amp;""" Desc="""&amp;C4&amp;"""&gt;",IF(A4=2,"  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" AB="""&amp;H4&amp;""" Enable="""&amp;I4&amp;""" /&gt;",IF(A4=3,"  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" Path="""&amp;G4&amp;D4&amp;""" Enable="""&amp;I4&amp;""" /&gt;", IF(A4=4,"&lt;/Module&gt;",""))))</f>
+        <f t="shared" ref="J4:J21" si="0">IF(A4=1,"&lt;Module Name="""&amp;B4&amp;""" Desc="""&amp;C4&amp;"""&gt;",IF(E4="Package","  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" AB="""&amp;H4&amp;""" Enable="""&amp;I4&amp;""" /&gt;",IF(E4="Single","  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" Path="""&amp;G4&amp;D4&amp;""" Enable="""&amp;I4&amp;""" /&gt;", IF(A4=4,"&lt;/Module&gt;",""))))</f>
         <v xml:space="preserve">  &lt;Image Name="nanjing_bg" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
       </c>
     </row>
@@ -1779,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="12" t="str">
-        <f t="shared" ref="J9:J14" si="1">IF(A9=1,"&lt;Module Name="""&amp;B9&amp;""" Desc="""&amp;C9&amp;"""&gt;",IF(A9=2,"  &lt;Image Name="""&amp;D9&amp;""" FileType="""&amp;F9&amp;""" AB="""&amp;H9&amp;""" Enable="""&amp;I9&amp;""" /&gt;",IF(A9=3,"  &lt;Image Name="""&amp;D9&amp;""" FileType="""&amp;F9&amp;""" Path="""&amp;G9&amp;D9&amp;""" Enable="""&amp;I9&amp;""" /&gt;", IF(A9=4,"&lt;/Module&gt;",""))))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="avatar09" FileType="Sprite" Path="Cycling/View/avatar09" Enable="1" /&gt;</v>
       </c>
     </row>
@@ -1803,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="avatar11" FileType="Sprite" Path="Cycling/View/avatar11" Enable="1" /&gt;</v>
       </c>
     </row>
@@ -1827,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="avatar12" FileType="Sprite" Path="Cycling/View/avatar12" Enable="1" /&gt;</v>
       </c>
     </row>
@@ -1851,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="food_chicken_small" FileType="Sprite" Path="Cycling/View/food_chicken_small" Enable="1" /&gt;</v>
       </c>
     </row>
@@ -1875,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="food_flagjuice_small" FileType="Sprite" Path="Cycling/View/food_flagjuice_small" Enable="1" /&gt;</v>
       </c>
     </row>
@@ -1899,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="food_opensandwich_small" FileType="Sprite" Path="Cycling/View/food_opensandwich_small" Enable="1" /&gt;</v>
       </c>
     </row>
@@ -1923,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="12" t="str">
-        <f t="shared" ref="J15:J17" si="2">IF(A15=1,"&lt;Module Name="""&amp;B15&amp;""" Desc="""&amp;C15&amp;"""&gt;",IF(A15=2,"  &lt;Image Name="""&amp;D15&amp;""" FileType="""&amp;F15&amp;""" AB="""&amp;H15&amp;""" Enable="""&amp;I15&amp;""" /&gt;",IF(A15=3,"  &lt;Image Name="""&amp;D15&amp;""" FileType="""&amp;F15&amp;""" Path="""&amp;G15&amp;D15&amp;""" Enable="""&amp;I15&amp;""" /&gt;", IF(A15=4,"&lt;/Module&gt;",""))))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="food_ricecakefish_small" FileType="Sprite" Path="Cycling/View/food_ricecakefish_small" Enable="1" /&gt;</v>
       </c>
     </row>
@@ -1947,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="food_salad_small" FileType="Sprite" Path="Cycling/View/food_salad_small" Enable="1" /&gt;</v>
       </c>
     </row>
@@ -1971,32 +1969,35 @@
         <v>1</v>
       </c>
       <c r="J17" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="food_spider_cake_small" FileType="Sprite" Path="Cycling/View/food_spider_cake_small" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>77</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>60</v>
       </c>
+      <c r="H18" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="I18" s="12">
         <v>1</v>
       </c>
       <c r="J18" s="12" t="str">
-        <f t="shared" ref="J18" si="3">IF(A18=1,"&lt;Module Name="""&amp;B18&amp;""" Desc="""&amp;C18&amp;"""&gt;",IF(A18=2,"  &lt;Image Name="""&amp;D18&amp;""" FileType="""&amp;F18&amp;""" AB="""&amp;H18&amp;""" Enable="""&amp;I18&amp;""" /&gt;",IF(A18=3,"  &lt;Image Name="""&amp;D18&amp;""" FileType="""&amp;F18&amp;""" Path="""&amp;G18&amp;D18&amp;""" Enable="""&amp;I18&amp;""" /&gt;", IF(A18=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="map4" FileType="Sprite" Path="Cycling/View/map4" Enable="1" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  &lt;Image Name="map4" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:10">

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="136">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -321,12 +321,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>path01</t>
-  </si>
-  <si>
-    <t>path02</t>
-  </si>
-  <si>
     <t>Sprite</t>
   </si>
   <si>
@@ -334,14 +328,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>文件类型</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileType</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Single</t>
   </si>
   <si>
@@ -363,44 +349,202 @@
     <t>Texture2</t>
   </si>
   <si>
-    <t>map4</t>
+    <t>food_chicken_small</t>
+  </si>
+  <si>
+    <t>food_flagjuice_small</t>
+  </si>
+  <si>
+    <t>food_opensandwich_small</t>
+  </si>
+  <si>
+    <t>food_ricecakefish_small</t>
+  </si>
+  <si>
+    <t>food_salad_small</t>
+  </si>
+  <si>
+    <t>food_spider_cake_small</t>
+  </si>
+  <si>
+    <t>Common</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>avatar06</t>
-  </si>
-  <si>
-    <t>avatar07</t>
-  </si>
-  <si>
-    <t>avatar08</t>
-  </si>
-  <si>
-    <t>avatar09</t>
-  </si>
-  <si>
-    <t>avatar11</t>
-  </si>
-  <si>
-    <t>avatar12</t>
-  </si>
-  <si>
-    <t>food_chicken_small</t>
-  </si>
-  <si>
-    <t>food_flagjuice_small</t>
-  </si>
-  <si>
-    <t>food_opensandwich_small</t>
-  </si>
-  <si>
-    <t>food_ricecakefish_small</t>
-  </si>
-  <si>
-    <t>food_salad_small</t>
-  </si>
-  <si>
-    <t>food_spider_cake_small</t>
+    <t>公共资源</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>Common/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>app-icon-avatar-a001</t>
+  </si>
+  <si>
+    <t>app-icon-avatar-a002</t>
+  </si>
+  <si>
+    <t>app-icon-avatar-a003</t>
+  </si>
+  <si>
+    <t>app-icon-avatar-a004</t>
+  </si>
+  <si>
+    <t>app-icon-avatar-a005</t>
+  </si>
+  <si>
+    <t>app-icon-avatar-a006</t>
+  </si>
+  <si>
+    <t>app-icon-avatar-a007</t>
+  </si>
+  <si>
+    <t>app-icon-avatar-a008</t>
+  </si>
+  <si>
+    <t>app-icon-avatar-a009</t>
+  </si>
+  <si>
+    <t>app-icon-avatar-a010</t>
+  </si>
+  <si>
+    <t>app-icon-avatar-a011</t>
+  </si>
+  <si>
+    <t>app-icon-avatar-a012</t>
+  </si>
+  <si>
+    <t>app-icon-avatar-a013</t>
+  </si>
+  <si>
+    <t>app-icon-avatar-a014</t>
+  </si>
+  <si>
+    <t>app-icon-avatar-p0001</t>
+  </si>
+  <si>
+    <t>app-icon-avatar-p0002</t>
+  </si>
+  <si>
+    <t>app-icon-avatar-p0003</t>
+  </si>
+  <si>
+    <t>app-icon-avatar-p0004</t>
+  </si>
+  <si>
+    <t>app-icon-avatar-p0005</t>
+  </si>
+  <si>
+    <t>app-icon-avatar-p0006</t>
+  </si>
+  <si>
+    <t>app-icon-avatar-p0007</t>
+  </si>
+  <si>
+    <t>app-icon-avatar-p0008</t>
+  </si>
+  <si>
+    <t>app-icon-avatar-p0009</t>
+  </si>
+  <si>
+    <t>app-icon-avatar-p0010</t>
+  </si>
+  <si>
+    <t>Common/Avatar/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>coin_border</t>
+  </si>
+  <si>
+    <t>coord2</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>hp_border</t>
+  </si>
+  <si>
+    <t>nanjing_demo</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>pop_border1</t>
+  </si>
+  <si>
+    <t>pop_border2</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>scenicspot_highlight</t>
+  </si>
+  <si>
+    <t>scenicspot_normal</t>
+  </si>
+  <si>
+    <t>site_highlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site_normal </t>
+  </si>
+  <si>
+    <t>site_normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stars_highlight </t>
+  </si>
+  <si>
+    <t xml:space="preserve">start_normal </t>
+  </si>
+  <si>
+    <t>ticket _highlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ticket_normal </t>
+  </si>
+  <si>
+    <t>timer</t>
+  </si>
+  <si>
+    <t>title_border</t>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileType2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileType1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件类型1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件类型2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -559,7 +703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -609,6 +753,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -616,7 +763,21 @@
     <cellStyle name="常规 2 2" xfId="1"/>
     <cellStyle name="常规 2 2 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1033,7 +1194,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1402,7 +1563,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1537,13 +1698,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1551,10 +1712,10 @@
     <col min="1" max="1" width="5.25" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.5" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.375" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.125" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
@@ -1572,18 +1733,18 @@
         <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1591,7 +1752,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="18"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="6" t="s">
         <v>56</v>
       </c>
@@ -1602,18 +1763,18 @@
         <v>57</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>51</v>
       </c>
       <c r="J2" s="12" t="s">
@@ -1621,453 +1782,1548 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="17">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="J3" s="12" t="str">
         <f>IF(A3=1,"&lt;Module Name="""&amp;B3&amp;""" Desc="""&amp;C3&amp;"""&gt;",IF(E3="Package","  &lt;Image Name="""&amp;D3&amp;""" FileType="""&amp;F3&amp;""" AB="""&amp;H3&amp;""" Enable="""&amp;I3&amp;""" /&gt;",IF(E3="Single","  &lt;Image Name="""&amp;D3&amp;""" FileType="""&amp;F3&amp;""" Path="""&amp;G3&amp;D3&amp;""" Enable="""&amp;I3&amp;""" /&gt;", IF(A3=4,"&lt;/Module&gt;",""))))</f>
-        <v>&lt;Module Name="Cycling" Desc="骑行游戏"&gt;</v>
+        <v>&lt;Module Name="Common" Desc="公共资源"&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="17">
-        <v>2</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>61</v>
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="12">
+        <v>65</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="17">
         <v>1</v>
       </c>
       <c r="J4" s="12" t="str">
-        <f t="shared" ref="J4:J21" si="0">IF(A4=1,"&lt;Module Name="""&amp;B4&amp;""" Desc="""&amp;C4&amp;"""&gt;",IF(E4="Package","  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" AB="""&amp;H4&amp;""" Enable="""&amp;I4&amp;""" /&gt;",IF(E4="Single","  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" Path="""&amp;G4&amp;D4&amp;""" Enable="""&amp;I4&amp;""" /&gt;", IF(A4=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="nanjing_bg" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
+        <f t="shared" ref="J4:J29" si="0">IF(A4=1,"&lt;Module Name="""&amp;B4&amp;""" Desc="""&amp;C4&amp;"""&gt;",IF(E4="Package","  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" AB="""&amp;H4&amp;""" Enable="""&amp;I4&amp;""" /&gt;",IF(E4="Single","  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" Path="""&amp;G4&amp;D4&amp;""" Enable="""&amp;I4&amp;""" /&gt;", IF(A4=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="white" FileType="Sprite" Path="Common/white" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="17">
-        <v>3</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>62</v>
+      <c r="A5" s="19">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="12">
+        <v>65</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="17">
         <v>1</v>
       </c>
       <c r="J5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a001" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a001" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="17">
-        <v>3</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>78</v>
+      <c r="A6" s="19">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="12">
+        <v>65</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="17">
         <v>1</v>
       </c>
       <c r="J6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="avatar06" FileType="Sprite" Path="Cycling/View/avatar06" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a002" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a002" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="17">
-        <v>3</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>79</v>
+      <c r="A7" s="19">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="12">
+        <v>65</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="17">
         <v>1</v>
       </c>
       <c r="J7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="avatar07" FileType="Sprite" Path="Cycling/View/avatar07" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a003" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a003" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="17">
-        <v>3</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>80</v>
+      <c r="A8" s="19">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="12">
+        <v>65</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="17">
         <v>1</v>
       </c>
       <c r="J8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="avatar08" FileType="Sprite" Path="Cycling/View/avatar08" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a004" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a004" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="17">
-        <v>3</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>81</v>
+      <c r="A9" s="19">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="12">
+        <v>65</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="17">
         <v>1</v>
       </c>
       <c r="J9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="avatar09" FileType="Sprite" Path="Cycling/View/avatar09" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a005" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a005" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="17">
-        <v>3</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>82</v>
+      <c r="A10" s="19">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="12">
+        <v>65</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="17">
         <v>1</v>
       </c>
       <c r="J10" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="avatar11" FileType="Sprite" Path="Cycling/View/avatar11" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a006" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a006" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="17">
-        <v>3</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>83</v>
+      <c r="A11" s="19">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="12">
+        <v>65</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="17">
         <v>1</v>
       </c>
       <c r="J11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="avatar12" FileType="Sprite" Path="Cycling/View/avatar12" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a007" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a007" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="17">
-        <v>3</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>84</v>
+      <c r="A12" s="19">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="12">
+        <v>65</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="17">
         <v>1</v>
       </c>
       <c r="J12" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="food_chicken_small" FileType="Sprite" Path="Cycling/View/food_chicken_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a008" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a008" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="17">
-        <v>3</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>85</v>
+      <c r="A13" s="19">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="12">
+        <v>65</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="17">
         <v>1</v>
       </c>
       <c r="J13" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="food_flagjuice_small" FileType="Sprite" Path="Cycling/View/food_flagjuice_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a009" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a009" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="17">
-        <v>3</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>86</v>
+      <c r="A14" s="19">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="12">
+        <v>65</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="17">
         <v>1</v>
       </c>
       <c r="J14" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="food_opensandwich_small" FileType="Sprite" Path="Cycling/View/food_opensandwich_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a010" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a010" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="17">
-        <v>3</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>87</v>
+      <c r="A15" s="19">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="12">
+        <v>65</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="17">
         <v>1</v>
       </c>
       <c r="J15" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="food_ricecakefish_small" FileType="Sprite" Path="Cycling/View/food_ricecakefish_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a011" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a011" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="17">
-        <v>3</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>88</v>
+      <c r="A16" s="19">
+        <v>3</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="12">
+        <v>65</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="17">
         <v>1</v>
       </c>
       <c r="J16" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="food_salad_small" FileType="Sprite" Path="Cycling/View/food_salad_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a012" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a012" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="17">
-        <v>3</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>89</v>
+      <c r="A17" s="19">
+        <v>3</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="12">
+        <v>65</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="17">
         <v>1</v>
       </c>
       <c r="J17" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="food_spider_cake_small" FileType="Sprite" Path="Cycling/View/food_spider_cake_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a013" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a013" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="17">
-        <v>2</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>77</v>
+      <c r="A18" s="19">
+        <v>3</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18" s="12">
+        <v>65</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="17">
         <v>1</v>
       </c>
       <c r="J18" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="map4" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a014" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a014" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="17">
-        <v>2</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>65</v>
+      <c r="A19" s="19">
+        <v>3</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" s="12">
+        <v>65</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="17">
         <v>1</v>
       </c>
       <c r="J19" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="path01" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0001" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0001" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="17">
-        <v>2</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>66</v>
+      <c r="A20" s="19">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" s="12">
+        <v>65</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="17">
         <v>1</v>
       </c>
       <c r="J20" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="path02" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0002" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0002" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="17">
-        <v>4</v>
+      <c r="A21" s="19">
+        <v>3</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="17">
+        <v>1</v>
       </c>
       <c r="J21" s="12" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0003" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0003" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="19">
+        <v>3</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="17">
+        <v>1</v>
+      </c>
+      <c r="J22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0004" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0004" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="19">
+        <v>3</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="17">
+        <v>1</v>
+      </c>
+      <c r="J23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0005" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0005" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="19">
+        <v>3</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="17">
+        <v>1</v>
+      </c>
+      <c r="J24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0006" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0006" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="19">
+        <v>3</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="17">
+        <v>1</v>
+      </c>
+      <c r="J25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0007" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0007" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="19">
+        <v>3</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="17">
+        <v>1</v>
+      </c>
+      <c r="J26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0008" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0008" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="19">
+        <v>3</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="17">
+        <v>1</v>
+      </c>
+      <c r="J27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0009" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0009" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="19">
+        <v>3</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="17">
+        <v>1</v>
+      </c>
+      <c r="J28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0010" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0010" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="19">
+        <v>4</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="J29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;/Module&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="17">
+        <v>1</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="F30" s="15"/>
+      <c r="J30" s="12" t="str">
+        <f>IF(A30=1,"&lt;Module Name="""&amp;B30&amp;""" Desc="""&amp;C30&amp;"""&gt;",IF(E30="Package","  &lt;Image Name="""&amp;D30&amp;""" FileType="""&amp;F30&amp;""" AB="""&amp;H30&amp;""" Enable="""&amp;I30&amp;""" /&gt;",IF(E30="Single","  &lt;Image Name="""&amp;D30&amp;""" FileType="""&amp;F30&amp;""" Path="""&amp;G30&amp;D30&amp;""" Enable="""&amp;I30&amp;""" /&gt;", IF(A30=4,"&lt;/Module&gt;",""))))</f>
+        <v>&lt;Module Name="Cycling" Desc="骑行游戏"&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="17">
+        <v>2</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="17">
+        <v>1</v>
+      </c>
+      <c r="J31" s="12" t="str">
+        <f t="shared" ref="J31:J64" si="1">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="nanjing_bg" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="17">
+        <v>2</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" s="17">
+        <v>1</v>
+      </c>
+      <c r="J32" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="path" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="17">
+        <v>3</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33" s="17">
+        <v>1</v>
+      </c>
+      <c r="J33" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="back" FileType="Sprite" Path="Cycling/View/back" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="17">
+        <v>3</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" s="17">
+        <v>1</v>
+      </c>
+      <c r="J34" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="book" FileType="Sprite" Path="Cycling/View/book" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="17">
+        <v>3</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" s="17">
+        <v>1</v>
+      </c>
+      <c r="J35" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="17">
+        <v>3</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" s="17">
+        <v>1</v>
+      </c>
+      <c r="J36" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="17">
+        <v>3</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" s="17">
+        <v>1</v>
+      </c>
+      <c r="J37" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="coord2" FileType="Sprite" Path="Cycling/View/coord2" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="17">
+        <v>3</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="17">
+        <v>1</v>
+      </c>
+      <c r="J38" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="effect" FileType="Sprite" Path="Cycling/View/effect" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="17">
+        <v>3</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" s="17">
+        <v>1</v>
+      </c>
+      <c r="J39" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="food_chicken_small" FileType="Sprite" Path="Cycling/View/food_chicken_small" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="17">
+        <v>3</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I40" s="17">
+        <v>1</v>
+      </c>
+      <c r="J40" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="food_flagjuice_small" FileType="Sprite" Path="Cycling/View/food_flagjuice_small" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="17">
+        <v>3</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" s="17">
+        <v>1</v>
+      </c>
+      <c r="J41" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="food_opensandwich_small" FileType="Sprite" Path="Cycling/View/food_opensandwich_small" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="17">
+        <v>3</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I42" s="17">
+        <v>1</v>
+      </c>
+      <c r="J42" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="food_ricecakefish_small" FileType="Sprite" Path="Cycling/View/food_ricecakefish_small" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="17">
+        <v>3</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I43" s="17">
+        <v>1</v>
+      </c>
+      <c r="J43" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="food_salad_small" FileType="Sprite" Path="Cycling/View/food_salad_small" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="17">
+        <v>3</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="17">
+        <v>1</v>
+      </c>
+      <c r="J44" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="food_spider_cake_small" FileType="Sprite" Path="Cycling/View/food_spider_cake_small" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="17">
+        <v>3</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I45" s="17">
+        <v>1</v>
+      </c>
+      <c r="J45" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="17">
+        <v>3</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I46" s="17">
+        <v>1</v>
+      </c>
+      <c r="J46" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="17">
+        <v>3</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I47" s="17">
+        <v>1</v>
+      </c>
+      <c r="J47" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="nanjing_bg" FileType="Sprite" Path="Cycling/View/nanjing_bg" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="17">
+        <v>3</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I48" s="17">
+        <v>1</v>
+      </c>
+      <c r="J48" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="nanjing_demo" FileType="Sprite" Path="Cycling/View/nanjing_demo" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="17">
+        <v>3</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I49" s="17">
+        <v>1</v>
+      </c>
+      <c r="J49" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="path" FileType="Sprite" Path="Cycling/View/path" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="17">
+        <v>3</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I50" s="17">
+        <v>1</v>
+      </c>
+      <c r="J50" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="17">
+        <v>3</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I51" s="17">
+        <v>1</v>
+      </c>
+      <c r="J51" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="17">
+        <v>3</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I52" s="17">
+        <v>1</v>
+      </c>
+      <c r="J52" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="17">
+        <v>3</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I53" s="17">
+        <v>1</v>
+      </c>
+      <c r="J53" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="17">
+        <v>3</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I54" s="17">
+        <v>1</v>
+      </c>
+      <c r="J54" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="17">
+        <v>3</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I55" s="17">
+        <v>1</v>
+      </c>
+      <c r="J55" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="17">
+        <v>3</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I56" s="17">
+        <v>1</v>
+      </c>
+      <c r="J56" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="site_normal " FileType="Sprite" Path="Cycling/View/site_normal " Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="17">
+        <v>3</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I57" s="17">
+        <v>1</v>
+      </c>
+      <c r="J57" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="17">
+        <v>3</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I58" s="17">
+        <v>1</v>
+      </c>
+      <c r="J58" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="17">
+        <v>3</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I59" s="17">
+        <v>1</v>
+      </c>
+      <c r="J59" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="17">
+        <v>3</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I60" s="17">
+        <v>1</v>
+      </c>
+      <c r="J60" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="17">
+        <v>3</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I61" s="17">
+        <v>1</v>
+      </c>
+      <c r="J61" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="17">
+        <v>3</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I62" s="17">
+        <v>1</v>
+      </c>
+      <c r="J62" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="17">
+        <v>3</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I63" s="17">
+        <v>1</v>
+      </c>
+      <c r="J63" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="17">
+        <v>4</v>
+      </c>
+      <c r="J64" s="12" t="str">
+        <f t="shared" si="1"/>
         <v>&lt;/Module&gt;</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I30:I1048576">
       <formula1>"0,1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F28 F30:F1048576">
+      <formula1>"Sprite,Texture1,Texture2,Spine"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">
       <formula1>"Single,Package"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
-      <formula1>"Sprite,Texture1,Texture2,Spine"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="137">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -545,6 +545,10 @@
   <si>
     <t>文件类型2</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cycling/Map/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -763,14 +767,7 @@
     <cellStyle name="常规 2 2" xfId="1"/>
     <cellStyle name="常规 2 2 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1194,7 +1191,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1563,7 +1560,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1701,10 +1698,10 @@
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2560,7 +2557,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>67</v>
@@ -2569,14 +2566,14 @@
         <v>65</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="I33" s="17">
         <v>1</v>
       </c>
       <c r="J33" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="back" FileType="Sprite" Path="Cycling/View/back" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="nanjing_bg" FileType="Sprite" Path="Cycling/Map/nanjing_bg" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2584,7 +2581,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>67</v>
@@ -2593,14 +2590,14 @@
         <v>65</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="I34" s="17">
         <v>1</v>
       </c>
       <c r="J34" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="book" FileType="Sprite" Path="Cycling/View/book" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="nanjing_demo" FileType="Sprite" Path="Cycling/Map/nanjing_demo" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2608,7 +2605,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>67</v>
@@ -2617,14 +2614,14 @@
         <v>65</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="I35" s="17">
         <v>1</v>
       </c>
       <c r="J35" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="path" FileType="Sprite" Path="Cycling/Map/path" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2632,7 +2629,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>67</v>
@@ -2648,7 +2645,7 @@
       </c>
       <c r="J36" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="back" FileType="Sprite" Path="Cycling/View/back" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2656,7 +2653,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>67</v>
@@ -2672,7 +2669,7 @@
       </c>
       <c r="J37" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="coord2" FileType="Sprite" Path="Cycling/View/coord2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="book" FileType="Sprite" Path="Cycling/View/book" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2680,7 +2677,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>67</v>
@@ -2696,7 +2693,7 @@
       </c>
       <c r="J38" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="effect" FileType="Sprite" Path="Cycling/View/effect" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2704,7 +2701,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>67</v>
@@ -2720,7 +2717,7 @@
       </c>
       <c r="J39" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="food_chicken_small" FileType="Sprite" Path="Cycling/View/food_chicken_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2728,7 +2725,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>67</v>
@@ -2744,7 +2741,7 @@
       </c>
       <c r="J40" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="food_flagjuice_small" FileType="Sprite" Path="Cycling/View/food_flagjuice_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coord2" FileType="Sprite" Path="Cycling/View/coord2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2752,7 +2749,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>67</v>
@@ -2768,7 +2765,7 @@
       </c>
       <c r="J41" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="food_opensandwich_small" FileType="Sprite" Path="Cycling/View/food_opensandwich_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="effect" FileType="Sprite" Path="Cycling/View/effect" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2776,7 +2773,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>67</v>
@@ -2792,7 +2789,7 @@
       </c>
       <c r="J42" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="food_ricecakefish_small" FileType="Sprite" Path="Cycling/View/food_ricecakefish_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="food_chicken_small" FileType="Sprite" Path="Cycling/View/food_chicken_small" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2800,7 +2797,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>67</v>
@@ -2816,7 +2813,7 @@
       </c>
       <c r="J43" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="food_salad_small" FileType="Sprite" Path="Cycling/View/food_salad_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="food_flagjuice_small" FileType="Sprite" Path="Cycling/View/food_flagjuice_small" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2824,7 +2821,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>67</v>
@@ -2840,7 +2837,7 @@
       </c>
       <c r="J44" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="food_spider_cake_small" FileType="Sprite" Path="Cycling/View/food_spider_cake_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="food_opensandwich_small" FileType="Sprite" Path="Cycling/View/food_opensandwich_small" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2848,7 +2845,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>67</v>
@@ -2864,7 +2861,7 @@
       </c>
       <c r="J45" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="food_ricecakefish_small" FileType="Sprite" Path="Cycling/View/food_ricecakefish_small" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2872,7 +2869,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>67</v>
@@ -2888,7 +2885,7 @@
       </c>
       <c r="J46" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="food_salad_small" FileType="Sprite" Path="Cycling/View/food_salad_small" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2896,7 +2893,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>67</v>
@@ -2912,7 +2909,7 @@
       </c>
       <c r="J47" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="nanjing_bg" FileType="Sprite" Path="Cycling/View/nanjing_bg" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="food_spider_cake_small" FileType="Sprite" Path="Cycling/View/food_spider_cake_small" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2920,7 +2917,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>67</v>
@@ -2936,7 +2933,7 @@
       </c>
       <c r="J48" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="nanjing_demo" FileType="Sprite" Path="Cycling/View/nanjing_demo" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2944,7 +2941,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>67</v>
@@ -2960,7 +2957,7 @@
       </c>
       <c r="J49" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="path" FileType="Sprite" Path="Cycling/View/path" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3311,15 +3308,15 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I30:I1048576">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F28 F30:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30:F1048576 F4:F28">
       <formula1>"Sprite,Texture1,Texture2,Spine"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="133">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -470,18 +470,12 @@
     <t>coord2</t>
   </si>
   <si>
-    <t>effect</t>
-  </si>
-  <si>
     <t>go</t>
   </si>
   <si>
     <t>hp_border</t>
   </si>
   <si>
-    <t>nanjing_demo</t>
-  </si>
-  <si>
     <t>path</t>
   </si>
   <si>
@@ -525,10 +519,6 @@
   </si>
   <si>
     <t>title_border</t>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>FileType2</t>
@@ -545,10 +535,6 @@
   <si>
     <t>文件类型2</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cycling/Map/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1695,13 +1681,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A65" sqref="A65"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1730,10 +1716,10 @@
         <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>55</v>
@@ -1760,10 +1746,10 @@
         <v>57</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>69</v>
@@ -2524,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="12" t="str">
-        <f t="shared" ref="J31:J64" si="1">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
+        <f t="shared" ref="J31:J60" si="1">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
         <v xml:space="preserve">  &lt;Image Name="nanjing_bg" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
       </c>
     </row>
@@ -2533,7 +2519,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>68</v>
@@ -2557,7 +2543,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>67</v>
@@ -2566,14 +2552,14 @@
         <v>65</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="I33" s="17">
         <v>1</v>
       </c>
       <c r="J33" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="nanjing_bg" FileType="Sprite" Path="Cycling/Map/nanjing_bg" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="back" FileType="Sprite" Path="Cycling/View/back" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2581,7 +2567,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>67</v>
@@ -2590,14 +2576,14 @@
         <v>65</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="I34" s="17">
         <v>1</v>
       </c>
       <c r="J34" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="nanjing_demo" FileType="Sprite" Path="Cycling/Map/nanjing_demo" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="book" FileType="Sprite" Path="Cycling/View/book" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2605,7 +2591,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>67</v>
@@ -2614,14 +2600,14 @@
         <v>65</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="I35" s="17">
         <v>1</v>
       </c>
       <c r="J35" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="path" FileType="Sprite" Path="Cycling/Map/path" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2629,7 +2615,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>67</v>
@@ -2645,7 +2631,7 @@
       </c>
       <c r="J36" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="back" FileType="Sprite" Path="Cycling/View/back" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2653,7 +2639,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>67</v>
@@ -2669,7 +2655,7 @@
       </c>
       <c r="J37" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="book" FileType="Sprite" Path="Cycling/View/book" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coord2" FileType="Sprite" Path="Cycling/View/coord2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2677,7 +2663,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>67</v>
@@ -2693,7 +2679,7 @@
       </c>
       <c r="J38" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="food_chicken_small" FileType="Sprite" Path="Cycling/View/food_chicken_small" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2701,7 +2687,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>67</v>
@@ -2717,7 +2703,7 @@
       </c>
       <c r="J39" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="food_flagjuice_small" FileType="Sprite" Path="Cycling/View/food_flagjuice_small" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2725,7 +2711,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>67</v>
@@ -2741,7 +2727,7 @@
       </c>
       <c r="J40" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="coord2" FileType="Sprite" Path="Cycling/View/coord2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="food_opensandwich_small" FileType="Sprite" Path="Cycling/View/food_opensandwich_small" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2749,7 +2735,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>67</v>
@@ -2765,7 +2751,7 @@
       </c>
       <c r="J41" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="effect" FileType="Sprite" Path="Cycling/View/effect" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="food_ricecakefish_small" FileType="Sprite" Path="Cycling/View/food_ricecakefish_small" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2773,7 +2759,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>67</v>
@@ -2789,7 +2775,7 @@
       </c>
       <c r="J42" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="food_chicken_small" FileType="Sprite" Path="Cycling/View/food_chicken_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="food_salad_small" FileType="Sprite" Path="Cycling/View/food_salad_small" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2797,7 +2783,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>67</v>
@@ -2813,7 +2799,7 @@
       </c>
       <c r="J43" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="food_flagjuice_small" FileType="Sprite" Path="Cycling/View/food_flagjuice_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="food_spider_cake_small" FileType="Sprite" Path="Cycling/View/food_spider_cake_small" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2821,7 +2807,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>67</v>
@@ -2837,7 +2823,7 @@
       </c>
       <c r="J44" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="food_opensandwich_small" FileType="Sprite" Path="Cycling/View/food_opensandwich_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2845,7 +2831,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>67</v>
@@ -2861,7 +2847,7 @@
       </c>
       <c r="J45" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="food_ricecakefish_small" FileType="Sprite" Path="Cycling/View/food_ricecakefish_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2869,7 +2855,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>67</v>
@@ -2885,7 +2871,7 @@
       </c>
       <c r="J46" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="food_salad_small" FileType="Sprite" Path="Cycling/View/food_salad_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2893,7 +2879,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>67</v>
@@ -2909,7 +2895,7 @@
       </c>
       <c r="J47" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="food_spider_cake_small" FileType="Sprite" Path="Cycling/View/food_spider_cake_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2917,7 +2903,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>67</v>
@@ -2933,7 +2919,7 @@
       </c>
       <c r="J48" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2941,7 +2927,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>67</v>
@@ -2957,7 +2943,7 @@
       </c>
       <c r="J49" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2965,7 +2951,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>67</v>
@@ -2981,7 +2967,7 @@
       </c>
       <c r="J50" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2989,7 +2975,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>67</v>
@@ -3005,7 +2991,7 @@
       </c>
       <c r="J51" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3013,7 +2999,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>67</v>
@@ -3029,7 +3015,7 @@
       </c>
       <c r="J52" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_normal " FileType="Sprite" Path="Cycling/View/site_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3037,7 +3023,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>67</v>
@@ -3053,7 +3039,7 @@
       </c>
       <c r="J53" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3061,7 +3047,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>67</v>
@@ -3077,7 +3063,7 @@
       </c>
       <c r="J54" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3085,7 +3071,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>67</v>
@@ -3101,7 +3087,7 @@
       </c>
       <c r="J55" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3109,7 +3095,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>67</v>
@@ -3125,7 +3111,7 @@
       </c>
       <c r="J56" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal " FileType="Sprite" Path="Cycling/View/site_normal " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3133,7 +3119,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>67</v>
@@ -3149,7 +3135,7 @@
       </c>
       <c r="J57" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3157,7 +3143,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>67</v>
@@ -3173,7 +3159,7 @@
       </c>
       <c r="J58" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3181,7 +3167,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>67</v>
@@ -3197,110 +3183,14 @@
       </c>
       <c r="J59" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="17">
-        <v>3</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I60" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J60" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="17">
-        <v>3</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I61" s="17">
-        <v>1</v>
-      </c>
-      <c r="J61" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="17">
-        <v>3</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I62" s="17">
-        <v>1</v>
-      </c>
-      <c r="J62" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="17">
-        <v>3</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I63" s="17">
-        <v>1</v>
-      </c>
-      <c r="J63" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="17">
-        <v>4</v>
-      </c>
-      <c r="J64" s="12" t="str">
         <f t="shared" si="1"/>
         <v>&lt;/Module&gt;</v>
       </c>
@@ -3316,7 +3206,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I30:I1048576">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30:F1048576 F4:F28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F28 F30:F1048576">
       <formula1>"Sprite,Texture1,Texture2,Spine"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="132">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -495,9 +495,6 @@
   </si>
   <si>
     <t>site_highlight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site_normal </t>
   </si>
   <si>
     <t>site_normal</t>
@@ -1681,13 +1678,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30:XFD30"/>
+      <selection pane="bottomRight" activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1716,10 +1713,10 @@
         <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>55</v>
@@ -1746,10 +1743,10 @@
         <v>57</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>69</v>
@@ -2510,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="12" t="str">
-        <f t="shared" ref="J31:J60" si="1">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
+        <f t="shared" ref="J31:J59" si="1">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
         <v xml:space="preserve">  &lt;Image Name="nanjing_bg" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
       </c>
     </row>
@@ -3015,7 +3012,7 @@
       </c>
       <c r="J52" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal " FileType="Sprite" Path="Cycling/View/site_normal " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3039,7 +3036,7 @@
       </c>
       <c r="J53" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3063,7 +3060,7 @@
       </c>
       <c r="J54" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3087,7 +3084,7 @@
       </c>
       <c r="J55" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3111,7 +3108,7 @@
       </c>
       <c r="J56" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3135,7 +3132,7 @@
       </c>
       <c r="J57" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3159,38 +3156,14 @@
       </c>
       <c r="J58" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="17">
-        <v>3</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I59" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J59" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="17">
-        <v>4</v>
-      </c>
-      <c r="J60" s="12" t="str">
         <f t="shared" si="1"/>
         <v>&lt;/Module&gt;</v>
       </c>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="130">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -349,24 +349,6 @@
     <t>Texture2</t>
   </si>
   <si>
-    <t>food_chicken_small</t>
-  </si>
-  <si>
-    <t>food_flagjuice_small</t>
-  </si>
-  <si>
-    <t>food_opensandwich_small</t>
-  </si>
-  <si>
-    <t>food_ricecakefish_small</t>
-  </si>
-  <si>
-    <t>food_salad_small</t>
-  </si>
-  <si>
-    <t>food_spider_cake_small</t>
-  </si>
-  <si>
     <t>Common</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -375,13 +357,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>Common/</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>app-icon-avatar-a001</t>
   </si>
   <si>
@@ -532,6 +507,24 @@
   <si>
     <t>文件类型2</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_back1</t>
+  </si>
+  <si>
+    <t>card_back2</t>
+  </si>
+  <si>
+    <t>card_bg</t>
+  </si>
+  <si>
+    <t>card_place</t>
+  </si>
+  <si>
+    <t>card_return</t>
+  </si>
+  <si>
+    <t>site_normal2</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1070,7 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.75" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="6" bestFit="1" customWidth="1"/>
@@ -1194,7 +1187,7 @@
       <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.5" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="6" bestFit="1" customWidth="1"/>
@@ -1562,7 +1555,7 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.25" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" style="12" customWidth="1"/>
@@ -1678,16 +1671,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A52" sqref="A52:XFD52"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.25" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.5" style="12" bestFit="1" customWidth="1"/>
@@ -1713,10 +1706,10 @@
         <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>55</v>
@@ -1743,10 +1736,10 @@
         <v>57</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>69</v>
@@ -1766,10 +1759,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D3" s="6"/>
       <c r="F3" s="6"/>
@@ -1787,7 +1780,7 @@
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>67</v>
@@ -1796,15 +1789,15 @@
         <v>65</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="17">
         <v>1</v>
       </c>
       <c r="J4" s="12" t="str">
-        <f t="shared" ref="J4:J29" si="0">IF(A4=1,"&lt;Module Name="""&amp;B4&amp;""" Desc="""&amp;C4&amp;"""&gt;",IF(E4="Package","  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" AB="""&amp;H4&amp;""" Enable="""&amp;I4&amp;""" /&gt;",IF(E4="Single","  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" Path="""&amp;G4&amp;D4&amp;""" Enable="""&amp;I4&amp;""" /&gt;", IF(A4=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="white" FileType="Sprite" Path="Common/white" Enable="1" /&gt;</v>
+        <f t="shared" ref="J4:J28" si="0">IF(A4=1,"&lt;Module Name="""&amp;B4&amp;""" Desc="""&amp;C4&amp;"""&gt;",IF(E4="Package","  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" AB="""&amp;H4&amp;""" Enable="""&amp;I4&amp;""" /&gt;",IF(E4="Single","  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" Path="""&amp;G4&amp;D4&amp;""" Enable="""&amp;I4&amp;""" /&gt;", IF(A4=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a001" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a001" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1814,7 +1807,7 @@
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>67</v>
@@ -1823,7 +1816,7 @@
         <v>65</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="17">
@@ -1831,7 +1824,7 @@
       </c>
       <c r="J5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a001" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a001" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a002" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a002" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1841,7 +1834,7 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>67</v>
@@ -1850,7 +1843,7 @@
         <v>65</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="17">
@@ -1858,7 +1851,7 @@
       </c>
       <c r="J6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a002" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a002" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a003" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a003" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1868,7 +1861,7 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>67</v>
@@ -1877,7 +1870,7 @@
         <v>65</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="17">
@@ -1885,7 +1878,7 @@
       </c>
       <c r="J7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a003" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a003" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a004" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a004" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1895,7 +1888,7 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>67</v>
@@ -1904,7 +1897,7 @@
         <v>65</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="17">
@@ -1912,7 +1905,7 @@
       </c>
       <c r="J8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a004" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a004" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a005" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a005" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1922,7 +1915,7 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>67</v>
@@ -1931,7 +1924,7 @@
         <v>65</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="17">
@@ -1939,7 +1932,7 @@
       </c>
       <c r="J9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a005" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a005" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a006" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a006" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1949,7 +1942,7 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>67</v>
@@ -1958,7 +1951,7 @@
         <v>65</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="17">
@@ -1966,7 +1959,7 @@
       </c>
       <c r="J10" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a006" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a006" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a007" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a007" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1976,7 +1969,7 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>67</v>
@@ -1985,7 +1978,7 @@
         <v>65</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="17">
@@ -1993,7 +1986,7 @@
       </c>
       <c r="J11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a007" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a007" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a008" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a008" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2003,7 +1996,7 @@
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>67</v>
@@ -2012,7 +2005,7 @@
         <v>65</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="17">
@@ -2020,7 +2013,7 @@
       </c>
       <c r="J12" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a008" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a008" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a009" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a009" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2030,7 +2023,7 @@
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>67</v>
@@ -2039,7 +2032,7 @@
         <v>65</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="17">
@@ -2047,7 +2040,7 @@
       </c>
       <c r="J13" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a009" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a009" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a010" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a010" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2057,7 +2050,7 @@
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>67</v>
@@ -2066,7 +2059,7 @@
         <v>65</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="17">
@@ -2074,7 +2067,7 @@
       </c>
       <c r="J14" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a010" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a010" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a011" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a011" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2084,7 +2077,7 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>67</v>
@@ -2093,7 +2086,7 @@
         <v>65</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="17">
@@ -2101,7 +2094,7 @@
       </c>
       <c r="J15" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a011" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a011" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a012" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a012" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2111,7 +2104,7 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>67</v>
@@ -2120,7 +2113,7 @@
         <v>65</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="17">
@@ -2128,7 +2121,7 @@
       </c>
       <c r="J16" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a012" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a012" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a013" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a013" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2138,7 +2131,7 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>67</v>
@@ -2147,7 +2140,7 @@
         <v>65</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="17">
@@ -2155,7 +2148,7 @@
       </c>
       <c r="J17" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a013" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a013" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a014" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a014" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2165,7 +2158,7 @@
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>67</v>
@@ -2174,7 +2167,7 @@
         <v>65</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="17">
@@ -2182,7 +2175,7 @@
       </c>
       <c r="J18" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a014" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a014" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0001" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0001" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2192,7 +2185,7 @@
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>67</v>
@@ -2201,7 +2194,7 @@
         <v>65</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="17">
@@ -2209,7 +2202,7 @@
       </c>
       <c r="J19" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0001" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0001" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0002" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0002" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2219,7 +2212,7 @@
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>67</v>
@@ -2228,7 +2221,7 @@
         <v>65</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="17">
@@ -2236,7 +2229,7 @@
       </c>
       <c r="J20" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0002" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0002" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0003" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0003" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2246,16 +2239,16 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="17">
@@ -2263,7 +2256,7 @@
       </c>
       <c r="J21" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0003" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0003" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0004" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0004" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2273,7 +2266,7 @@
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>67</v>
@@ -2282,7 +2275,7 @@
         <v>65</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="17">
@@ -2290,7 +2283,7 @@
       </c>
       <c r="J22" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0004" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0004" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0005" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0005" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2300,7 +2293,7 @@
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>67</v>
@@ -2309,7 +2302,7 @@
         <v>65</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="17">
@@ -2317,7 +2310,7 @@
       </c>
       <c r="J23" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0005" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0005" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0006" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0006" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2327,7 +2320,7 @@
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>67</v>
@@ -2336,7 +2329,7 @@
         <v>65</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="17">
@@ -2344,7 +2337,7 @@
       </c>
       <c r="J24" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0006" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0006" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0007" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0007" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2354,7 +2347,7 @@
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>67</v>
@@ -2363,7 +2356,7 @@
         <v>65</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="17">
@@ -2371,7 +2364,7 @@
       </c>
       <c r="J25" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0007" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0007" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0008" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0008" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2381,7 +2374,7 @@
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>67</v>
@@ -2390,7 +2383,7 @@
         <v>65</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="17">
@@ -2398,7 +2391,7 @@
       </c>
       <c r="J26" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0008" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0008" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0009" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0009" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2408,7 +2401,7 @@
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>67</v>
@@ -2417,7 +2410,7 @@
         <v>65</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="17">
@@ -2425,66 +2418,63 @@
       </c>
       <c r="J27" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0009" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0009" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0010" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0010" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="D28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="17">
-        <v>1</v>
-      </c>
       <c r="J28" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0010" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0010" Enable="1" /&gt;</v>
+        <v>&lt;/Module&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="19">
-        <v>4</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="A29" s="17">
+        <v>1</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="F29" s="15"/>
       <c r="J29" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;/Module&gt;</v>
+        <f>IF(A29=1,"&lt;Module Name="""&amp;B29&amp;""" Desc="""&amp;C29&amp;"""&gt;",IF(E29="Package","  &lt;Image Name="""&amp;D29&amp;""" FileType="""&amp;F29&amp;""" AB="""&amp;H29&amp;""" Enable="""&amp;I29&amp;""" /&gt;",IF(E29="Single","  &lt;Image Name="""&amp;D29&amp;""" FileType="""&amp;F29&amp;""" Path="""&amp;G29&amp;D29&amp;""" Enable="""&amp;I29&amp;""" /&gt;", IF(A29=4,"&lt;/Module&gt;",""))))</f>
+        <v>&lt;Module Name="Cycling" Desc="骑行游戏"&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="17">
-        <v>1</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="F30" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="17">
+        <v>1</v>
+      </c>
       <c r="J30" s="12" t="str">
-        <f>IF(A30=1,"&lt;Module Name="""&amp;B30&amp;""" Desc="""&amp;C30&amp;"""&gt;",IF(E30="Package","  &lt;Image Name="""&amp;D30&amp;""" FileType="""&amp;F30&amp;""" AB="""&amp;H30&amp;""" Enable="""&amp;I30&amp;""" /&gt;",IF(E30="Single","  &lt;Image Name="""&amp;D30&amp;""" FileType="""&amp;F30&amp;""" Path="""&amp;G30&amp;D30&amp;""" Enable="""&amp;I30&amp;""" /&gt;", IF(A30=4,"&lt;/Module&gt;",""))))</f>
-        <v>&lt;Module Name="Cycling" Desc="骑行游戏"&gt;</v>
+        <f t="shared" ref="J30:J58" si="1">IF(A30=1,"&lt;Module Name="""&amp;B30&amp;""" Desc="""&amp;C30&amp;"""&gt;",IF(E30="Package","  &lt;Image Name="""&amp;D30&amp;""" FileType="""&amp;F30&amp;""" AB="""&amp;H30&amp;""" Enable="""&amp;I30&amp;""" /&gt;",IF(E30="Single","  &lt;Image Name="""&amp;D30&amp;""" FileType="""&amp;F30&amp;""" Path="""&amp;G30&amp;D30&amp;""" Enable="""&amp;I30&amp;""" /&gt;", IF(A30=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="nanjing_bg" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2492,7 +2482,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>68</v>
@@ -2507,32 +2497,32 @@
         <v>1</v>
       </c>
       <c r="J31" s="12" t="str">
-        <f t="shared" ref="J31:J59" si="1">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="nanjing_bg" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="path" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="I32" s="17">
         <v>1</v>
       </c>
       <c r="J32" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="path" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="back" FileType="Sprite" Path="Cycling/View/back" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2540,7 +2530,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>67</v>
@@ -2556,7 +2546,7 @@
       </c>
       <c r="J33" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="back" FileType="Sprite" Path="Cycling/View/back" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="book" FileType="Sprite" Path="Cycling/View/book" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2564,7 +2554,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>67</v>
@@ -2580,7 +2570,7 @@
       </c>
       <c r="J34" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="book" FileType="Sprite" Path="Cycling/View/book" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_back1" FileType="Sprite" Path="Cycling/View/card_back1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2588,7 +2578,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>67</v>
@@ -2604,7 +2594,7 @@
       </c>
       <c r="J35" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_back2" FileType="Sprite" Path="Cycling/View/card_back2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2612,7 +2602,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>67</v>
@@ -2628,7 +2618,7 @@
       </c>
       <c r="J36" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_bg" FileType="Sprite" Path="Cycling/View/card_bg" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2636,7 +2626,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>67</v>
@@ -2652,7 +2642,7 @@
       </c>
       <c r="J37" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="coord2" FileType="Sprite" Path="Cycling/View/coord2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_place" FileType="Sprite" Path="Cycling/View/card_place" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2660,7 +2650,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>67</v>
@@ -2676,7 +2666,7 @@
       </c>
       <c r="J38" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="food_chicken_small" FileType="Sprite" Path="Cycling/View/food_chicken_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_return" FileType="Sprite" Path="Cycling/View/card_return" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2684,7 +2674,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>67</v>
@@ -2700,7 +2690,7 @@
       </c>
       <c r="J39" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="food_flagjuice_small" FileType="Sprite" Path="Cycling/View/food_flagjuice_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2708,7 +2698,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>67</v>
@@ -2724,7 +2714,7 @@
       </c>
       <c r="J40" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="food_opensandwich_small" FileType="Sprite" Path="Cycling/View/food_opensandwich_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2732,7 +2722,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>67</v>
@@ -2748,7 +2738,7 @@
       </c>
       <c r="J41" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="food_ricecakefish_small" FileType="Sprite" Path="Cycling/View/food_ricecakefish_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coord2" FileType="Sprite" Path="Cycling/View/coord2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2756,7 +2746,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>67</v>
@@ -2772,7 +2762,7 @@
       </c>
       <c r="J42" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="food_salad_small" FileType="Sprite" Path="Cycling/View/food_salad_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2780,7 +2770,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>67</v>
@@ -2796,7 +2786,7 @@
       </c>
       <c r="J43" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="food_spider_cake_small" FileType="Sprite" Path="Cycling/View/food_spider_cake_small" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2804,7 +2794,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>67</v>
@@ -2820,7 +2810,7 @@
       </c>
       <c r="J44" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2828,7 +2818,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>67</v>
@@ -2844,7 +2834,7 @@
       </c>
       <c r="J45" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2852,7 +2842,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>67</v>
@@ -2868,7 +2858,7 @@
       </c>
       <c r="J46" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2876,7 +2866,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>67</v>
@@ -2892,7 +2882,7 @@
       </c>
       <c r="J47" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2900,7 +2890,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>67</v>
@@ -2916,7 +2906,7 @@
       </c>
       <c r="J48" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2924,7 +2914,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>67</v>
@@ -2940,7 +2930,7 @@
       </c>
       <c r="J49" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2948,7 +2938,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>67</v>
@@ -2964,7 +2954,7 @@
       </c>
       <c r="J50" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2972,7 +2962,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>67</v>
@@ -2988,7 +2978,7 @@
       </c>
       <c r="J51" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2996,7 +2986,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>67</v>
@@ -3012,7 +3002,7 @@
       </c>
       <c r="J52" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3020,7 +3010,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>67</v>
@@ -3036,7 +3026,7 @@
       </c>
       <c r="J53" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3044,7 +3034,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>67</v>
@@ -3060,7 +3050,7 @@
       </c>
       <c r="J54" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3068,7 +3058,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>67</v>
@@ -3084,7 +3074,7 @@
       </c>
       <c r="J55" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3092,7 +3082,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>67</v>
@@ -3108,7 +3098,7 @@
       </c>
       <c r="J56" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3116,7 +3106,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>67</v>
@@ -3132,38 +3122,14 @@
       </c>
       <c r="J57" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="17">
-        <v>3</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I58" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J58" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="17">
-        <v>4</v>
-      </c>
-      <c r="J59" s="12" t="str">
         <f t="shared" si="1"/>
         <v>&lt;/Module&gt;</v>
       </c>
@@ -3176,10 +3142,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I30:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I29:I1048576">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F28 F30:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F29:F1048576 F4:F27">
       <formula1>"Sprite,Texture1,Texture2,Spine"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="131">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -525,6 +525,9 @@
   </si>
   <si>
     <t>site_normal2</t>
+  </si>
+  <si>
+    <t>bg_circle</t>
   </si>
 </sst>
 </file>
@@ -743,7 +746,14 @@
     <cellStyle name="常规 2 2" xfId="1"/>
     <cellStyle name="常规 2 2 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1167,7 +1177,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1536,7 +1546,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1671,13 +1681,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29:XFD29"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1796,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="12" t="str">
-        <f t="shared" ref="J4:J28" si="0">IF(A4=1,"&lt;Module Name="""&amp;B4&amp;""" Desc="""&amp;C4&amp;"""&gt;",IF(E4="Package","  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" AB="""&amp;H4&amp;""" Enable="""&amp;I4&amp;""" /&gt;",IF(E4="Single","  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" Path="""&amp;G4&amp;D4&amp;""" Enable="""&amp;I4&amp;""" /&gt;", IF(A4=4,"&lt;/Module&gt;",""))))</f>
+        <f t="shared" ref="J4:J29" si="0">IF(A4=1,"&lt;Module Name="""&amp;B4&amp;""" Desc="""&amp;C4&amp;"""&gt;",IF(E4="Package","  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" AB="""&amp;H4&amp;""" Enable="""&amp;I4&amp;""" /&gt;",IF(E4="Single","  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" Path="""&amp;G4&amp;D4&amp;""" Enable="""&amp;I4&amp;""" /&gt;", IF(A4=4,"&lt;/Module&gt;",""))))</f>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a001" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a001" Enable="1" /&gt;</v>
       </c>
     </row>
@@ -2423,58 +2433,61 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="H28" s="6"/>
+      <c r="I28" s="17">
+        <v>1</v>
+      </c>
       <c r="J28" s="12" t="str">
+        <f t="shared" ref="J28" si="1">IF(A28=1,"&lt;Module Name="""&amp;B28&amp;""" Desc="""&amp;C28&amp;"""&gt;",IF(E28="Package","  &lt;Image Name="""&amp;D28&amp;""" FileType="""&amp;F28&amp;""" AB="""&amp;H28&amp;""" Enable="""&amp;I28&amp;""" /&gt;",IF(E28="Single","  &lt;Image Name="""&amp;D28&amp;""" FileType="""&amp;F28&amp;""" Path="""&amp;G28&amp;D28&amp;""" Enable="""&amp;I28&amp;""" /&gt;", IF(A28=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="bg_circle" FileType="Sprite" Path="Common/Avatar/bg_circle" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="19">
+        <v>4</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="J29" s="12" t="str">
         <f t="shared" si="0"/>
         <v>&lt;/Module&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="17">
-        <v>1</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="F29" s="15"/>
-      <c r="J29" s="12" t="str">
-        <f>IF(A29=1,"&lt;Module Name="""&amp;B29&amp;""" Desc="""&amp;C29&amp;"""&gt;",IF(E29="Package","  &lt;Image Name="""&amp;D29&amp;""" FileType="""&amp;F29&amp;""" AB="""&amp;H29&amp;""" Enable="""&amp;I29&amp;""" /&gt;",IF(E29="Single","  &lt;Image Name="""&amp;D29&amp;""" FileType="""&amp;F29&amp;""" Path="""&amp;G29&amp;D29&amp;""" Enable="""&amp;I29&amp;""" /&gt;", IF(A29=4,"&lt;/Module&gt;",""))))</f>
-        <v>&lt;Module Name="Cycling" Desc="骑行游戏"&gt;</v>
-      </c>
-    </row>
     <row r="30" spans="1:10">
       <c r="A30" s="17">
-        <v>2</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="17">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="F30" s="15"/>
       <c r="J30" s="12" t="str">
-        <f t="shared" ref="J30:J58" si="1">IF(A30=1,"&lt;Module Name="""&amp;B30&amp;""" Desc="""&amp;C30&amp;"""&gt;",IF(E30="Package","  &lt;Image Name="""&amp;D30&amp;""" FileType="""&amp;F30&amp;""" AB="""&amp;H30&amp;""" Enable="""&amp;I30&amp;""" /&gt;",IF(E30="Single","  &lt;Image Name="""&amp;D30&amp;""" FileType="""&amp;F30&amp;""" Path="""&amp;G30&amp;D30&amp;""" Enable="""&amp;I30&amp;""" /&gt;", IF(A30=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="nanjing_bg" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
+        <f>IF(A30=1,"&lt;Module Name="""&amp;B30&amp;""" Desc="""&amp;C30&amp;"""&gt;",IF(E30="Package","  &lt;Image Name="""&amp;D30&amp;""" FileType="""&amp;F30&amp;""" AB="""&amp;H30&amp;""" Enable="""&amp;I30&amp;""" /&gt;",IF(E30="Single","  &lt;Image Name="""&amp;D30&amp;""" FileType="""&amp;F30&amp;""" Path="""&amp;G30&amp;D30&amp;""" Enable="""&amp;I30&amp;""" /&gt;", IF(A30=4,"&lt;/Module&gt;",""))))</f>
+        <v>&lt;Module Name="Cycling" Desc="骑行游戏"&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2482,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>68</v>
@@ -2497,32 +2510,32 @@
         <v>1</v>
       </c>
       <c r="J31" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="path" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
+        <f t="shared" ref="J31:J59" si="2">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="nanjing_bg" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="I32" s="17">
         <v>1</v>
       </c>
       <c r="J32" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="back" FileType="Sprite" Path="Cycling/View/back" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="path" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2530,7 +2543,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>67</v>
@@ -2545,8 +2558,8 @@
         <v>1</v>
       </c>
       <c r="J33" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="book" FileType="Sprite" Path="Cycling/View/book" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="back" FileType="Sprite" Path="Cycling/View/back" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2554,7 +2567,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>67</v>
@@ -2569,8 +2582,8 @@
         <v>1</v>
       </c>
       <c r="J34" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="card_back1" FileType="Sprite" Path="Cycling/View/card_back1" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="book" FileType="Sprite" Path="Cycling/View/book" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2578,7 +2591,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>67</v>
@@ -2593,8 +2606,8 @@
         <v>1</v>
       </c>
       <c r="J35" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="card_back2" FileType="Sprite" Path="Cycling/View/card_back2" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="card_back1" FileType="Sprite" Path="Cycling/View/card_back1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2602,7 +2615,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>67</v>
@@ -2617,8 +2630,8 @@
         <v>1</v>
       </c>
       <c r="J36" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="card_bg" FileType="Sprite" Path="Cycling/View/card_bg" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="card_back2" FileType="Sprite" Path="Cycling/View/card_back2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2626,7 +2639,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>67</v>
@@ -2641,8 +2654,8 @@
         <v>1</v>
       </c>
       <c r="J37" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="card_place" FileType="Sprite" Path="Cycling/View/card_place" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="card_bg" FileType="Sprite" Path="Cycling/View/card_bg" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2650,7 +2663,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>67</v>
@@ -2665,8 +2678,8 @@
         <v>1</v>
       </c>
       <c r="J38" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="card_return" FileType="Sprite" Path="Cycling/View/card_return" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="card_place" FileType="Sprite" Path="Cycling/View/card_place" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2674,7 +2687,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>67</v>
@@ -2689,8 +2702,8 @@
         <v>1</v>
       </c>
       <c r="J39" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="card_return" FileType="Sprite" Path="Cycling/View/card_return" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2698,7 +2711,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>67</v>
@@ -2713,8 +2726,8 @@
         <v>1</v>
       </c>
       <c r="J40" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2722,7 +2735,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>67</v>
@@ -2737,8 +2750,8 @@
         <v>1</v>
       </c>
       <c r="J41" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="coord2" FileType="Sprite" Path="Cycling/View/coord2" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2746,7 +2759,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>67</v>
@@ -2761,8 +2774,8 @@
         <v>1</v>
       </c>
       <c r="J42" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="coord2" FileType="Sprite" Path="Cycling/View/coord2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2770,7 +2783,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>67</v>
@@ -2785,8 +2798,8 @@
         <v>1</v>
       </c>
       <c r="J43" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2794,7 +2807,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>67</v>
@@ -2809,8 +2822,8 @@
         <v>1</v>
       </c>
       <c r="J44" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2818,7 +2831,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>67</v>
@@ -2833,8 +2846,8 @@
         <v>1</v>
       </c>
       <c r="J45" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2842,7 +2855,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>67</v>
@@ -2857,8 +2870,8 @@
         <v>1</v>
       </c>
       <c r="J46" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2866,7 +2879,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>67</v>
@@ -2881,8 +2894,8 @@
         <v>1</v>
       </c>
       <c r="J47" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2890,7 +2903,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>67</v>
@@ -2905,8 +2918,8 @@
         <v>1</v>
       </c>
       <c r="J48" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2914,7 +2927,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>67</v>
@@ -2929,8 +2942,8 @@
         <v>1</v>
       </c>
       <c r="J49" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2938,7 +2951,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>67</v>
@@ -2953,8 +2966,8 @@
         <v>1</v>
       </c>
       <c r="J50" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2962,7 +2975,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>67</v>
@@ -2977,8 +2990,8 @@
         <v>1</v>
       </c>
       <c r="J51" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2986,7 +2999,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>67</v>
@@ -3001,8 +3014,8 @@
         <v>1</v>
       </c>
       <c r="J52" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3010,7 +3023,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>67</v>
@@ -3025,8 +3038,8 @@
         <v>1</v>
       </c>
       <c r="J53" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3034,7 +3047,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>67</v>
@@ -3049,8 +3062,8 @@
         <v>1</v>
       </c>
       <c r="J54" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3058,7 +3071,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>67</v>
@@ -3073,8 +3086,8 @@
         <v>1</v>
       </c>
       <c r="J55" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3082,7 +3095,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>67</v>
@@ -3097,8 +3110,8 @@
         <v>1</v>
       </c>
       <c r="J56" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3106,7 +3119,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>67</v>
@@ -3121,31 +3134,55 @@
         <v>1</v>
       </c>
       <c r="J57" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="17">
+        <v>3</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I58" s="17">
+        <v>1</v>
+      </c>
+      <c r="J58" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="17">
         <v>4</v>
       </c>
-      <c r="J58" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J59" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>&lt;/Module&gt;</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I29:I1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I30:I1048576">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F29:F1048576 F4:F27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30:F1048576 F4:F28">
       <formula1>"Sprite,Texture1,Texture2,Spine"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="26" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="149">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -169,10 +169,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Texture/Map/Scenic</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>江苏01</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -442,9 +438,6 @@
     <t>coin_border</t>
   </si>
   <si>
-    <t>coord2</t>
-  </si>
-  <si>
     <t>go</t>
   </si>
   <si>
@@ -528,6 +521,76 @@
   </si>
   <si>
     <t>bg_circle</t>
+  </si>
+  <si>
+    <t>coord_friend</t>
+  </si>
+  <si>
+    <t>Cycling/Site/NanJing/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_nanjing02</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_nanjing03</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_nanjing04</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_nanjing05</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_nanjing06</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_nanjing07</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_nanjing08</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_nanjing09</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_nanjing01</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NanJing/card_nanjing01</t>
+  </si>
+  <si>
+    <t>NanJing/card_nanjing02</t>
+  </si>
+  <si>
+    <t>NanJing/card_nanjing03</t>
+  </si>
+  <si>
+    <t>NanJing/card_nanjing04</t>
+  </si>
+  <si>
+    <t>NanJing/card_nanjing05</t>
+  </si>
+  <si>
+    <t>NanJing/card_nanjing06</t>
+  </si>
+  <si>
+    <t>NanJing/card_nanjing07</t>
+  </si>
+  <si>
+    <t>NanJing/card_nanjing08</t>
+  </si>
+  <si>
+    <t>NanJing/card_nanjing09</t>
   </si>
 </sst>
 </file>
@@ -746,14 +809,7 @@
     <cellStyle name="常规 2 2" xfId="1"/>
     <cellStyle name="常规 2 2 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1080,7 +1136,7 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="6.75" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="6" bestFit="1" customWidth="1"/>
@@ -1113,7 +1169,7 @@
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1135,19 +1191,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1155,7 +1211,7 @@
         <v>320101</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="6">
         <v>32</v>
@@ -1177,7 +1233,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1189,20 +1245,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
       <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="8.5" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="8" customWidth="1"/>
     <col min="6" max="6" width="0.875" style="6" customWidth="1"/>
     <col min="7" max="7" width="93.625" style="6" bestFit="1" customWidth="1"/>
@@ -1211,7 +1267,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -1227,7 +1283,7 @@
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1243,7 +1299,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
@@ -1272,8 +1328,8 @@
       <c r="C3" s="6">
         <v>320101</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>26</v>
+      <c r="D3" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="E3" s="8" t="str">
         <f>B3&amp;"介绍"</f>
@@ -1282,7 +1338,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="6" t="str">
         <f>"&lt;Scenic ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" MapID="""&amp;C3&amp;""" Image="""&amp;D3&amp;""" Text="""&amp;E3&amp;""" /&gt;"</f>
-        <v>&lt;Scenic ID="32010101" Name="中山陵" MapID="320101" Image="Texture/Map/Scenic" Text="中山陵介绍" /&gt;</v>
+        <v>&lt;Scenic ID="32010101" Name="中山陵" MapID="320101" Image="NanJing/card_nanjing01" Text="中山陵介绍" /&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1295,8 +1351,8 @@
       <c r="C4" s="6">
         <v>320101</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>26</v>
+      <c r="D4" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="E4" s="8" t="str">
         <f t="shared" ref="E4:E10" si="0">B4&amp;"介绍"</f>
@@ -1305,7 +1361,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="6" t="str">
         <f t="shared" ref="G4:G10" si="1">"&lt;Scenic ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" MapID="""&amp;C4&amp;""" Image="""&amp;D4&amp;""" Text="""&amp;E4&amp;""" /&gt;"</f>
-        <v>&lt;Scenic ID="32010102" Name="总统府" MapID="320101" Image="Texture/Map/Scenic" Text="总统府介绍" /&gt;</v>
+        <v>&lt;Scenic ID="32010102" Name="总统府" MapID="320101" Image="NanJing/card_nanjing02" Text="总统府介绍" /&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1318,8 +1374,8 @@
       <c r="C5" s="6">
         <v>320101</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>26</v>
+      <c r="D5" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="E5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1328,7 +1384,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Scenic ID="32010103" Name="夫子庙" MapID="320101" Image="Texture/Map/Scenic" Text="夫子庙介绍" /&gt;</v>
+        <v>&lt;Scenic ID="32010103" Name="夫子庙" MapID="320101" Image="NanJing/card_nanjing03" Text="夫子庙介绍" /&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1341,8 +1397,8 @@
       <c r="C6" s="6">
         <v>320101</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>26</v>
+      <c r="D6" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1351,7 +1407,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Scenic ID="32010104" Name="瞻园" MapID="320101" Image="Texture/Map/Scenic" Text="瞻园介绍" /&gt;</v>
+        <v>&lt;Scenic ID="32010104" Name="瞻园" MapID="320101" Image="NanJing/card_nanjing04" Text="瞻园介绍" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1364,8 +1420,8 @@
       <c r="C7" s="6">
         <v>320101</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>26</v>
+      <c r="D7" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1374,7 +1430,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Scenic ID="32010105" Name="玄武湖公园" MapID="320101" Image="Texture/Map/Scenic" Text="玄武湖公园介绍" /&gt;</v>
+        <v>&lt;Scenic ID="32010105" Name="玄武湖公园" MapID="320101" Image="NanJing/card_nanjing05" Text="玄武湖公园介绍" /&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1387,8 +1443,8 @@
       <c r="C8" s="6">
         <v>320101</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
+      <c r="D8" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1397,7 +1453,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Scenic ID="32010106" Name="明孝陵" MapID="320101" Image="Texture/Map/Scenic" Text="明孝陵介绍" /&gt;</v>
+        <v>&lt;Scenic ID="32010106" Name="明孝陵" MapID="320101" Image="NanJing/card_nanjing06" Text="明孝陵介绍" /&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1410,8 +1466,8 @@
       <c r="C9" s="6">
         <v>320101</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>26</v>
+      <c r="D9" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="E9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1420,7 +1476,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Scenic ID="32010107" Name="美龄宫" MapID="320101" Image="Texture/Map/Scenic" Text="美龄宫介绍" /&gt;</v>
+        <v>&lt;Scenic ID="32010107" Name="美龄宫" MapID="320101" Image="NanJing/card_nanjing07" Text="美龄宫介绍" /&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1433,8 +1489,8 @@
       <c r="C10" s="6">
         <v>320101</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>26</v>
+      <c r="D10" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="E10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1443,7 +1499,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Scenic ID="32010108" Name="南京大屠杀纪念馆" MapID="320101" Image="Texture/Map/Scenic" Text="南京大屠杀纪念馆介绍" /&gt;</v>
+        <v>&lt;Scenic ID="32010108" Name="南京大屠杀纪念馆" MapID="320101" Image="NanJing/card_nanjing08" Text="南京大屠杀纪念馆介绍" /&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1456,8 +1512,8 @@
       <c r="C11" s="6">
         <v>320101</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>26</v>
+      <c r="D11" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="E11" s="8" t="str">
         <f>B11&amp;"介绍"</f>
@@ -1466,7 +1522,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="6" t="str">
         <f>"&lt;Scenic ID="""&amp;A11&amp;""" Name="""&amp;B11&amp;""" MapID="""&amp;C11&amp;""" Image="""&amp;D11&amp;""" Text="""&amp;E11&amp;""" /&gt;"</f>
-        <v>&lt;Scenic ID="32010109" Name="栖霞山" MapID="320101" Image="Texture/Map/Scenic" Text="栖霞山介绍" /&gt;</v>
+        <v>&lt;Scenic ID="32010109" Name="栖霞山" MapID="320101" Image="NanJing/card_nanjing09" Text="栖霞山介绍" /&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1546,7 +1602,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1565,7 +1621,7 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="5.25" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" style="12" customWidth="1"/>
@@ -1577,42 +1633,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1620,13 +1676,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="15" t="str">
         <f>IF(A3="1","&lt;Sound="""&amp;B3&amp;""" Storage="""&amp;C3&amp;""" Dec="""&amp;D3&amp;"""&gt;",IF(A3="2","  &lt;Clip SoundPath="""&amp;E3&amp;""" /&gt;",IF(A3="3"," /Sound&gt;","")))</f>
@@ -1642,10 +1698,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="12" t="str">
         <f t="shared" ref="F4:F5" si="0">IF(A4=1,"&lt;Audio Name="""&amp;B4&amp;""" Storage="""&amp;C4&amp;""" Des="""&amp;D4&amp;"""&gt;",IF(A4=2,"  &lt;File Path="""&amp;E4&amp;""" /&gt;",IF(A4=3,"&lt;/Audio&gt;","")))</f>
@@ -1657,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="12" t="str">
         <f>IF(ISERROR(FIND("Des=",#REF!))=FALSE,MID(#REF!,FIND("Des=""",#REF!)+5,FIND("""&gt;",#REF!)-FIND("Des=""",#REF!)-5),"")</f>
@@ -1681,22 +1737,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27:J28"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="5.25" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.5" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.875" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.125" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="12"/>
@@ -1704,64 +1760,64 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="19"/>
       <c r="B2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1769,10 +1825,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="D3" s="6"/>
       <c r="F3" s="6"/>
@@ -1790,16 +1846,16 @@
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="17">
@@ -1817,16 +1873,16 @@
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="17">
@@ -1844,16 +1900,16 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="17">
@@ -1871,16 +1927,16 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="17">
@@ -1898,16 +1954,16 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="17">
@@ -1925,16 +1981,16 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="17">
@@ -1952,16 +2008,16 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="17">
@@ -1979,16 +2035,16 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="17">
@@ -2006,16 +2062,16 @@
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="17">
@@ -2033,16 +2089,16 @@
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="17">
@@ -2060,16 +2116,16 @@
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="17">
@@ -2087,16 +2143,16 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="17">
@@ -2114,16 +2170,16 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="17">
@@ -2141,16 +2197,16 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="17">
@@ -2168,16 +2224,16 @@
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="17">
@@ -2195,16 +2251,16 @@
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="17">
@@ -2222,16 +2278,16 @@
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="17">
@@ -2249,16 +2305,16 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="17">
@@ -2276,16 +2332,16 @@
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="17">
@@ -2303,16 +2359,16 @@
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="17">
@@ -2330,16 +2386,16 @@
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="17">
@@ -2357,16 +2413,16 @@
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="17">
@@ -2384,16 +2440,16 @@
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="17">
@@ -2411,16 +2467,16 @@
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="17">
@@ -2438,16 +2494,16 @@
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="17">
@@ -2478,10 +2534,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="D30" s="13"/>
       <c r="F30" s="15"/>
@@ -2495,22 +2551,22 @@
         <v>2</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I31" s="17">
         <v>1</v>
       </c>
       <c r="J31" s="12" t="str">
-        <f t="shared" ref="J31:J59" si="2">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
+        <f t="shared" ref="J31:J68" si="2">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
         <v xml:space="preserve">  &lt;Image Name="nanjing_bg" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
       </c>
     </row>
@@ -2519,16 +2575,16 @@
         <v>2</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="17">
         <v>1</v>
@@ -2543,23 +2599,23 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="I33" s="17">
         <v>1</v>
       </c>
       <c r="J33" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="back" FileType="Sprite" Path="Cycling/View/back" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing01" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing01" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2567,23 +2623,23 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="I34" s="17">
         <v>1</v>
       </c>
       <c r="J34" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="book" FileType="Sprite" Path="Cycling/View/book" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing02" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing02" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2591,23 +2647,23 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="I35" s="17">
         <v>1</v>
       </c>
       <c r="J35" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_back1" FileType="Sprite" Path="Cycling/View/card_back1" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing03" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing03" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2615,23 +2671,23 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="I36" s="17">
         <v>1</v>
       </c>
       <c r="J36" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_back2" FileType="Sprite" Path="Cycling/View/card_back2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing04" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing04" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2639,23 +2695,23 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="I37" s="17">
         <v>1</v>
       </c>
       <c r="J37" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_bg" FileType="Sprite" Path="Cycling/View/card_bg" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing05" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing05" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2663,23 +2719,23 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="I38" s="17">
         <v>1</v>
       </c>
       <c r="J38" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_place" FileType="Sprite" Path="Cycling/View/card_place" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing06" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing06" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2687,23 +2743,23 @@
         <v>3</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="I39" s="17">
         <v>1</v>
       </c>
       <c r="J39" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_return" FileType="Sprite" Path="Cycling/View/card_return" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing07" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing07" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2711,23 +2767,23 @@
         <v>3</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="I40" s="17">
         <v>1</v>
       </c>
       <c r="J40" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing08" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing08" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2735,23 +2791,23 @@
         <v>3</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="I41" s="17">
         <v>1</v>
       </c>
       <c r="J41" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing09" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing09" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2759,23 +2815,23 @@
         <v>3</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I42" s="17">
         <v>1</v>
       </c>
       <c r="J42" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="coord2" FileType="Sprite" Path="Cycling/View/coord2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="back" FileType="Sprite" Path="Cycling/View/back" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2783,23 +2839,23 @@
         <v>3</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I43" s="17">
         <v>1</v>
       </c>
       <c r="J43" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="book" FileType="Sprite" Path="Cycling/View/book" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2807,23 +2863,23 @@
         <v>3</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I44" s="17">
         <v>1</v>
       </c>
       <c r="J44" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_back1" FileType="Sprite" Path="Cycling/View/card_back1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2831,23 +2887,23 @@
         <v>3</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I45" s="17">
         <v>1</v>
       </c>
       <c r="J45" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_back2" FileType="Sprite" Path="Cycling/View/card_back2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2855,23 +2911,23 @@
         <v>3</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I46" s="17">
         <v>1</v>
       </c>
       <c r="J46" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_bg" FileType="Sprite" Path="Cycling/View/card_bg" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2879,23 +2935,23 @@
         <v>3</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I47" s="17">
         <v>1</v>
       </c>
       <c r="J47" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_place" FileType="Sprite" Path="Cycling/View/card_place" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2903,23 +2959,23 @@
         <v>3</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I48" s="17">
         <v>1</v>
       </c>
       <c r="J48" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_return" FileType="Sprite" Path="Cycling/View/card_return" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2927,23 +2983,23 @@
         <v>3</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I49" s="17">
         <v>1</v>
       </c>
       <c r="J49" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2951,23 +3007,23 @@
         <v>3</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I50" s="17">
         <v>1</v>
       </c>
       <c r="J50" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2975,23 +3031,23 @@
         <v>3</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I51" s="17">
         <v>1</v>
       </c>
       <c r="J51" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coord_friend" FileType="Sprite" Path="Cycling/View/coord_friend" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2999,23 +3055,23 @@
         <v>3</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I52" s="17">
         <v>1</v>
       </c>
       <c r="J52" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3023,23 +3079,23 @@
         <v>3</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I53" s="17">
         <v>1</v>
       </c>
       <c r="J53" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3047,23 +3103,23 @@
         <v>3</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I54" s="17">
         <v>1</v>
       </c>
       <c r="J54" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3071,23 +3127,23 @@
         <v>3</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I55" s="17">
         <v>1</v>
       </c>
       <c r="J55" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3095,23 +3151,23 @@
         <v>3</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I56" s="17">
         <v>1</v>
       </c>
       <c r="J56" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3119,23 +3175,23 @@
         <v>3</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I57" s="17">
         <v>1</v>
       </c>
       <c r="J57" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3143,30 +3199,246 @@
         <v>3</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I58" s="17">
         <v>1</v>
       </c>
       <c r="J58" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="17">
+        <v>3</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I59" s="17">
+        <v>1</v>
+      </c>
+      <c r="J59" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="17">
+        <v>3</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I60" s="17">
+        <v>1</v>
+      </c>
+      <c r="J60" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="17">
+        <v>3</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I61" s="17">
+        <v>1</v>
+      </c>
+      <c r="J61" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="17">
+        <v>3</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I62" s="17">
+        <v>1</v>
+      </c>
+      <c r="J62" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="17">
+        <v>3</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I63" s="17">
+        <v>1</v>
+      </c>
+      <c r="J63" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="17">
+        <v>3</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I64" s="17">
+        <v>1</v>
+      </c>
+      <c r="J64" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="17">
+        <v>3</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I65" s="17">
+        <v>1</v>
+      </c>
+      <c r="J65" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="17">
+        <v>3</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I66" s="17">
+        <v>1</v>
+      </c>
+      <c r="J66" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="17">
+        <v>3</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I67" s="17">
+        <v>1</v>
+      </c>
+      <c r="J67" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="17">
         <v>4</v>
       </c>
-      <c r="J59" s="12" t="str">
+      <c r="J68" s="12" t="str">
         <f t="shared" si="2"/>
         <v>&lt;/Module&gt;</v>
       </c>
@@ -3174,7 +3446,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3182,7 +3454,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I30:I1048576">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30:F1048576 F4:F28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F28 F30:F1048576">
       <formula1>"Sprite,Texture1,Texture2,Spine"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="26" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="158">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -591,6 +591,33 @@
   </si>
   <si>
     <t>NanJing/card_nanjing09</t>
+  </si>
+  <si>
+    <t>arrow_panel</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>cost_panel</t>
+  </si>
+  <si>
+    <t>station_panel</t>
+  </si>
+  <si>
+    <t>stay_button</t>
+  </si>
+  <si>
+    <t>train1</t>
+  </si>
+  <si>
+    <t>train2</t>
+  </si>
+  <si>
+    <t>train3</t>
   </si>
 </sst>
 </file>
@@ -809,7 +836,14 @@
     <cellStyle name="常规 2 2" xfId="1"/>
     <cellStyle name="常规 2 2 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1136,7 +1170,7 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.75" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="6" bestFit="1" customWidth="1"/>
@@ -1233,7 +1267,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1245,15 +1279,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
       <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.5" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="6" bestFit="1" customWidth="1"/>
@@ -1602,7 +1636,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1621,7 +1655,7 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.25" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" style="12" customWidth="1"/>
@@ -1737,16 +1771,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.25" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.5" style="12" bestFit="1" customWidth="1"/>
@@ -2815,7 +2849,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>66</v>
@@ -2831,7 +2865,7 @@
       </c>
       <c r="J42" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="back" FileType="Sprite" Path="Cycling/View/back" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="arrow_panel" FileType="Sprite" Path="Cycling/View/arrow_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2839,7 +2873,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>66</v>
@@ -2855,7 +2889,7 @@
       </c>
       <c r="J43" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="book" FileType="Sprite" Path="Cycling/View/book" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="back" FileType="Sprite" Path="Cycling/View/back" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2863,7 +2897,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>66</v>
@@ -2879,7 +2913,7 @@
       </c>
       <c r="J44" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_back1" FileType="Sprite" Path="Cycling/View/card_back1" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="book" FileType="Sprite" Path="Cycling/View/book" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2887,7 +2921,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>66</v>
@@ -2903,7 +2937,7 @@
       </c>
       <c r="J45" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_back2" FileType="Sprite" Path="Cycling/View/card_back2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="bus" FileType="Sprite" Path="Cycling/View/bus" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2911,7 +2945,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>66</v>
@@ -2927,7 +2961,7 @@
       </c>
       <c r="J46" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_bg" FileType="Sprite" Path="Cycling/View/card_bg" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_back1" FileType="Sprite" Path="Cycling/View/card_back1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2935,7 +2969,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>66</v>
@@ -2951,7 +2985,7 @@
       </c>
       <c r="J47" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_place" FileType="Sprite" Path="Cycling/View/card_place" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_back2" FileType="Sprite" Path="Cycling/View/card_back2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2959,7 +2993,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>66</v>
@@ -2975,7 +3009,7 @@
       </c>
       <c r="J48" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_return" FileType="Sprite" Path="Cycling/View/card_return" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_bg" FileType="Sprite" Path="Cycling/View/card_bg" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2983,7 +3017,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>66</v>
@@ -2999,7 +3033,7 @@
       </c>
       <c r="J49" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_place" FileType="Sprite" Path="Cycling/View/card_place" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3007,7 +3041,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>66</v>
@@ -3023,7 +3057,7 @@
       </c>
       <c r="J50" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_return" FileType="Sprite" Path="Cycling/View/card_return" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3031,7 +3065,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>66</v>
@@ -3047,7 +3081,7 @@
       </c>
       <c r="J51" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="coord_friend" FileType="Sprite" Path="Cycling/View/coord_friend" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coin" FileType="Sprite" Path="Cycling/View/coin" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3055,7 +3089,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>66</v>
@@ -3071,7 +3105,7 @@
       </c>
       <c r="J52" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3079,7 +3113,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>66</v>
@@ -3095,7 +3129,7 @@
       </c>
       <c r="J53" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3103,7 +3137,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>66</v>
@@ -3119,7 +3153,7 @@
       </c>
       <c r="J54" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coord_friend" FileType="Sprite" Path="Cycling/View/coord_friend" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3127,7 +3161,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>66</v>
@@ -3143,7 +3177,7 @@
       </c>
       <c r="J55" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="cost_panel" FileType="Sprite" Path="Cycling/View/cost_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3151,7 +3185,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>66</v>
@@ -3167,7 +3201,7 @@
       </c>
       <c r="J56" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3175,7 +3209,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>66</v>
@@ -3191,7 +3225,7 @@
       </c>
       <c r="J57" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3199,7 +3233,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>66</v>
@@ -3215,7 +3249,7 @@
       </c>
       <c r="J58" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3223,7 +3257,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>66</v>
@@ -3239,7 +3273,7 @@
       </c>
       <c r="J59" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3247,7 +3281,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>66</v>
@@ -3263,7 +3297,7 @@
       </c>
       <c r="J60" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3271,7 +3305,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>66</v>
@@ -3287,7 +3321,7 @@
       </c>
       <c r="J61" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3295,7 +3329,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>66</v>
@@ -3311,7 +3345,7 @@
       </c>
       <c r="J62" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3319,7 +3353,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>66</v>
@@ -3335,7 +3369,7 @@
       </c>
       <c r="J63" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3343,7 +3377,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>66</v>
@@ -3359,7 +3393,7 @@
       </c>
       <c r="J64" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3367,7 +3401,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>66</v>
@@ -3383,7 +3417,7 @@
       </c>
       <c r="J65" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3391,7 +3425,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>66</v>
@@ -3407,7 +3441,7 @@
       </c>
       <c r="J66" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3415,7 +3449,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>66</v>
@@ -3431,22 +3465,238 @@
       </c>
       <c r="J67" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="17">
+        <v>3</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I68" s="17">
+        <v>1</v>
+      </c>
+      <c r="J68" s="12" t="str">
+        <f t="shared" ref="J68:J77" si="3">IF(A68=1,"&lt;Module Name="""&amp;B68&amp;""" Desc="""&amp;C68&amp;"""&gt;",IF(E68="Package","  &lt;Image Name="""&amp;D68&amp;""" FileType="""&amp;F68&amp;""" AB="""&amp;H68&amp;""" Enable="""&amp;I68&amp;""" /&gt;",IF(E68="Single","  &lt;Image Name="""&amp;D68&amp;""" FileType="""&amp;F68&amp;""" Path="""&amp;G68&amp;D68&amp;""" Enable="""&amp;I68&amp;""" /&gt;", IF(A68=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="station_panel" FileType="Sprite" Path="Cycling/View/station_panel" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="17">
+        <v>3</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I69" s="17">
+        <v>1</v>
+      </c>
+      <c r="J69" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;Image Name="stay_button" FileType="Sprite" Path="Cycling/View/stay_button" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="17">
+        <v>3</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I70" s="17">
+        <v>1</v>
+      </c>
+      <c r="J70" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="17">
+        <v>3</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I71" s="17">
+        <v>1</v>
+      </c>
+      <c r="J71" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="17">
+        <v>3</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I72" s="17">
+        <v>1</v>
+      </c>
+      <c r="J72" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="17">
+        <v>3</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I73" s="17">
+        <v>1</v>
+      </c>
+      <c r="J73" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="17">
+        <v>3</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I74" s="17">
+        <v>1</v>
+      </c>
+      <c r="J74" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;Image Name="train1" FileType="Sprite" Path="Cycling/View/train1" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="17">
+        <v>3</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I75" s="17">
+        <v>1</v>
+      </c>
+      <c r="J75" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;Image Name="train2" FileType="Sprite" Path="Cycling/View/train2" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="17">
+        <v>3</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I76" s="17">
+        <v>1</v>
+      </c>
+      <c r="J76" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;Image Name="train3" FileType="Sprite" Path="Cycling/View/train3" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="17">
         <v>4</v>
       </c>
-      <c r="J68" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="J77" s="12" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;/Module&gt;</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="26" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="162">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -618,6 +618,22 @@
   </si>
   <si>
     <t>train3</t>
+  </si>
+  <si>
+    <t>江苏02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇江</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextMap</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -836,21 +852,7 @@
     <cellStyle name="常规 2 2" xfId="1"/>
     <cellStyle name="常规 2 2 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -860,6 +862,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF4B4B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1160,14 +1169,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
       <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A1:A2"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1177,12 +1186,13 @@
     <col min="3" max="3" width="10.25" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="50.625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="6"/>
+    <col min="7" max="7" width="8.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9" style="6"/>
+    <col min="9" max="9" width="50.625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1">
+    <row r="1" spans="1:20" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1201,11 +1211,11 @@
       <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1213,11 +1223,12 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1236,11 +1247,14 @@
       <c r="F2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="6">
         <v>320101</v>
       </c>
@@ -1259,15 +1273,42 @@
       <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="6" t="str">
-        <f>"&lt;Map ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" ProvinceID="""&amp;C3&amp;""" ProvinceName="""&amp;D3&amp;""" CityID="""&amp;E3&amp;""" CityName="""&amp;F3&amp;""" /&gt;"</f>
-        <v>&lt;Map ID="320101" Name="江苏01" ProvinceID="32" ProvinceName="江苏" CityID="3201" CityName="南京" /&gt;</v>
+      <c r="G3" s="6">
+        <v>320102</v>
+      </c>
+      <c r="I3" s="6" t="str">
+        <f>"&lt;Map ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" ProvinceID="""&amp;C3&amp;""" ProvinceName="""&amp;D3&amp;""" CityID="""&amp;E3&amp;""" CityName="""&amp;F3&amp;""" NextMap="""&amp;G3&amp;""" /&gt;"</f>
+        <v>&lt;Map ID="320101" Name="江苏01" ProvinceID="32" ProvinceName="江苏" CityID="3201" CityName="南京" NextMap="320102" /&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="6">
+        <v>320102</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="6">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3202</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4" s="6" t="str">
+        <f>"&lt;Map ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" ProvinceID="""&amp;C4&amp;""" ProvinceName="""&amp;D4&amp;""" CityID="""&amp;E4&amp;""" CityName="""&amp;F4&amp;""" NextMap="""&amp;G4&amp;""" /&gt;"</f>
+        <v>&lt;Map ID="320102" Name="江苏02" ProvinceID="32" ProvinceName="江苏" CityID="3202" CityName="镇江" NextMap="" /&gt;</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+  <conditionalFormatting sqref="Q1">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1773,7 +1814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2600,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="12" t="str">
-        <f t="shared" ref="J31:J68" si="2">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
+        <f t="shared" ref="J31:J67" si="2">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
         <v xml:space="preserve">  &lt;Image Name="nanjing_bg" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
       </c>
     </row>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -7,10 +7,12 @@
     <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749"/>
   </bookViews>
   <sheets>
-    <sheet name="Map" sheetId="26" r:id="rId1"/>
-    <sheet name="Scenic" sheetId="30" r:id="rId2"/>
+    <sheet name="Item" sheetId="33" r:id="rId1"/>
+    <sheet name="Module" sheetId="32" r:id="rId2"/>
     <sheet name="Audio" sheetId="31" r:id="rId3"/>
-    <sheet name="Module" sheetId="32" r:id="rId4"/>
+    <sheet name="Map" sheetId="26" r:id="rId4"/>
+    <sheet name="Scenic" sheetId="30" r:id="rId5"/>
+    <sheet name="Card" sheetId="34" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -25,6 +27,124 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>XiTongTianDi</author>
+    <author>Volcano fish</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">金币
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>20-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">卡片
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>21-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>配饰</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Sprite - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">用Image显示，后缀名为.png
+Texture1 - 用RawImage显示，后缀名为.png
+Texture2 - 用RawImage显示，后缀名.ab
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Volcano fish</author>
@@ -62,8 +182,76 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>XiTongTianDi</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>01-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">景点卡
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>02-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">随机卡
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="192">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -634,6 +822,117 @@
   <si>
     <t>NextMap</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品编码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemDesc</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScenicID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardType</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片编码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片类型</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山陵介绍</t>
+  </si>
+  <si>
+    <t>总统府介绍</t>
+  </si>
+  <si>
+    <t>夫子庙介绍</t>
+  </si>
+  <si>
+    <t>瞻园介绍</t>
+  </si>
+  <si>
+    <t>玄武湖公园介绍</t>
+  </si>
+  <si>
+    <t>明孝陵介绍</t>
+  </si>
+  <si>
+    <t>美龄宫介绍</t>
+  </si>
+  <si>
+    <t>南京大屠杀纪念馆介绍</t>
+  </si>
+  <si>
+    <t>栖霞山介绍</t>
+  </si>
+  <si>
+    <t>CardName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片编码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -721,14 +1020,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -750,8 +1041,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -761,12 +1058,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,7 +1083,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -819,24 +1110,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -845,6 +1132,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -852,7 +1151,19 @@
     <cellStyle name="常规 2 2" xfId="1"/>
     <cellStyle name="常规 2 2 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4B4B"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1169,672 +1480,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C222" sqref="C222:C228"/>
-      <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
-      <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3:I4"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9" style="6"/>
-    <col min="9" max="9" width="50.625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="8.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="16">
+        <v>10000</v>
+      </c>
+      <c r="B3" s="6">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="6">
-        <v>320101</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="6">
-        <v>32</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6">
-        <v>3201</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="6">
-        <v>320102</v>
-      </c>
-      <c r="I3" s="6" t="str">
-        <f>"&lt;Map ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" ProvinceID="""&amp;C3&amp;""" ProvinceName="""&amp;D3&amp;""" CityID="""&amp;E3&amp;""" CityName="""&amp;F3&amp;""" NextMap="""&amp;G3&amp;""" /&gt;"</f>
-        <v>&lt;Map ID="320101" Name="江苏01" ProvinceID="32" ProvinceName="江苏" CityID="3201" CityName="南京" NextMap="320102" /&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="6">
-        <v>320102</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="6">
-        <v>32</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="6">
-        <v>3202</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="I4" s="6" t="str">
-        <f>"&lt;Map ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" ProvinceID="""&amp;C4&amp;""" ProvinceName="""&amp;D4&amp;""" CityID="""&amp;E4&amp;""" CityName="""&amp;F4&amp;""" NextMap="""&amp;G4&amp;""" /&gt;"</f>
-        <v>&lt;Map ID="320102" Name="江苏02" ProvinceID="32" ProvinceName="江苏" CityID="3202" CityName="镇江" NextMap="" /&gt;</v>
+      <c r="C3" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="10" t="str">
+        <f>"&lt;Item ItemID="""&amp;A3&amp;""" ItemType="""&amp;B3&amp;""" ItemName="""&amp;C3&amp;""" ItemIcon="""&amp;D3&amp;""" ItemDesc="""&amp;E3&amp;""" /&gt;"</f>
+        <v>&lt;Item ItemID="10000" ItemType="10" ItemName="Coin" ItemIcon="" ItemDesc="" /&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="19">
+        <f>Card!A3</f>
+        <v>200100001</v>
+      </c>
+      <c r="B4" s="6">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6" t="str">
+        <f>Card!C3</f>
+        <v>中山陵</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="10" t="str">
+        <f>"&lt;Item ItemID="""&amp;A4&amp;""" ItemType="""&amp;B4&amp;""" ItemName="""&amp;C4&amp;""" ItemIcon="""&amp;D4&amp;""" ItemDesc="""&amp;E4&amp;""" /&gt;"</f>
+        <v>&lt;Item ItemID="200100001" ItemType="20" ItemName="中山陵" ItemIcon="" ItemDesc="" /&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="19">
+        <f>Card!A4</f>
+        <v>200100002</v>
+      </c>
+      <c r="B5" s="6">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="str">
+        <f>Card!C4</f>
+        <v>总统府</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="10" t="str">
+        <f t="shared" ref="F5:F12" si="0">"&lt;Item ItemID="""&amp;A5&amp;""" ItemType="""&amp;B5&amp;""" ItemName="""&amp;C5&amp;""" ItemIcon="""&amp;D5&amp;""" ItemDesc="""&amp;E5&amp;""" /&gt;"</f>
+        <v>&lt;Item ItemID="200100002" ItemType="20" ItemName="总统府" ItemIcon="" ItemDesc="" /&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="19">
+        <f>Card!A5</f>
+        <v>200100003</v>
+      </c>
+      <c r="B6" s="6">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="str">
+        <f>Card!C5</f>
+        <v>夫子庙</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Item ItemID="200100003" ItemType="20" ItemName="夫子庙" ItemIcon="" ItemDesc="" /&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="19">
+        <f>Card!A6</f>
+        <v>200100004</v>
+      </c>
+      <c r="B7" s="6">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="str">
+        <f>Card!C6</f>
+        <v>瞻园</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Item ItemID="200100004" ItemType="20" ItemName="瞻园" ItemIcon="" ItemDesc="" /&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="19">
+        <f>Card!A7</f>
+        <v>200100005</v>
+      </c>
+      <c r="B8" s="6">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="str">
+        <f>Card!C7</f>
+        <v>玄武湖公园</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Item ItemID="200100005" ItemType="20" ItemName="玄武湖公园" ItemIcon="" ItemDesc="" /&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="19">
+        <f>Card!A8</f>
+        <v>200100006</v>
+      </c>
+      <c r="B9" s="6">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="str">
+        <f>Card!C8</f>
+        <v>明孝陵</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Item ItemID="200100006" ItemType="20" ItemName="明孝陵" ItemIcon="" ItemDesc="" /&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="19">
+        <f>Card!A9</f>
+        <v>200100007</v>
+      </c>
+      <c r="B10" s="6">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6" t="str">
+        <f>Card!C9</f>
+        <v>美龄宫</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Item ItemID="200100007" ItemType="20" ItemName="美龄宫" ItemIcon="" ItemDesc="" /&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="19">
+        <f>Card!A10</f>
+        <v>200100008</v>
+      </c>
+      <c r="B11" s="6">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="str">
+        <f>Card!C10</f>
+        <v>南京大屠杀纪念馆</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Item ItemID="200100008" ItemType="20" ItemName="南京大屠杀纪念馆" ItemIcon="" ItemDesc="" /&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="19">
+        <f>Card!A11</f>
+        <v>200100009</v>
+      </c>
+      <c r="B12" s="6">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6" t="str">
+        <f>Card!C11</f>
+        <v>栖霞山</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Item ItemID="200100009" ItemType="20" ItemName="栖霞山" ItemIcon="" ItemDesc="" /&gt;</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="Q1">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C222" sqref="C222:C228"/>
-      <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
-      <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" style="8" customWidth="1"/>
-    <col min="6" max="6" width="0.875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="93.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="6">
-        <v>32010101</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6">
-        <v>320101</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="8" t="str">
-        <f>B3&amp;"介绍"</f>
-        <v>中山陵介绍</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="6" t="str">
-        <f>"&lt;Scenic ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" MapID="""&amp;C3&amp;""" Image="""&amp;D3&amp;""" Text="""&amp;E3&amp;""" /&gt;"</f>
-        <v>&lt;Scenic ID="32010101" Name="中山陵" MapID="320101" Image="NanJing/card_nanjing01" Text="中山陵介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="6">
-        <v>32010102</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6">
-        <v>320101</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="8" t="str">
-        <f t="shared" ref="E4:E10" si="0">B4&amp;"介绍"</f>
-        <v>总统府介绍</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="6" t="str">
-        <f t="shared" ref="G4:G10" si="1">"&lt;Scenic ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" MapID="""&amp;C4&amp;""" Image="""&amp;D4&amp;""" Text="""&amp;E4&amp;""" /&gt;"</f>
-        <v>&lt;Scenic ID="32010102" Name="总统府" MapID="320101" Image="NanJing/card_nanjing02" Text="总统府介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="6">
-        <v>32010103</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="6">
-        <v>320101</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>夫子庙介绍</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Scenic ID="32010103" Name="夫子庙" MapID="320101" Image="NanJing/card_nanjing03" Text="夫子庙介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="6">
-        <v>32010104</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="6">
-        <v>320101</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>瞻园介绍</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Scenic ID="32010104" Name="瞻园" MapID="320101" Image="NanJing/card_nanjing04" Text="瞻园介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="6">
-        <v>32010105</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="6">
-        <v>320101</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>玄武湖公园介绍</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Scenic ID="32010105" Name="玄武湖公园" MapID="320101" Image="NanJing/card_nanjing05" Text="玄武湖公园介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="6">
-        <v>32010106</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="6">
-        <v>320101</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>明孝陵介绍</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Scenic ID="32010106" Name="明孝陵" MapID="320101" Image="NanJing/card_nanjing06" Text="明孝陵介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="6">
-        <v>32010107</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6">
-        <v>320101</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>美龄宫介绍</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Scenic ID="32010107" Name="美龄宫" MapID="320101" Image="NanJing/card_nanjing07" Text="美龄宫介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="6">
-        <v>32010108</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="6">
-        <v>320101</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>南京大屠杀纪念馆介绍</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Scenic ID="32010108" Name="南京大屠杀纪念馆" MapID="320101" Image="NanJing/card_nanjing08" Text="南京大屠杀纪念馆介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="6">
-        <v>32010109</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="6">
-        <v>320101</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="8" t="str">
-        <f>B11&amp;"介绍"</f>
-        <v>栖霞山介绍</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="6" t="str">
-        <f>"&lt;Scenic ID="""&amp;A11&amp;""" Name="""&amp;B11&amp;""" MapID="""&amp;C11&amp;""" Image="""&amp;D11&amp;""" Text="""&amp;E11&amp;""" /&gt;"</f>
-        <v>&lt;Scenic ID="32010109" Name="栖霞山" MapID="320101" Image="NanJing/card_nanjing09" Text="栖霞山介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="4:6">
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="4:6">
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="4:6">
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="4:6">
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="4:6">
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="4:6">
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="4:6">
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="4:6">
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="4:6">
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="4:6">
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="4:6">
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="4:6">
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="4:6">
-      <c r="F29" s="11"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="5.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="9" style="12"/>
-    <col min="4" max="4" width="18.25" style="12" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="17">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="15" t="str">
-        <f>IF(A3="1","&lt;Sound="""&amp;B3&amp;""" Storage="""&amp;C3&amp;""" Dec="""&amp;D3&amp;"""&gt;",IF(A3="2","  &lt;Clip SoundPath="""&amp;E3&amp;""" /&gt;",IF(A3="3"," /Sound&gt;","")))</f>
-        <v/>
-      </c>
-      <c r="F3" s="12" t="str">
-        <f>IF(A3=1,"&lt;Audio Name="""&amp;B3&amp;""" Storage="""&amp;C3&amp;""" Des="""&amp;D3&amp;"""&gt;",IF(A3=2,"  &lt;File Path="""&amp;E3&amp;""" /&gt;",IF(A3=3,"&lt;/Audio&gt;","")))</f>
-        <v>&lt;Audio Name="Welcome" Storage="Remote" Des="欢迎音效"&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="17">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="12" t="str">
-        <f t="shared" ref="F4:F5" si="0">IF(A4=1,"&lt;Audio Name="""&amp;B4&amp;""" Storage="""&amp;C4&amp;""" Des="""&amp;D4&amp;"""&gt;",IF(A4=2,"  &lt;File Path="""&amp;E4&amp;""" /&gt;",IF(A4=3,"&lt;/Audio&gt;","")))</f>
-        <v xml:space="preserve">  &lt;File Path="WangZheRongYao" /&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="17">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="12" t="str">
-        <f>IF(ISERROR(FIND("Des=",#REF!))=FALSE,MID(#REF!,FIND("Des=""",#REF!)+5,FIND("""&gt;",#REF!)-FIND("Des=""",#REF!)-5),"")</f>
-        <v/>
-      </c>
-      <c r="E5" s="12" t="str">
-        <f>IF(ISERROR(FIND("&lt;Clip",#REF!))=FALSE,MID(#REF!,FIND("SoundPath=""",#REF!)+11,FIND(""" /&gt;",#REF!)-FIND("SoundPath=""",#REF!)-11),"")</f>
-        <v/>
-      </c>
-      <c r="F5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;/Audio&gt;</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="5.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1858,7 +1772,7 @@
       <c r="H1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>58</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1866,7 +1780,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="19"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="6" t="s">
         <v>55</v>
       </c>
@@ -1888,15 +1802,15 @@
       <c r="H2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="19">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1909,13 +1823,13 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="J3" s="12" t="str">
+      <c r="J3" s="10" t="str">
         <f>IF(A3=1,"&lt;Module Name="""&amp;B3&amp;""" Desc="""&amp;C3&amp;"""&gt;",IF(E3="Package","  &lt;Image Name="""&amp;D3&amp;""" FileType="""&amp;F3&amp;""" AB="""&amp;H3&amp;""" Enable="""&amp;I3&amp;""" /&gt;",IF(E3="Single","  &lt;Image Name="""&amp;D3&amp;""" FileType="""&amp;F3&amp;""" Path="""&amp;G3&amp;D3&amp;""" Enable="""&amp;I3&amp;""" /&gt;", IF(A3=4,"&lt;/Module&gt;",""))))</f>
         <v>&lt;Module Name="Common" Desc="公共资源"&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="19">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="6"/>
@@ -1923,26 +1837,26 @@
       <c r="D4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="17">
-        <v>1</v>
-      </c>
-      <c r="J4" s="12" t="str">
+      <c r="I4" s="15">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10" t="str">
         <f t="shared" ref="J4:J29" si="0">IF(A4=1,"&lt;Module Name="""&amp;B4&amp;""" Desc="""&amp;C4&amp;"""&gt;",IF(E4="Package","  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" AB="""&amp;H4&amp;""" Enable="""&amp;I4&amp;""" /&gt;",IF(E4="Single","  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" Path="""&amp;G4&amp;D4&amp;""" Enable="""&amp;I4&amp;""" /&gt;", IF(A4=4,"&lt;/Module&gt;",""))))</f>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a001" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a001" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="19">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
       <c r="B5" s="6"/>
@@ -1950,26 +1864,26 @@
       <c r="D5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="17">
-        <v>1</v>
-      </c>
-      <c r="J5" s="12" t="str">
+      <c r="I5" s="15">
+        <v>1</v>
+      </c>
+      <c r="J5" s="10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a002" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a002" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="19">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
       <c r="B6" s="6"/>
@@ -1977,26 +1891,26 @@
       <c r="D6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="17">
-        <v>1</v>
-      </c>
-      <c r="J6" s="12" t="str">
+      <c r="I6" s="15">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a003" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a003" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="19">
+      <c r="A7" s="17">
         <v>3</v>
       </c>
       <c r="B7" s="6"/>
@@ -2004,26 +1918,26 @@
       <c r="D7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="17">
-        <v>1</v>
-      </c>
-      <c r="J7" s="12" t="str">
+      <c r="I7" s="15">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a004" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a004" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="19">
+      <c r="A8" s="17">
         <v>3</v>
       </c>
       <c r="B8" s="6"/>
@@ -2031,26 +1945,26 @@
       <c r="D8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="17">
-        <v>1</v>
-      </c>
-      <c r="J8" s="12" t="str">
+      <c r="I8" s="15">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a005" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a005" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>3</v>
       </c>
       <c r="B9" s="6"/>
@@ -2058,26 +1972,26 @@
       <c r="D9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="17">
-        <v>1</v>
-      </c>
-      <c r="J9" s="12" t="str">
+      <c r="I9" s="15">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a006" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a006" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>3</v>
       </c>
       <c r="B10" s="6"/>
@@ -2085,26 +1999,26 @@
       <c r="D10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="17">
-        <v>1</v>
-      </c>
-      <c r="J10" s="12" t="str">
+      <c r="I10" s="15">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a007" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a007" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
       <c r="B11" s="6"/>
@@ -2112,26 +2026,26 @@
       <c r="D11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="17">
-        <v>1</v>
-      </c>
-      <c r="J11" s="12" t="str">
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a008" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a008" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>3</v>
       </c>
       <c r="B12" s="6"/>
@@ -2139,26 +2053,26 @@
       <c r="D12" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="14" t="s">
+      <c r="E12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="17">
-        <v>1</v>
-      </c>
-      <c r="J12" s="12" t="str">
+      <c r="I12" s="15">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a009" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a009" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>3</v>
       </c>
       <c r="B13" s="6"/>
@@ -2166,26 +2080,26 @@
       <c r="D13" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="14" t="s">
+      <c r="E13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="17">
-        <v>1</v>
-      </c>
-      <c r="J13" s="12" t="str">
+      <c r="I13" s="15">
+        <v>1</v>
+      </c>
+      <c r="J13" s="10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a010" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a010" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <v>3</v>
       </c>
       <c r="B14" s="6"/>
@@ -2193,26 +2107,26 @@
       <c r="D14" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="14" t="s">
+      <c r="E14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="17">
-        <v>1</v>
-      </c>
-      <c r="J14" s="12" t="str">
+      <c r="I14" s="15">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a011" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a011" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>3</v>
       </c>
       <c r="B15" s="6"/>
@@ -2220,26 +2134,26 @@
       <c r="D15" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="14" t="s">
+      <c r="E15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="17">
-        <v>1</v>
-      </c>
-      <c r="J15" s="12" t="str">
+      <c r="I15" s="15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a012" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a012" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <v>3</v>
       </c>
       <c r="B16" s="6"/>
@@ -2247,26 +2161,26 @@
       <c r="D16" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="14" t="s">
+      <c r="E16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="17">
-        <v>1</v>
-      </c>
-      <c r="J16" s="12" t="str">
+      <c r="I16" s="15">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a013" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a013" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <v>3</v>
       </c>
       <c r="B17" s="6"/>
@@ -2274,26 +2188,26 @@
       <c r="D17" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="14" t="s">
+      <c r="E17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="17">
-        <v>1</v>
-      </c>
-      <c r="J17" s="12" t="str">
+      <c r="I17" s="15">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a014" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a014" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>3</v>
       </c>
       <c r="B18" s="6"/>
@@ -2301,26 +2215,26 @@
       <c r="D18" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="14" t="s">
+      <c r="E18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="17">
-        <v>1</v>
-      </c>
-      <c r="J18" s="12" t="str">
+      <c r="I18" s="15">
+        <v>1</v>
+      </c>
+      <c r="J18" s="10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0001" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0001" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <v>3</v>
       </c>
       <c r="B19" s="6"/>
@@ -2328,26 +2242,26 @@
       <c r="D19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="14" t="s">
+      <c r="E19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="17">
-        <v>1</v>
-      </c>
-      <c r="J19" s="12" t="str">
+      <c r="I19" s="15">
+        <v>1</v>
+      </c>
+      <c r="J19" s="10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0002" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0002" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="19">
+      <c r="A20" s="17">
         <v>3</v>
       </c>
       <c r="B20" s="6"/>
@@ -2355,26 +2269,26 @@
       <c r="D20" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="14" t="s">
+      <c r="E20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="17">
-        <v>1</v>
-      </c>
-      <c r="J20" s="12" t="str">
+      <c r="I20" s="15">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0003" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0003" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="19">
+      <c r="A21" s="17">
         <v>3</v>
       </c>
       <c r="B21" s="6"/>
@@ -2382,26 +2296,26 @@
       <c r="D21" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="17">
-        <v>1</v>
-      </c>
-      <c r="J21" s="12" t="str">
+      <c r="I21" s="15">
+        <v>1</v>
+      </c>
+      <c r="J21" s="10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0004" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0004" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="19">
+      <c r="A22" s="17">
         <v>3</v>
       </c>
       <c r="B22" s="6"/>
@@ -2409,26 +2323,26 @@
       <c r="D22" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="14" t="s">
+      <c r="E22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="17">
-        <v>1</v>
-      </c>
-      <c r="J22" s="12" t="str">
+      <c r="I22" s="15">
+        <v>1</v>
+      </c>
+      <c r="J22" s="10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0005" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0005" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>3</v>
       </c>
       <c r="B23" s="6"/>
@@ -2436,26 +2350,26 @@
       <c r="D23" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="14" t="s">
+      <c r="E23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="17">
-        <v>1</v>
-      </c>
-      <c r="J23" s="12" t="str">
+      <c r="I23" s="15">
+        <v>1</v>
+      </c>
+      <c r="J23" s="10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0006" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0006" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="19">
+      <c r="A24" s="17">
         <v>3</v>
       </c>
       <c r="B24" s="6"/>
@@ -2463,26 +2377,26 @@
       <c r="D24" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="14" t="s">
+      <c r="E24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="17">
-        <v>1</v>
-      </c>
-      <c r="J24" s="12" t="str">
+      <c r="I24" s="15">
+        <v>1</v>
+      </c>
+      <c r="J24" s="10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0007" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0007" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="19">
+      <c r="A25" s="17">
         <v>3</v>
       </c>
       <c r="B25" s="6"/>
@@ -2490,26 +2404,26 @@
       <c r="D25" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="14" t="s">
+      <c r="E25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="17">
-        <v>1</v>
-      </c>
-      <c r="J25" s="12" t="str">
+      <c r="I25" s="15">
+        <v>1</v>
+      </c>
+      <c r="J25" s="10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0008" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0008" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="19">
+      <c r="A26" s="17">
         <v>3</v>
       </c>
       <c r="B26" s="6"/>
@@ -2517,26 +2431,26 @@
       <c r="D26" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="14" t="s">
+      <c r="E26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="17">
-        <v>1</v>
-      </c>
-      <c r="J26" s="12" t="str">
+      <c r="I26" s="15">
+        <v>1</v>
+      </c>
+      <c r="J26" s="10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0009" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0009" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="19">
+      <c r="A27" s="17">
         <v>3</v>
       </c>
       <c r="B27" s="6"/>
@@ -2544,26 +2458,26 @@
       <c r="D27" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="14" t="s">
+      <c r="E27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="17">
-        <v>1</v>
-      </c>
-      <c r="J27" s="12" t="str">
+      <c r="I27" s="15">
+        <v>1</v>
+      </c>
+      <c r="J27" s="10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0010" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0010" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="19">
+      <c r="A28" s="17">
         <v>3</v>
       </c>
       <c r="B28" s="6"/>
@@ -2571,26 +2485,26 @@
       <c r="D28" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="14" t="s">
+      <c r="E28" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="17">
-        <v>1</v>
-      </c>
-      <c r="J28" s="12" t="str">
+      <c r="I28" s="15">
+        <v>1</v>
+      </c>
+      <c r="J28" s="10" t="str">
         <f t="shared" ref="J28" si="1">IF(A28=1,"&lt;Module Name="""&amp;B28&amp;""" Desc="""&amp;C28&amp;"""&gt;",IF(E28="Package","  &lt;Image Name="""&amp;D28&amp;""" FileType="""&amp;F28&amp;""" AB="""&amp;H28&amp;""" Enable="""&amp;I28&amp;""" /&gt;",IF(E28="Single","  &lt;Image Name="""&amp;D28&amp;""" FileType="""&amp;F28&amp;""" Path="""&amp;G28&amp;D28&amp;""" Enable="""&amp;I28&amp;""" /&gt;", IF(A28=4,"&lt;/Module&gt;",""))))</f>
         <v xml:space="preserve">  &lt;Image Name="bg_circle" FileType="Sprite" Path="Common/Avatar/bg_circle" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="19">
+      <c r="A29" s="17">
         <v>4</v>
       </c>
       <c r="B29" s="6"/>
@@ -2599,1137 +2513,1137 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="J29" s="12" t="str">
+      <c r="J29" s="10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;/Module&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="17">
-        <v>1</v>
-      </c>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="15">
+        <v>1</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="F30" s="15"/>
-      <c r="J30" s="12" t="str">
+      <c r="D30" s="11"/>
+      <c r="F30" s="13"/>
+      <c r="J30" s="10" t="str">
         <f>IF(A30=1,"&lt;Module Name="""&amp;B30&amp;""" Desc="""&amp;C30&amp;"""&gt;",IF(E30="Package","  &lt;Image Name="""&amp;D30&amp;""" FileType="""&amp;F30&amp;""" AB="""&amp;H30&amp;""" Enable="""&amp;I30&amp;""" /&gt;",IF(E30="Single","  &lt;Image Name="""&amp;D30&amp;""" FileType="""&amp;F30&amp;""" Path="""&amp;G30&amp;D30&amp;""" Enable="""&amp;I30&amp;""" /&gt;", IF(A30=4,"&lt;/Module&gt;",""))))</f>
         <v>&lt;Module Name="Cycling" Desc="骑行游戏"&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="17">
+      <c r="A31" s="15">
         <v>2</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="17">
-        <v>1</v>
-      </c>
-      <c r="J31" s="12" t="str">
+      <c r="I31" s="15">
+        <v>1</v>
+      </c>
+      <c r="J31" s="10" t="str">
         <f t="shared" ref="J31:J67" si="2">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
         <v xml:space="preserve">  &lt;Image Name="nanjing_bg" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="17">
+      <c r="A32" s="15">
         <v>2</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I32" s="17">
-        <v>1</v>
-      </c>
-      <c r="J32" s="12" t="str">
+      <c r="I32" s="15">
+        <v>1</v>
+      </c>
+      <c r="J32" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="path" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="17">
-        <v>3</v>
-      </c>
-      <c r="D33" s="12" t="s">
+      <c r="A33" s="15">
+        <v>3</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33" s="12" t="s">
+      <c r="E33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="I33" s="17">
-        <v>1</v>
-      </c>
-      <c r="J33" s="12" t="str">
+      <c r="I33" s="15">
+        <v>1</v>
+      </c>
+      <c r="J33" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="card_nanjing01" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing01" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="17">
-        <v>3</v>
-      </c>
-      <c r="D34" s="12" t="s">
+      <c r="A34" s="15">
+        <v>3</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G34" s="12" t="s">
+      <c r="E34" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="I34" s="17">
-        <v>1</v>
-      </c>
-      <c r="J34" s="12" t="str">
+      <c r="I34" s="15">
+        <v>1</v>
+      </c>
+      <c r="J34" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="card_nanjing02" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing02" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="17">
-        <v>3</v>
-      </c>
-      <c r="D35" s="12" t="s">
+      <c r="A35" s="15">
+        <v>3</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="12" t="s">
+      <c r="E35" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="I35" s="17">
-        <v>1</v>
-      </c>
-      <c r="J35" s="12" t="str">
+      <c r="I35" s="15">
+        <v>1</v>
+      </c>
+      <c r="J35" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="card_nanjing03" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing03" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="17">
-        <v>3</v>
-      </c>
-      <c r="D36" s="12" t="s">
+      <c r="A36" s="15">
+        <v>3</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="12" t="s">
+      <c r="E36" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="I36" s="17">
-        <v>1</v>
-      </c>
-      <c r="J36" s="12" t="str">
+      <c r="I36" s="15">
+        <v>1</v>
+      </c>
+      <c r="J36" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="card_nanjing04" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing04" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="17">
-        <v>3</v>
-      </c>
-      <c r="D37" s="12" t="s">
+      <c r="A37" s="15">
+        <v>3</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G37" s="12" t="s">
+      <c r="E37" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="I37" s="17">
-        <v>1</v>
-      </c>
-      <c r="J37" s="12" t="str">
+      <c r="I37" s="15">
+        <v>1</v>
+      </c>
+      <c r="J37" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="card_nanjing05" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing05" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="17">
-        <v>3</v>
-      </c>
-      <c r="D38" s="12" t="s">
+      <c r="A38" s="15">
+        <v>3</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G38" s="12" t="s">
+      <c r="E38" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="I38" s="17">
-        <v>1</v>
-      </c>
-      <c r="J38" s="12" t="str">
+      <c r="I38" s="15">
+        <v>1</v>
+      </c>
+      <c r="J38" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="card_nanjing06" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing06" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="17">
-        <v>3</v>
-      </c>
-      <c r="D39" s="12" t="s">
+      <c r="A39" s="15">
+        <v>3</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" s="12" t="s">
+      <c r="E39" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="I39" s="17">
-        <v>1</v>
-      </c>
-      <c r="J39" s="12" t="str">
+      <c r="I39" s="15">
+        <v>1</v>
+      </c>
+      <c r="J39" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="card_nanjing07" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing07" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="17">
-        <v>3</v>
-      </c>
-      <c r="D40" s="12" t="s">
+      <c r="A40" s="15">
+        <v>3</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G40" s="12" t="s">
+      <c r="E40" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="I40" s="17">
-        <v>1</v>
-      </c>
-      <c r="J40" s="12" t="str">
+      <c r="I40" s="15">
+        <v>1</v>
+      </c>
+      <c r="J40" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="card_nanjing08" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing08" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="17">
-        <v>3</v>
-      </c>
-      <c r="D41" s="12" t="s">
+      <c r="A41" s="15">
+        <v>3</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G41" s="12" t="s">
+      <c r="E41" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="I41" s="17">
-        <v>1</v>
-      </c>
-      <c r="J41" s="12" t="str">
+      <c r="I41" s="15">
+        <v>1</v>
+      </c>
+      <c r="J41" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="card_nanjing09" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing09" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="17">
-        <v>3</v>
-      </c>
-      <c r="D42" s="12" t="s">
+      <c r="A42" s="15">
+        <v>3</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G42" s="12" t="s">
+      <c r="E42" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I42" s="17">
-        <v>1</v>
-      </c>
-      <c r="J42" s="12" t="str">
+      <c r="I42" s="15">
+        <v>1</v>
+      </c>
+      <c r="J42" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="arrow_panel" FileType="Sprite" Path="Cycling/View/arrow_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="17">
-        <v>3</v>
-      </c>
-      <c r="D43" s="12" t="s">
+      <c r="A43" s="15">
+        <v>3</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" s="12" t="s">
+      <c r="E43" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I43" s="17">
-        <v>1</v>
-      </c>
-      <c r="J43" s="12" t="str">
+      <c r="I43" s="15">
+        <v>1</v>
+      </c>
+      <c r="J43" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="back" FileType="Sprite" Path="Cycling/View/back" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="17">
-        <v>3</v>
-      </c>
-      <c r="D44" s="12" t="s">
+      <c r="A44" s="15">
+        <v>3</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G44" s="12" t="s">
+      <c r="E44" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I44" s="17">
-        <v>1</v>
-      </c>
-      <c r="J44" s="12" t="str">
+      <c r="I44" s="15">
+        <v>1</v>
+      </c>
+      <c r="J44" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="book" FileType="Sprite" Path="Cycling/View/book" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="17">
-        <v>3</v>
-      </c>
-      <c r="D45" s="12" t="s">
+      <c r="A45" s="15">
+        <v>3</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E45" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" s="12" t="s">
+      <c r="E45" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I45" s="17">
-        <v>1</v>
-      </c>
-      <c r="J45" s="12" t="str">
+      <c r="I45" s="15">
+        <v>1</v>
+      </c>
+      <c r="J45" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="bus" FileType="Sprite" Path="Cycling/View/bus" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="17">
-        <v>3</v>
-      </c>
-      <c r="D46" s="12" t="s">
+      <c r="A46" s="15">
+        <v>3</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G46" s="12" t="s">
+      <c r="E46" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I46" s="17">
-        <v>1</v>
-      </c>
-      <c r="J46" s="12" t="str">
+      <c r="I46" s="15">
+        <v>1</v>
+      </c>
+      <c r="J46" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="card_back1" FileType="Sprite" Path="Cycling/View/card_back1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="17">
-        <v>3</v>
-      </c>
-      <c r="D47" s="12" t="s">
+      <c r="A47" s="15">
+        <v>3</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47" s="12" t="s">
+      <c r="E47" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I47" s="17">
-        <v>1</v>
-      </c>
-      <c r="J47" s="12" t="str">
+      <c r="I47" s="15">
+        <v>1</v>
+      </c>
+      <c r="J47" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="card_back2" FileType="Sprite" Path="Cycling/View/card_back2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="17">
-        <v>3</v>
-      </c>
-      <c r="D48" s="12" t="s">
+      <c r="A48" s="15">
+        <v>3</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" s="12" t="s">
+      <c r="E48" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I48" s="17">
-        <v>1</v>
-      </c>
-      <c r="J48" s="12" t="str">
+      <c r="I48" s="15">
+        <v>1</v>
+      </c>
+      <c r="J48" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="card_bg" FileType="Sprite" Path="Cycling/View/card_bg" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="17">
-        <v>3</v>
-      </c>
-      <c r="D49" s="12" t="s">
+      <c r="A49" s="15">
+        <v>3</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E49" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" s="12" t="s">
+      <c r="E49" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I49" s="17">
-        <v>1</v>
-      </c>
-      <c r="J49" s="12" t="str">
+      <c r="I49" s="15">
+        <v>1</v>
+      </c>
+      <c r="J49" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="card_place" FileType="Sprite" Path="Cycling/View/card_place" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="17">
-        <v>3</v>
-      </c>
-      <c r="D50" s="12" t="s">
+      <c r="A50" s="15">
+        <v>3</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E50" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" s="12" t="s">
+      <c r="E50" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I50" s="17">
-        <v>1</v>
-      </c>
-      <c r="J50" s="12" t="str">
+      <c r="I50" s="15">
+        <v>1</v>
+      </c>
+      <c r="J50" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="card_return" FileType="Sprite" Path="Cycling/View/card_return" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="17">
-        <v>3</v>
-      </c>
-      <c r="D51" s="12" t="s">
+      <c r="A51" s="15">
+        <v>3</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E51" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G51" s="12" t="s">
+      <c r="E51" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I51" s="17">
-        <v>1</v>
-      </c>
-      <c r="J51" s="12" t="str">
+      <c r="I51" s="15">
+        <v>1</v>
+      </c>
+      <c r="J51" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="coin" FileType="Sprite" Path="Cycling/View/coin" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="17">
-        <v>3</v>
-      </c>
-      <c r="D52" s="12" t="s">
+      <c r="A52" s="15">
+        <v>3</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E52" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" s="12" t="s">
+      <c r="E52" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I52" s="17">
-        <v>1</v>
-      </c>
-      <c r="J52" s="12" t="str">
+      <c r="I52" s="15">
+        <v>1</v>
+      </c>
+      <c r="J52" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="17">
-        <v>3</v>
-      </c>
-      <c r="D53" s="12" t="s">
+      <c r="A53" s="15">
+        <v>3</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G53" s="12" t="s">
+      <c r="E53" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I53" s="17">
-        <v>1</v>
-      </c>
-      <c r="J53" s="12" t="str">
+      <c r="I53" s="15">
+        <v>1</v>
+      </c>
+      <c r="J53" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="17">
-        <v>3</v>
-      </c>
-      <c r="D54" s="12" t="s">
+      <c r="A54" s="15">
+        <v>3</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E54" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" s="12" t="s">
+      <c r="E54" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I54" s="17">
-        <v>1</v>
-      </c>
-      <c r="J54" s="12" t="str">
+      <c r="I54" s="15">
+        <v>1</v>
+      </c>
+      <c r="J54" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="coord_friend" FileType="Sprite" Path="Cycling/View/coord_friend" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="17">
-        <v>3</v>
-      </c>
-      <c r="D55" s="12" t="s">
+      <c r="A55" s="15">
+        <v>3</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E55" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" s="12" t="s">
+      <c r="E55" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I55" s="17">
-        <v>1</v>
-      </c>
-      <c r="J55" s="12" t="str">
+      <c r="I55" s="15">
+        <v>1</v>
+      </c>
+      <c r="J55" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="cost_panel" FileType="Sprite" Path="Cycling/View/cost_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="17">
-        <v>3</v>
-      </c>
-      <c r="D56" s="12" t="s">
+      <c r="A56" s="15">
+        <v>3</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E56" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G56" s="12" t="s">
+      <c r="E56" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G56" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I56" s="17">
-        <v>1</v>
-      </c>
-      <c r="J56" s="12" t="str">
+      <c r="I56" s="15">
+        <v>1</v>
+      </c>
+      <c r="J56" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="17">
-        <v>3</v>
-      </c>
-      <c r="D57" s="12" t="s">
+      <c r="A57" s="15">
+        <v>3</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G57" s="12" t="s">
+      <c r="E57" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I57" s="17">
-        <v>1</v>
-      </c>
-      <c r="J57" s="12" t="str">
+      <c r="I57" s="15">
+        <v>1</v>
+      </c>
+      <c r="J57" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="17">
-        <v>3</v>
-      </c>
-      <c r="D58" s="12" t="s">
+      <c r="A58" s="15">
+        <v>3</v>
+      </c>
+      <c r="D58" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G58" s="12" t="s">
+      <c r="E58" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I58" s="17">
-        <v>1</v>
-      </c>
-      <c r="J58" s="12" t="str">
+      <c r="I58" s="15">
+        <v>1</v>
+      </c>
+      <c r="J58" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="17">
-        <v>3</v>
-      </c>
-      <c r="D59" s="12" t="s">
+      <c r="A59" s="15">
+        <v>3</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G59" s="12" t="s">
+      <c r="E59" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I59" s="17">
-        <v>1</v>
-      </c>
-      <c r="J59" s="12" t="str">
+      <c r="I59" s="15">
+        <v>1</v>
+      </c>
+      <c r="J59" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="17">
-        <v>3</v>
-      </c>
-      <c r="D60" s="12" t="s">
+      <c r="A60" s="15">
+        <v>3</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E60" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G60" s="12" t="s">
+      <c r="E60" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I60" s="17">
-        <v>1</v>
-      </c>
-      <c r="J60" s="12" t="str">
+      <c r="I60" s="15">
+        <v>1</v>
+      </c>
+      <c r="J60" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="17">
-        <v>3</v>
-      </c>
-      <c r="D61" s="12" t="s">
+      <c r="A61" s="15">
+        <v>3</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E61" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G61" s="12" t="s">
+      <c r="E61" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I61" s="17">
-        <v>1</v>
-      </c>
-      <c r="J61" s="12" t="str">
+      <c r="I61" s="15">
+        <v>1</v>
+      </c>
+      <c r="J61" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="17">
-        <v>3</v>
-      </c>
-      <c r="D62" s="12" t="s">
+      <c r="A62" s="15">
+        <v>3</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E62" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G62" s="12" t="s">
+      <c r="E62" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G62" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I62" s="17">
-        <v>1</v>
-      </c>
-      <c r="J62" s="12" t="str">
+      <c r="I62" s="15">
+        <v>1</v>
+      </c>
+      <c r="J62" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="17">
-        <v>3</v>
-      </c>
-      <c r="D63" s="12" t="s">
+      <c r="A63" s="15">
+        <v>3</v>
+      </c>
+      <c r="D63" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E63" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G63" s="12" t="s">
+      <c r="E63" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I63" s="17">
-        <v>1</v>
-      </c>
-      <c r="J63" s="12" t="str">
+      <c r="I63" s="15">
+        <v>1</v>
+      </c>
+      <c r="J63" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="17">
-        <v>3</v>
-      </c>
-      <c r="D64" s="12" t="s">
+      <c r="A64" s="15">
+        <v>3</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E64" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G64" s="12" t="s">
+      <c r="E64" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I64" s="17">
-        <v>1</v>
-      </c>
-      <c r="J64" s="12" t="str">
+      <c r="I64" s="15">
+        <v>1</v>
+      </c>
+      <c r="J64" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="17">
-        <v>3</v>
-      </c>
-      <c r="D65" s="12" t="s">
+      <c r="A65" s="15">
+        <v>3</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E65" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G65" s="12" t="s">
+      <c r="E65" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G65" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I65" s="17">
-        <v>1</v>
-      </c>
-      <c r="J65" s="12" t="str">
+      <c r="I65" s="15">
+        <v>1</v>
+      </c>
+      <c r="J65" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="17">
-        <v>3</v>
-      </c>
-      <c r="D66" s="12" t="s">
+      <c r="A66" s="15">
+        <v>3</v>
+      </c>
+      <c r="D66" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E66" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G66" s="12" t="s">
+      <c r="E66" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G66" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I66" s="17">
-        <v>1</v>
-      </c>
-      <c r="J66" s="12" t="str">
+      <c r="I66" s="15">
+        <v>1</v>
+      </c>
+      <c r="J66" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="17">
-        <v>3</v>
-      </c>
-      <c r="D67" s="12" t="s">
+      <c r="A67" s="15">
+        <v>3</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E67" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G67" s="12" t="s">
+      <c r="E67" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G67" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I67" s="17">
-        <v>1</v>
-      </c>
-      <c r="J67" s="12" t="str">
+      <c r="I67" s="15">
+        <v>1</v>
+      </c>
+      <c r="J67" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="17">
-        <v>3</v>
-      </c>
-      <c r="D68" s="12" t="s">
+      <c r="A68" s="15">
+        <v>3</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E68" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G68" s="12" t="s">
+      <c r="E68" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G68" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I68" s="17">
-        <v>1</v>
-      </c>
-      <c r="J68" s="12" t="str">
+      <c r="I68" s="15">
+        <v>1</v>
+      </c>
+      <c r="J68" s="10" t="str">
         <f t="shared" ref="J68:J77" si="3">IF(A68=1,"&lt;Module Name="""&amp;B68&amp;""" Desc="""&amp;C68&amp;"""&gt;",IF(E68="Package","  &lt;Image Name="""&amp;D68&amp;""" FileType="""&amp;F68&amp;""" AB="""&amp;H68&amp;""" Enable="""&amp;I68&amp;""" /&gt;",IF(E68="Single","  &lt;Image Name="""&amp;D68&amp;""" FileType="""&amp;F68&amp;""" Path="""&amp;G68&amp;D68&amp;""" Enable="""&amp;I68&amp;""" /&gt;", IF(A68=4,"&lt;/Module&gt;",""))))</f>
         <v xml:space="preserve">  &lt;Image Name="station_panel" FileType="Sprite" Path="Cycling/View/station_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="17">
-        <v>3</v>
-      </c>
-      <c r="D69" s="12" t="s">
+      <c r="A69" s="15">
+        <v>3</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E69" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G69" s="12" t="s">
+      <c r="E69" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G69" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I69" s="17">
-        <v>1</v>
-      </c>
-      <c r="J69" s="12" t="str">
+      <c r="I69" s="15">
+        <v>1</v>
+      </c>
+      <c r="J69" s="10" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">  &lt;Image Name="stay_button" FileType="Sprite" Path="Cycling/View/stay_button" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="17">
-        <v>3</v>
-      </c>
-      <c r="D70" s="12" t="s">
+      <c r="A70" s="15">
+        <v>3</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E70" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G70" s="12" t="s">
+      <c r="E70" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G70" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I70" s="17">
-        <v>1</v>
-      </c>
-      <c r="J70" s="12" t="str">
+      <c r="I70" s="15">
+        <v>1</v>
+      </c>
+      <c r="J70" s="10" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="17">
-        <v>3</v>
-      </c>
-      <c r="D71" s="12" t="s">
+      <c r="A71" s="15">
+        <v>3</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E71" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G71" s="12" t="s">
+      <c r="E71" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G71" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I71" s="17">
-        <v>1</v>
-      </c>
-      <c r="J71" s="12" t="str">
+      <c r="I71" s="15">
+        <v>1</v>
+      </c>
+      <c r="J71" s="10" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="17">
-        <v>3</v>
-      </c>
-      <c r="D72" s="12" t="s">
+      <c r="A72" s="15">
+        <v>3</v>
+      </c>
+      <c r="D72" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E72" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G72" s="12" t="s">
+      <c r="E72" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G72" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I72" s="17">
-        <v>1</v>
-      </c>
-      <c r="J72" s="12" t="str">
+      <c r="I72" s="15">
+        <v>1</v>
+      </c>
+      <c r="J72" s="10" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="17">
-        <v>3</v>
-      </c>
-      <c r="D73" s="12" t="s">
+      <c r="A73" s="15">
+        <v>3</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E73" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G73" s="12" t="s">
+      <c r="E73" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G73" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I73" s="17">
-        <v>1</v>
-      </c>
-      <c r="J73" s="12" t="str">
+      <c r="I73" s="15">
+        <v>1</v>
+      </c>
+      <c r="J73" s="10" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="17">
-        <v>3</v>
-      </c>
-      <c r="D74" s="12" t="s">
+      <c r="A74" s="15">
+        <v>3</v>
+      </c>
+      <c r="D74" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E74" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G74" s="12" t="s">
+      <c r="E74" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G74" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I74" s="17">
-        <v>1</v>
-      </c>
-      <c r="J74" s="12" t="str">
+      <c r="I74" s="15">
+        <v>1</v>
+      </c>
+      <c r="J74" s="10" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">  &lt;Image Name="train1" FileType="Sprite" Path="Cycling/View/train1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="17">
-        <v>3</v>
-      </c>
-      <c r="D75" s="12" t="s">
+      <c r="A75" s="15">
+        <v>3</v>
+      </c>
+      <c r="D75" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E75" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G75" s="12" t="s">
+      <c r="E75" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G75" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I75" s="17">
-        <v>1</v>
-      </c>
-      <c r="J75" s="12" t="str">
+      <c r="I75" s="15">
+        <v>1</v>
+      </c>
+      <c r="J75" s="10" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">  &lt;Image Name="train2" FileType="Sprite" Path="Cycling/View/train2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="17">
-        <v>3</v>
-      </c>
-      <c r="D76" s="12" t="s">
+      <c r="A76" s="15">
+        <v>3</v>
+      </c>
+      <c r="D76" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E76" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F76" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G76" s="12" t="s">
+      <c r="E76" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G76" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I76" s="17">
-        <v>1</v>
-      </c>
-      <c r="J76" s="12" t="str">
+      <c r="I76" s="15">
+        <v>1</v>
+      </c>
+      <c r="J76" s="10" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">  &lt;Image Name="train3" FileType="Sprite" Path="Cycling/View/train3" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="17">
+      <c r="A77" s="15">
         <v>4</v>
       </c>
-      <c r="J77" s="12" t="str">
+      <c r="J77" s="10" t="str">
         <f t="shared" si="3"/>
         <v>&lt;/Module&gt;</v>
       </c>
@@ -3737,7 +3651,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3756,4 +3670,867 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9" style="10"/>
+    <col min="4" max="4" width="18.25" style="10" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="13" t="str">
+        <f>IF(A3="1","&lt;Sound="""&amp;B3&amp;""" Storage="""&amp;C3&amp;""" Dec="""&amp;D3&amp;"""&gt;",IF(A3="2","  &lt;Clip SoundPath="""&amp;E3&amp;""" /&gt;",IF(A3="3"," /Sound&gt;","")))</f>
+        <v/>
+      </c>
+      <c r="F3" s="10" t="str">
+        <f>IF(A3=1,"&lt;Audio Name="""&amp;B3&amp;""" Storage="""&amp;C3&amp;""" Des="""&amp;D3&amp;"""&gt;",IF(A3=2,"  &lt;File Path="""&amp;E3&amp;""" /&gt;",IF(A3=3,"&lt;/Audio&gt;","")))</f>
+        <v>&lt;Audio Name="Welcome" Storage="Remote" Des="欢迎音效"&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" ref="F4:F5" si="0">IF(A4=1,"&lt;Audio Name="""&amp;B4&amp;""" Storage="""&amp;C4&amp;""" Des="""&amp;D4&amp;"""&gt;",IF(A4=2,"  &lt;File Path="""&amp;E4&amp;""" /&gt;",IF(A4=3,"&lt;/Audio&gt;","")))</f>
+        <v xml:space="preserve">  &lt;File Path="WangZheRongYao" /&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="10" t="str">
+        <f>IF(ISERROR(FIND("Des=",#REF!))=FALSE,MID(#REF!,FIND("Des=""",#REF!)+5,FIND("""&gt;",#REF!)-FIND("Des=""",#REF!)-5),"")</f>
+        <v/>
+      </c>
+      <c r="E5" s="10" t="str">
+        <f>IF(ISERROR(FIND("&lt;Clip",#REF!))=FALSE,MID(#REF!,FIND("SoundPath=""",#REF!)+11,FIND(""" /&gt;",#REF!)-FIND("SoundPath=""",#REF!)-11),"")</f>
+        <v/>
+      </c>
+      <c r="F5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;/Audio&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C222" sqref="C222:C228"/>
+      <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
+      <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3:I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="6.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9" style="6"/>
+    <col min="9" max="9" width="50.625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="5" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="6">
+        <v>320101</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3201</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6">
+        <v>320102</v>
+      </c>
+      <c r="I3" s="6" t="str">
+        <f>"&lt;Map ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" ProvinceID="""&amp;C3&amp;""" ProvinceName="""&amp;D3&amp;""" CityID="""&amp;E3&amp;""" CityName="""&amp;F3&amp;""" NextMap="""&amp;G3&amp;""" /&gt;"</f>
+        <v>&lt;Map ID="320101" Name="江苏01" ProvinceID="32" ProvinceName="江苏" CityID="3201" CityName="南京" NextMap="320102" /&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="6">
+        <v>320102</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="6">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3202</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4" s="6" t="str">
+        <f>"&lt;Map ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" ProvinceID="""&amp;C4&amp;""" ProvinceName="""&amp;D4&amp;""" CityID="""&amp;E4&amp;""" CityName="""&amp;F4&amp;""" NextMap="""&amp;G4&amp;""" /&gt;"</f>
+        <v>&lt;Map ID="320102" Name="江苏02" ProvinceID="32" ProvinceName="江苏" CityID="3202" CityName="镇江" NextMap="" /&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="Q1">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C222" sqref="C222:C228"/>
+      <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
+      <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="93.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="5" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="6">
+        <v>32010101</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6">
+        <v>320101</v>
+      </c>
+      <c r="D3" s="18">
+        <v>200100001</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f>"&lt;Scenic ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" MapID="""&amp;C3&amp;""" CardID="""&amp;D3&amp;""" /&gt;"</f>
+        <v>&lt;Scenic ID="32010101" Name="中山陵" MapID="320101" CardID="200100001" /&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="6">
+        <v>32010102</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6">
+        <v>320101</v>
+      </c>
+      <c r="D4" s="18">
+        <v>200100002</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f t="shared" ref="E4:E11" si="0">"&lt;Scenic ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" MapID="""&amp;C4&amp;""" CardID="""&amp;D4&amp;""" /&gt;"</f>
+        <v>&lt;Scenic ID="32010102" Name="总统府" MapID="320101" CardID="200100002" /&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="6">
+        <v>32010103</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6">
+        <v>320101</v>
+      </c>
+      <c r="D5" s="18">
+        <v>200100003</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="32010103" Name="夫子庙" MapID="320101" CardID="200100003" /&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="6">
+        <v>32010104</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6">
+        <v>320101</v>
+      </c>
+      <c r="D6" s="18">
+        <v>200100004</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="32010104" Name="瞻园" MapID="320101" CardID="200100004" /&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="6">
+        <v>32010105</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6">
+        <v>320101</v>
+      </c>
+      <c r="D7" s="18">
+        <v>200100005</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="32010105" Name="玄武湖公园" MapID="320101" CardID="200100005" /&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="6">
+        <v>32010106</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6">
+        <v>320101</v>
+      </c>
+      <c r="D8" s="18">
+        <v>200100006</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="32010106" Name="明孝陵" MapID="320101" CardID="200100006" /&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="6">
+        <v>32010107</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6">
+        <v>320101</v>
+      </c>
+      <c r="D9" s="18">
+        <v>200100007</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="32010107" Name="美龄宫" MapID="320101" CardID="200100007" /&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="6">
+        <v>32010108</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="6">
+        <v>320101</v>
+      </c>
+      <c r="D10" s="18">
+        <v>200100008</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="32010108" Name="南京大屠杀纪念馆" MapID="320101" CardID="200100008" /&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="6">
+        <v>32010109</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6">
+        <v>320101</v>
+      </c>
+      <c r="D11" s="18">
+        <v>200100009</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="32010109" Name="栖霞山" MapID="320101" CardID="200100009" /&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="M1">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C222" sqref="C222:C228"/>
+      <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
+      <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="9.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="18"/>
+    <col min="3" max="3" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="8" customWidth="1"/>
+    <col min="7" max="7" width="93.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="5" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="18">
+        <v>200100001</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6">
+        <v>32010101</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="6" t="str">
+        <f>"&lt;Card CardID="""&amp;A3&amp;""" CardType="""&amp;B3&amp;""" CardName="""&amp;C3&amp;""" ScenicID="""&amp;D3&amp;""" Image="""&amp;E3&amp;""" Text="""&amp;F3&amp;""" /&gt;"</f>
+        <v>&lt;Card CardID="200100001" CardType="1" CardName="中山陵" ScenicID="32010101" Image="NanJing/card_nanjing01" Text="中山陵介绍" /&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="18">
+        <v>200100002</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6">
+        <v>32010102</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="6" t="str">
+        <f t="shared" ref="G4:G11" si="0">"&lt;Card CardID="""&amp;A4&amp;""" CardType="""&amp;B4&amp;""" CardName="""&amp;C4&amp;""" ScenicID="""&amp;D4&amp;""" Image="""&amp;E4&amp;""" Text="""&amp;F4&amp;""" /&gt;"</f>
+        <v>&lt;Card CardID="200100002" CardType="01" CardName="总统府" ScenicID="32010102" Image="NanJing/card_nanjing02" Text="总统府介绍" /&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="18">
+        <v>200100003</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6">
+        <v>32010103</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Card CardID="200100003" CardType="01" CardName="夫子庙" ScenicID="32010103" Image="NanJing/card_nanjing03" Text="夫子庙介绍" /&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="18">
+        <v>200100004</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6">
+        <v>32010104</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Card CardID="200100004" CardType="01" CardName="瞻园" ScenicID="32010104" Image="NanJing/card_nanjing04" Text="瞻园介绍" /&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="18">
+        <v>200100005</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6">
+        <v>32010105</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Card CardID="200100005" CardType="01" CardName="玄武湖公园" ScenicID="32010105" Image="NanJing/card_nanjing05" Text="玄武湖公园介绍" /&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="18">
+        <v>200100006</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6">
+        <v>32010106</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Card CardID="200100006" CardType="01" CardName="明孝陵" ScenicID="32010106" Image="NanJing/card_nanjing06" Text="明孝陵介绍" /&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="18">
+        <v>200100007</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6">
+        <v>32010107</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Card CardID="200100007" CardType="01" CardName="美龄宫" ScenicID="32010107" Image="NanJing/card_nanjing07" Text="美龄宫介绍" /&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="18">
+        <v>200100008</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6">
+        <v>32010108</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Card CardID="200100008" CardType="01" CardName="南京大屠杀纪念馆" ScenicID="32010108" Image="NanJing/card_nanjing08" Text="南京大屠杀纪念馆介绍" /&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="18">
+        <v>200100009</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6">
+        <v>32010109</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Card CardID="200100009" CardType="01" CardName="栖霞山" ScenicID="32010109" Image="NanJing/card_nanjing09" Text="栖霞山介绍" /&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="O1">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="33" r:id="rId1"/>
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="197">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -796,9 +796,6 @@
     <t>station_panel</t>
   </si>
   <si>
-    <t>stay_button</t>
-  </si>
-  <si>
     <t>train1</t>
   </si>
   <si>
@@ -933,6 +930,24 @@
   <si>
     <t>CardID</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_line</t>
+  </si>
+  <si>
+    <t>pay_panel</t>
+  </si>
+  <si>
+    <t>pay_border</t>
+  </si>
+  <si>
+    <t>enable_button</t>
+  </si>
+  <si>
+    <t>disable_button</t>
+  </si>
+  <si>
+    <t>tip_error</t>
   </si>
 </sst>
 </file>
@@ -1153,6 +1168,13 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1173,13 +1195,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF4B4B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1482,7 +1497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1500,19 +1515,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>165</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>166</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>44</v>
@@ -1520,19 +1535,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>57</v>
@@ -1546,7 +1561,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="10" t="str">
@@ -1726,13 +1741,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30:XFD30"/>
+      <selection pane="bottomRight" activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2555,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="10" t="str">
-        <f t="shared" ref="J31:J67" si="2">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
+        <f t="shared" ref="J31:J55" si="2">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
         <v xml:space="preserve">  &lt;Image Name="nanjing_bg" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
       </c>
     </row>
@@ -3140,7 +3155,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>66</v>
@@ -3155,8 +3170,8 @@
         <v>1</v>
       </c>
       <c r="J56" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
+        <f t="shared" ref="J56:J77" si="3">IF(A56=1,"&lt;Module Name="""&amp;B56&amp;""" Desc="""&amp;C56&amp;"""&gt;",IF(E56="Package","  &lt;Image Name="""&amp;D56&amp;""" FileType="""&amp;F56&amp;""" AB="""&amp;H56&amp;""" Enable="""&amp;I56&amp;""" /&gt;",IF(E56="Single","  &lt;Image Name="""&amp;D56&amp;""" FileType="""&amp;F56&amp;""" Path="""&amp;G56&amp;D56&amp;""" Enable="""&amp;I56&amp;""" /&gt;", IF(A56=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="disable_button" FileType="Sprite" Path="Cycling/View/disable_button" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3164,7 +3179,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>66</v>
@@ -3179,8 +3194,8 @@
         <v>1</v>
       </c>
       <c r="J57" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;Image Name="enable_button" FileType="Sprite" Path="Cycling/View/enable_button" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3188,7 +3203,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>66</v>
@@ -3203,8 +3218,8 @@
         <v>1</v>
       </c>
       <c r="J58" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3212,7 +3227,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>66</v>
@@ -3227,8 +3242,8 @@
         <v>1</v>
       </c>
       <c r="J59" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3236,7 +3251,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>66</v>
@@ -3251,8 +3266,8 @@
         <v>1</v>
       </c>
       <c r="J60" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;Image Name="pay_border" FileType="Sprite" Path="Cycling/View/pay_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3260,7 +3275,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>66</v>
@@ -3275,8 +3290,8 @@
         <v>1</v>
       </c>
       <c r="J61" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;Image Name="pay_panel" FileType="Sprite" Path="Cycling/View/pay_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3284,7 +3299,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>66</v>
@@ -3299,8 +3314,8 @@
         <v>1</v>
       </c>
       <c r="J62" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;Image Name="pay_line" FileType="Sprite" Path="Cycling/View/pay_line" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3308,7 +3323,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>66</v>
@@ -3323,8 +3338,8 @@
         <v>1</v>
       </c>
       <c r="J63" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3332,7 +3347,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>66</v>
@@ -3347,8 +3362,8 @@
         <v>1</v>
       </c>
       <c r="J64" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3356,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>66</v>
@@ -3371,8 +3386,8 @@
         <v>1</v>
       </c>
       <c r="J65" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3380,7 +3395,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>66</v>
@@ -3395,8 +3410,8 @@
         <v>1</v>
       </c>
       <c r="J66" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3404,7 +3419,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>66</v>
@@ -3419,8 +3434,8 @@
         <v>1</v>
       </c>
       <c r="J67" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3428,7 +3443,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>66</v>
@@ -3443,8 +3458,8 @@
         <v>1</v>
       </c>
       <c r="J68" s="10" t="str">
-        <f t="shared" ref="J68:J77" si="3">IF(A68=1,"&lt;Module Name="""&amp;B68&amp;""" Desc="""&amp;C68&amp;"""&gt;",IF(E68="Package","  &lt;Image Name="""&amp;D68&amp;""" FileType="""&amp;F68&amp;""" AB="""&amp;H68&amp;""" Enable="""&amp;I68&amp;""" /&gt;",IF(E68="Single","  &lt;Image Name="""&amp;D68&amp;""" FileType="""&amp;F68&amp;""" Path="""&amp;G68&amp;D68&amp;""" Enable="""&amp;I68&amp;""" /&gt;", IF(A68=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="station_panel" FileType="Sprite" Path="Cycling/View/station_panel" Enable="1" /&gt;</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3452,7 +3467,7 @@
         <v>3</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>66</v>
@@ -3468,7 +3483,7 @@
       </c>
       <c r="J69" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="stay_button" FileType="Sprite" Path="Cycling/View/stay_button" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3476,7 +3491,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>66</v>
@@ -3492,7 +3507,7 @@
       </c>
       <c r="J70" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3500,7 +3515,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>66</v>
@@ -3516,7 +3531,7 @@
       </c>
       <c r="J71" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3524,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>66</v>
@@ -3540,7 +3555,7 @@
       </c>
       <c r="J72" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3548,7 +3563,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>66</v>
@@ -3564,7 +3579,7 @@
       </c>
       <c r="J73" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="station_panel" FileType="Sprite" Path="Cycling/View/station_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3572,7 +3587,7 @@
         <v>3</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>66</v>
@@ -3588,7 +3603,7 @@
       </c>
       <c r="J74" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="train1" FileType="Sprite" Path="Cycling/View/train1" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3596,7 +3611,7 @@
         <v>3</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>66</v>
@@ -3612,7 +3627,7 @@
       </c>
       <c r="J75" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="train2" FileType="Sprite" Path="Cycling/View/train2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3620,7 +3635,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>66</v>
@@ -3636,22 +3651,142 @@
       </c>
       <c r="J76" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="train3" FileType="Sprite" Path="Cycling/View/train3" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="15">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I77" s="15">
+        <v>1</v>
       </c>
       <c r="J77" s="10" t="str">
         <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;Image Name="tip_error" FileType="Sprite" Path="Cycling/View/tip_error" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="15">
+        <v>3</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I78" s="15">
+        <v>1</v>
+      </c>
+      <c r="J78" s="10" t="str">
+        <f t="shared" ref="J78:J82" si="4">IF(A78=1,"&lt;Module Name="""&amp;B78&amp;""" Desc="""&amp;C78&amp;"""&gt;",IF(E78="Package","  &lt;Image Name="""&amp;D78&amp;""" FileType="""&amp;F78&amp;""" AB="""&amp;H78&amp;""" Enable="""&amp;I78&amp;""" /&gt;",IF(E78="Single","  &lt;Image Name="""&amp;D78&amp;""" FileType="""&amp;F78&amp;""" Path="""&amp;G78&amp;D78&amp;""" Enable="""&amp;I78&amp;""" /&gt;", IF(A78=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="15">
+        <v>3</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I79" s="15">
+        <v>1</v>
+      </c>
+      <c r="J79" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  &lt;Image Name="train1" FileType="Sprite" Path="Cycling/View/train1" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="15">
+        <v>3</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I80" s="15">
+        <v>1</v>
+      </c>
+      <c r="J80" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  &lt;Image Name="train2" FileType="Sprite" Path="Cycling/View/train2" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="15">
+        <v>3</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I81" s="15">
+        <v>1</v>
+      </c>
+      <c r="J81" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  &lt;Image Name="train3" FileType="Sprite" Path="Cycling/View/train3" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="15">
+        <v>4</v>
+      </c>
+      <c r="J82" s="10" t="str">
+        <f t="shared" si="4"/>
         <v>&lt;/Module&gt;</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3878,7 +4013,7 @@
         <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>40</v>
@@ -3916,19 +4051,19 @@
         <v>320102</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="6">
         <v>32</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" s="6">
         <v>3202</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I4" s="6" t="str">
         <f>"&lt;Map ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" ProvinceID="""&amp;C4&amp;""" ProvinceName="""&amp;D4&amp;""" CityID="""&amp;E4&amp;""" CityName="""&amp;F4&amp;""" NextMap="""&amp;G4&amp;""" /&gt;"</f>
@@ -3979,7 +4114,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>28</v>
@@ -4007,7 +4142,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>4</v>
@@ -4178,7 +4313,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4212,10 +4347,10 @@
   <sheetData>
     <row r="1" spans="1:18" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -4246,16 +4381,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>175</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>0</v>
@@ -4272,7 +4407,7 @@
         <v>200100001</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>16</v>
@@ -4284,7 +4419,7 @@
         <v>140</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G3" s="6" t="str">
         <f>"&lt;Card CardID="""&amp;A3&amp;""" CardType="""&amp;B3&amp;""" CardName="""&amp;C3&amp;""" ScenicID="""&amp;D3&amp;""" Image="""&amp;E3&amp;""" Text="""&amp;F3&amp;""" /&gt;"</f>
@@ -4296,7 +4431,7 @@
         <v>200100002</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>17</v>
@@ -4308,7 +4443,7 @@
         <v>141</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G4" s="6" t="str">
         <f t="shared" ref="G4:G11" si="0">"&lt;Card CardID="""&amp;A4&amp;""" CardType="""&amp;B4&amp;""" CardName="""&amp;C4&amp;""" ScenicID="""&amp;D4&amp;""" Image="""&amp;E4&amp;""" Text="""&amp;F4&amp;""" /&gt;"</f>
@@ -4320,7 +4455,7 @@
         <v>200100003</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>18</v>
@@ -4332,7 +4467,7 @@
         <v>142</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G5" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4344,7 +4479,7 @@
         <v>200100004</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>19</v>
@@ -4356,7 +4491,7 @@
         <v>143</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G6" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4368,7 +4503,7 @@
         <v>200100005</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>20</v>
@@ -4380,7 +4515,7 @@
         <v>144</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G7" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4392,7 +4527,7 @@
         <v>200100006</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>21</v>
@@ -4404,7 +4539,7 @@
         <v>145</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G8" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4416,7 +4551,7 @@
         <v>200100007</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>22</v>
@@ -4428,7 +4563,7 @@
         <v>146</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4440,7 +4575,7 @@
         <v>200100008</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>24</v>
@@ -4452,7 +4587,7 @@
         <v>147</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G10" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4464,7 +4599,7 @@
         <v>200100009</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>23</v>
@@ -4476,7 +4611,7 @@
         <v>148</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4531,6 +4666,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="33" r:id="rId1"/>
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="206">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -948,6 +948,42 @@
   </si>
   <si>
     <t>tip_error</t>
+  </si>
+  <si>
+    <t>Prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapImage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PathImage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图预制体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>路线图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycling/nanjing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycling/zhenjiang</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1168,13 +1204,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1207,6 +1236,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF4B4B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1743,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A74" sqref="A74:XFD74"/>
@@ -3786,7 +3822,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3934,14 +3970,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
       <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3:I4"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3951,13 +3987,16 @@
     <col min="3" max="3" width="10.25" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9" style="6"/>
-    <col min="9" max="9" width="50.625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="6"/>
+    <col min="7" max="7" width="10.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9" style="6"/>
+    <col min="12" max="12" width="50.625" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1">
+    <row r="1" spans="1:23" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3976,24 +4015,33 @@
       <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="4"/>
+      <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="4"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -4013,13 +4061,22 @@
         <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:23">
       <c r="A3" s="6">
         <v>320101</v>
       </c>
@@ -4038,15 +4095,24 @@
       <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J3" s="6">
         <v>320102</v>
       </c>
-      <c r="I3" s="6" t="str">
-        <f>"&lt;Map ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" ProvinceID="""&amp;C3&amp;""" ProvinceName="""&amp;D3&amp;""" CityID="""&amp;E3&amp;""" CityName="""&amp;F3&amp;""" NextMap="""&amp;G3&amp;""" /&gt;"</f>
-        <v>&lt;Map ID="320101" Name="江苏01" ProvinceID="32" ProvinceName="江苏" CityID="3201" CityName="南京" NextMap="320102" /&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="L3" s="6" t="str">
+        <f>"&lt;Map ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" ProvinceID="""&amp;C3&amp;""" ProvinceName="""&amp;D3&amp;""" CityID="""&amp;E3&amp;""" CityName="""&amp;F3&amp;""" Prefab="""&amp;G3&amp;""" MapImage="""&amp;H3&amp;""" PathImage="""&amp;I3&amp;""" NextMap="""&amp;J3&amp;""" /&gt;"</f>
+        <v>&lt;Map ID="320101" Name="江苏01" ProvinceID="32" ProvinceName="江苏" CityID="3201" CityName="南京" Prefab="cycling/nanjing" MapImage="nanjing_bg" PathImage="path" NextMap="320102" /&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="6">
         <v>320102</v>
       </c>
@@ -4065,15 +4131,24 @@
       <c r="F4" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I4" s="6" t="str">
-        <f>"&lt;Map ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" ProvinceID="""&amp;C4&amp;""" ProvinceName="""&amp;D4&amp;""" CityID="""&amp;E4&amp;""" CityName="""&amp;F4&amp;""" NextMap="""&amp;G4&amp;""" /&gt;"</f>
-        <v>&lt;Map ID="320102" Name="江苏02" ProvinceID="32" ProvinceName="江苏" CityID="3202" CityName="镇江" NextMap="" /&gt;</v>
+      <c r="G4" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="L4" s="6" t="str">
+        <f>"&lt;Map ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" ProvinceID="""&amp;C4&amp;""" ProvinceName="""&amp;D4&amp;""" CityID="""&amp;E4&amp;""" CityName="""&amp;F4&amp;""" Prefab="""&amp;G4&amp;""" MapImage="""&amp;H4&amp;""" PathImage="""&amp;I4&amp;""" NextMap="""&amp;J4&amp;""" /&gt;"</f>
+        <v>&lt;Map ID="320102" Name="江苏02" ProvinceID="32" ProvinceName="江苏" CityID="3202" CityName="镇江" Prefab="cycling/zhenjiang" MapImage="nanjing_bg" PathImage="path" NextMap="" /&gt;</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="Q1">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+  <conditionalFormatting sqref="T1">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4313,7 +4388,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4661,7 +4736,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="212">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -920,10 +920,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>卡片编码</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -983,6 +979,34 @@
   </si>
   <si>
     <t>cycling/zhenjiang</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西津渡古街</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山寺</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>北固山</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦山</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>得撒石磨豆腐村</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝华山国家森林公园</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhenjiang_bg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3191,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>66</v>
@@ -3215,7 +3239,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>66</v>
@@ -3287,7 +3311,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>66</v>
@@ -3311,7 +3335,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>66</v>
@@ -3335,7 +3359,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>66</v>
@@ -3695,7 +3719,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>66</v>
@@ -3977,7 +4001,7 @@
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
       <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4016,13 +4040,13 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="3"/>
@@ -4061,13 +4085,13 @@
         <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>160</v>
@@ -4096,13 +4120,13 @@
         <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>60</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J3" s="6">
         <v>320102</v>
@@ -4132,17 +4156,17 @@
         <v>159</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>60</v>
+        <v>211</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L4" s="6" t="str">
         <f>"&lt;Map ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" ProvinceID="""&amp;C4&amp;""" ProvinceName="""&amp;D4&amp;""" CityID="""&amp;E4&amp;""" CityName="""&amp;F4&amp;""" Prefab="""&amp;G4&amp;""" MapImage="""&amp;H4&amp;""" PathImage="""&amp;I4&amp;""" NextMap="""&amp;J4&amp;""" /&gt;"</f>
-        <v>&lt;Map ID="320102" Name="江苏02" ProvinceID="32" ProvinceName="江苏" CityID="3202" CityName="镇江" Prefab="cycling/zhenjiang" MapImage="nanjing_bg" PathImage="path" NextMap="" /&gt;</v>
+        <v>&lt;Map ID="320102" Name="江苏02" ProvinceID="32" ProvinceName="江苏" CityID="3202" CityName="镇江" Prefab="cycling/zhenjiang" MapImage="zhenjiang_bg" PathImage="path" NextMap="" /&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -4158,14 +4182,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
       <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:E11"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4189,7 +4213,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>28</v>
@@ -4217,7 +4241,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>4</v>
@@ -4383,6 +4407,168 @@
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Scenic ID="32010109" Name="栖霞山" MapID="320101" CardID="200100009" /&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="6">
+        <v>32010201</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="6">
+        <v>320102</v>
+      </c>
+      <c r="D12" s="18">
+        <v>200100010</v>
+      </c>
+      <c r="E12" s="6" t="str">
+        <f>"&lt;Scenic ID="""&amp;A12&amp;""" Name="""&amp;B12&amp;""" MapID="""&amp;C12&amp;""" CardID="""&amp;D12&amp;""" /&gt;"</f>
+        <v>&lt;Scenic ID="32010201" Name="西津渡古街" MapID="320102" CardID="200100010" /&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="6">
+        <v>32010202</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="6">
+        <v>320102</v>
+      </c>
+      <c r="D13" s="18">
+        <v>200100011</v>
+      </c>
+      <c r="E13" s="6" t="str">
+        <f t="shared" ref="E13:E20" si="1">"&lt;Scenic ID="""&amp;A13&amp;""" Name="""&amp;B13&amp;""" MapID="""&amp;C13&amp;""" CardID="""&amp;D13&amp;""" /&gt;"</f>
+        <v>&lt;Scenic ID="32010202" Name="金山寺" MapID="320102" CardID="200100011" /&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="6">
+        <v>32010203</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="6">
+        <v>320102</v>
+      </c>
+      <c r="D14" s="18">
+        <v>200100012</v>
+      </c>
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Scenic ID="32010203" Name="北固山" MapID="320102" CardID="200100012" /&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="6">
+        <v>32010204</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="6">
+        <v>320102</v>
+      </c>
+      <c r="D15" s="18">
+        <v>200100013</v>
+      </c>
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Scenic ID="32010204" Name="焦山" MapID="320102" CardID="200100013" /&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="6">
+        <v>32010205</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="6">
+        <v>320102</v>
+      </c>
+      <c r="D16" s="18">
+        <v>200100014</v>
+      </c>
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Scenic ID="32010205" Name="得撒石磨豆腐村" MapID="320102" CardID="200100014" /&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6">
+        <v>32010206</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="6">
+        <v>320102</v>
+      </c>
+      <c r="D17" s="18">
+        <v>200100015</v>
+      </c>
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Scenic ID="32010206" Name="宝华山国家森林公园" MapID="320102" CardID="200100015" /&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6">
+        <v>32010207</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="6">
+        <v>320102</v>
+      </c>
+      <c r="D18" s="18">
+        <v>200100016</v>
+      </c>
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Scenic ID="32010207" Name="美龄宫" MapID="320102" CardID="200100016" /&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6">
+        <v>32010208</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="6">
+        <v>320102</v>
+      </c>
+      <c r="D19" s="18">
+        <v>200100017</v>
+      </c>
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Scenic ID="32010208" Name="南京大屠杀纪念馆" MapID="320102" CardID="200100017" /&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6">
+        <v>32010209</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="6">
+        <v>320102</v>
+      </c>
+      <c r="D20" s="18">
+        <v>200100018</v>
+      </c>
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Scenic ID="32010209" Name="栖霞山" MapID="320102" CardID="200100018" /&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -4405,7 +4591,7 @@
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
       <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3:G11"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4482,7 +4668,7 @@
         <v>200100001</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>16</v>
@@ -4498,7 +4684,7 @@
       </c>
       <c r="G3" s="6" t="str">
         <f>"&lt;Card CardID="""&amp;A3&amp;""" CardType="""&amp;B3&amp;""" CardName="""&amp;C3&amp;""" ScenicID="""&amp;D3&amp;""" Image="""&amp;E3&amp;""" Text="""&amp;F3&amp;""" /&gt;"</f>
-        <v>&lt;Card CardID="200100001" CardType="1" CardName="中山陵" ScenicID="32010101" Image="NanJing/card_nanjing01" Text="中山陵介绍" /&gt;</v>
+        <v>&lt;Card CardID="200100001" CardType="01" CardName="中山陵" ScenicID="32010101" Image="NanJing/card_nanjing01" Text="中山陵介绍" /&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4693,43 +4879,231 @@
         <v>&lt;Card CardID="200100009" CardType="01" CardName="栖霞山" ScenicID="32010109" Image="NanJing/card_nanjing09" Text="栖霞山介绍" /&gt;</v>
       </c>
     </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="18">
+        <v>200100010</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="6">
+        <v>32010201</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="6" t="str">
+        <f>"&lt;Card CardID="""&amp;A12&amp;""" CardType="""&amp;B12&amp;""" CardName="""&amp;C12&amp;""" ScenicID="""&amp;D12&amp;""" Image="""&amp;E12&amp;""" Text="""&amp;F12&amp;""" /&gt;"</f>
+        <v>&lt;Card CardID="200100010" CardType="01" CardName="西津渡古街" ScenicID="32010201" Image="NanJing/card_nanjing01" Text="中山陵介绍" /&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="18">
+        <v>200100011</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="6">
+        <v>32010202</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="6" t="str">
+        <f t="shared" ref="G13:G20" si="1">"&lt;Card CardID="""&amp;A13&amp;""" CardType="""&amp;B13&amp;""" CardName="""&amp;C13&amp;""" ScenicID="""&amp;D13&amp;""" Image="""&amp;E13&amp;""" Text="""&amp;F13&amp;""" /&gt;"</f>
+        <v>&lt;Card CardID="200100011" CardType="01" CardName="金山寺" ScenicID="32010202" Image="NanJing/card_nanjing02" Text="总统府介绍" /&gt;</v>
+      </c>
+    </row>
     <row r="14" spans="1:18">
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="A14" s="18">
+        <v>200100012</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="6">
+        <v>32010203</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Card CardID="200100012" CardType="01" CardName="北固山" ScenicID="32010203" Image="NanJing/card_nanjing03" Text="夫子庙介绍" /&gt;</v>
+      </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="18">
+        <v>200100013</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="6">
+        <v>32010204</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Card CardID="200100013" CardType="01" CardName="焦山" ScenicID="32010204" Image="NanJing/card_nanjing04" Text="瞻园介绍" /&gt;</v>
+      </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="5:6">
+      <c r="A16" s="18">
+        <v>200100014</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="6">
+        <v>32010205</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Card CardID="200100014" CardType="01" CardName="得撒石磨豆腐村" ScenicID="32010205" Image="NanJing/card_nanjing05" Text="玄武湖公园介绍" /&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="18">
+        <v>200100015</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="6">
+        <v>32010206</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Card CardID="200100015" CardType="01" CardName="宝华山国家森林公园" ScenicID="32010206" Image="NanJing/card_nanjing06" Text="明孝陵介绍" /&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="18">
+        <v>200100016</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="6">
+        <v>32010207</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Card CardID="200100016" CardType="01" CardName="美龄宫" ScenicID="32010207" Image="NanJing/card_nanjing07" Text="美龄宫介绍" /&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="18">
+        <v>200100017</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="6">
+        <v>32010208</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Card CardID="200100017" CardType="01" CardName="南京大屠杀纪念馆" ScenicID="32010208" Image="NanJing/card_nanjing08" Text="南京大屠杀纪念馆介绍" /&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="18">
+        <v>200100018</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="6">
+        <v>32010209</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Card CardID="200100018" CardType="01" CardName="栖霞山" ScenicID="32010209" Image="NanJing/card_nanjing09" Text="栖霞山介绍" /&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="5:6">
+    <row r="22" spans="1:7">
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="5:6">
+    <row r="23" spans="1:7">
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="33" r:id="rId1"/>
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="212">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -508,10 +508,6 @@
     <t>Sprite</t>
   </si>
   <si>
-    <t>cycling/nanjing</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Single</t>
   </si>
   <si>
@@ -632,9 +628,6 @@
     <t>hp_border</t>
   </si>
   <si>
-    <t>path</t>
-  </si>
-  <si>
     <t>pop_border1</t>
   </si>
   <si>
@@ -946,10 +939,6 @@
     <t>tip_error</t>
   </si>
   <si>
-    <t>Prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>MapImage</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1008,6 +997,16 @@
   <si>
     <t>zhenjiang_bg</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>traffic</t>
+  </si>
+  <si>
+    <t>cycling/traffic</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1228,6 +1227,13 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1260,13 +1266,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF4B4B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1575,19 +1574,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>163</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>165</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>44</v>
@@ -1595,19 +1594,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>57</v>
@@ -1621,7 +1620,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="10" t="str">
@@ -1801,13 +1800,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A74" sqref="A74:XFD74"/>
+      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1836,16 +1835,16 @@
         <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>58</v>
@@ -1866,16 +1865,16 @@
         <v>56</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>50</v>
@@ -1889,10 +1888,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="D3" s="6"/>
       <c r="F3" s="6"/>
@@ -1910,16 +1909,16 @@
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="15">
@@ -1937,16 +1936,16 @@
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="15">
@@ -1964,16 +1963,16 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="15">
@@ -1991,16 +1990,16 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="15">
@@ -2018,16 +2017,16 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="15">
@@ -2045,16 +2044,16 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="15">
@@ -2072,16 +2071,16 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="15">
@@ -2099,16 +2098,16 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="15">
@@ -2126,16 +2125,16 @@
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="15">
@@ -2153,16 +2152,16 @@
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="15">
@@ -2180,16 +2179,16 @@
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="15">
@@ -2207,16 +2206,16 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="15">
@@ -2234,16 +2233,16 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="15">
@@ -2261,16 +2260,16 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="15">
@@ -2288,16 +2287,16 @@
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="15">
@@ -2315,16 +2314,16 @@
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="15">
@@ -2342,16 +2341,16 @@
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="15">
@@ -2369,16 +2368,16 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="15">
@@ -2396,16 +2395,16 @@
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="15">
@@ -2423,16 +2422,16 @@
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="15">
@@ -2450,16 +2449,16 @@
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="15">
@@ -2477,16 +2476,16 @@
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="15">
@@ -2504,16 +2503,16 @@
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="15">
@@ -2531,16 +2530,16 @@
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="15">
@@ -2558,16 +2557,16 @@
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="15">
@@ -2615,47 +2614,47 @@
         <v>2</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>65</v>
+        <v>211</v>
       </c>
       <c r="I31" s="15">
         <v>1</v>
       </c>
       <c r="J31" s="10" t="str">
-        <f t="shared" ref="J31:J55" si="2">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="nanjing_bg" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
+        <f t="shared" ref="J31:J54" si="2">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="traffic" FileType="Texture2" AB="cycling/traffic" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="I32" s="15">
         <v>1</v>
       </c>
       <c r="J32" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="path" FileType="Texture2" AB="cycling/nanjing" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing01" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing01" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2663,23 +2662,23 @@
         <v>3</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I33" s="15">
         <v>1</v>
       </c>
       <c r="J33" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing01" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing01" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing02" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing02" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2687,23 +2686,23 @@
         <v>3</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I34" s="15">
         <v>1</v>
       </c>
       <c r="J34" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing02" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing02" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing03" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing03" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2711,23 +2710,23 @@
         <v>3</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I35" s="15">
         <v>1</v>
       </c>
       <c r="J35" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing03" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing03" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing04" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing04" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2735,23 +2734,23 @@
         <v>3</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I36" s="15">
         <v>1</v>
       </c>
       <c r="J36" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing04" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing04" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing05" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing05" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2759,23 +2758,23 @@
         <v>3</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I37" s="15">
         <v>1</v>
       </c>
       <c r="J37" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing05" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing05" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing06" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing06" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2783,23 +2782,23 @@
         <v>3</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I38" s="15">
         <v>1</v>
       </c>
       <c r="J38" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing06" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing06" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing07" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing07" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2807,23 +2806,23 @@
         <v>3</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I39" s="15">
         <v>1</v>
       </c>
       <c r="J39" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing07" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing07" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing08" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing08" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2831,23 +2830,23 @@
         <v>3</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I40" s="15">
         <v>1</v>
       </c>
       <c r="J40" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing08" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing08" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing09" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing09" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2855,23 +2854,23 @@
         <v>3</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="I41" s="15">
         <v>1</v>
       </c>
       <c r="J41" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing09" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing09" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="arrow_panel" FileType="Sprite" Path="Cycling/View/arrow_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2879,10 +2878,10 @@
         <v>3</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>64</v>
@@ -2895,7 +2894,7 @@
       </c>
       <c r="J42" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="arrow_panel" FileType="Sprite" Path="Cycling/View/arrow_panel" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="back" FileType="Sprite" Path="Cycling/View/back" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2906,7 +2905,7 @@
         <v>99</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>64</v>
@@ -2919,7 +2918,7 @@
       </c>
       <c r="J43" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="back" FileType="Sprite" Path="Cycling/View/back" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="book" FileType="Sprite" Path="Cycling/View/book" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2927,10 +2926,10 @@
         <v>3</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>64</v>
@@ -2943,7 +2942,7 @@
       </c>
       <c r="J44" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="book" FileType="Sprite" Path="Cycling/View/book" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="bus" FileType="Sprite" Path="Cycling/View/bus" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2951,10 +2950,10 @@
         <v>3</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>64</v>
@@ -2967,7 +2966,7 @@
       </c>
       <c r="J45" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="bus" FileType="Sprite" Path="Cycling/View/bus" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_back1" FileType="Sprite" Path="Cycling/View/card_back1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2975,10 +2974,10 @@
         <v>3</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>64</v>
@@ -2991,7 +2990,7 @@
       </c>
       <c r="J46" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_back1" FileType="Sprite" Path="Cycling/View/card_back1" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_back2" FileType="Sprite" Path="Cycling/View/card_back2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2999,10 +2998,10 @@
         <v>3</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>64</v>
@@ -3015,7 +3014,7 @@
       </c>
       <c r="J47" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_back2" FileType="Sprite" Path="Cycling/View/card_back2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_bg" FileType="Sprite" Path="Cycling/View/card_bg" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3023,10 +3022,10 @@
         <v>3</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>64</v>
@@ -3039,7 +3038,7 @@
       </c>
       <c r="J48" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_bg" FileType="Sprite" Path="Cycling/View/card_bg" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_place" FileType="Sprite" Path="Cycling/View/card_place" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3047,10 +3046,10 @@
         <v>3</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>64</v>
@@ -3063,7 +3062,7 @@
       </c>
       <c r="J49" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_place" FileType="Sprite" Path="Cycling/View/card_place" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_return" FileType="Sprite" Path="Cycling/View/card_return" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3071,10 +3070,10 @@
         <v>3</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>64</v>
@@ -3087,7 +3086,7 @@
       </c>
       <c r="J50" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_return" FileType="Sprite" Path="Cycling/View/card_return" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coin" FileType="Sprite" Path="Cycling/View/coin" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3095,10 +3094,10 @@
         <v>3</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>64</v>
@@ -3111,7 +3110,7 @@
       </c>
       <c r="J51" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="coin" FileType="Sprite" Path="Cycling/View/coin" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3119,10 +3118,10 @@
         <v>3</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>64</v>
@@ -3135,7 +3134,7 @@
       </c>
       <c r="J52" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3143,10 +3142,10 @@
         <v>3</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>64</v>
@@ -3159,7 +3158,7 @@
       </c>
       <c r="J53" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coord_friend" FileType="Sprite" Path="Cycling/View/coord_friend" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3167,10 +3166,10 @@
         <v>3</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>64</v>
@@ -3183,7 +3182,7 @@
       </c>
       <c r="J54" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="coord_friend" FileType="Sprite" Path="Cycling/View/coord_friend" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="cost_panel" FileType="Sprite" Path="Cycling/View/cost_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3191,10 +3190,10 @@
         <v>3</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>64</v>
@@ -3206,8 +3205,8 @@
         <v>1</v>
       </c>
       <c r="J55" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="cost_panel" FileType="Sprite" Path="Cycling/View/cost_panel" Enable="1" /&gt;</v>
+        <f t="shared" ref="J55:J76" si="3">IF(A55=1,"&lt;Module Name="""&amp;B55&amp;""" Desc="""&amp;C55&amp;"""&gt;",IF(E55="Package","  &lt;Image Name="""&amp;D55&amp;""" FileType="""&amp;F55&amp;""" AB="""&amp;H55&amp;""" Enable="""&amp;I55&amp;""" /&gt;",IF(E55="Single","  &lt;Image Name="""&amp;D55&amp;""" FileType="""&amp;F55&amp;""" Path="""&amp;G55&amp;D55&amp;""" Enable="""&amp;I55&amp;""" /&gt;", IF(A55=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="disable_button" FileType="Sprite" Path="Cycling/View/disable_button" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3215,10 +3214,10 @@
         <v>3</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>64</v>
@@ -3230,8 +3229,8 @@
         <v>1</v>
       </c>
       <c r="J56" s="10" t="str">
-        <f t="shared" ref="J56:J77" si="3">IF(A56=1,"&lt;Module Name="""&amp;B56&amp;""" Desc="""&amp;C56&amp;"""&gt;",IF(E56="Package","  &lt;Image Name="""&amp;D56&amp;""" FileType="""&amp;F56&amp;""" AB="""&amp;H56&amp;""" Enable="""&amp;I56&amp;""" /&gt;",IF(E56="Single","  &lt;Image Name="""&amp;D56&amp;""" FileType="""&amp;F56&amp;""" Path="""&amp;G56&amp;D56&amp;""" Enable="""&amp;I56&amp;""" /&gt;", IF(A56=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="disable_button" FileType="Sprite" Path="Cycling/View/disable_button" Enable="1" /&gt;</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;Image Name="enable_button" FileType="Sprite" Path="Cycling/View/enable_button" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3239,10 +3238,10 @@
         <v>3</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>64</v>
@@ -3255,7 +3254,7 @@
       </c>
       <c r="J57" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="enable_button" FileType="Sprite" Path="Cycling/View/enable_button" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3266,7 +3265,7 @@
         <v>102</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>64</v>
@@ -3279,7 +3278,7 @@
       </c>
       <c r="J58" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3287,10 +3286,10 @@
         <v>3</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>64</v>
@@ -3303,7 +3302,7 @@
       </c>
       <c r="J59" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pay_border" FileType="Sprite" Path="Cycling/View/pay_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3311,10 +3310,10 @@
         <v>3</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>64</v>
@@ -3327,7 +3326,7 @@
       </c>
       <c r="J60" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="pay_border" FileType="Sprite" Path="Cycling/View/pay_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pay_panel" FileType="Sprite" Path="Cycling/View/pay_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3335,10 +3334,10 @@
         <v>3</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>64</v>
@@ -3351,7 +3350,7 @@
       </c>
       <c r="J61" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="pay_panel" FileType="Sprite" Path="Cycling/View/pay_panel" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pay_line" FileType="Sprite" Path="Cycling/View/pay_line" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3359,10 +3358,10 @@
         <v>3</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>64</v>
@@ -3375,7 +3374,7 @@
       </c>
       <c r="J62" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="pay_line" FileType="Sprite" Path="Cycling/View/pay_line" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3383,10 +3382,10 @@
         <v>3</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>64</v>
@@ -3399,7 +3398,7 @@
       </c>
       <c r="J63" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3407,10 +3406,10 @@
         <v>3</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F64" s="12" t="s">
         <v>64</v>
@@ -3423,7 +3422,7 @@
       </c>
       <c r="J64" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3431,10 +3430,10 @@
         <v>3</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>64</v>
@@ -3447,7 +3446,7 @@
       </c>
       <c r="J65" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3455,10 +3454,10 @@
         <v>3</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F66" s="12" t="s">
         <v>64</v>
@@ -3471,7 +3470,7 @@
       </c>
       <c r="J66" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3479,10 +3478,10 @@
         <v>3</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F67" s="12" t="s">
         <v>64</v>
@@ -3495,7 +3494,7 @@
       </c>
       <c r="J67" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3503,10 +3502,10 @@
         <v>3</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F68" s="12" t="s">
         <v>64</v>
@@ -3519,7 +3518,7 @@
       </c>
       <c r="J68" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3527,10 +3526,10 @@
         <v>3</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F69" s="12" t="s">
         <v>64</v>
@@ -3543,7 +3542,7 @@
       </c>
       <c r="J69" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3551,10 +3550,10 @@
         <v>3</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F70" s="12" t="s">
         <v>64</v>
@@ -3567,7 +3566,7 @@
       </c>
       <c r="J70" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3575,10 +3574,10 @@
         <v>3</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>64</v>
@@ -3591,7 +3590,7 @@
       </c>
       <c r="J71" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3599,10 +3598,10 @@
         <v>3</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F72" s="12" t="s">
         <v>64</v>
@@ -3615,7 +3614,7 @@
       </c>
       <c r="J72" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="station_panel" FileType="Sprite" Path="Cycling/View/station_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3623,10 +3622,10 @@
         <v>3</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F73" s="12" t="s">
         <v>64</v>
@@ -3639,7 +3638,7 @@
       </c>
       <c r="J73" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="station_panel" FileType="Sprite" Path="Cycling/View/station_panel" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3647,10 +3646,10 @@
         <v>3</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F74" s="12" t="s">
         <v>64</v>
@@ -3663,7 +3662,7 @@
       </c>
       <c r="J74" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3671,10 +3670,10 @@
         <v>3</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F75" s="12" t="s">
         <v>64</v>
@@ -3687,7 +3686,7 @@
       </c>
       <c r="J75" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3695,10 +3694,10 @@
         <v>3</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F76" s="12" t="s">
         <v>64</v>
@@ -3711,7 +3710,7 @@
       </c>
       <c r="J76" s="10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="tip_error" FileType="Sprite" Path="Cycling/View/tip_error" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3719,10 +3718,10 @@
         <v>3</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>64</v>
@@ -3734,8 +3733,8 @@
         <v>1</v>
       </c>
       <c r="J77" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="tip_error" FileType="Sprite" Path="Cycling/View/tip_error" Enable="1" /&gt;</v>
+        <f t="shared" ref="J77:J81" si="4">IF(A77=1,"&lt;Module Name="""&amp;B77&amp;""" Desc="""&amp;C77&amp;"""&gt;",IF(E77="Package","  &lt;Image Name="""&amp;D77&amp;""" FileType="""&amp;F77&amp;""" AB="""&amp;H77&amp;""" Enable="""&amp;I77&amp;""" /&gt;",IF(E77="Single","  &lt;Image Name="""&amp;D77&amp;""" FileType="""&amp;F77&amp;""" Path="""&amp;G77&amp;D77&amp;""" Enable="""&amp;I77&amp;""" /&gt;", IF(A77=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3743,10 +3742,10 @@
         <v>3</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F78" s="12" t="s">
         <v>64</v>
@@ -3758,8 +3757,8 @@
         <v>1</v>
       </c>
       <c r="J78" s="10" t="str">
-        <f t="shared" ref="J78:J82" si="4">IF(A78=1,"&lt;Module Name="""&amp;B78&amp;""" Desc="""&amp;C78&amp;"""&gt;",IF(E78="Package","  &lt;Image Name="""&amp;D78&amp;""" FileType="""&amp;F78&amp;""" AB="""&amp;H78&amp;""" Enable="""&amp;I78&amp;""" /&gt;",IF(E78="Single","  &lt;Image Name="""&amp;D78&amp;""" FileType="""&amp;F78&amp;""" Path="""&amp;G78&amp;D78&amp;""" Enable="""&amp;I78&amp;""" /&gt;", IF(A78=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  &lt;Image Name="train1" FileType="Sprite" Path="Cycling/View/train1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3767,10 +3766,10 @@
         <v>3</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>64</v>
@@ -3783,7 +3782,7 @@
       </c>
       <c r="J79" s="10" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  &lt;Image Name="train1" FileType="Sprite" Path="Cycling/View/train1" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="train2" FileType="Sprite" Path="Cycling/View/train2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3791,10 +3790,10 @@
         <v>3</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F80" s="12" t="s">
         <v>64</v>
@@ -3807,38 +3806,14 @@
       </c>
       <c r="J80" s="10" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  &lt;Image Name="train2" FileType="Sprite" Path="Cycling/View/train2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="train3" FileType="Sprite" Path="Cycling/View/train3" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="15">
-        <v>3</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I81" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J81" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  &lt;Image Name="train3" FileType="Sprite" Path="Cycling/View/train3" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="15">
-        <v>4</v>
-      </c>
-      <c r="J82" s="10" t="str">
         <f t="shared" si="4"/>
         <v>&lt;/Module&gt;</v>
       </c>
@@ -3846,7 +3821,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3996,12 +3971,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
       <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3:L4"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4040,13 +4015,13 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="3"/>
@@ -4085,16 +4060,16 @@
         <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>40</v>
@@ -4120,20 +4095,20 @@
         <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>60</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J3" s="6">
         <v>320102</v>
       </c>
       <c r="L3" s="6" t="str">
-        <f>"&lt;Map ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" ProvinceID="""&amp;C3&amp;""" ProvinceName="""&amp;D3&amp;""" CityID="""&amp;E3&amp;""" CityName="""&amp;F3&amp;""" Prefab="""&amp;G3&amp;""" MapImage="""&amp;H3&amp;""" PathImage="""&amp;I3&amp;""" NextMap="""&amp;J3&amp;""" /&gt;"</f>
-        <v>&lt;Map ID="320101" Name="江苏01" ProvinceID="32" ProvinceName="江苏" CityID="3201" CityName="南京" Prefab="cycling/nanjing" MapImage="nanjing_bg" PathImage="path" NextMap="320102" /&gt;</v>
+        <f>"&lt;Map ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" ProvinceID="""&amp;C3&amp;""" ProvinceName="""&amp;D3&amp;""" CityID="""&amp;E3&amp;""" CityName="""&amp;F3&amp;""" AB="""&amp;G3&amp;""" MapImage="""&amp;H3&amp;""" PathImage="""&amp;I3&amp;""" NextMap="""&amp;J3&amp;""" /&gt;"</f>
+        <v>&lt;Map ID="320101" Name="江苏01" ProvinceID="32" ProvinceName="江苏" CityID="3201" CityName="南京" AB="cycling/nanjing" MapImage="nanjing_bg" PathImage="path" NextMap="320102" /&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -4141,38 +4116,38 @@
         <v>320102</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C4" s="6">
         <v>32</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E4" s="6">
         <v>3202</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L4" s="6" t="str">
-        <f>"&lt;Map ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" ProvinceID="""&amp;C4&amp;""" ProvinceName="""&amp;D4&amp;""" CityID="""&amp;E4&amp;""" CityName="""&amp;F4&amp;""" Prefab="""&amp;G4&amp;""" MapImage="""&amp;H4&amp;""" PathImage="""&amp;I4&amp;""" NextMap="""&amp;J4&amp;""" /&gt;"</f>
-        <v>&lt;Map ID="320102" Name="江苏02" ProvinceID="32" ProvinceName="江苏" CityID="3202" CityName="镇江" Prefab="cycling/zhenjiang" MapImage="zhenjiang_bg" PathImage="path" NextMap="" /&gt;</v>
+        <f>"&lt;Map ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" ProvinceID="""&amp;C4&amp;""" ProvinceName="""&amp;D4&amp;""" CityID="""&amp;E4&amp;""" CityName="""&amp;F4&amp;""" AB="""&amp;G4&amp;""" MapImage="""&amp;H4&amp;""" PathImage="""&amp;I4&amp;""" NextMap="""&amp;J4&amp;""" /&gt;"</f>
+        <v>&lt;Map ID="320102" Name="江苏02" ProvinceID="32" ProvinceName="江苏" CityID="3202" CityName="镇江" AB="cycling/zhenjiang" MapImage="zhenjiang_bg" PathImage="path" NextMap="" /&gt;</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="T1">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4213,7 +4188,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>28</v>
@@ -4241,7 +4216,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>4</v>
@@ -4414,7 +4389,7 @@
         <v>32010201</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C12" s="6">
         <v>320102</v>
@@ -4432,7 +4407,7 @@
         <v>32010202</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C13" s="6">
         <v>320102</v>
@@ -4450,7 +4425,7 @@
         <v>32010203</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C14" s="6">
         <v>320102</v>
@@ -4468,7 +4443,7 @@
         <v>32010204</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C15" s="6">
         <v>320102</v>
@@ -4486,7 +4461,7 @@
         <v>32010205</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C16" s="6">
         <v>320102</v>
@@ -4504,7 +4479,7 @@
         <v>32010206</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C17" s="6">
         <v>320102</v>
@@ -4574,7 +4549,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4608,10 +4583,10 @@
   <sheetData>
     <row r="1" spans="1:18" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -4642,16 +4617,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>0</v>
@@ -4668,7 +4643,7 @@
         <v>200100001</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>16</v>
@@ -4677,10 +4652,10 @@
         <v>32010101</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G3" s="6" t="str">
         <f>"&lt;Card CardID="""&amp;A3&amp;""" CardType="""&amp;B3&amp;""" CardName="""&amp;C3&amp;""" ScenicID="""&amp;D3&amp;""" Image="""&amp;E3&amp;""" Text="""&amp;F3&amp;""" /&gt;"</f>
@@ -4692,7 +4667,7 @@
         <v>200100002</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>17</v>
@@ -4701,10 +4676,10 @@
         <v>32010102</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G4" s="6" t="str">
         <f t="shared" ref="G4:G11" si="0">"&lt;Card CardID="""&amp;A4&amp;""" CardType="""&amp;B4&amp;""" CardName="""&amp;C4&amp;""" ScenicID="""&amp;D4&amp;""" Image="""&amp;E4&amp;""" Text="""&amp;F4&amp;""" /&gt;"</f>
@@ -4716,7 +4691,7 @@
         <v>200100003</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>18</v>
@@ -4725,10 +4700,10 @@
         <v>32010103</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G5" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4740,7 +4715,7 @@
         <v>200100004</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>19</v>
@@ -4749,10 +4724,10 @@
         <v>32010104</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G6" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4764,7 +4739,7 @@
         <v>200100005</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>20</v>
@@ -4773,10 +4748,10 @@
         <v>32010105</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G7" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4788,7 +4763,7 @@
         <v>200100006</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>21</v>
@@ -4797,10 +4772,10 @@
         <v>32010106</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G8" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4812,7 +4787,7 @@
         <v>200100007</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>22</v>
@@ -4821,10 +4796,10 @@
         <v>32010107</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4836,7 +4811,7 @@
         <v>200100008</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>24</v>
@@ -4845,10 +4820,10 @@
         <v>32010108</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G10" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4860,7 +4835,7 @@
         <v>200100009</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>23</v>
@@ -4869,10 +4844,10 @@
         <v>32010109</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4884,19 +4859,19 @@
         <v>200100010</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D12" s="6">
         <v>32010201</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G12" s="6" t="str">
         <f>"&lt;Card CardID="""&amp;A12&amp;""" CardType="""&amp;B12&amp;""" CardName="""&amp;C12&amp;""" ScenicID="""&amp;D12&amp;""" Image="""&amp;E12&amp;""" Text="""&amp;F12&amp;""" /&gt;"</f>
@@ -4908,19 +4883,19 @@
         <v>200100011</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D13" s="6">
         <v>32010202</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G13" s="6" t="str">
         <f t="shared" ref="G13:G20" si="1">"&lt;Card CardID="""&amp;A13&amp;""" CardType="""&amp;B13&amp;""" CardName="""&amp;C13&amp;""" ScenicID="""&amp;D13&amp;""" Image="""&amp;E13&amp;""" Text="""&amp;F13&amp;""" /&gt;"</f>
@@ -4932,19 +4907,19 @@
         <v>200100012</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D14" s="6">
         <v>32010203</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G14" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4956,19 +4931,19 @@
         <v>200100013</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D15" s="6">
         <v>32010204</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G15" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4980,19 +4955,19 @@
         <v>200100014</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D16" s="6">
         <v>32010205</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G16" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5004,19 +4979,19 @@
         <v>200100015</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D17" s="6">
         <v>32010206</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G17" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5028,7 +5003,7 @@
         <v>200100016</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>22</v>
@@ -5037,10 +5012,10 @@
         <v>32010207</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G18" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5052,7 +5027,7 @@
         <v>200100017</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>24</v>
@@ -5061,10 +5036,10 @@
         <v>32010208</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G19" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5076,7 +5051,7 @@
         <v>200100018</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>23</v>
@@ -5085,10 +5060,10 @@
         <v>32010209</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G20" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5110,7 +5085,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="33" r:id="rId1"/>
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="203">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -880,33 +880,6 @@
   <si>
     <t>卡片类型</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>中山陵介绍</t>
-  </si>
-  <si>
-    <t>总统府介绍</t>
-  </si>
-  <si>
-    <t>夫子庙介绍</t>
-  </si>
-  <si>
-    <t>瞻园介绍</t>
-  </si>
-  <si>
-    <t>玄武湖公园介绍</t>
-  </si>
-  <si>
-    <t>明孝陵介绍</t>
-  </si>
-  <si>
-    <t>美龄宫介绍</t>
-  </si>
-  <si>
-    <t>南京大屠杀纪念馆介绍</t>
-  </si>
-  <si>
-    <t>栖霞山介绍</t>
   </si>
   <si>
     <t>CardName</t>
@@ -1227,13 +1200,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1266,6 +1232,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF4B4B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1802,7 +1775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2614,7 +2587,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>66</v>
@@ -2623,7 +2596,7 @@
         <v>70</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="I31" s="15">
         <v>1</v>
@@ -3190,7 +3163,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>65</v>
@@ -3214,7 +3187,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>65</v>
@@ -3286,7 +3259,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>65</v>
@@ -3310,7 +3283,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>65</v>
@@ -3334,7 +3307,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>65</v>
@@ -3694,7 +3667,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>65</v>
@@ -3821,7 +3794,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4015,13 +3988,13 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="3"/>
@@ -4060,13 +4033,13 @@
         <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>158</v>
@@ -4095,13 +4068,13 @@
         <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>60</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="J3" s="6">
         <v>320102</v>
@@ -4131,13 +4104,13 @@
         <v>157</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="L4" s="6" t="str">
         <f>"&lt;Map ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" ProvinceID="""&amp;C4&amp;""" ProvinceName="""&amp;D4&amp;""" CityID="""&amp;E4&amp;""" CityName="""&amp;F4&amp;""" AB="""&amp;G4&amp;""" MapImage="""&amp;H4&amp;""" PathImage="""&amp;I4&amp;""" NextMap="""&amp;J4&amp;""" /&gt;"</f>
@@ -4147,7 +4120,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="T1">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4188,7 +4161,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>28</v>
@@ -4216,7 +4189,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>4</v>
@@ -4389,7 +4362,7 @@
         <v>32010201</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C12" s="6">
         <v>320102</v>
@@ -4407,7 +4380,7 @@
         <v>32010202</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C13" s="6">
         <v>320102</v>
@@ -4425,7 +4398,7 @@
         <v>32010203</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C14" s="6">
         <v>320102</v>
@@ -4443,7 +4416,7 @@
         <v>32010204</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C15" s="6">
         <v>320102</v>
@@ -4461,7 +4434,7 @@
         <v>32010205</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C16" s="6">
         <v>320102</v>
@@ -4479,7 +4452,7 @@
         <v>32010206</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C17" s="6">
         <v>320102</v>
@@ -4549,7 +4522,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4561,12 +4534,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
       <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:A20"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4623,7 +4596,7 @@
         <v>172</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>170</v>
@@ -4654,8 +4627,9 @@
       <c r="E3" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>176</v>
+      <c r="F3" s="8" t="str">
+        <f>C3&amp;"介绍"</f>
+        <v>中山陵介绍</v>
       </c>
       <c r="G3" s="6" t="str">
         <f>"&lt;Card CardID="""&amp;A3&amp;""" CardType="""&amp;B3&amp;""" CardName="""&amp;C3&amp;""" ScenicID="""&amp;D3&amp;""" Image="""&amp;E3&amp;""" Text="""&amp;F3&amp;""" /&gt;"</f>
@@ -4678,11 +4652,12 @@
       <c r="E4" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>177</v>
+      <c r="F4" s="8" t="str">
+        <f t="shared" ref="F4:F20" si="0">C4&amp;"介绍"</f>
+        <v>总统府介绍</v>
       </c>
       <c r="G4" s="6" t="str">
-        <f t="shared" ref="G4:G11" si="0">"&lt;Card CardID="""&amp;A4&amp;""" CardType="""&amp;B4&amp;""" CardName="""&amp;C4&amp;""" ScenicID="""&amp;D4&amp;""" Image="""&amp;E4&amp;""" Text="""&amp;F4&amp;""" /&gt;"</f>
+        <f t="shared" ref="G4:G11" si="1">"&lt;Card CardID="""&amp;A4&amp;""" CardType="""&amp;B4&amp;""" CardName="""&amp;C4&amp;""" ScenicID="""&amp;D4&amp;""" Image="""&amp;E4&amp;""" Text="""&amp;F4&amp;""" /&gt;"</f>
         <v>&lt;Card CardID="200100002" CardType="01" CardName="总统府" ScenicID="32010102" Image="NanJing/card_nanjing02" Text="总统府介绍" /&gt;</v>
       </c>
     </row>
@@ -4702,11 +4677,12 @@
       <c r="E5" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>178</v>
+      <c r="F5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>夫子庙介绍</v>
       </c>
       <c r="G5" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;Card CardID="200100003" CardType="01" CardName="夫子庙" ScenicID="32010103" Image="NanJing/card_nanjing03" Text="夫子庙介绍" /&gt;</v>
       </c>
     </row>
@@ -4726,11 +4702,12 @@
       <c r="E6" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>179</v>
+      <c r="F6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>瞻园介绍</v>
       </c>
       <c r="G6" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;Card CardID="200100004" CardType="01" CardName="瞻园" ScenicID="32010104" Image="NanJing/card_nanjing04" Text="瞻园介绍" /&gt;</v>
       </c>
     </row>
@@ -4750,11 +4727,12 @@
       <c r="E7" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>180</v>
+      <c r="F7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>玄武湖公园介绍</v>
       </c>
       <c r="G7" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;Card CardID="200100005" CardType="01" CardName="玄武湖公园" ScenicID="32010105" Image="NanJing/card_nanjing05" Text="玄武湖公园介绍" /&gt;</v>
       </c>
     </row>
@@ -4774,11 +4752,12 @@
       <c r="E8" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>181</v>
+      <c r="F8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>明孝陵介绍</v>
       </c>
       <c r="G8" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;Card CardID="200100006" CardType="01" CardName="明孝陵" ScenicID="32010106" Image="NanJing/card_nanjing06" Text="明孝陵介绍" /&gt;</v>
       </c>
     </row>
@@ -4798,11 +4777,12 @@
       <c r="E9" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>182</v>
+      <c r="F9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>美龄宫介绍</v>
       </c>
       <c r="G9" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;Card CardID="200100007" CardType="01" CardName="美龄宫" ScenicID="32010107" Image="NanJing/card_nanjing07" Text="美龄宫介绍" /&gt;</v>
       </c>
     </row>
@@ -4822,11 +4802,12 @@
       <c r="E10" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>183</v>
+      <c r="F10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>南京大屠杀纪念馆介绍</v>
       </c>
       <c r="G10" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;Card CardID="200100008" CardType="01" CardName="南京大屠杀纪念馆" ScenicID="32010108" Image="NanJing/card_nanjing08" Text="南京大屠杀纪念馆介绍" /&gt;</v>
       </c>
     </row>
@@ -4846,11 +4827,12 @@
       <c r="E11" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>184</v>
+      <c r="F11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>栖霞山介绍</v>
       </c>
       <c r="G11" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;Card CardID="200100009" CardType="01" CardName="栖霞山" ScenicID="32010109" Image="NanJing/card_nanjing09" Text="栖霞山介绍" /&gt;</v>
       </c>
     </row>
@@ -4862,7 +4844,7 @@
         <v>173</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D12" s="6">
         <v>32010201</v>
@@ -4870,12 +4852,13 @@
       <c r="E12" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>176</v>
+      <c r="F12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>西津渡古街介绍</v>
       </c>
       <c r="G12" s="6" t="str">
         <f>"&lt;Card CardID="""&amp;A12&amp;""" CardType="""&amp;B12&amp;""" CardName="""&amp;C12&amp;""" ScenicID="""&amp;D12&amp;""" Image="""&amp;E12&amp;""" Text="""&amp;F12&amp;""" /&gt;"</f>
-        <v>&lt;Card CardID="200100010" CardType="01" CardName="西津渡古街" ScenicID="32010201" Image="NanJing/card_nanjing01" Text="中山陵介绍" /&gt;</v>
+        <v>&lt;Card CardID="200100010" CardType="01" CardName="西津渡古街" ScenicID="32010201" Image="NanJing/card_nanjing01" Text="西津渡古街介绍" /&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -4886,7 +4869,7 @@
         <v>173</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D13" s="6">
         <v>32010202</v>
@@ -4894,12 +4877,13 @@
       <c r="E13" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>177</v>
+      <c r="F13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>金山寺介绍</v>
       </c>
       <c r="G13" s="6" t="str">
-        <f t="shared" ref="G13:G20" si="1">"&lt;Card CardID="""&amp;A13&amp;""" CardType="""&amp;B13&amp;""" CardName="""&amp;C13&amp;""" ScenicID="""&amp;D13&amp;""" Image="""&amp;E13&amp;""" Text="""&amp;F13&amp;""" /&gt;"</f>
-        <v>&lt;Card CardID="200100011" CardType="01" CardName="金山寺" ScenicID="32010202" Image="NanJing/card_nanjing02" Text="总统府介绍" /&gt;</v>
+        <f t="shared" ref="G13:G20" si="2">"&lt;Card CardID="""&amp;A13&amp;""" CardType="""&amp;B13&amp;""" CardName="""&amp;C13&amp;""" ScenicID="""&amp;D13&amp;""" Image="""&amp;E13&amp;""" Text="""&amp;F13&amp;""" /&gt;"</f>
+        <v>&lt;Card CardID="200100011" CardType="01" CardName="金山寺" ScenicID="32010202" Image="NanJing/card_nanjing02" Text="金山寺介绍" /&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -4910,7 +4894,7 @@
         <v>173</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D14" s="6">
         <v>32010203</v>
@@ -4918,12 +4902,13 @@
       <c r="E14" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>178</v>
+      <c r="F14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>北固山介绍</v>
       </c>
       <c r="G14" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100012" CardType="01" CardName="北固山" ScenicID="32010203" Image="NanJing/card_nanjing03" Text="夫子庙介绍" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;Card CardID="200100012" CardType="01" CardName="北固山" ScenicID="32010203" Image="NanJing/card_nanjing03" Text="北固山介绍" /&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -4934,7 +4919,7 @@
         <v>173</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D15" s="6">
         <v>32010204</v>
@@ -4942,12 +4927,13 @@
       <c r="E15" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>179</v>
+      <c r="F15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>焦山介绍</v>
       </c>
       <c r="G15" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100013" CardType="01" CardName="焦山" ScenicID="32010204" Image="NanJing/card_nanjing04" Text="瞻园介绍" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;Card CardID="200100013" CardType="01" CardName="焦山" ScenicID="32010204" Image="NanJing/card_nanjing04" Text="焦山介绍" /&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -4958,7 +4944,7 @@
         <v>173</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D16" s="6">
         <v>32010205</v>
@@ -4966,12 +4952,13 @@
       <c r="E16" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>180</v>
+      <c r="F16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>得撒石磨豆腐村介绍</v>
       </c>
       <c r="G16" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100014" CardType="01" CardName="得撒石磨豆腐村" ScenicID="32010205" Image="NanJing/card_nanjing05" Text="玄武湖公园介绍" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;Card CardID="200100014" CardType="01" CardName="得撒石磨豆腐村" ScenicID="32010205" Image="NanJing/card_nanjing05" Text="得撒石磨豆腐村介绍" /&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4982,7 +4969,7 @@
         <v>173</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D17" s="6">
         <v>32010206</v>
@@ -4990,12 +4977,13 @@
       <c r="E17" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>181</v>
+      <c r="F17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>宝华山国家森林公园介绍</v>
       </c>
       <c r="G17" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100015" CardType="01" CardName="宝华山国家森林公园" ScenicID="32010206" Image="NanJing/card_nanjing06" Text="明孝陵介绍" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;Card CardID="200100015" CardType="01" CardName="宝华山国家森林公园" ScenicID="32010206" Image="NanJing/card_nanjing06" Text="宝华山国家森林公园介绍" /&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5014,11 +5002,12 @@
       <c r="E18" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>182</v>
+      <c r="F18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>美龄宫介绍</v>
       </c>
       <c r="G18" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;Card CardID="200100016" CardType="01" CardName="美龄宫" ScenicID="32010207" Image="NanJing/card_nanjing07" Text="美龄宫介绍" /&gt;</v>
       </c>
     </row>
@@ -5038,11 +5027,12 @@
       <c r="E19" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>183</v>
+      <c r="F19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>南京大屠杀纪念馆介绍</v>
       </c>
       <c r="G19" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;Card CardID="200100017" CardType="01" CardName="南京大屠杀纪念馆" ScenicID="32010208" Image="NanJing/card_nanjing08" Text="南京大屠杀纪念馆介绍" /&gt;</v>
       </c>
     </row>
@@ -5062,11 +5052,12 @@
       <c r="E20" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>184</v>
+      <c r="F20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>栖霞山介绍</v>
       </c>
       <c r="G20" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;Card CardID="200100018" CardType="01" CardName="栖霞山" ScenicID="32010209" Image="NanJing/card_nanjing09" Text="栖霞山介绍" /&gt;</v>
       </c>
     </row>
@@ -5085,7 +5076,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="33" r:id="rId1"/>
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="207">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -980,6 +980,22 @@
   <si>
     <t>cycling/traffic</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市名称拼音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityPinYin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NANJING</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZHENJIANG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1536,7 +1552,7 @@
       <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.5" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="10" bestFit="1" customWidth="1"/>
@@ -1782,7 +1798,7 @@
       <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.25" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.5" style="10" bestFit="1" customWidth="1"/>
@@ -3826,7 +3842,7 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.25" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" style="10" customWidth="1"/>
@@ -3942,33 +3958,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
       <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.75" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9" style="6"/>
-    <col min="12" max="12" width="50.625" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="6"/>
+    <col min="7" max="7" width="8.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9" style="6"/>
+    <col min="13" max="13" width="50.625" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="5" customFormat="1">
+    <row r="1" spans="1:24" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3988,20 +4005,22 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -4009,11 +4028,12 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="4"/>
       <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -4033,22 +4053,25 @@
         <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
       <c r="A3" s="6">
         <v>320101</v>
       </c>
@@ -4068,23 +4091,26 @@
         <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="J3" s="6">
+      <c r="K3" s="6">
         <v>320102</v>
       </c>
-      <c r="L3" s="6" t="str">
-        <f>"&lt;Map ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" ProvinceID="""&amp;C3&amp;""" ProvinceName="""&amp;D3&amp;""" CityID="""&amp;E3&amp;""" CityName="""&amp;F3&amp;""" AB="""&amp;G3&amp;""" MapImage="""&amp;H3&amp;""" PathImage="""&amp;I3&amp;""" NextMap="""&amp;J3&amp;""" /&gt;"</f>
-        <v>&lt;Map ID="320101" Name="江苏01" ProvinceID="32" ProvinceName="江苏" CityID="3201" CityName="南京" AB="cycling/nanjing" MapImage="nanjing_bg" PathImage="path" NextMap="320102" /&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="M3" s="6" t="str">
+        <f>"&lt;Map ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" ProvinceID="""&amp;C3&amp;""" ProvinceName="""&amp;D3&amp;""" CityID="""&amp;E3&amp;""" CityName="""&amp;F3&amp;""" CityPinYin="""&amp;G3&amp;""" AB="""&amp;H3&amp;""" MapImage="""&amp;I3&amp;""" PathImage="""&amp;J3&amp;""" NextMap="""&amp;K3&amp;""" /&gt;"</f>
+        <v>&lt;Map ID="320101" Name="江苏01" ProvinceID="32" ProvinceName="江苏" CityID="3201" CityName="南京" CityPinYin="NANJING" AB="cycling/nanjing" MapImage="nanjing_bg" PathImage="path" NextMap="320102" /&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="6">
         <v>320102</v>
       </c>
@@ -4104,23 +4130,26 @@
         <v>157</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="L4" s="6" t="str">
-        <f>"&lt;Map ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" ProvinceID="""&amp;C4&amp;""" ProvinceName="""&amp;D4&amp;""" CityID="""&amp;E4&amp;""" CityName="""&amp;F4&amp;""" AB="""&amp;G4&amp;""" MapImage="""&amp;H4&amp;""" PathImage="""&amp;I4&amp;""" NextMap="""&amp;J4&amp;""" /&gt;"</f>
-        <v>&lt;Map ID="320102" Name="江苏02" ProvinceID="32" ProvinceName="江苏" CityID="3202" CityName="镇江" AB="cycling/zhenjiang" MapImage="zhenjiang_bg" PathImage="path" NextMap="" /&gt;</v>
+      <c r="M4" s="6" t="str">
+        <f>"&lt;Map ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" ProvinceID="""&amp;C4&amp;""" ProvinceName="""&amp;D4&amp;""" CityID="""&amp;E4&amp;""" CityName="""&amp;F4&amp;""" CityPinYin="""&amp;G4&amp;""" AB="""&amp;H4&amp;""" MapImage="""&amp;I4&amp;""" PathImage="""&amp;J4&amp;""" NextMap="""&amp;K4&amp;""" /&gt;"</f>
+        <v>&lt;Map ID="320102" Name="江苏02" ProvinceID="32" ProvinceName="江苏" CityID="3202" CityName="镇江" CityPinYin="ZHENJIANG" AB="cycling/zhenjiang" MapImage="zhenjiang_bg" PathImage="path" NextMap="" /&gt;</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="T1">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+  <conditionalFormatting sqref="U1">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4140,7 +4169,7 @@
       <selection pane="bottomRight" activeCell="E3" sqref="E3:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.5" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="6" bestFit="1" customWidth="1"/>
@@ -4522,7 +4551,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4534,7 +4563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
@@ -4542,7 +4571,7 @@
       <selection pane="bottomRight" activeCell="F3" sqref="F3:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.375" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="18"/>
@@ -5076,7 +5105,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="33" r:id="rId1"/>
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="213">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -491,9 +491,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>nanjing_bg</t>
-  </si>
-  <si>
     <t>coord</t>
   </si>
   <si>
@@ -912,30 +909,10 @@
     <t>tip_error</t>
   </si>
   <si>
-    <t>MapImage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PathImage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>地图预制体</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>地图图片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>路线图片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>cycling/nanjing</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -968,10 +945,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>zhenjiang_bg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AB</t>
   </si>
   <si>
@@ -995,6 +968,47 @@
   </si>
   <si>
     <t>ZHENJIANG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZhenJiang/card_zhenjiang01</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZhenJiang/card_zhenjiang02</t>
+  </si>
+  <si>
+    <t>ZhenJiang/card_zhenjiang03</t>
+  </si>
+  <si>
+    <t>ZhenJiang/card_zhenjiang04</t>
+  </si>
+  <si>
+    <t>ZhenJiang/card_zhenjiang05</t>
+  </si>
+  <si>
+    <t>ZhenJiang/card_zhenjiang06</t>
+  </si>
+  <si>
+    <t>card_zhenjiang01</t>
+  </si>
+  <si>
+    <t>card_zhenjiang02</t>
+  </si>
+  <si>
+    <t>card_zhenjiang03</t>
+  </si>
+  <si>
+    <t>card_zhenjiang04</t>
+  </si>
+  <si>
+    <t>card_zhenjiang05</t>
+  </si>
+  <si>
+    <t>card_zhenjiang06</t>
+  </si>
+  <si>
+    <t>Cycling/Site/ZhenJiang/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1214,7 +1228,21 @@
     <cellStyle name="常规 2 2" xfId="1"/>
     <cellStyle name="常规 2 2 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1248,13 +1276,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF4B4B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1552,7 +1573,7 @@
       <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="8.5" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="10" bestFit="1" customWidth="1"/>
@@ -1563,19 +1584,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>162</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>163</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>44</v>
@@ -1583,19 +1604,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>57</v>
@@ -1609,7 +1630,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="10" t="str">
@@ -1789,22 +1810,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomRight" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="5.25" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.5" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.875" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.875" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.125" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="10"/>
@@ -1824,16 +1845,16 @@
         <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>58</v>
@@ -1854,16 +1875,16 @@
         <v>56</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>50</v>
@@ -1877,10 +1898,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="D3" s="6"/>
       <c r="F3" s="6"/>
@@ -1898,16 +1919,16 @@
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="15">
@@ -1925,16 +1946,16 @@
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="15">
@@ -1952,16 +1973,16 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="15">
@@ -1979,16 +2000,16 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="15">
@@ -2006,16 +2027,16 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="15">
@@ -2033,16 +2054,16 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="15">
@@ -2060,16 +2081,16 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="15">
@@ -2087,16 +2108,16 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="15">
@@ -2114,16 +2135,16 @@
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="15">
@@ -2141,16 +2162,16 @@
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="15">
@@ -2168,16 +2189,16 @@
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="15">
@@ -2195,16 +2216,16 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="15">
@@ -2222,16 +2243,16 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="15">
@@ -2249,16 +2270,16 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="15">
@@ -2276,16 +2297,16 @@
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="15">
@@ -2303,16 +2324,16 @@
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="15">
@@ -2330,16 +2351,16 @@
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="15">
@@ -2357,16 +2378,16 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="15">
@@ -2384,16 +2405,16 @@
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="15">
@@ -2411,16 +2432,16 @@
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="15">
@@ -2438,16 +2459,16 @@
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="15">
@@ -2465,16 +2486,16 @@
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="15">
@@ -2492,16 +2513,16 @@
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="15">
@@ -2519,16 +2540,16 @@
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="15">
@@ -2546,16 +2567,16 @@
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="15">
@@ -2586,10 +2607,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="D30" s="11"/>
       <c r="F30" s="13"/>
@@ -2603,22 +2624,22 @@
         <v>2</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I31" s="15">
         <v>1</v>
       </c>
       <c r="J31" s="10" t="str">
-        <f t="shared" ref="J31:J54" si="2">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
+        <f t="shared" ref="J31:J60" si="2">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
         <v xml:space="preserve">  &lt;Image Name="traffic" FileType="Texture2" AB="cycling/traffic" Enable="1" /&gt;</v>
       </c>
     </row>
@@ -2627,16 +2648,16 @@
         <v>3</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I32" s="15">
         <v>1</v>
@@ -2651,16 +2672,16 @@
         <v>3</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I33" s="15">
         <v>1</v>
@@ -2675,16 +2696,16 @@
         <v>3</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I34" s="15">
         <v>1</v>
@@ -2699,16 +2720,16 @@
         <v>3</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I35" s="15">
         <v>1</v>
@@ -2723,16 +2744,16 @@
         <v>3</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I36" s="15">
         <v>1</v>
@@ -2747,16 +2768,16 @@
         <v>3</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I37" s="15">
         <v>1</v>
@@ -2771,16 +2792,16 @@
         <v>3</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I38" s="15">
         <v>1</v>
@@ -2795,16 +2816,16 @@
         <v>3</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" s="15">
         <v>1</v>
@@ -2819,16 +2840,16 @@
         <v>3</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I40" s="15">
         <v>1</v>
@@ -2843,493 +2864,493 @@
         <v>3</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G41" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="I41" s="15">
+        <v>1</v>
+      </c>
+      <c r="J41" s="10" t="str">
+        <f t="shared" ref="J41" si="3">IF(A41=1,"&lt;Module Name="""&amp;B41&amp;""" Desc="""&amp;C41&amp;"""&gt;",IF(E41="Package","  &lt;Image Name="""&amp;D41&amp;""" FileType="""&amp;F41&amp;""" AB="""&amp;H41&amp;""" Enable="""&amp;I41&amp;""" /&gt;",IF(E41="Single","  &lt;Image Name="""&amp;D41&amp;""" FileType="""&amp;F41&amp;""" Path="""&amp;G41&amp;D41&amp;""" Enable="""&amp;I41&amp;""" /&gt;", IF(A41=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang01" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang01" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="15">
+        <v>3</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="I42" s="15">
+        <v>1</v>
+      </c>
+      <c r="J42" s="10" t="str">
+        <f t="shared" ref="J42:J46" si="4">IF(A42=1,"&lt;Module Name="""&amp;B42&amp;""" Desc="""&amp;C42&amp;"""&gt;",IF(E42="Package","  &lt;Image Name="""&amp;D42&amp;""" FileType="""&amp;F42&amp;""" AB="""&amp;H42&amp;""" Enable="""&amp;I42&amp;""" /&gt;",IF(E42="Single","  &lt;Image Name="""&amp;D42&amp;""" FileType="""&amp;F42&amp;""" Path="""&amp;G42&amp;D42&amp;""" Enable="""&amp;I42&amp;""" /&gt;", IF(A42=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang02" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang02" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="15">
+        <v>3</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="I43" s="15">
+        <v>1</v>
+      </c>
+      <c r="J43" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang03" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang03" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="15">
+        <v>3</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="I44" s="15">
+        <v>1</v>
+      </c>
+      <c r="J44" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang04" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang04" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="15">
+        <v>3</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="I45" s="15">
+        <v>1</v>
+      </c>
+      <c r="J45" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang05" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang05" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="15">
+        <v>3</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="I46" s="15">
+        <v>1</v>
+      </c>
+      <c r="J46" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang06" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang06" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="15">
+        <v>3</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I41" s="15">
-        <v>1</v>
-      </c>
-      <c r="J41" s="10" t="str">
+      <c r="I47" s="15">
+        <v>1</v>
+      </c>
+      <c r="J47" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="arrow_panel" FileType="Sprite" Path="Cycling/View/arrow_panel" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="15">
-        <v>3</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G42" s="10" t="s">
+    <row r="48" spans="1:10">
+      <c r="A48" s="15">
+        <v>3</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I42" s="15">
-        <v>1</v>
-      </c>
-      <c r="J42" s="10" t="str">
+      <c r="I48" s="15">
+        <v>1</v>
+      </c>
+      <c r="J48" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="back" FileType="Sprite" Path="Cycling/View/back" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="15">
-        <v>3</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" s="10" t="s">
+    <row r="49" spans="1:10">
+      <c r="A49" s="15">
+        <v>3</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I43" s="15">
-        <v>1</v>
-      </c>
-      <c r="J43" s="10" t="str">
+      <c r="I49" s="15">
+        <v>1</v>
+      </c>
+      <c r="J49" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="book" FileType="Sprite" Path="Cycling/View/book" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="15">
-        <v>3</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G44" s="10" t="s">
+    <row r="50" spans="1:10">
+      <c r="A50" s="15">
+        <v>3</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I44" s="15">
-        <v>1</v>
-      </c>
-      <c r="J44" s="10" t="str">
+      <c r="I50" s="15">
+        <v>1</v>
+      </c>
+      <c r="J50" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="bus" FileType="Sprite" Path="Cycling/View/bus" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="15">
-        <v>3</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" s="10" t="s">
+    <row r="51" spans="1:10">
+      <c r="A51" s="15">
+        <v>3</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I45" s="15">
-        <v>1</v>
-      </c>
-      <c r="J45" s="10" t="str">
+      <c r="I51" s="15">
+        <v>1</v>
+      </c>
+      <c r="J51" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="card_back1" FileType="Sprite" Path="Cycling/View/card_back1" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="15">
-        <v>3</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G46" s="10" t="s">
+    <row r="52" spans="1:10">
+      <c r="A52" s="15">
+        <v>3</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I46" s="15">
-        <v>1</v>
-      </c>
-      <c r="J46" s="10" t="str">
+      <c r="I52" s="15">
+        <v>1</v>
+      </c>
+      <c r="J52" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="card_back2" FileType="Sprite" Path="Cycling/View/card_back2" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="15">
-        <v>3</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47" s="10" t="s">
+    <row r="53" spans="1:10">
+      <c r="A53" s="15">
+        <v>3</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I47" s="15">
-        <v>1</v>
-      </c>
-      <c r="J47" s="10" t="str">
+      <c r="I53" s="15">
+        <v>1</v>
+      </c>
+      <c r="J53" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="card_bg" FileType="Sprite" Path="Cycling/View/card_bg" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="15">
-        <v>3</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" s="10" t="s">
+    <row r="54" spans="1:10">
+      <c r="A54" s="15">
+        <v>3</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G54" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I48" s="15">
-        <v>1</v>
-      </c>
-      <c r="J48" s="10" t="str">
+      <c r="I54" s="15">
+        <v>1</v>
+      </c>
+      <c r="J54" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="card_place" FileType="Sprite" Path="Cycling/View/card_place" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="15">
-        <v>3</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" s="10" t="s">
+    <row r="55" spans="1:10">
+      <c r="A55" s="15">
+        <v>3</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I49" s="15">
-        <v>1</v>
-      </c>
-      <c r="J49" s="10" t="str">
+      <c r="I55" s="15">
+        <v>1</v>
+      </c>
+      <c r="J55" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="card_return" FileType="Sprite" Path="Cycling/View/card_return" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="15">
-        <v>3</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" s="10" t="s">
+    <row r="56" spans="1:10">
+      <c r="A56" s="15">
+        <v>3</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I50" s="15">
-        <v>1</v>
-      </c>
-      <c r="J50" s="10" t="str">
+      <c r="I56" s="15">
+        <v>1</v>
+      </c>
+      <c r="J56" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="coin" FileType="Sprite" Path="Cycling/View/coin" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="15">
-        <v>3</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G51" s="10" t="s">
+    <row r="57" spans="1:10">
+      <c r="A57" s="15">
+        <v>3</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I51" s="15">
-        <v>1</v>
-      </c>
-      <c r="J51" s="10" t="str">
+      <c r="I57" s="15">
+        <v>1</v>
+      </c>
+      <c r="J57" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="15">
-        <v>3</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" s="10" t="s">
+    <row r="58" spans="1:10">
+      <c r="A58" s="15">
+        <v>3</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I52" s="15">
-        <v>1</v>
-      </c>
-      <c r="J52" s="10" t="str">
+      <c r="I58" s="15">
+        <v>1</v>
+      </c>
+      <c r="J58" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="15">
-        <v>3</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G53" s="10" t="s">
+    <row r="59" spans="1:10">
+      <c r="A59" s="15">
+        <v>3</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I53" s="15">
-        <v>1</v>
-      </c>
-      <c r="J53" s="10" t="str">
+      <c r="I59" s="15">
+        <v>1</v>
+      </c>
+      <c r="J59" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="coord_friend" FileType="Sprite" Path="Cycling/View/coord_friend" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="15">
-        <v>3</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" s="10" t="s">
+    <row r="60" spans="1:10">
+      <c r="A60" s="15">
+        <v>3</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I54" s="15">
-        <v>1</v>
-      </c>
-      <c r="J54" s="10" t="str">
+      <c r="I60" s="15">
+        <v>1</v>
+      </c>
+      <c r="J60" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="cost_panel" FileType="Sprite" Path="Cycling/View/cost_panel" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="15">
-        <v>3</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I55" s="15">
-        <v>1</v>
-      </c>
-      <c r="J55" s="10" t="str">
-        <f t="shared" ref="J55:J76" si="3">IF(A55=1,"&lt;Module Name="""&amp;B55&amp;""" Desc="""&amp;C55&amp;"""&gt;",IF(E55="Package","  &lt;Image Name="""&amp;D55&amp;""" FileType="""&amp;F55&amp;""" AB="""&amp;H55&amp;""" Enable="""&amp;I55&amp;""" /&gt;",IF(E55="Single","  &lt;Image Name="""&amp;D55&amp;""" FileType="""&amp;F55&amp;""" Path="""&amp;G55&amp;D55&amp;""" Enable="""&amp;I55&amp;""" /&gt;", IF(A55=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="disable_button" FileType="Sprite" Path="Cycling/View/disable_button" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="15">
-        <v>3</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I56" s="15">
-        <v>1</v>
-      </c>
-      <c r="J56" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="enable_button" FileType="Sprite" Path="Cycling/View/enable_button" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="15">
-        <v>3</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I57" s="15">
-        <v>1</v>
-      </c>
-      <c r="J57" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="15">
-        <v>3</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I58" s="15">
-        <v>1</v>
-      </c>
-      <c r="J58" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="15">
-        <v>3</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I59" s="15">
-        <v>1</v>
-      </c>
-      <c r="J59" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="pay_border" FileType="Sprite" Path="Cycling/View/pay_border" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="15">
-        <v>3</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I60" s="15">
-        <v>1</v>
-      </c>
-      <c r="J60" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="pay_panel" FileType="Sprite" Path="Cycling/View/pay_panel" Enable="1" /&gt;</v>
-      </c>
-    </row>
     <row r="61" spans="1:10">
       <c r="A61" s="15">
         <v>3</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>59</v>
@@ -3338,8 +3359,8 @@
         <v>1</v>
       </c>
       <c r="J61" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="pay_line" FileType="Sprite" Path="Cycling/View/pay_line" Enable="1" /&gt;</v>
+        <f t="shared" ref="J61:J82" si="5">IF(A61=1,"&lt;Module Name="""&amp;B61&amp;""" Desc="""&amp;C61&amp;"""&gt;",IF(E61="Package","  &lt;Image Name="""&amp;D61&amp;""" FileType="""&amp;F61&amp;""" AB="""&amp;H61&amp;""" Enable="""&amp;I61&amp;""" /&gt;",IF(E61="Single","  &lt;Image Name="""&amp;D61&amp;""" FileType="""&amp;F61&amp;""" Path="""&amp;G61&amp;D61&amp;""" Enable="""&amp;I61&amp;""" /&gt;", IF(A61=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="disable_button" FileType="Sprite" Path="Cycling/View/disable_button" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3347,13 +3368,13 @@
         <v>3</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>59</v>
@@ -3362,8 +3383,8 @@
         <v>1</v>
       </c>
       <c r="J62" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="enable_button" FileType="Sprite" Path="Cycling/View/enable_button" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3371,13 +3392,13 @@
         <v>3</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>59</v>
@@ -3386,8 +3407,8 @@
         <v>1</v>
       </c>
       <c r="J63" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3395,13 +3416,13 @@
         <v>3</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G64" s="10" t="s">
         <v>59</v>
@@ -3410,8 +3431,8 @@
         <v>1</v>
       </c>
       <c r="J64" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3419,13 +3440,13 @@
         <v>3</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>59</v>
@@ -3434,8 +3455,8 @@
         <v>1</v>
       </c>
       <c r="J65" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="pay_border" FileType="Sprite" Path="Cycling/View/pay_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3443,13 +3464,13 @@
         <v>3</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G66" s="10" t="s">
         <v>59</v>
@@ -3458,8 +3479,8 @@
         <v>1</v>
       </c>
       <c r="J66" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="pay_panel" FileType="Sprite" Path="Cycling/View/pay_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3467,13 +3488,13 @@
         <v>3</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>59</v>
@@ -3482,8 +3503,8 @@
         <v>1</v>
       </c>
       <c r="J67" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="pay_line" FileType="Sprite" Path="Cycling/View/pay_line" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3491,13 +3512,13 @@
         <v>3</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G68" s="10" t="s">
         <v>59</v>
@@ -3506,8 +3527,8 @@
         <v>1</v>
       </c>
       <c r="J68" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3515,13 +3536,13 @@
         <v>3</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>59</v>
@@ -3530,8 +3551,8 @@
         <v>1</v>
       </c>
       <c r="J69" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3539,13 +3560,13 @@
         <v>3</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>59</v>
@@ -3554,8 +3575,8 @@
         <v>1</v>
       </c>
       <c r="J70" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3563,13 +3584,13 @@
         <v>3</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>59</v>
@@ -3578,8 +3599,8 @@
         <v>1</v>
       </c>
       <c r="J71" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3587,13 +3608,13 @@
         <v>3</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G72" s="10" t="s">
         <v>59</v>
@@ -3602,8 +3623,8 @@
         <v>1</v>
       </c>
       <c r="J72" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="station_panel" FileType="Sprite" Path="Cycling/View/station_panel" Enable="1" /&gt;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3611,13 +3632,13 @@
         <v>3</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>59</v>
@@ -3626,8 +3647,8 @@
         <v>1</v>
       </c>
       <c r="J73" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3635,13 +3656,13 @@
         <v>3</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G74" s="10" t="s">
         <v>59</v>
@@ -3650,8 +3671,8 @@
         <v>1</v>
       </c>
       <c r="J74" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3659,13 +3680,13 @@
         <v>3</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>59</v>
@@ -3674,8 +3695,8 @@
         <v>1</v>
       </c>
       <c r="J75" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3683,13 +3704,13 @@
         <v>3</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>59</v>
@@ -3698,8 +3719,8 @@
         <v>1</v>
       </c>
       <c r="J76" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  &lt;Image Name="tip_error" FileType="Sprite" Path="Cycling/View/tip_error" Enable="1" /&gt;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3707,13 +3728,13 @@
         <v>3</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>59</v>
@@ -3722,8 +3743,8 @@
         <v>1</v>
       </c>
       <c r="J77" s="10" t="str">
-        <f t="shared" ref="J77:J81" si="4">IF(A77=1,"&lt;Module Name="""&amp;B77&amp;""" Desc="""&amp;C77&amp;"""&gt;",IF(E77="Package","  &lt;Image Name="""&amp;D77&amp;""" FileType="""&amp;F77&amp;""" AB="""&amp;H77&amp;""" Enable="""&amp;I77&amp;""" /&gt;",IF(E77="Single","  &lt;Image Name="""&amp;D77&amp;""" FileType="""&amp;F77&amp;""" Path="""&amp;G77&amp;D77&amp;""" Enable="""&amp;I77&amp;""" /&gt;", IF(A77=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3731,13 +3752,13 @@
         <v>3</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G78" s="10" t="s">
         <v>59</v>
@@ -3746,8 +3767,8 @@
         <v>1</v>
       </c>
       <c r="J78" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  &lt;Image Name="train1" FileType="Sprite" Path="Cycling/View/train1" Enable="1" /&gt;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="station_panel" FileType="Sprite" Path="Cycling/View/station_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3755,13 +3776,13 @@
         <v>3</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>59</v>
@@ -3770,8 +3791,8 @@
         <v>1</v>
       </c>
       <c r="J79" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  &lt;Image Name="train2" FileType="Sprite" Path="Cycling/View/train2" Enable="1" /&gt;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3779,13 +3800,13 @@
         <v>3</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>59</v>
@@ -3794,23 +3815,167 @@
         <v>1</v>
       </c>
       <c r="J80" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  &lt;Image Name="train3" FileType="Sprite" Path="Cycling/View/train3" Enable="1" /&gt;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="15">
+        <v>3</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I81" s="15">
+        <v>1</v>
+      </c>
+      <c r="J81" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="15">
+        <v>3</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I82" s="15">
+        <v>1</v>
+      </c>
+      <c r="J82" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="tip_error" FileType="Sprite" Path="Cycling/View/tip_error" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="15">
+        <v>3</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I83" s="15">
+        <v>1</v>
+      </c>
+      <c r="J83" s="10" t="str">
+        <f t="shared" ref="J83:J87" si="6">IF(A83=1,"&lt;Module Name="""&amp;B83&amp;""" Desc="""&amp;C83&amp;"""&gt;",IF(E83="Package","  &lt;Image Name="""&amp;D83&amp;""" FileType="""&amp;F83&amp;""" AB="""&amp;H83&amp;""" Enable="""&amp;I83&amp;""" /&gt;",IF(E83="Single","  &lt;Image Name="""&amp;D83&amp;""" FileType="""&amp;F83&amp;""" Path="""&amp;G83&amp;D83&amp;""" Enable="""&amp;I83&amp;""" /&gt;", IF(A83=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="15">
+        <v>3</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I84" s="15">
+        <v>1</v>
+      </c>
+      <c r="J84" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="train1" FileType="Sprite" Path="Cycling/View/train1" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="15">
+        <v>3</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I85" s="15">
+        <v>1</v>
+      </c>
+      <c r="J85" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="train2" FileType="Sprite" Path="Cycling/View/train2" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="15">
+        <v>3</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I86" s="15">
+        <v>1</v>
+      </c>
+      <c r="J86" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="train3" FileType="Sprite" Path="Cycling/View/train3" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="15">
         <v>4</v>
       </c>
-      <c r="J81" s="10" t="str">
-        <f t="shared" si="4"/>
+      <c r="J87" s="10" t="str">
+        <f t="shared" si="6"/>
         <v>&lt;/Module&gt;</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3842,7 +4007,7 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="5.25" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" style="10" customWidth="1"/>
@@ -3958,17 +4123,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
       <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3:M4"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="6.75" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="6" bestFit="1" customWidth="1"/>
@@ -3977,15 +4142,13 @@
     <col min="5" max="6" width="8.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" style="6" customWidth="1"/>
     <col min="8" max="8" width="10.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="6" customWidth="1"/>
-    <col min="12" max="12" width="9" style="6"/>
-    <col min="13" max="13" width="50.625" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="6"/>
+    <col min="9" max="9" width="8.5" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9" style="6"/>
+    <col min="11" max="11" width="50.625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="5" customFormat="1">
+    <row r="1" spans="1:22" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4005,35 +4168,29 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="T1" s="4"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -4053,25 +4210,19 @@
         <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="M2" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:22">
       <c r="A3" s="6">
         <v>320101</v>
       </c>
@@ -4091,65 +4242,53 @@
         <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="K3" s="6">
+        <v>185</v>
+      </c>
+      <c r="I3" s="6">
         <v>320102</v>
       </c>
-      <c r="M3" s="6" t="str">
-        <f>"&lt;Map ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" ProvinceID="""&amp;C3&amp;""" ProvinceName="""&amp;D3&amp;""" CityID="""&amp;E3&amp;""" CityName="""&amp;F3&amp;""" CityPinYin="""&amp;G3&amp;""" AB="""&amp;H3&amp;""" MapImage="""&amp;I3&amp;""" PathImage="""&amp;J3&amp;""" NextMap="""&amp;K3&amp;""" /&gt;"</f>
-        <v>&lt;Map ID="320101" Name="江苏01" ProvinceID="32" ProvinceName="江苏" CityID="3201" CityName="南京" CityPinYin="NANJING" AB="cycling/nanjing" MapImage="nanjing_bg" PathImage="path" NextMap="320102" /&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="K3" s="6" t="str">
+        <f>"&lt;Map ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" ProvinceID="""&amp;C3&amp;""" ProvinceName="""&amp;D3&amp;""" CityID="""&amp;E3&amp;""" CityName="""&amp;F3&amp;""" CityPinYin="""&amp;G3&amp;""" AB="""&amp;H3&amp;""" NextMap="""&amp;I3&amp;""" /&gt;"</f>
+        <v>&lt;Map ID="320101" Name="江苏01" ProvinceID="32" ProvinceName="江苏" CityID="3201" CityName="南京" CityPinYin="NANJING" AB="cycling/nanjing" NextMap="320102" /&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="6">
         <v>320102</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="6">
         <v>32</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E4" s="6">
         <v>3202</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="M4" s="6" t="str">
-        <f>"&lt;Map ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" ProvinceID="""&amp;C4&amp;""" ProvinceName="""&amp;D4&amp;""" CityID="""&amp;E4&amp;""" CityName="""&amp;F4&amp;""" CityPinYin="""&amp;G4&amp;""" AB="""&amp;H4&amp;""" MapImage="""&amp;I4&amp;""" PathImage="""&amp;J4&amp;""" NextMap="""&amp;K4&amp;""" /&gt;"</f>
-        <v>&lt;Map ID="320102" Name="江苏02" ProvinceID="32" ProvinceName="江苏" CityID="3202" CityName="镇江" CityPinYin="ZHENJIANG" AB="cycling/zhenjiang" MapImage="zhenjiang_bg" PathImage="path" NextMap="" /&gt;</v>
+        <v>186</v>
+      </c>
+      <c r="K4" s="6" t="str">
+        <f>"&lt;Map ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" ProvinceID="""&amp;C4&amp;""" ProvinceName="""&amp;D4&amp;""" CityID="""&amp;E4&amp;""" CityName="""&amp;F4&amp;""" CityPinYin="""&amp;G4&amp;""" AB="""&amp;H4&amp;""" NextMap="""&amp;I4&amp;""" /&gt;"</f>
+        <v>&lt;Map ID="320102" Name="江苏02" ProvinceID="32" ProvinceName="江苏" CityID="3202" CityName="镇江" CityPinYin="ZHENJIANG" AB="cycling/zhenjiang" NextMap="" /&gt;</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="U1">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+  <conditionalFormatting sqref="S1">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4159,20 +4298,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
       <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:E20"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="93.625" style="6" bestFit="1" customWidth="1"/>
@@ -4190,7 +4329,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>28</v>
@@ -4218,7 +4357,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>4</v>
@@ -4391,7 +4530,7 @@
         <v>32010201</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C12" s="6">
         <v>320102</v>
@@ -4409,7 +4548,7 @@
         <v>32010202</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C13" s="6">
         <v>320102</v>
@@ -4418,7 +4557,7 @@
         <v>200100011</v>
       </c>
       <c r="E13" s="6" t="str">
-        <f t="shared" ref="E13:E20" si="1">"&lt;Scenic ID="""&amp;A13&amp;""" Name="""&amp;B13&amp;""" MapID="""&amp;C13&amp;""" CardID="""&amp;D13&amp;""" /&gt;"</f>
+        <f t="shared" ref="E13:E17" si="1">"&lt;Scenic ID="""&amp;A13&amp;""" Name="""&amp;B13&amp;""" MapID="""&amp;C13&amp;""" CardID="""&amp;D13&amp;""" /&gt;"</f>
         <v>&lt;Scenic ID="32010202" Name="金山寺" MapID="320102" CardID="200100011" /&gt;</v>
       </c>
     </row>
@@ -4427,7 +4566,7 @@
         <v>32010203</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C14" s="6">
         <v>320102</v>
@@ -4445,7 +4584,7 @@
         <v>32010204</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C15" s="6">
         <v>320102</v>
@@ -4463,7 +4602,7 @@
         <v>32010205</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C16" s="6">
         <v>320102</v>
@@ -4481,7 +4620,7 @@
         <v>32010206</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C17" s="6">
         <v>320102</v>
@@ -4494,64 +4633,10 @@
         <v>&lt;Scenic ID="32010206" Name="宝华山国家森林公园" MapID="320102" CardID="200100015" /&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="6">
-        <v>32010207</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="6">
-        <v>320102</v>
-      </c>
-      <c r="D18" s="18">
-        <v>200100016</v>
-      </c>
-      <c r="E18" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Scenic ID="32010207" Name="美龄宫" MapID="320102" CardID="200100016" /&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="6">
-        <v>32010208</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="6">
-        <v>320102</v>
-      </c>
-      <c r="D19" s="18">
-        <v>200100017</v>
-      </c>
-      <c r="E19" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Scenic ID="32010208" Name="南京大屠杀纪念馆" MapID="320102" CardID="200100017" /&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="6">
-        <v>32010209</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="6">
-        <v>320102</v>
-      </c>
-      <c r="D20" s="18">
-        <v>200100018</v>
-      </c>
-      <c r="E20" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Scenic ID="32010209" Name="栖霞山" MapID="320102" CardID="200100018" /&gt;</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4561,17 +4646,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
       <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F20"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9.375" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="18"/>
@@ -4585,10 +4670,10 @@
   <sheetData>
     <row r="1" spans="1:18" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -4619,16 +4704,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>172</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>0</v>
@@ -4645,7 +4730,7 @@
         <v>200100001</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>16</v>
@@ -4654,7 +4739,7 @@
         <v>32010101</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F3" s="8" t="str">
         <f>C3&amp;"介绍"</f>
@@ -4670,7 +4755,7 @@
         <v>200100002</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>17</v>
@@ -4679,10 +4764,10 @@
         <v>32010102</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F4" s="8" t="str">
-        <f t="shared" ref="F4:F20" si="0">C4&amp;"介绍"</f>
+        <f t="shared" ref="F4:F17" si="0">C4&amp;"介绍"</f>
         <v>总统府介绍</v>
       </c>
       <c r="G4" s="6" t="str">
@@ -4695,7 +4780,7 @@
         <v>200100003</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>18</v>
@@ -4704,7 +4789,7 @@
         <v>32010103</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4720,7 +4805,7 @@
         <v>200100004</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>19</v>
@@ -4729,7 +4814,7 @@
         <v>32010104</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4745,7 +4830,7 @@
         <v>200100005</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>20</v>
@@ -4754,7 +4839,7 @@
         <v>32010105</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4770,7 +4855,7 @@
         <v>200100006</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>21</v>
@@ -4779,7 +4864,7 @@
         <v>32010106</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4795,7 +4880,7 @@
         <v>200100007</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>22</v>
@@ -4804,7 +4889,7 @@
         <v>32010107</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4820,7 +4905,7 @@
         <v>200100008</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>24</v>
@@ -4829,7 +4914,7 @@
         <v>32010108</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4845,7 +4930,7 @@
         <v>200100009</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>23</v>
@@ -4854,7 +4939,7 @@
         <v>32010109</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4870,16 +4955,16 @@
         <v>200100010</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D12" s="6">
         <v>32010201</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="F12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4887,7 +4972,7 @@
       </c>
       <c r="G12" s="6" t="str">
         <f>"&lt;Card CardID="""&amp;A12&amp;""" CardType="""&amp;B12&amp;""" CardName="""&amp;C12&amp;""" ScenicID="""&amp;D12&amp;""" Image="""&amp;E12&amp;""" Text="""&amp;F12&amp;""" /&gt;"</f>
-        <v>&lt;Card CardID="200100010" CardType="01" CardName="西津渡古街" ScenicID="32010201" Image="NanJing/card_nanjing01" Text="西津渡古街介绍" /&gt;</v>
+        <v>&lt;Card CardID="200100010" CardType="01" CardName="西津渡古街" ScenicID="32010201" Image="ZhenJiang/card_zhenjiang01" Text="西津渡古街介绍" /&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -4895,24 +4980,24 @@
         <v>200100011</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D13" s="6">
         <v>32010202</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="F13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>金山寺介绍</v>
       </c>
       <c r="G13" s="6" t="str">
-        <f t="shared" ref="G13:G20" si="2">"&lt;Card CardID="""&amp;A13&amp;""" CardType="""&amp;B13&amp;""" CardName="""&amp;C13&amp;""" ScenicID="""&amp;D13&amp;""" Image="""&amp;E13&amp;""" Text="""&amp;F13&amp;""" /&gt;"</f>
-        <v>&lt;Card CardID="200100011" CardType="01" CardName="金山寺" ScenicID="32010202" Image="NanJing/card_nanjing02" Text="金山寺介绍" /&gt;</v>
+        <f t="shared" ref="G13:G17" si="2">"&lt;Card CardID="""&amp;A13&amp;""" CardType="""&amp;B13&amp;""" CardName="""&amp;C13&amp;""" ScenicID="""&amp;D13&amp;""" Image="""&amp;E13&amp;""" Text="""&amp;F13&amp;""" /&gt;"</f>
+        <v>&lt;Card CardID="200100011" CardType="01" CardName="金山寺" ScenicID="32010202" Image="ZhenJiang/card_zhenjiang02" Text="金山寺介绍" /&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -4920,16 +5005,16 @@
         <v>200100012</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D14" s="6">
         <v>32010203</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="F14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4937,7 +5022,7 @@
       </c>
       <c r="G14" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;Card CardID="200100012" CardType="01" CardName="北固山" ScenicID="32010203" Image="NanJing/card_nanjing03" Text="北固山介绍" /&gt;</v>
+        <v>&lt;Card CardID="200100012" CardType="01" CardName="北固山" ScenicID="32010203" Image="ZhenJiang/card_zhenjiang03" Text="北固山介绍" /&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -4945,16 +5030,16 @@
         <v>200100013</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D15" s="6">
         <v>32010204</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="F15" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4962,7 +5047,7 @@
       </c>
       <c r="G15" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;Card CardID="200100013" CardType="01" CardName="焦山" ScenicID="32010204" Image="NanJing/card_nanjing04" Text="焦山介绍" /&gt;</v>
+        <v>&lt;Card CardID="200100013" CardType="01" CardName="焦山" ScenicID="32010204" Image="ZhenJiang/card_zhenjiang04" Text="焦山介绍" /&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -4970,16 +5055,16 @@
         <v>200100014</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D16" s="6">
         <v>32010205</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="F16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4987,7 +5072,7 @@
       </c>
       <c r="G16" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;Card CardID="200100014" CardType="01" CardName="得撒石磨豆腐村" ScenicID="32010205" Image="NanJing/card_nanjing05" Text="得撒石磨豆腐村介绍" /&gt;</v>
+        <v>&lt;Card CardID="200100014" CardType="01" CardName="得撒石磨豆腐村" ScenicID="32010205" Image="ZhenJiang/card_zhenjiang05" Text="得撒石磨豆腐村介绍" /&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4995,16 +5080,16 @@
         <v>200100015</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D17" s="6">
         <v>32010206</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="F17" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5012,100 +5097,25 @@
       </c>
       <c r="G17" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;Card CardID="200100015" CardType="01" CardName="宝华山国家森林公园" ScenicID="32010206" Image="NanJing/card_nanjing06" Text="宝华山国家森林公园介绍" /&gt;</v>
+        <v>&lt;Card CardID="200100015" CardType="01" CardName="宝华山国家森林公园" ScenicID="32010206" Image="ZhenJiang/card_zhenjiang06" Text="宝华山国家森林公园介绍" /&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="18">
-        <v>200100016</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="6">
-        <v>32010207</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>美龄宫介绍</v>
-      </c>
-      <c r="G18" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;Card CardID="200100016" CardType="01" CardName="美龄宫" ScenicID="32010207" Image="NanJing/card_nanjing07" Text="美龄宫介绍" /&gt;</v>
-      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="18">
-        <v>200100017</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="6">
-        <v>32010208</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>南京大屠杀纪念馆介绍</v>
-      </c>
-      <c r="G19" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;Card CardID="200100017" CardType="01" CardName="南京大屠杀纪念馆" ScenicID="32010208" Image="NanJing/card_nanjing08" Text="南京大屠杀纪念馆介绍" /&gt;</v>
-      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="18">
-        <v>200100018</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="6">
-        <v>32010209</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>栖霞山介绍</v>
-      </c>
-      <c r="G20" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;Card CardID="200100018" CardType="01" CardName="栖霞山" ScenicID="32010209" Image="NanJing/card_nanjing09" Text="栖霞山介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="33" r:id="rId1"/>
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="218">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1009,6 +1009,26 @@
   </si>
   <si>
     <t>Cycling/Site/ZhenJiang/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个城市</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AxisX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AxisY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>横坐标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵坐标</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1228,21 +1248,7 @@
     <cellStyle name="常规 2 2" xfId="1"/>
     <cellStyle name="常规 2 2 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -1276,6 +1282,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF4B4B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1812,7 +1825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3975,7 +3988,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4123,9 +4136,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
@@ -4141,14 +4154,14 @@
     <col min="4" max="4" width="12.25" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9" style="6"/>
-    <col min="11" max="11" width="50.625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="6"/>
+    <col min="8" max="9" width="10.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.5" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9" style="6"/>
+    <col min="13" max="13" width="50.625" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1">
+    <row r="1" spans="1:24" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4173,24 +4186,32 @@
       <c r="H1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="4"/>
+      <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="V1" s="4"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -4218,11 +4239,17 @@
       <c r="I2" s="6" t="s">
         <v>157</v>
       </c>
+      <c r="J2" s="6" t="s">
+        <v>214</v>
+      </c>
       <c r="K2" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:24">
       <c r="A3" s="6">
         <v>320101</v>
       </c>
@@ -4250,12 +4277,18 @@
       <c r="I3" s="6">
         <v>320102</v>
       </c>
-      <c r="K3" s="6" t="str">
-        <f>"&lt;Map ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" ProvinceID="""&amp;C3&amp;""" ProvinceName="""&amp;D3&amp;""" CityID="""&amp;E3&amp;""" CityName="""&amp;F3&amp;""" CityPinYin="""&amp;G3&amp;""" AB="""&amp;H3&amp;""" NextMap="""&amp;I3&amp;""" /&gt;"</f>
-        <v>&lt;Map ID="320101" Name="江苏01" ProvinceID="32" ProvinceName="江苏" CityID="3201" CityName="南京" CityPinYin="NANJING" AB="cycling/nanjing" NextMap="320102" /&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="J3" s="6">
+        <v>17</v>
+      </c>
+      <c r="K3" s="6">
+        <v>14</v>
+      </c>
+      <c r="M3" s="6" t="str">
+        <f>"&lt;Map ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" ProvinceID="""&amp;C3&amp;""" ProvinceName="""&amp;D3&amp;""" CityID="""&amp;E3&amp;""" CityName="""&amp;F3&amp;""" CityPinYin="""&amp;G3&amp;""" AB="""&amp;H3&amp;""" NextMap="""&amp;I3&amp;""" AxisX="""&amp;J3&amp;""" AxisY="""&amp;K3&amp;""" /&gt;"</f>
+        <v>&lt;Map ID="320101" Name="江苏01" ProvinceID="32" ProvinceName="江苏" CityID="3201" CityName="南京" CityPinYin="NANJING" AB="cycling/nanjing" NextMap="320102" AxisX="17" AxisY="14" /&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="6">
         <v>320102</v>
       </c>
@@ -4280,15 +4313,21 @@
       <c r="H4" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="K4" s="6" t="str">
-        <f>"&lt;Map ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" ProvinceID="""&amp;C4&amp;""" ProvinceName="""&amp;D4&amp;""" CityID="""&amp;E4&amp;""" CityName="""&amp;F4&amp;""" CityPinYin="""&amp;G4&amp;""" AB="""&amp;H4&amp;""" NextMap="""&amp;I4&amp;""" /&gt;"</f>
-        <v>&lt;Map ID="320102" Name="江苏02" ProvinceID="32" ProvinceName="江苏" CityID="3202" CityName="镇江" CityPinYin="ZHENJIANG" AB="cycling/zhenjiang" NextMap="" /&gt;</v>
+      <c r="J4" s="6">
+        <v>18</v>
+      </c>
+      <c r="K4" s="6">
+        <v>15</v>
+      </c>
+      <c r="M4" s="6" t="str">
+        <f>"&lt;Map ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" ProvinceID="""&amp;C4&amp;""" ProvinceName="""&amp;D4&amp;""" CityID="""&amp;E4&amp;""" CityName="""&amp;F4&amp;""" CityPinYin="""&amp;G4&amp;""" AB="""&amp;H4&amp;""" NextMap="""&amp;I4&amp;""" AxisX="""&amp;J4&amp;""" AxisY="""&amp;K4&amp;""" /&gt;"</f>
+        <v>&lt;Map ID="320102" Name="江苏02" ProvinceID="32" ProvinceName="江苏" CityID="3202" CityName="镇江" CityPinYin="ZHENJIANG" AB="cycling/zhenjiang" NextMap="" AxisX="18" AxisY="15" /&gt;</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="S1">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+  <conditionalFormatting sqref="U1">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4636,7 +4675,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5115,7 +5154,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="33" r:id="rId1"/>
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="233">
   <si>
     <t>Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1030,6 +1030,65 @@
   <si>
     <t>纵坐标</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Url</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B8%AD%E5%B1%B1%E9%99%B5/246397</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%8D%97%E4%BA%AC%E6%80%BB%E7%BB%9F%E5%BA%9C/3027343?fromtitle=%E6%80%BB%E7%BB%9F%E5%BA%9C&amp;fromid=18727656</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%8D%97%E4%BA%AC%E5%A4%AB%E5%AD%90%E5%BA%99/510169?fromtitle=%E5%A4%AB%E5%AD%90%E5%BA%99&amp;fromid=978934</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%A9%B9%E5%9B%AD</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%8E%84%E6%AD%A6%E6%B9%96?fromtitle=%E7%8E%84%E6%AD%A6%E6%B9%96%E5%85%AC%E5%9B%AD&amp;fromid=217739</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%98%8E%E5%AD%9D%E9%99%B5/751826</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%9B%BD%E6%B0%91%E6%94%BF%E5%BA%9C%E4%B8%BB%E5%B8%AD%E5%AE%98%E9%82%B8%E6%97%A7%E5%9D%80?fromtitle=%E7%BE%8E%E9%BE%84%E5%AE%AB&amp;fromid=1173649</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%BE%B5%E5%8D%8E%E6%97%A5%E5%86%9B%E5%8D%97%E4%BA%AC%E5%A4%A7%E5%B1%A0%E6%9D%80%E9%81%87%E9%9A%BE%E5%90%8C%E8%83%9E%E7%BA%AA%E5%BF%B5%E9%A6%86</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%A0%96%E9%9C%9E%E5%B1%B1/151842</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%A5%BF%E6%B4%A5%E6%B8%A1%E5%8F%A4%E8%A1%97/3265815?fr=aladdin</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%87%91%E5%B1%B1%E5%AF%BA/3942</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%8C%97%E5%9B%BA%E5%B1%B1/625922</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%84%A6%E5%B1%B1%E9%A3%8E%E6%99%AF%E5%8C%BA/7985811?fromtitle=%E7%84%A6%E5%B1%B1&amp;fromid=922275</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%B1%9F%E8%8B%8F%E5%AE%9D%E5%8D%8E%E5%B1%B1%E5%9B%BD%E5%AE%B6%E6%A3%AE%E6%9E%97%E5%85%AC%E5%9B%AD?fromtitle=%E5%AE%9D%E5%8D%8E%E5%B1%B1%E5%9B%BD%E5%AE%B6%E6%A3%AE%E6%9E%97%E5%85%AC%E5%9B%AD&amp;fromid=10566126</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1039,7 +1098,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1143,6 +1202,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4138,7 +4204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
@@ -4327,7 +4393,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="U1">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4675,7 +4741,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4685,14 +4751,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
       <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4702,12 +4768,12 @@
     <col min="3" max="3" width="15" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="8" customWidth="1"/>
-    <col min="7" max="7" width="93.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="6"/>
+    <col min="6" max="7" width="23" style="8" customWidth="1"/>
+    <col min="8" max="8" width="93.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1">
+    <row r="1" spans="1:19" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
@@ -4727,9 +4793,11 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4737,11 +4805,12 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="4"/>
       <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="19" t="s">
         <v>170</v>
       </c>
@@ -4761,10 +4830,13 @@
         <v>8</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="18">
         <v>200100001</v>
       </c>
@@ -4784,12 +4856,15 @@
         <f>C3&amp;"介绍"</f>
         <v>中山陵介绍</v>
       </c>
-      <c r="G3" s="6" t="str">
-        <f>"&lt;Card CardID="""&amp;A3&amp;""" CardType="""&amp;B3&amp;""" CardName="""&amp;C3&amp;""" ScenicID="""&amp;D3&amp;""" Image="""&amp;E3&amp;""" Text="""&amp;F3&amp;""" /&gt;"</f>
-        <v>&lt;Card CardID="200100001" CardType="01" CardName="中山陵" ScenicID="32010101" Image="NanJing/card_nanjing01" Text="中山陵介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="G3" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H3" s="6" t="str">
+        <f>"&lt;Card CardID="""&amp;A3&amp;""" CardType="""&amp;B3&amp;""" CardName="""&amp;C3&amp;""" ScenicID="""&amp;D3&amp;""" Image="""&amp;E3&amp;""" Text="""&amp;F3&amp;""" Url="""&amp;G3&amp;""" /&gt;"</f>
+        <v>&lt;Card CardID="200100001" CardType="01" CardName="中山陵" ScenicID="32010101" Image="NanJing/card_nanjing01" Text="中山陵介绍" Url="https://baike.baidu.com/item/%E4%B8%AD%E5%B1%B1%E9%99%B5/246397" /&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="18">
         <v>200100002</v>
       </c>
@@ -4809,12 +4884,15 @@
         <f t="shared" ref="F4:F17" si="0">C4&amp;"介绍"</f>
         <v>总统府介绍</v>
       </c>
-      <c r="G4" s="6" t="str">
-        <f t="shared" ref="G4:G11" si="1">"&lt;Card CardID="""&amp;A4&amp;""" CardType="""&amp;B4&amp;""" CardName="""&amp;C4&amp;""" ScenicID="""&amp;D4&amp;""" Image="""&amp;E4&amp;""" Text="""&amp;F4&amp;""" /&gt;"</f>
-        <v>&lt;Card CardID="200100002" CardType="01" CardName="总统府" ScenicID="32010102" Image="NanJing/card_nanjing02" Text="总统府介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="G4" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4" s="6" t="str">
+        <f t="shared" ref="H4:H17" si="1">"&lt;Card CardID="""&amp;A4&amp;""" CardType="""&amp;B4&amp;""" CardName="""&amp;C4&amp;""" ScenicID="""&amp;D4&amp;""" Image="""&amp;E4&amp;""" Text="""&amp;F4&amp;""" Url="""&amp;G4&amp;""" /&gt;"</f>
+        <v>&lt;Card CardID="200100002" CardType="01" CardName="总统府" ScenicID="32010102" Image="NanJing/card_nanjing02" Text="总统府介绍" Url="https://baike.baidu.com/item/%E5%8D%97%E4%BA%AC%E6%80%BB%E7%BB%9F%E5%BA%9C/3027343?fromtitle=%E6%80%BB%E7%BB%9F%E5%BA%9C&amp;fromid=18727656" /&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="18">
         <v>200100003</v>
       </c>
@@ -4834,12 +4912,15 @@
         <f t="shared" si="0"/>
         <v>夫子庙介绍</v>
       </c>
-      <c r="G5" s="6" t="str">
+      <c r="G5" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H5" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100003" CardType="01" CardName="夫子庙" ScenicID="32010103" Image="NanJing/card_nanjing03" Text="夫子庙介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>&lt;Card CardID="200100003" CardType="01" CardName="夫子庙" ScenicID="32010103" Image="NanJing/card_nanjing03" Text="夫子庙介绍" Url="https://baike.baidu.com/item/%E5%8D%97%E4%BA%AC%E5%A4%AB%E5%AD%90%E5%BA%99/510169?fromtitle=%E5%A4%AB%E5%AD%90%E5%BA%99&amp;fromid=978934" /&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="18">
         <v>200100004</v>
       </c>
@@ -4859,12 +4940,15 @@
         <f t="shared" si="0"/>
         <v>瞻园介绍</v>
       </c>
-      <c r="G6" s="6" t="str">
+      <c r="G6" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100004" CardType="01" CardName="瞻园" ScenicID="32010104" Image="NanJing/card_nanjing04" Text="瞻园介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>&lt;Card CardID="200100004" CardType="01" CardName="瞻园" ScenicID="32010104" Image="NanJing/card_nanjing04" Text="瞻园介绍" Url="https://baike.baidu.com/item/%E8%A9%B9%E5%9B%AD" /&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="18">
         <v>200100005</v>
       </c>
@@ -4884,12 +4968,15 @@
         <f t="shared" si="0"/>
         <v>玄武湖公园介绍</v>
       </c>
-      <c r="G7" s="6" t="str">
+      <c r="G7" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H7" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100005" CardType="01" CardName="玄武湖公园" ScenicID="32010105" Image="NanJing/card_nanjing05" Text="玄武湖公园介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>&lt;Card CardID="200100005" CardType="01" CardName="玄武湖公园" ScenicID="32010105" Image="NanJing/card_nanjing05" Text="玄武湖公园介绍" Url="https://baike.baidu.com/item/%E7%8E%84%E6%AD%A6%E6%B9%96?fromtitle=%E7%8E%84%E6%AD%A6%E6%B9%96%E5%85%AC%E5%9B%AD&amp;fromid=217739" /&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="18">
         <v>200100006</v>
       </c>
@@ -4909,12 +4996,15 @@
         <f t="shared" si="0"/>
         <v>明孝陵介绍</v>
       </c>
-      <c r="G8" s="6" t="str">
+      <c r="G8" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="H8" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100006" CardType="01" CardName="明孝陵" ScenicID="32010106" Image="NanJing/card_nanjing06" Text="明孝陵介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>&lt;Card CardID="200100006" CardType="01" CardName="明孝陵" ScenicID="32010106" Image="NanJing/card_nanjing06" Text="明孝陵介绍" Url="https://baike.baidu.com/item/%E6%98%8E%E5%AD%9D%E9%99%B5/751826" /&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="18">
         <v>200100007</v>
       </c>
@@ -4934,12 +5024,15 @@
         <f t="shared" si="0"/>
         <v>美龄宫介绍</v>
       </c>
-      <c r="G9" s="6" t="str">
+      <c r="G9" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H9" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100007" CardType="01" CardName="美龄宫" ScenicID="32010107" Image="NanJing/card_nanjing07" Text="美龄宫介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>&lt;Card CardID="200100007" CardType="01" CardName="美龄宫" ScenicID="32010107" Image="NanJing/card_nanjing07" Text="美龄宫介绍" Url="https://baike.baidu.com/item/%E5%9B%BD%E6%B0%91%E6%94%BF%E5%BA%9C%E4%B8%BB%E5%B8%AD%E5%AE%98%E9%82%B8%E6%97%A7%E5%9D%80?fromtitle=%E7%BE%8E%E9%BE%84%E5%AE%AB&amp;fromid=1173649" /&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="18">
         <v>200100008</v>
       </c>
@@ -4959,12 +5052,15 @@
         <f t="shared" si="0"/>
         <v>南京大屠杀纪念馆介绍</v>
       </c>
-      <c r="G10" s="6" t="str">
+      <c r="G10" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H10" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100008" CardType="01" CardName="南京大屠杀纪念馆" ScenicID="32010108" Image="NanJing/card_nanjing08" Text="南京大屠杀纪念馆介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>&lt;Card CardID="200100008" CardType="01" CardName="南京大屠杀纪念馆" ScenicID="32010108" Image="NanJing/card_nanjing08" Text="南京大屠杀纪念馆介绍" Url="https://baike.baidu.com/item/%E4%BE%B5%E5%8D%8E%E6%97%A5%E5%86%9B%E5%8D%97%E4%BA%AC%E5%A4%A7%E5%B1%A0%E6%9D%80%E9%81%87%E9%9A%BE%E5%90%8C%E8%83%9E%E7%BA%AA%E5%BF%B5%E9%A6%86" /&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="18">
         <v>200100009</v>
       </c>
@@ -4984,12 +5080,15 @@
         <f t="shared" si="0"/>
         <v>栖霞山介绍</v>
       </c>
-      <c r="G11" s="6" t="str">
+      <c r="G11" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100009" CardType="01" CardName="栖霞山" ScenicID="32010109" Image="NanJing/card_nanjing09" Text="栖霞山介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>&lt;Card CardID="200100009" CardType="01" CardName="栖霞山" ScenicID="32010109" Image="NanJing/card_nanjing09" Text="栖霞山介绍" Url="https://baike.baidu.com/item/%E6%A0%96%E9%9C%9E%E5%B1%B1/151842" /&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="18">
         <v>200100010</v>
       </c>
@@ -5009,12 +5108,15 @@
         <f t="shared" si="0"/>
         <v>西津渡古街介绍</v>
       </c>
-      <c r="G12" s="6" t="str">
-        <f>"&lt;Card CardID="""&amp;A12&amp;""" CardType="""&amp;B12&amp;""" CardName="""&amp;C12&amp;""" ScenicID="""&amp;D12&amp;""" Image="""&amp;E12&amp;""" Text="""&amp;F12&amp;""" /&gt;"</f>
-        <v>&lt;Card CardID="200100010" CardType="01" CardName="西津渡古街" ScenicID="32010201" Image="ZhenJiang/card_zhenjiang01" Text="西津渡古街介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="G12" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="H12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Card CardID="200100010" CardType="01" CardName="西津渡古街" ScenicID="32010201" Image="ZhenJiang/card_zhenjiang01" Text="西津渡古街介绍" Url="https://baike.baidu.com/item/%E8%A5%BF%E6%B4%A5%E6%B8%A1%E5%8F%A4%E8%A1%97/3265815?fr=aladdin" /&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="18">
         <v>200100011</v>
       </c>
@@ -5034,12 +5136,15 @@
         <f t="shared" si="0"/>
         <v>金山寺介绍</v>
       </c>
-      <c r="G13" s="6" t="str">
-        <f t="shared" ref="G13:G17" si="2">"&lt;Card CardID="""&amp;A13&amp;""" CardType="""&amp;B13&amp;""" CardName="""&amp;C13&amp;""" ScenicID="""&amp;D13&amp;""" Image="""&amp;E13&amp;""" Text="""&amp;F13&amp;""" /&gt;"</f>
-        <v>&lt;Card CardID="200100011" CardType="01" CardName="金山寺" ScenicID="32010202" Image="ZhenJiang/card_zhenjiang02" Text="金山寺介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="G13" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Card CardID="200100011" CardType="01" CardName="金山寺" ScenicID="32010202" Image="ZhenJiang/card_zhenjiang02" Text="金山寺介绍" Url="https://baike.baidu.com/item/%E9%87%91%E5%B1%B1%E5%AF%BA/3942" /&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="18">
         <v>200100012</v>
       </c>
@@ -5059,12 +5164,15 @@
         <f t="shared" si="0"/>
         <v>北固山介绍</v>
       </c>
-      <c r="G14" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;Card CardID="200100012" CardType="01" CardName="北固山" ScenicID="32010203" Image="ZhenJiang/card_zhenjiang03" Text="北固山介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="G14" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="H14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Card CardID="200100012" CardType="01" CardName="北固山" ScenicID="32010203" Image="ZhenJiang/card_zhenjiang03" Text="北固山介绍" Url="https://baike.baidu.com/item/%E5%8C%97%E5%9B%BA%E5%B1%B1/625922" /&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="18">
         <v>200100013</v>
       </c>
@@ -5084,12 +5192,15 @@
         <f t="shared" si="0"/>
         <v>焦山介绍</v>
       </c>
-      <c r="G15" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;Card CardID="200100013" CardType="01" CardName="焦山" ScenicID="32010204" Image="ZhenJiang/card_zhenjiang04" Text="焦山介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="G15" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Card CardID="200100013" CardType="01" CardName="焦山" ScenicID="32010204" Image="ZhenJiang/card_zhenjiang04" Text="焦山介绍" Url="https://baike.baidu.com/item/%E7%84%A6%E5%B1%B1%E9%A3%8E%E6%99%AF%E5%8C%BA/7985811?fromtitle=%E7%84%A6%E5%B1%B1&amp;fromid=922275" /&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="18">
         <v>200100014</v>
       </c>
@@ -5109,12 +5220,12 @@
         <f t="shared" si="0"/>
         <v>得撒石磨豆腐村介绍</v>
       </c>
-      <c r="G16" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;Card CardID="200100014" CardType="01" CardName="得撒石磨豆腐村" ScenicID="32010205" Image="ZhenJiang/card_zhenjiang05" Text="得撒石磨豆腐村介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Card CardID="200100014" CardType="01" CardName="得撒石磨豆腐村" ScenicID="32010205" Image="ZhenJiang/card_zhenjiang05" Text="得撒石磨豆腐村介绍" Url="" /&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="18">
         <v>200100015</v>
       </c>
@@ -5134,32 +5245,53 @@
         <f t="shared" si="0"/>
         <v>宝华山国家森林公园介绍</v>
       </c>
-      <c r="G17" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;Card CardID="200100015" CardType="01" CardName="宝华山国家森林公园" ScenicID="32010206" Image="ZhenJiang/card_zhenjiang06" Text="宝华山国家森林公园介绍" /&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="H17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Card CardID="200100015" CardType="01" CardName="宝华山国家森林公园" ScenicID="32010206" Image="ZhenJiang/card_zhenjiang06" Text="宝华山国家森林公园介绍" Url="https://baike.baidu.com/item/%E6%B1%9F%E8%8B%8F%E5%AE%9D%E5%8D%8E%E5%B1%B1%E5%9B%BD%E5%AE%B6%E6%A3%AE%E6%9E%97%E5%85%AC%E5%9B%AD?fromtitle=%E5%AE%9D%E5%8D%8E%E5%B1%B1%E5%9B%BD%E5%AE%B6%E6%A3%AE%E6%9E%97%E5%85%AC%E5%9B%AD&amp;fromid=10566126" /&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="P1">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G9" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="G8" r:id="rId7"/>
+    <hyperlink ref="G11" r:id="rId8"/>
+    <hyperlink ref="G10" r:id="rId9"/>
+    <hyperlink ref="G12" r:id="rId10"/>
+    <hyperlink ref="G13" r:id="rId11"/>
+    <hyperlink ref="G15" r:id="rId12"/>
+    <hyperlink ref="G17" r:id="rId13"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <legacyDrawing r:id="rId15"/>
 </worksheet>
 </file>
--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="33" r:id="rId1"/>
@@ -13,8 +13,11 @@
     <sheet name="Map" sheetId="26" r:id="rId4"/>
     <sheet name="Scenic" sheetId="30" r:id="rId5"/>
     <sheet name="Card" sheetId="34" r:id="rId6"/>
+    <sheet name="Test" sheetId="38" r:id="rId7"/>
+    <sheet name="Question" sheetId="35" r:id="rId8"/>
+    <sheet name="TestScheme" sheetId="36" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -250,256 +253,495 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>种类编码共</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">位：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>前</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>位代表某个模块或者某个游戏，如</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>01</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">代表骑行游戏
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>后面</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>位代表某个知识领域</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>每种难度的题目比例，之间用英文逗号隔开</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>多个题目分类，之间用英文逗号隔开</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>每种难度的分值，之间用英文逗号隔开</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="315">
   <si>
     <t>Image</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>编号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Xml</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>图片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>文字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Text</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>省份编码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>省份名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>城市编码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>城市名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>江苏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>南京</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>地图编码</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>中山陵</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>总统府</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>夫子庙</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>瞻园</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>玄武湖公园</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>明孝陵</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>美龄宫</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>栖霞山</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>南京大屠杀纪念馆</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>MapID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>江苏01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Remote</t>
   </si>
   <si>
     <t>输出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Remote</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>编号</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ProvinceID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ProvinceName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CityID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CityName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Welcome</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>WangZheRongYao</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>欢迎音效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Xml</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>存储位置</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>路径</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>输出</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Storage</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Des</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Path</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Enable</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>模块名字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>模块描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>文件名字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>文件路径</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Module</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>FileName</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Xml</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>是否启用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Cycling/View/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>coord</t>
   </si>
   <si>
     <t>Cycling</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>骑行游戏</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Sprite</t>
@@ -512,26 +754,26 @@
   </si>
   <si>
     <t>ImagePath</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Assetbundle包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>AB</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Texture2</t>
   </si>
   <si>
     <t>Common</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>公共资源</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>app-icon-avatar-a001</t>
@@ -607,7 +849,7 @@
   </si>
   <si>
     <t>Common/Avatar/</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>back</t>
@@ -665,19 +907,19 @@
   </si>
   <si>
     <t>FileType2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FileType1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>文件类型1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>文件类型2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>card_back1</t>
@@ -705,43 +947,43 @@
   </si>
   <si>
     <t>Cycling/Site/NanJing/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>card_nanjing02</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>card_nanjing03</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>card_nanjing04</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>card_nanjing05</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>card_nanjing06</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>card_nanjing07</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>card_nanjing08</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>card_nanjing09</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>card_nanjing01</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>NanJing/card_nanjing01</t>
@@ -796,99 +1038,91 @@
   </si>
   <si>
     <t>江苏02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>江苏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>镇江</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NextMap</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>物品编码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>物品类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>物品名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Coin</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ItemID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ItemType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ItemName</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ItemIcon</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ItemDesc</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ScenicID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CardID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CardType</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>01</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>卡片编码</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>卡片类型</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CardName</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡片编码</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>pay_line</t>
@@ -910,39 +1144,39 @@
   </si>
   <si>
     <t>地图预制体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>cycling/nanjing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>cycling/zhenjiang</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>西津渡古街</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>金山寺</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>北固山</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>焦山</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>得撒石磨豆腐村</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宝华山国家森林公园</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>AB</t>
@@ -952,27 +1186,27 @@
   </si>
   <si>
     <t>cycling/traffic</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>城市名称拼音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CityPinYin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NANJING</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ZHENJIANG</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ZhenJiang/card_zhenjiang01</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ZhenJiang/card_zhenjiang02</t>
@@ -1009,86 +1243,404 @@
   </si>
   <si>
     <t>Cycling/Site/ZhenJiang/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>下一个城市</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AxisX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AxisY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>横坐标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>纵坐标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Url</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E4%B8%AD%E5%B1%B1%E9%99%B5/246397</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E5%8D%97%E4%BA%AC%E6%80%BB%E7%BB%9F%E5%BA%9C/3027343?fromtitle=%E6%80%BB%E7%BB%9F%E5%BA%9C&amp;fromid=18727656</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E5%8D%97%E4%BA%AC%E5%A4%AB%E5%AD%90%E5%BA%99/510169?fromtitle=%E5%A4%AB%E5%AD%90%E5%BA%99&amp;fromid=978934</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E8%A9%B9%E5%9B%AD</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E7%8E%84%E6%AD%A6%E6%B9%96?fromtitle=%E7%8E%84%E6%AD%A6%E6%B9%96%E5%85%AC%E5%9B%AD&amp;fromid=217739</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E6%98%8E%E5%AD%9D%E9%99%B5/751826</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E5%9B%BD%E6%B0%91%E6%94%BF%E5%BA%9C%E4%B8%BB%E5%B8%AD%E5%AE%98%E9%82%B8%E6%97%A7%E5%9D%80?fromtitle=%E7%BE%8E%E9%BE%84%E5%AE%AB&amp;fromid=1173649</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E4%BE%B5%E5%8D%8E%E6%97%A5%E5%86%9B%E5%8D%97%E4%BA%AC%E5%A4%A7%E5%B1%A0%E6%9D%80%E9%81%87%E9%9A%BE%E5%90%8C%E8%83%9E%E7%BA%AA%E5%BF%B5%E9%A6%86</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E6%A0%96%E9%9C%9E%E5%B1%B1/151842</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E8%A5%BF%E6%B4%A5%E6%B8%A1%E5%8F%A4%E8%A1%97/3265815?fr=aladdin</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E9%87%91%E5%B1%B1%E5%AF%BA/3942</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E5%8C%97%E5%9B%BA%E5%B1%B1/625922</t>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E7%84%A6%E5%B1%B1%E9%A3%8E%E6%99%AF%E5%8C%BA/7985811?fromtitle=%E7%84%A6%E5%B1%B1&amp;fromid=922275</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E6%B1%9F%E8%8B%8F%E5%AE%9D%E5%8D%8E%E5%B1%B1%E5%9B%BD%E5%AE%B6%E6%A3%AE%E6%9E%97%E5%85%AC%E5%9B%AD?fromtitle=%E5%AE%9D%E5%8D%8E%E5%B1%B1%E5%9B%BD%E5%AE%B6%E6%A3%AE%E6%9E%97%E5%85%AC%E5%9B%AD&amp;fromid=10566126</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目例子</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项B</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项C</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项D</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确答案</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>难易</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>01001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏省的省会是哪个城市？</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐州</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬州</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理知识，普通单选题</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000002</t>
+  </si>
+  <si>
+    <t>01002</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>满族是由女真族发展来的？</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史知识，判断题变单选题</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000003</t>
+  </si>
+  <si>
+    <t>01003</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类的味觉有哪些？①甜②酸③苦④辣</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>①②</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>②③</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>①②③</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>②③④</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学小常识，多选题变单选题</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目分类</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>难易程度</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类编码</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类名称</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>难易等级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理知识</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>01002</t>
+  </si>
+  <si>
+    <t>历史知识</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>01003</t>
+  </si>
+  <si>
+    <t>科学小常识</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目数量</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>出题方案</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目来源</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>分值设定</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>01001,01002,01003</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,5,8</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>出题方案</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestScheme</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>从这里开始</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3#0.3#0.4</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案编码</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>20010001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20010002</t>
+  </si>
+  <si>
+    <t>20010003</t>
+  </si>
+  <si>
+    <t>20010004</t>
+  </si>
+  <si>
+    <t>20010005</t>
+  </si>
+  <si>
+    <t>20010006</t>
+  </si>
+  <si>
+    <t>20010007</t>
+  </si>
+  <si>
+    <t>20010008</t>
+  </si>
+  <si>
+    <t>20010009</t>
+  </si>
+  <si>
+    <t>20010010</t>
+  </si>
+  <si>
+    <t>20010011</t>
+  </si>
+  <si>
+    <t>20010012</t>
+  </si>
+  <si>
+    <t>20010013</t>
+  </si>
+  <si>
+    <t>20010014</t>
+  </si>
+  <si>
+    <t>20010015</t>
   </si>
 </sst>
 </file>
@@ -1098,11 +1650,19 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1210,8 +1770,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1224,8 +1810,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1233,88 +1825,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 2 2" xfId="1"/>
     <cellStyle name="常规 2 2 2" xfId="3"/>
+    <cellStyle name="常规 3" xfId="4"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4B4B"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1718,9 +2426,9 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="19">
+      <c r="A4" s="19" t="str">
         <f>Card!A3</f>
-        <v>200100001</v>
+        <v>20010001</v>
       </c>
       <c r="B4" s="6">
         <v>20</v>
@@ -1732,13 +2440,13 @@
       <c r="E4" s="12"/>
       <c r="F4" s="10" t="str">
         <f>"&lt;Item ItemID="""&amp;A4&amp;""" ItemType="""&amp;B4&amp;""" ItemName="""&amp;C4&amp;""" ItemIcon="""&amp;D4&amp;""" ItemDesc="""&amp;E4&amp;""" /&gt;"</f>
-        <v>&lt;Item ItemID="200100001" ItemType="20" ItemName="中山陵" ItemIcon="" ItemDesc="" /&gt;</v>
+        <v>&lt;Item ItemID="20010001" ItemType="20" ItemName="中山陵" ItemIcon="" ItemDesc="" /&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="19">
+      <c r="A5" s="19" t="str">
         <f>Card!A4</f>
-        <v>200100002</v>
+        <v>20010002</v>
       </c>
       <c r="B5" s="6">
         <v>20</v>
@@ -1750,13 +2458,13 @@
       <c r="E5" s="12"/>
       <c r="F5" s="10" t="str">
         <f t="shared" ref="F5:F12" si="0">"&lt;Item ItemID="""&amp;A5&amp;""" ItemType="""&amp;B5&amp;""" ItemName="""&amp;C5&amp;""" ItemIcon="""&amp;D5&amp;""" ItemDesc="""&amp;E5&amp;""" /&gt;"</f>
-        <v>&lt;Item ItemID="200100002" ItemType="20" ItemName="总统府" ItemIcon="" ItemDesc="" /&gt;</v>
+        <v>&lt;Item ItemID="20010002" ItemType="20" ItemName="总统府" ItemIcon="" ItemDesc="" /&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="19">
+      <c r="A6" s="19" t="str">
         <f>Card!A5</f>
-        <v>200100003</v>
+        <v>20010003</v>
       </c>
       <c r="B6" s="6">
         <v>20</v>
@@ -1768,13 +2476,13 @@
       <c r="E6" s="12"/>
       <c r="F6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Item ItemID="200100003" ItemType="20" ItemName="夫子庙" ItemIcon="" ItemDesc="" /&gt;</v>
+        <v>&lt;Item ItemID="20010003" ItemType="20" ItemName="夫子庙" ItemIcon="" ItemDesc="" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="19">
+      <c r="A7" s="19" t="str">
         <f>Card!A6</f>
-        <v>200100004</v>
+        <v>20010004</v>
       </c>
       <c r="B7" s="6">
         <v>20</v>
@@ -1786,13 +2494,13 @@
       <c r="E7" s="12"/>
       <c r="F7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Item ItemID="200100004" ItemType="20" ItemName="瞻园" ItemIcon="" ItemDesc="" /&gt;</v>
+        <v>&lt;Item ItemID="20010004" ItemType="20" ItemName="瞻园" ItemIcon="" ItemDesc="" /&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="19">
+      <c r="A8" s="19" t="str">
         <f>Card!A7</f>
-        <v>200100005</v>
+        <v>20010005</v>
       </c>
       <c r="B8" s="6">
         <v>20</v>
@@ -1804,13 +2512,13 @@
       <c r="E8" s="12"/>
       <c r="F8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Item ItemID="200100005" ItemType="20" ItemName="玄武湖公园" ItemIcon="" ItemDesc="" /&gt;</v>
+        <v>&lt;Item ItemID="20010005" ItemType="20" ItemName="玄武湖公园" ItemIcon="" ItemDesc="" /&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="19">
+      <c r="A9" s="19" t="str">
         <f>Card!A8</f>
-        <v>200100006</v>
+        <v>20010006</v>
       </c>
       <c r="B9" s="6">
         <v>20</v>
@@ -1822,13 +2530,13 @@
       <c r="E9" s="12"/>
       <c r="F9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Item ItemID="200100006" ItemType="20" ItemName="明孝陵" ItemIcon="" ItemDesc="" /&gt;</v>
+        <v>&lt;Item ItemID="20010006" ItemType="20" ItemName="明孝陵" ItemIcon="" ItemDesc="" /&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="19">
+      <c r="A10" s="19" t="str">
         <f>Card!A9</f>
-        <v>200100007</v>
+        <v>20010007</v>
       </c>
       <c r="B10" s="6">
         <v>20</v>
@@ -1840,13 +2548,13 @@
       <c r="E10" s="12"/>
       <c r="F10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Item ItemID="200100007" ItemType="20" ItemName="美龄宫" ItemIcon="" ItemDesc="" /&gt;</v>
+        <v>&lt;Item ItemID="20010007" ItemType="20" ItemName="美龄宫" ItemIcon="" ItemDesc="" /&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="19">
+      <c r="A11" s="19" t="str">
         <f>Card!A10</f>
-        <v>200100008</v>
+        <v>20010008</v>
       </c>
       <c r="B11" s="6">
         <v>20</v>
@@ -1858,13 +2566,13 @@
       <c r="E11" s="12"/>
       <c r="F11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Item ItemID="200100008" ItemType="20" ItemName="南京大屠杀纪念馆" ItemIcon="" ItemDesc="" /&gt;</v>
+        <v>&lt;Item ItemID="20010008" ItemType="20" ItemName="南京大屠杀纪念馆" ItemIcon="" ItemDesc="" /&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="19">
+      <c r="A12" s="19" t="str">
         <f>Card!A11</f>
-        <v>200100009</v>
+        <v>20010009</v>
       </c>
       <c r="B12" s="6">
         <v>20</v>
@@ -1876,11 +2584,11 @@
       <c r="E12" s="12"/>
       <c r="F12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Item ItemID="200100009" ItemType="20" ItemName="栖霞山" ItemIcon="" ItemDesc="" /&gt;</v>
+        <v>&lt;Item ItemID="20010009" ItemType="20" ItemName="栖霞山" ItemIcon="" ItemDesc="" /&gt;</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2703,7 +3411,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>65</v>
@@ -2712,7 +3420,7 @@
         <v>69</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I31" s="15">
         <v>1</v>
@@ -2943,7 +3651,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>64</v>
@@ -2952,7 +3660,7 @@
         <v>63</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I41" s="15">
         <v>1</v>
@@ -2967,7 +3675,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>64</v>
@@ -2976,7 +3684,7 @@
         <v>63</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I42" s="15">
         <v>1</v>
@@ -2991,7 +3699,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>64</v>
@@ -3000,7 +3708,7 @@
         <v>63</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I43" s="15">
         <v>1</v>
@@ -3015,7 +3723,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>64</v>
@@ -3024,7 +3732,7 @@
         <v>63</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I44" s="15">
         <v>1</v>
@@ -3039,16 +3747,16 @@
         <v>3</v>
       </c>
       <c r="D45" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>210</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>212</v>
       </c>
       <c r="I45" s="15">
         <v>1</v>
@@ -3063,7 +3771,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>64</v>
@@ -3072,7 +3780,7 @@
         <v>63</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I46" s="15">
         <v>1</v>
@@ -3423,7 +4131,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>64</v>
@@ -3447,7 +4155,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>64</v>
@@ -3519,7 +4227,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>64</v>
@@ -3543,7 +4251,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>64</v>
@@ -3567,7 +4275,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>64</v>
@@ -3927,7 +4635,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>64</v>
@@ -4052,9 +4760,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4083,7 +4791,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4194,7 +4902,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4209,7 +4917,7 @@
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
       <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4220,7 +4928,8 @@
     <col min="4" max="4" width="12.25" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" style="6" customWidth="1"/>
-    <col min="8" max="9" width="10.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="8.5" style="6" customWidth="1"/>
     <col min="12" max="12" width="9" style="6"/>
     <col min="13" max="13" width="50.625" style="6" customWidth="1"/>
@@ -4247,19 +4956,19 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="2" t="s">
@@ -4297,19 +5006,19 @@
         <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>157</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>40</v>
@@ -4317,7 +5026,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="6">
-        <v>320101</v>
+        <v>3201</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>26</v>
@@ -4335,13 +5044,13 @@
         <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I3" s="6">
-        <v>320102</v>
+        <v>3202</v>
       </c>
       <c r="J3" s="6">
         <v>17</v>
@@ -4351,12 +5060,12 @@
       </c>
       <c r="M3" s="6" t="str">
         <f>"&lt;Map ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" ProvinceID="""&amp;C3&amp;""" ProvinceName="""&amp;D3&amp;""" CityID="""&amp;E3&amp;""" CityName="""&amp;F3&amp;""" CityPinYin="""&amp;G3&amp;""" AB="""&amp;H3&amp;""" NextMap="""&amp;I3&amp;""" AxisX="""&amp;J3&amp;""" AxisY="""&amp;K3&amp;""" /&gt;"</f>
-        <v>&lt;Map ID="320101" Name="江苏01" ProvinceID="32" ProvinceName="江苏" CityID="3201" CityName="南京" CityPinYin="NANJING" AB="cycling/nanjing" NextMap="320102" AxisX="17" AxisY="14" /&gt;</v>
+        <v>&lt;Map ID="3201" Name="江苏01" ProvinceID="32" ProvinceName="江苏" CityID="3201" CityName="南京" CityPinYin="NANJING" AB="cycling/nanjing" NextMap="3202" AxisX="17" AxisY="14" /&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="6">
-        <v>320102</v>
+        <v>3202</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>154</v>
@@ -4374,10 +5083,10 @@
         <v>156</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J4" s="6">
         <v>18</v>
@@ -4387,13 +5096,13 @@
       </c>
       <c r="M4" s="6" t="str">
         <f>"&lt;Map ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" ProvinceID="""&amp;C4&amp;""" ProvinceName="""&amp;D4&amp;""" CityID="""&amp;E4&amp;""" CityName="""&amp;F4&amp;""" CityPinYin="""&amp;G4&amp;""" AB="""&amp;H4&amp;""" NextMap="""&amp;I4&amp;""" AxisX="""&amp;J4&amp;""" AxisY="""&amp;K4&amp;""" /&gt;"</f>
-        <v>&lt;Map ID="320102" Name="江苏02" ProvinceID="32" ProvinceName="江苏" CityID="3202" CityName="镇江" CityPinYin="ZHENJIANG" AB="cycling/zhenjiang" NextMap="" AxisX="18" AxisY="15" /&gt;</v>
+        <v>&lt;Map ID="3202" Name="江苏02" ProvinceID="32" ProvinceName="江苏" CityID="3202" CityName="镇江" CityPinYin="ZHENJIANG" AB="cycling/zhenjiang" NextMap="" AxisX="18" AxisY="15" /&gt;</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="U1">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4403,27 +5112,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
       <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="93.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="6"/>
+    <col min="4" max="4" width="93.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1">
+    <row r="1" spans="1:15" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -4433,12 +5141,10 @@
       <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -4446,12 +5152,11 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
@@ -4461,287 +5166,239 @@
       <c r="C2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:15">
       <c r="A3" s="6">
-        <v>32010101</v>
+        <v>320101</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="6">
-        <v>320101</v>
-      </c>
-      <c r="D3" s="18">
-        <v>200100001</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f>"&lt;Scenic ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" MapID="""&amp;C3&amp;""" CardID="""&amp;D3&amp;""" /&gt;"</f>
-        <v>&lt;Scenic ID="32010101" Name="中山陵" MapID="320101" CardID="200100001" /&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>3201</v>
+      </c>
+      <c r="D3" s="6" t="str">
+        <f>"&lt;Scenic ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" MapID="""&amp;C3&amp;""" /&gt;"</f>
+        <v>&lt;Scenic ID="320101" Name="中山陵" MapID="3201" /&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="6">
-        <v>32010102</v>
+        <v>320102</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="6">
-        <v>320101</v>
-      </c>
-      <c r="D4" s="18">
-        <v>200100002</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f t="shared" ref="E4:E11" si="0">"&lt;Scenic ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" MapID="""&amp;C4&amp;""" CardID="""&amp;D4&amp;""" /&gt;"</f>
-        <v>&lt;Scenic ID="32010102" Name="总统府" MapID="320101" CardID="200100002" /&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>3201</v>
+      </c>
+      <c r="D4" s="6" t="str">
+        <f t="shared" ref="D4:D17" si="0">"&lt;Scenic ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" MapID="""&amp;C4&amp;""" /&gt;"</f>
+        <v>&lt;Scenic ID="320102" Name="总统府" MapID="3201" /&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="6">
-        <v>32010103</v>
+        <v>320103</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6">
-        <v>320101</v>
-      </c>
-      <c r="D5" s="18">
-        <v>200100003</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Scenic ID="32010103" Name="夫子庙" MapID="320101" CardID="200100003" /&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>3201</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320103" Name="夫子庙" MapID="3201" /&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="6">
-        <v>32010104</v>
+        <v>320104</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="6">
-        <v>320101</v>
-      </c>
-      <c r="D6" s="18">
-        <v>200100004</v>
-      </c>
-      <c r="E6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Scenic ID="32010104" Name="瞻园" MapID="320101" CardID="200100004" /&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>3201</v>
+      </c>
+      <c r="D6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320104" Name="瞻园" MapID="3201" /&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="6">
-        <v>32010105</v>
+        <v>320105</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="6">
-        <v>320101</v>
-      </c>
-      <c r="D7" s="18">
-        <v>200100005</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Scenic ID="32010105" Name="玄武湖公园" MapID="320101" CardID="200100005" /&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>3201</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320105" Name="玄武湖公园" MapID="3201" /&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="6">
-        <v>32010106</v>
+        <v>320106</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="6">
-        <v>320101</v>
-      </c>
-      <c r="D8" s="18">
-        <v>200100006</v>
-      </c>
-      <c r="E8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Scenic ID="32010106" Name="明孝陵" MapID="320101" CardID="200100006" /&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>3201</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320106" Name="明孝陵" MapID="3201" /&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="6">
-        <v>32010107</v>
+        <v>320107</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="6">
-        <v>320101</v>
-      </c>
-      <c r="D9" s="18">
-        <v>200100007</v>
-      </c>
-      <c r="E9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Scenic ID="32010107" Name="美龄宫" MapID="320101" CardID="200100007" /&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>3201</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320107" Name="美龄宫" MapID="3201" /&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="6">
-        <v>32010108</v>
+        <v>320108</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="6">
-        <v>320101</v>
-      </c>
-      <c r="D10" s="18">
-        <v>200100008</v>
-      </c>
-      <c r="E10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Scenic ID="32010108" Name="南京大屠杀纪念馆" MapID="320101" CardID="200100008" /&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>3201</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320108" Name="南京大屠杀纪念馆" MapID="3201" /&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="6">
-        <v>32010109</v>
+        <v>320109</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="6">
-        <v>320101</v>
-      </c>
-      <c r="D11" s="18">
-        <v>200100009</v>
-      </c>
-      <c r="E11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Scenic ID="32010109" Name="栖霞山" MapID="320101" CardID="200100009" /&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>3201</v>
+      </c>
+      <c r="D11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320109" Name="栖霞山" MapID="3201" /&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="6">
-        <v>32010201</v>
+        <v>320201</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3202</v>
+      </c>
+      <c r="D12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320201" Name="西津渡古街" MapID="3202" /&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="6">
+        <v>320202</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3202</v>
+      </c>
+      <c r="D13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320202" Name="金山寺" MapID="3202" /&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="6">
+        <v>320203</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="6">
-        <v>320102</v>
-      </c>
-      <c r="D12" s="18">
-        <v>200100010</v>
-      </c>
-      <c r="E12" s="6" t="str">
-        <f>"&lt;Scenic ID="""&amp;A12&amp;""" Name="""&amp;B12&amp;""" MapID="""&amp;C12&amp;""" CardID="""&amp;D12&amp;""" /&gt;"</f>
-        <v>&lt;Scenic ID="32010201" Name="西津渡古街" MapID="320102" CardID="200100010" /&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="6">
-        <v>32010202</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="C14" s="6">
+        <v>3202</v>
+      </c>
+      <c r="D14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320203" Name="北固山" MapID="3202" /&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="6">
+        <v>320204</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="6">
-        <v>320102</v>
-      </c>
-      <c r="D13" s="18">
-        <v>200100011</v>
-      </c>
-      <c r="E13" s="6" t="str">
-        <f t="shared" ref="E13:E17" si="1">"&lt;Scenic ID="""&amp;A13&amp;""" Name="""&amp;B13&amp;""" MapID="""&amp;C13&amp;""" CardID="""&amp;D13&amp;""" /&gt;"</f>
-        <v>&lt;Scenic ID="32010202" Name="金山寺" MapID="320102" CardID="200100011" /&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="6">
-        <v>32010203</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="C15" s="6">
+        <v>3202</v>
+      </c>
+      <c r="D15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320204" Name="焦山" MapID="3202" /&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="6">
+        <v>320205</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="6">
-        <v>320102</v>
-      </c>
-      <c r="D14" s="18">
-        <v>200100012</v>
-      </c>
-      <c r="E14" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Scenic ID="32010203" Name="北固山" MapID="320102" CardID="200100012" /&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="6">
-        <v>32010204</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="C16" s="6">
+        <v>3202</v>
+      </c>
+      <c r="D16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320205" Name="得撒石磨豆腐村" MapID="3202" /&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6">
+        <v>320206</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="6">
-        <v>320102</v>
-      </c>
-      <c r="D15" s="18">
-        <v>200100013</v>
-      </c>
-      <c r="E15" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Scenic ID="32010204" Name="焦山" MapID="320102" CardID="200100013" /&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="6">
-        <v>32010205</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="6">
-        <v>320102</v>
-      </c>
-      <c r="D16" s="18">
-        <v>200100014</v>
-      </c>
-      <c r="E16" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Scenic ID="32010205" Name="得撒石磨豆腐村" MapID="320102" CardID="200100014" /&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="6">
-        <v>32010206</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="C17" s="6">
-        <v>320102</v>
-      </c>
-      <c r="D17" s="18">
-        <v>200100015</v>
-      </c>
-      <c r="E17" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Scenic ID="32010206" Name="宝华山国家森林公园" MapID="320102" CardID="200100015" /&gt;</v>
+        <v>3202</v>
+      </c>
+      <c r="D17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320206" Name="宝华山国家森林公园" MapID="3202" /&gt;</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="L1">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4753,17 +5410,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
       <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="18"/>
     <col min="3" max="3" width="15" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="6" bestFit="1" customWidth="1"/>
@@ -4793,7 +5450,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>28</v>
@@ -4830,15 +5487,15 @@
         <v>8</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="18">
-        <v>200100001</v>
+      <c r="A3" s="18" t="s">
+        <v>300</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>172</v>
@@ -4847,7 +5504,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="6">
-        <v>32010101</v>
+        <v>320101</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>137</v>
@@ -4857,16 +5514,16 @@
         <v>中山陵介绍</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H3" s="6" t="str">
         <f>"&lt;Card CardID="""&amp;A3&amp;""" CardType="""&amp;B3&amp;""" CardName="""&amp;C3&amp;""" ScenicID="""&amp;D3&amp;""" Image="""&amp;E3&amp;""" Text="""&amp;F3&amp;""" Url="""&amp;G3&amp;""" /&gt;"</f>
-        <v>&lt;Card CardID="200100001" CardType="01" CardName="中山陵" ScenicID="32010101" Image="NanJing/card_nanjing01" Text="中山陵介绍" Url="https://baike.baidu.com/item/%E4%B8%AD%E5%B1%B1%E9%99%B5/246397" /&gt;</v>
+        <v>&lt;Card CardID="20010001" CardType="01" CardName="中山陵" ScenicID="320101" Image="NanJing/card_nanjing01" Text="中山陵介绍" Url="https://baike.baidu.com/item/%E4%B8%AD%E5%B1%B1%E9%99%B5/246397" /&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="18">
-        <v>200100002</v>
+      <c r="A4" s="18" t="s">
+        <v>301</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>172</v>
@@ -4875,7 +5532,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="6">
-        <v>32010102</v>
+        <v>320102</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>138</v>
@@ -4885,16 +5542,16 @@
         <v>总统府介绍</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H4" s="6" t="str">
         <f t="shared" ref="H4:H17" si="1">"&lt;Card CardID="""&amp;A4&amp;""" CardType="""&amp;B4&amp;""" CardName="""&amp;C4&amp;""" ScenicID="""&amp;D4&amp;""" Image="""&amp;E4&amp;""" Text="""&amp;F4&amp;""" Url="""&amp;G4&amp;""" /&gt;"</f>
-        <v>&lt;Card CardID="200100002" CardType="01" CardName="总统府" ScenicID="32010102" Image="NanJing/card_nanjing02" Text="总统府介绍" Url="https://baike.baidu.com/item/%E5%8D%97%E4%BA%AC%E6%80%BB%E7%BB%9F%E5%BA%9C/3027343?fromtitle=%E6%80%BB%E7%BB%9F%E5%BA%9C&amp;fromid=18727656" /&gt;</v>
+        <v>&lt;Card CardID="20010002" CardType="01" CardName="总统府" ScenicID="320102" Image="NanJing/card_nanjing02" Text="总统府介绍" Url="https://baike.baidu.com/item/%E5%8D%97%E4%BA%AC%E6%80%BB%E7%BB%9F%E5%BA%9C/3027343?fromtitle=%E6%80%BB%E7%BB%9F%E5%BA%9C&amp;fromid=18727656" /&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="18">
-        <v>200100003</v>
+      <c r="A5" s="18" t="s">
+        <v>302</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>172</v>
@@ -4903,7 +5560,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="6">
-        <v>32010103</v>
+        <v>320103</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>139</v>
@@ -4913,16 +5570,16 @@
         <v>夫子庙介绍</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H5" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100003" CardType="01" CardName="夫子庙" ScenicID="32010103" Image="NanJing/card_nanjing03" Text="夫子庙介绍" Url="https://baike.baidu.com/item/%E5%8D%97%E4%BA%AC%E5%A4%AB%E5%AD%90%E5%BA%99/510169?fromtitle=%E5%A4%AB%E5%AD%90%E5%BA%99&amp;fromid=978934" /&gt;</v>
+        <v>&lt;Card CardID="20010003" CardType="01" CardName="夫子庙" ScenicID="320103" Image="NanJing/card_nanjing03" Text="夫子庙介绍" Url="https://baike.baidu.com/item/%E5%8D%97%E4%BA%AC%E5%A4%AB%E5%AD%90%E5%BA%99/510169?fromtitle=%E5%A4%AB%E5%AD%90%E5%BA%99&amp;fromid=978934" /&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="18">
-        <v>200100004</v>
+      <c r="A6" s="18" t="s">
+        <v>303</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>172</v>
@@ -4931,7 +5588,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="6">
-        <v>32010104</v>
+        <v>320104</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>140</v>
@@ -4941,16 +5598,16 @@
         <v>瞻园介绍</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H6" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100004" CardType="01" CardName="瞻园" ScenicID="32010104" Image="NanJing/card_nanjing04" Text="瞻园介绍" Url="https://baike.baidu.com/item/%E8%A9%B9%E5%9B%AD" /&gt;</v>
+        <v>&lt;Card CardID="20010004" CardType="01" CardName="瞻园" ScenicID="320104" Image="NanJing/card_nanjing04" Text="瞻园介绍" Url="https://baike.baidu.com/item/%E8%A9%B9%E5%9B%AD" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="18">
-        <v>200100005</v>
+      <c r="A7" s="18" t="s">
+        <v>304</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>172</v>
@@ -4959,7 +5616,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="6">
-        <v>32010105</v>
+        <v>320105</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>141</v>
@@ -4969,16 +5626,16 @@
         <v>玄武湖公园介绍</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H7" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100005" CardType="01" CardName="玄武湖公园" ScenicID="32010105" Image="NanJing/card_nanjing05" Text="玄武湖公园介绍" Url="https://baike.baidu.com/item/%E7%8E%84%E6%AD%A6%E6%B9%96?fromtitle=%E7%8E%84%E6%AD%A6%E6%B9%96%E5%85%AC%E5%9B%AD&amp;fromid=217739" /&gt;</v>
+        <v>&lt;Card CardID="20010005" CardType="01" CardName="玄武湖公园" ScenicID="320105" Image="NanJing/card_nanjing05" Text="玄武湖公园介绍" Url="https://baike.baidu.com/item/%E7%8E%84%E6%AD%A6%E6%B9%96?fromtitle=%E7%8E%84%E6%AD%A6%E6%B9%96%E5%85%AC%E5%9B%AD&amp;fromid=217739" /&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="18">
-        <v>200100006</v>
+      <c r="A8" s="18" t="s">
+        <v>305</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>172</v>
@@ -4987,7 +5644,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="6">
-        <v>32010106</v>
+        <v>320106</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>142</v>
@@ -4997,16 +5654,16 @@
         <v>明孝陵介绍</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H8" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100006" CardType="01" CardName="明孝陵" ScenicID="32010106" Image="NanJing/card_nanjing06" Text="明孝陵介绍" Url="https://baike.baidu.com/item/%E6%98%8E%E5%AD%9D%E9%99%B5/751826" /&gt;</v>
+        <v>&lt;Card CardID="20010006" CardType="01" CardName="明孝陵" ScenicID="320106" Image="NanJing/card_nanjing06" Text="明孝陵介绍" Url="https://baike.baidu.com/item/%E6%98%8E%E5%AD%9D%E9%99%B5/751826" /&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="18">
-        <v>200100007</v>
+      <c r="A9" s="18" t="s">
+        <v>306</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>172</v>
@@ -5015,7 +5672,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="6">
-        <v>32010107</v>
+        <v>320107</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>143</v>
@@ -5025,16 +5682,16 @@
         <v>美龄宫介绍</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H9" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100007" CardType="01" CardName="美龄宫" ScenicID="32010107" Image="NanJing/card_nanjing07" Text="美龄宫介绍" Url="https://baike.baidu.com/item/%E5%9B%BD%E6%B0%91%E6%94%BF%E5%BA%9C%E4%B8%BB%E5%B8%AD%E5%AE%98%E9%82%B8%E6%97%A7%E5%9D%80?fromtitle=%E7%BE%8E%E9%BE%84%E5%AE%AB&amp;fromid=1173649" /&gt;</v>
+        <v>&lt;Card CardID="20010007" CardType="01" CardName="美龄宫" ScenicID="320107" Image="NanJing/card_nanjing07" Text="美龄宫介绍" Url="https://baike.baidu.com/item/%E5%9B%BD%E6%B0%91%E6%94%BF%E5%BA%9C%E4%B8%BB%E5%B8%AD%E5%AE%98%E9%82%B8%E6%97%A7%E5%9D%80?fromtitle=%E7%BE%8E%E9%BE%84%E5%AE%AB&amp;fromid=1173649" /&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="18">
-        <v>200100008</v>
+      <c r="A10" s="18" t="s">
+        <v>307</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>172</v>
@@ -5043,7 +5700,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="6">
-        <v>32010108</v>
+        <v>320108</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>144</v>
@@ -5053,16 +5710,16 @@
         <v>南京大屠杀纪念馆介绍</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H10" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100008" CardType="01" CardName="南京大屠杀纪念馆" ScenicID="32010108" Image="NanJing/card_nanjing08" Text="南京大屠杀纪念馆介绍" Url="https://baike.baidu.com/item/%E4%BE%B5%E5%8D%8E%E6%97%A5%E5%86%9B%E5%8D%97%E4%BA%AC%E5%A4%A7%E5%B1%A0%E6%9D%80%E9%81%87%E9%9A%BE%E5%90%8C%E8%83%9E%E7%BA%AA%E5%BF%B5%E9%A6%86" /&gt;</v>
+        <v>&lt;Card CardID="20010008" CardType="01" CardName="南京大屠杀纪念馆" ScenicID="320108" Image="NanJing/card_nanjing08" Text="南京大屠杀纪念馆介绍" Url="https://baike.baidu.com/item/%E4%BE%B5%E5%8D%8E%E6%97%A5%E5%86%9B%E5%8D%97%E4%BA%AC%E5%A4%A7%E5%B1%A0%E6%9D%80%E9%81%87%E9%9A%BE%E5%90%8C%E8%83%9E%E7%BA%AA%E5%BF%B5%E9%A6%86" /&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="18">
-        <v>200100009</v>
+      <c r="A11" s="18" t="s">
+        <v>308</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>172</v>
@@ -5071,7 +5728,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="6">
-        <v>32010109</v>
+        <v>320109</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>145</v>
@@ -5081,140 +5738,140 @@
         <v>栖霞山介绍</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H11" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100009" CardType="01" CardName="栖霞山" ScenicID="32010109" Image="NanJing/card_nanjing09" Text="栖霞山介绍" Url="https://baike.baidu.com/item/%E6%A0%96%E9%9C%9E%E5%B1%B1/151842" /&gt;</v>
+        <v>&lt;Card CardID="20010009" CardType="01" CardName="栖霞山" ScenicID="320109" Image="NanJing/card_nanjing09" Text="栖霞山介绍" Url="https://baike.baidu.com/item/%E6%A0%96%E9%9C%9E%E5%B1%B1/151842" /&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="18">
-        <v>200100010</v>
+      <c r="A12" s="18" t="s">
+        <v>309</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>172</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D12" s="6">
-        <v>32010201</v>
+        <v>320201</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>西津渡古街介绍</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H12" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100010" CardType="01" CardName="西津渡古街" ScenicID="32010201" Image="ZhenJiang/card_zhenjiang01" Text="西津渡古街介绍" Url="https://baike.baidu.com/item/%E8%A5%BF%E6%B4%A5%E6%B8%A1%E5%8F%A4%E8%A1%97/3265815?fr=aladdin" /&gt;</v>
+        <v>&lt;Card CardID="20010010" CardType="01" CardName="西津渡古街" ScenicID="320201" Image="ZhenJiang/card_zhenjiang01" Text="西津渡古街介绍" Url="https://baike.baidu.com/item/%E8%A5%BF%E6%B4%A5%E6%B8%A1%E5%8F%A4%E8%A1%97/3265815?fr=aladdin" /&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="18">
-        <v>200100011</v>
+      <c r="A13" s="18" t="s">
+        <v>310</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>172</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D13" s="6">
-        <v>32010202</v>
+        <v>320202</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>金山寺介绍</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H13" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100011" CardType="01" CardName="金山寺" ScenicID="32010202" Image="ZhenJiang/card_zhenjiang02" Text="金山寺介绍" Url="https://baike.baidu.com/item/%E9%87%91%E5%B1%B1%E5%AF%BA/3942" /&gt;</v>
+        <v>&lt;Card CardID="20010011" CardType="01" CardName="金山寺" ScenicID="320202" Image="ZhenJiang/card_zhenjiang02" Text="金山寺介绍" Url="https://baike.baidu.com/item/%E9%87%91%E5%B1%B1%E5%AF%BA/3942" /&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="18">
-        <v>200100012</v>
+      <c r="A14" s="18" t="s">
+        <v>311</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>172</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D14" s="6">
-        <v>32010203</v>
+        <v>320203</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>北固山介绍</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H14" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100012" CardType="01" CardName="北固山" ScenicID="32010203" Image="ZhenJiang/card_zhenjiang03" Text="北固山介绍" Url="https://baike.baidu.com/item/%E5%8C%97%E5%9B%BA%E5%B1%B1/625922" /&gt;</v>
+        <v>&lt;Card CardID="20010012" CardType="01" CardName="北固山" ScenicID="320203" Image="ZhenJiang/card_zhenjiang03" Text="北固山介绍" Url="https://baike.baidu.com/item/%E5%8C%97%E5%9B%BA%E5%B1%B1/625922" /&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="18">
-        <v>200100013</v>
+      <c r="A15" s="18" t="s">
+        <v>312</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>172</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D15" s="6">
-        <v>32010204</v>
+        <v>320204</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>焦山介绍</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H15" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100013" CardType="01" CardName="焦山" ScenicID="32010204" Image="ZhenJiang/card_zhenjiang04" Text="焦山介绍" Url="https://baike.baidu.com/item/%E7%84%A6%E5%B1%B1%E9%A3%8E%E6%99%AF%E5%8C%BA/7985811?fromtitle=%E7%84%A6%E5%B1%B1&amp;fromid=922275" /&gt;</v>
+        <v>&lt;Card CardID="20010013" CardType="01" CardName="焦山" ScenicID="320204" Image="ZhenJiang/card_zhenjiang04" Text="焦山介绍" Url="https://baike.baidu.com/item/%E7%84%A6%E5%B1%B1%E9%A3%8E%E6%99%AF%E5%8C%BA/7985811?fromtitle=%E7%84%A6%E5%B1%B1&amp;fromid=922275" /&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="18">
-        <v>200100014</v>
+      <c r="A16" s="18" t="s">
+        <v>313</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>172</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D16" s="6">
-        <v>32010205</v>
+        <v>320205</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5222,35 +5879,35 @@
       </c>
       <c r="H16" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100014" CardType="01" CardName="得撒石磨豆腐村" ScenicID="32010205" Image="ZhenJiang/card_zhenjiang05" Text="得撒石磨豆腐村介绍" Url="" /&gt;</v>
+        <v>&lt;Card CardID="20010014" CardType="01" CardName="得撒石磨豆腐村" ScenicID="320205" Image="ZhenJiang/card_zhenjiang05" Text="得撒石磨豆腐村介绍" Url="" /&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="18">
-        <v>200100015</v>
+      <c r="A17" s="18" t="s">
+        <v>314</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>172</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D17" s="6">
-        <v>32010206</v>
+        <v>320206</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>宝华山国家森林公园介绍</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H17" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="200100015" CardType="01" CardName="宝华山国家森林公园" ScenicID="32010206" Image="ZhenJiang/card_zhenjiang06" Text="宝华山国家森林公园介绍" Url="https://baike.baidu.com/item/%E6%B1%9F%E8%8B%8F%E5%AE%9D%E5%8D%8E%E5%B1%B1%E5%9B%BD%E5%AE%B6%E6%A3%AE%E6%9E%97%E5%85%AC%E5%9B%AD?fromtitle=%E5%AE%9D%E5%8D%8E%E5%B1%B1%E5%9B%BD%E5%AE%B6%E6%A3%AE%E6%9E%97%E5%85%AC%E5%9B%AD&amp;fromid=10566126" /&gt;</v>
+        <v>&lt;Card CardID="20010015" CardType="01" CardName="宝华山国家森林公园" ScenicID="320206" Image="ZhenJiang/card_zhenjiang06" Text="宝华山国家森林公园介绍" Url="https://baike.baidu.com/item/%E6%B1%9F%E8%8B%8F%E5%AE%9D%E5%8D%8E%E5%B1%B1%E5%9B%BD%E5%AE%B6%E6%A3%AE%E6%9E%97%E5%85%AC%E5%9B%AD?fromtitle=%E5%AE%9D%E5%8D%8E%E5%B1%B1%E5%9B%BD%E5%AE%B6%E6%A3%AE%E6%9E%97%E5%85%AC%E5%9B%AD&amp;fromid=10566126" /&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5269,9 +5926,9 @@
       <c r="G20" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5294,4 +5951,678 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
   <legacyDrawing r:id="rId15"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C222" sqref="C222:C228"/>
+      <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
+      <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="6.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="93.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="5" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="6">
+        <v>320101</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3201</v>
+      </c>
+      <c r="D3" s="6" t="str">
+        <f>"&lt;Scenic ID="""&amp;A3&amp;""" TestScheme="""&amp;B3&amp;""" MapID="""&amp;C3&amp;""" /&gt;"</f>
+        <v>&lt;Scenic ID="320101" TestScheme="001" MapID="3201" /&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="6">
+        <v>320102</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3201</v>
+      </c>
+      <c r="D4" s="6" t="str">
+        <f t="shared" ref="D4:D17" si="0">"&lt;Scenic ID="""&amp;A4&amp;""" TestScheme="""&amp;B4&amp;""" MapID="""&amp;C4&amp;""" /&gt;"</f>
+        <v>&lt;Scenic ID="320102" TestScheme="001" MapID="3201" /&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="6">
+        <v>320103</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3201</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320103" TestScheme="001" MapID="3201" /&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="6">
+        <v>320104</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3201</v>
+      </c>
+      <c r="D6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320104" TestScheme="001" MapID="3201" /&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="6">
+        <v>320105</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3201</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320105" TestScheme="001" MapID="3201" /&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="6">
+        <v>320106</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3201</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320106" TestScheme="001" MapID="3201" /&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="6">
+        <v>320107</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3201</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320107" TestScheme="001" MapID="3201" /&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="6">
+        <v>320108</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3201</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320108" TestScheme="001" MapID="3201" /&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="6">
+        <v>320109</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3201</v>
+      </c>
+      <c r="D11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320109" TestScheme="001" MapID="3201" /&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="6">
+        <v>320201</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3202</v>
+      </c>
+      <c r="D12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320201" TestScheme="001" MapID="3202" /&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="6">
+        <v>320202</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3202</v>
+      </c>
+      <c r="D13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320202" TestScheme="001" MapID="3202" /&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="6">
+        <v>320203</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3202</v>
+      </c>
+      <c r="D14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320203" TestScheme="001" MapID="3202" /&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="6">
+        <v>320204</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3202</v>
+      </c>
+      <c r="D15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320204" TestScheme="001" MapID="3202" /&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="6">
+        <v>320205</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3202</v>
+      </c>
+      <c r="D16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320205" TestScheme="001" MapID="3202" /&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6">
+        <v>320206</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3202</v>
+      </c>
+      <c r="D17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Scenic ID="320206" TestScheme="001" MapID="3202" /&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="L1">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="2" width="9" style="25"/>
+    <col min="3" max="3" width="57" style="25" customWidth="1"/>
+    <col min="4" max="9" width="9" style="25"/>
+    <col min="10" max="10" width="25.125" style="23" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="K8" s="34" t="str">
+        <f>"&lt;Question ID="""&amp;F8&amp;""" Count="""&amp;G8&amp;""" Scheme="""&amp;H8&amp;""" Source="""&amp;I8&amp;""" Score="""&amp;J8&amp;""" /&gt;"</f>
+        <v>&lt;Question ID="" Count="" Scheme="" Source="" Score="" /&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="2" width="9" style="25"/>
+    <col min="3" max="3" width="20" style="25" customWidth="1"/>
+    <col min="4" max="4" width="19.75" style="25" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="9" style="34"/>
+    <col min="7" max="7" width="20.25" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="E1" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="32" t="str">
+        <f>"&lt;QuestionType ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" /&gt;"</f>
+        <v>&lt;QuestionType ID="01001" Name="地理知识" /&gt;</v>
+      </c>
+      <c r="E3" s="28">
+        <v>0</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="G3" s="32" t="str">
+        <f>"&lt;Difficutly ID="""&amp;E3&amp;""" Name="""&amp;F3&amp;""" /&gt;"</f>
+        <v>&lt;Difficutly ID="0" Name="简单" /&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="32" t="str">
+        <f t="shared" ref="C4:C5" si="0">"&lt;QuestionType ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" /&gt;"</f>
+        <v>&lt;QuestionType ID="01002" Name="历史知识" /&gt;</v>
+      </c>
+      <c r="E4" s="28">
+        <v>1</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="G4" s="32" t="str">
+        <f t="shared" ref="G4:G5" si="1">"&lt;Difficutly ID="""&amp;E4&amp;""" Name="""&amp;F4&amp;""" /&gt;"</f>
+        <v>&lt;Difficutly ID="1" Name="一般" /&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;QuestionType ID="01003" Name="科学小常识" /&gt;</v>
+      </c>
+      <c r="E5" s="28">
+        <v>2</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G5" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Difficutly ID="2" Name="困难" /&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="34" t="str">
+        <f>"&lt;Scheme ID="""&amp;A9&amp;""" Count="""&amp;B9&amp;""" Matching="""&amp;C9&amp;""" Source="""&amp;D9&amp;""" Score="""&amp;E9&amp;""" /&gt;"</f>
+        <v>&lt;Scheme ID="001" Count="3" Matching="0.3#0.3#0.4" Source="01001,01002,01003" Score="2,5,8" /&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="33" r:id="rId1"/>
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="321">
   <si>
     <t>Image</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1641,6 +1641,24 @@
   </si>
   <si>
     <t>20010015</t>
+  </si>
+  <si>
+    <t>cloud 00</t>
+  </si>
+  <si>
+    <t>cloud 01</t>
+  </si>
+  <si>
+    <t>cloud 02</t>
+  </si>
+  <si>
+    <t>cloud 03</t>
+  </si>
+  <si>
+    <t>cloud 04</t>
+  </si>
+  <si>
+    <t>cloud 05</t>
   </si>
 </sst>
 </file>
@@ -1963,9 +1981,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1978,11 +1993,23 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="18" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1993,15 +2020,6 @@
     <xf numFmtId="49" fontId="18" fillId="3" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2010,7 +2028,21 @@
     <cellStyle name="常规 2 2 2" xfId="3"/>
     <cellStyle name="常规 3" xfId="4"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2056,13 +2088,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF4B4B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2597,13 +2622,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A88" sqref="A88"/>
+      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3426,7 +3451,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="10" t="str">
-        <f t="shared" ref="J31:J60" si="2">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
+        <f t="shared" ref="J31:J66" si="2">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
         <v xml:space="preserve">  &lt;Image Name="traffic" FileType="Texture2" AB="cycling/traffic" Enable="1" /&gt;</v>
       </c>
     </row>
@@ -4011,7 +4036,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>148</v>
+        <v>315</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>64</v>
@@ -4026,256 +4051,256 @@
         <v>1</v>
       </c>
       <c r="J56" s="10" t="str">
+        <f t="shared" ref="J56:J61" si="5">IF(A56=1,"&lt;Module Name="""&amp;B56&amp;""" Desc="""&amp;C56&amp;"""&gt;",IF(E56="Package","  &lt;Image Name="""&amp;D56&amp;""" FileType="""&amp;F56&amp;""" AB="""&amp;H56&amp;""" Enable="""&amp;I56&amp;""" /&gt;",IF(E56="Single","  &lt;Image Name="""&amp;D56&amp;""" FileType="""&amp;F56&amp;""" Path="""&amp;G56&amp;D56&amp;""" Enable="""&amp;I56&amp;""" /&gt;", IF(A56=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="cloud 00" FileType="Sprite" Path="Cycling/View/cloud 00" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="15">
+        <v>3</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I57" s="15">
+        <v>1</v>
+      </c>
+      <c r="J57" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="cloud 01" FileType="Sprite" Path="Cycling/View/cloud 01" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="15">
+        <v>3</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I58" s="15">
+        <v>1</v>
+      </c>
+      <c r="J58" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="cloud 02" FileType="Sprite" Path="Cycling/View/cloud 02" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="15">
+        <v>3</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I59" s="15">
+        <v>1</v>
+      </c>
+      <c r="J59" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="cloud 03" FileType="Sprite" Path="Cycling/View/cloud 03" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="15">
+        <v>3</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I60" s="15">
+        <v>1</v>
+      </c>
+      <c r="J60" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="cloud 04" FileType="Sprite" Path="Cycling/View/cloud 04" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="15">
+        <v>3</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I61" s="15">
+        <v>1</v>
+      </c>
+      <c r="J61" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="cloud 05" FileType="Sprite" Path="Cycling/View/cloud 05" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="15">
+        <v>3</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I62" s="15">
+        <v>1</v>
+      </c>
+      <c r="J62" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="coin" FileType="Sprite" Path="Cycling/View/coin" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="15">
-        <v>3</v>
-      </c>
-      <c r="D57" s="10" t="s">
+    <row r="63" spans="1:10">
+      <c r="A63" s="15">
+        <v>3</v>
+      </c>
+      <c r="D63" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G57" s="10" t="s">
+      <c r="E63" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G63" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I57" s="15">
-        <v>1</v>
-      </c>
-      <c r="J57" s="10" t="str">
+      <c r="I63" s="15">
+        <v>1</v>
+      </c>
+      <c r="J63" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="15">
-        <v>3</v>
-      </c>
-      <c r="D58" s="10" t="s">
+    <row r="64" spans="1:10">
+      <c r="A64" s="15">
+        <v>3</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G58" s="10" t="s">
+      <c r="E64" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G64" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I58" s="15">
-        <v>1</v>
-      </c>
-      <c r="J58" s="10" t="str">
+      <c r="I64" s="15">
+        <v>1</v>
+      </c>
+      <c r="J64" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="15">
-        <v>3</v>
-      </c>
-      <c r="D59" s="10" t="s">
+    <row r="65" spans="1:10">
+      <c r="A65" s="15">
+        <v>3</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G59" s="10" t="s">
+      <c r="E65" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G65" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I59" s="15">
-        <v>1</v>
-      </c>
-      <c r="J59" s="10" t="str">
+      <c r="I65" s="15">
+        <v>1</v>
+      </c>
+      <c r="J65" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="coord_friend" FileType="Sprite" Path="Cycling/View/coord_friend" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="15">
-        <v>3</v>
-      </c>
-      <c r="D60" s="10" t="s">
+    <row r="66" spans="1:10">
+      <c r="A66" s="15">
+        <v>3</v>
+      </c>
+      <c r="D66" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G60" s="10" t="s">
+      <c r="E66" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G66" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I60" s="15">
-        <v>1</v>
-      </c>
-      <c r="J60" s="10" t="str">
+      <c r="I66" s="15">
+        <v>1</v>
+      </c>
+      <c r="J66" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="cost_panel" FileType="Sprite" Path="Cycling/View/cost_panel" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="15">
-        <v>3</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I61" s="15">
-        <v>1</v>
-      </c>
-      <c r="J61" s="10" t="str">
-        <f t="shared" ref="J61:J82" si="5">IF(A61=1,"&lt;Module Name="""&amp;B61&amp;""" Desc="""&amp;C61&amp;"""&gt;",IF(E61="Package","  &lt;Image Name="""&amp;D61&amp;""" FileType="""&amp;F61&amp;""" AB="""&amp;H61&amp;""" Enable="""&amp;I61&amp;""" /&gt;",IF(E61="Single","  &lt;Image Name="""&amp;D61&amp;""" FileType="""&amp;F61&amp;""" Path="""&amp;G61&amp;D61&amp;""" Enable="""&amp;I61&amp;""" /&gt;", IF(A61=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="disable_button" FileType="Sprite" Path="Cycling/View/disable_button" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="15">
-        <v>3</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I62" s="15">
-        <v>1</v>
-      </c>
-      <c r="J62" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="enable_button" FileType="Sprite" Path="Cycling/View/enable_button" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="15">
-        <v>3</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I63" s="15">
-        <v>1</v>
-      </c>
-      <c r="J63" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="15">
-        <v>3</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I64" s="15">
-        <v>1</v>
-      </c>
-      <c r="J64" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="15">
-        <v>3</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I65" s="15">
-        <v>1</v>
-      </c>
-      <c r="J65" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="pay_border" FileType="Sprite" Path="Cycling/View/pay_border" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="15">
-        <v>3</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I66" s="15">
-        <v>1</v>
-      </c>
-      <c r="J66" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="pay_panel" FileType="Sprite" Path="Cycling/View/pay_panel" Enable="1" /&gt;</v>
-      </c>
-    </row>
     <row r="67" spans="1:10">
       <c r="A67" s="15">
         <v>3</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>64</v>
@@ -4290,8 +4315,8 @@
         <v>1</v>
       </c>
       <c r="J67" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="pay_line" FileType="Sprite" Path="Cycling/View/pay_line" Enable="1" /&gt;</v>
+        <f t="shared" ref="J67:J88" si="6">IF(A67=1,"&lt;Module Name="""&amp;B67&amp;""" Desc="""&amp;C67&amp;"""&gt;",IF(E67="Package","  &lt;Image Name="""&amp;D67&amp;""" FileType="""&amp;F67&amp;""" AB="""&amp;H67&amp;""" Enable="""&amp;I67&amp;""" /&gt;",IF(E67="Single","  &lt;Image Name="""&amp;D67&amp;""" FileType="""&amp;F67&amp;""" Path="""&amp;G67&amp;D67&amp;""" Enable="""&amp;I67&amp;""" /&gt;", IF(A67=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="disable_button" FileType="Sprite" Path="Cycling/View/disable_button" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -4299,7 +4324,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>64</v>
@@ -4314,8 +4339,8 @@
         <v>1</v>
       </c>
       <c r="J68" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="enable_button" FileType="Sprite" Path="Cycling/View/enable_button" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -4323,7 +4348,7 @@
         <v>3</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>64</v>
@@ -4338,8 +4363,8 @@
         <v>1</v>
       </c>
       <c r="J69" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -4347,7 +4372,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>64</v>
@@ -4362,8 +4387,8 @@
         <v>1</v>
       </c>
       <c r="J70" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4371,7 +4396,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>64</v>
@@ -4386,8 +4411,8 @@
         <v>1</v>
       </c>
       <c r="J71" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="pay_border" FileType="Sprite" Path="Cycling/View/pay_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -4395,7 +4420,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>64</v>
@@ -4410,8 +4435,8 @@
         <v>1</v>
       </c>
       <c r="J72" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="pay_panel" FileType="Sprite" Path="Cycling/View/pay_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -4419,7 +4444,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>64</v>
@@ -4434,8 +4459,8 @@
         <v>1</v>
       </c>
       <c r="J73" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="pay_line" FileType="Sprite" Path="Cycling/View/pay_line" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -4443,7 +4468,7 @@
         <v>3</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>64</v>
@@ -4458,8 +4483,8 @@
         <v>1</v>
       </c>
       <c r="J74" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -4467,7 +4492,7 @@
         <v>3</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>64</v>
@@ -4482,8 +4507,8 @@
         <v>1</v>
       </c>
       <c r="J75" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -4491,7 +4516,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>64</v>
@@ -4506,8 +4531,8 @@
         <v>1</v>
       </c>
       <c r="J76" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -4515,7 +4540,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>64</v>
@@ -4530,8 +4555,8 @@
         <v>1</v>
       </c>
       <c r="J77" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -4539,7 +4564,7 @@
         <v>3</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>64</v>
@@ -4554,8 +4579,8 @@
         <v>1</v>
       </c>
       <c r="J78" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="station_panel" FileType="Sprite" Path="Cycling/View/station_panel" Enable="1" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4563,7 +4588,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>64</v>
@@ -4578,8 +4603,8 @@
         <v>1</v>
       </c>
       <c r="J79" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -4587,7 +4612,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>64</v>
@@ -4602,8 +4627,8 @@
         <v>1</v>
       </c>
       <c r="J80" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -4611,7 +4636,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>64</v>
@@ -4626,8 +4651,8 @@
         <v>1</v>
       </c>
       <c r="J81" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4635,7 +4660,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>64</v>
@@ -4650,8 +4675,8 @@
         <v>1</v>
       </c>
       <c r="J82" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="tip_error" FileType="Sprite" Path="Cycling/View/tip_error" Enable="1" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4659,7 +4684,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>64</v>
@@ -4674,8 +4699,8 @@
         <v>1</v>
       </c>
       <c r="J83" s="10" t="str">
-        <f t="shared" ref="J83:J87" si="6">IF(A83=1,"&lt;Module Name="""&amp;B83&amp;""" Desc="""&amp;C83&amp;"""&gt;",IF(E83="Package","  &lt;Image Name="""&amp;D83&amp;""" FileType="""&amp;F83&amp;""" AB="""&amp;H83&amp;""" Enable="""&amp;I83&amp;""" /&gt;",IF(E83="Single","  &lt;Image Name="""&amp;D83&amp;""" FileType="""&amp;F83&amp;""" Path="""&amp;G83&amp;D83&amp;""" Enable="""&amp;I83&amp;""" /&gt;", IF(A83=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4683,7 +4708,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>64</v>
@@ -4699,7 +4724,7 @@
       </c>
       <c r="J84" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="train1" FileType="Sprite" Path="Cycling/View/train1" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="station_panel" FileType="Sprite" Path="Cycling/View/station_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4707,7 +4732,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>64</v>
@@ -4723,7 +4748,7 @@
       </c>
       <c r="J85" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="train2" FileType="Sprite" Path="Cycling/View/train2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -4731,7 +4756,7 @@
         <v>3</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>64</v>
@@ -4747,22 +4772,166 @@
       </c>
       <c r="J86" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="train3" FileType="Sprite" Path="Cycling/View/train3" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="15">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I87" s="15">
+        <v>1</v>
       </c>
       <c r="J87" s="10" t="str">
         <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="15">
+        <v>3</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I88" s="15">
+        <v>1</v>
+      </c>
+      <c r="J88" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="tip_error" FileType="Sprite" Path="Cycling/View/tip_error" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="15">
+        <v>3</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I89" s="15">
+        <v>1</v>
+      </c>
+      <c r="J89" s="10" t="str">
+        <f t="shared" ref="J89:J93" si="7">IF(A89=1,"&lt;Module Name="""&amp;B89&amp;""" Desc="""&amp;C89&amp;"""&gt;",IF(E89="Package","  &lt;Image Name="""&amp;D89&amp;""" FileType="""&amp;F89&amp;""" AB="""&amp;H89&amp;""" Enable="""&amp;I89&amp;""" /&gt;",IF(E89="Single","  &lt;Image Name="""&amp;D89&amp;""" FileType="""&amp;F89&amp;""" Path="""&amp;G89&amp;D89&amp;""" Enable="""&amp;I89&amp;""" /&gt;", IF(A89=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="15">
+        <v>3</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I90" s="15">
+        <v>1</v>
+      </c>
+      <c r="J90" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="train1" FileType="Sprite" Path="Cycling/View/train1" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="15">
+        <v>3</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I91" s="15">
+        <v>1</v>
+      </c>
+      <c r="J91" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="train2" FileType="Sprite" Path="Cycling/View/train2" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="15">
+        <v>3</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I92" s="15">
+        <v>1</v>
+      </c>
+      <c r="J92" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="train3" FileType="Sprite" Path="Cycling/View/train3" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="15">
+        <v>4</v>
+      </c>
+      <c r="J93" s="10" t="str">
+        <f t="shared" si="7"/>
         <v>&lt;/Module&gt;</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5102,7 +5271,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="U1">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5114,7 +5283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
@@ -5398,7 +5567,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5928,7 +6097,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6017,7 +6186,7 @@
       <c r="A3" s="6">
         <v>320101</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>289</v>
       </c>
       <c r="C3" s="6">
@@ -6032,7 +6201,7 @@
       <c r="A4" s="6">
         <v>320102</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>289</v>
       </c>
       <c r="C4" s="6">
@@ -6047,7 +6216,7 @@
       <c r="A5" s="6">
         <v>320103</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>289</v>
       </c>
       <c r="C5" s="6">
@@ -6062,7 +6231,7 @@
       <c r="A6" s="6">
         <v>320104</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>289</v>
       </c>
       <c r="C6" s="6">
@@ -6077,7 +6246,7 @@
       <c r="A7" s="6">
         <v>320105</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>289</v>
       </c>
       <c r="C7" s="6">
@@ -6092,7 +6261,7 @@
       <c r="A8" s="6">
         <v>320106</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>289</v>
       </c>
       <c r="C8" s="6">
@@ -6107,7 +6276,7 @@
       <c r="A9" s="6">
         <v>320107</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>289</v>
       </c>
       <c r="C9" s="6">
@@ -6122,7 +6291,7 @@
       <c r="A10" s="6">
         <v>320108</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>289</v>
       </c>
       <c r="C10" s="6">
@@ -6137,7 +6306,7 @@
       <c r="A11" s="6">
         <v>320109</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>289</v>
       </c>
       <c r="C11" s="6">
@@ -6152,7 +6321,7 @@
       <c r="A12" s="6">
         <v>320201</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>289</v>
       </c>
       <c r="C12" s="6">
@@ -6167,7 +6336,7 @@
       <c r="A13" s="6">
         <v>320202</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>289</v>
       </c>
       <c r="C13" s="6">
@@ -6182,7 +6351,7 @@
       <c r="A14" s="6">
         <v>320203</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>289</v>
       </c>
       <c r="C14" s="6">
@@ -6197,7 +6366,7 @@
       <c r="A15" s="6">
         <v>320204</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>289</v>
       </c>
       <c r="C15" s="6">
@@ -6212,7 +6381,7 @@
       <c r="A16" s="6">
         <v>320205</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>289</v>
       </c>
       <c r="C16" s="6">
@@ -6227,7 +6396,7 @@
       <c r="A17" s="6">
         <v>320206</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>289</v>
       </c>
       <c r="C17" s="6">
@@ -6241,7 +6410,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6259,188 +6428,188 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="2" width="9" style="25"/>
-    <col min="3" max="3" width="57" style="25" customWidth="1"/>
-    <col min="4" max="9" width="9" style="25"/>
-    <col min="10" max="10" width="25.125" style="23" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="23"/>
+    <col min="1" max="2" width="9" style="24"/>
+    <col min="3" max="3" width="57" style="24" customWidth="1"/>
+    <col min="4" max="9" width="9" style="24"/>
+    <col min="10" max="10" width="25.125" style="22" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="23" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="22" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="22" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="22" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="28" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="K8" s="34" t="str">
+      <c r="K8" s="29" t="str">
         <f>"&lt;Question ID="""&amp;F8&amp;""" Count="""&amp;G8&amp;""" Scheme="""&amp;H8&amp;""" Source="""&amp;I8&amp;""" Score="""&amp;J8&amp;""" /&gt;"</f>
         <v>&lt;Question ID="" Count="" Scheme="" Source="" Score="" /&gt;</v>
       </c>
@@ -6467,150 +6636,150 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="2" width="9" style="25"/>
-    <col min="3" max="3" width="20" style="25" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="25" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="25" customWidth="1"/>
-    <col min="6" max="6" width="9" style="34"/>
-    <col min="7" max="7" width="20.25" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="23"/>
+    <col min="1" max="2" width="9" style="24"/>
+    <col min="3" max="3" width="20" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.75" style="24" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="9" style="29"/>
+    <col min="7" max="7" width="20.25" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="E1" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="26" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="C3" s="32" t="str">
+      <c r="C3" s="27" t="str">
         <f>"&lt;QuestionType ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" /&gt;"</f>
         <v>&lt;QuestionType ID="01001" Name="地理知识" /&gt;</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="26">
         <v>0</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="G3" s="32" t="str">
+      <c r="G3" s="27" t="str">
         <f>"&lt;Difficutly ID="""&amp;E3&amp;""" Name="""&amp;F3&amp;""" /&gt;"</f>
         <v>&lt;Difficutly ID="0" Name="简单" /&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="C4" s="32" t="str">
+      <c r="C4" s="27" t="str">
         <f t="shared" ref="C4:C5" si="0">"&lt;QuestionType ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" /&gt;"</f>
         <v>&lt;QuestionType ID="01002" Name="历史知识" /&gt;</v>
       </c>
-      <c r="E4" s="28">
-        <v>1</v>
-      </c>
-      <c r="F4" s="32" t="s">
+      <c r="E4" s="26">
+        <v>1</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="G4" s="32" t="str">
+      <c r="G4" s="27" t="str">
         <f t="shared" ref="G4:G5" si="1">"&lt;Difficutly ID="""&amp;E4&amp;""" Name="""&amp;F4&amp;""" /&gt;"</f>
         <v>&lt;Difficutly ID="1" Name="一般" /&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="C5" s="32" t="str">
+      <c r="C5" s="27" t="str">
         <f t="shared" si="0"/>
         <v>&lt;QuestionType ID="01003" Name="科学小常识" /&gt;</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="26">
         <v>2</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="G5" s="32" t="str">
+      <c r="G5" s="27" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Difficutly ID="2" Name="困难" /&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="28" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="F9" s="34" t="str">
+      <c r="F9" s="29" t="str">
         <f>"&lt;Scheme ID="""&amp;A9&amp;""" Count="""&amp;B9&amp;""" Matching="""&amp;C9&amp;""" Source="""&amp;D9&amp;""" Score="""&amp;E9&amp;""" /&gt;"</f>
         <v>&lt;Scheme ID="001" Count="3" Matching="0.3#0.3#0.4" Source="01001,01002,01003" Score="2,5,8" /&gt;</v>
       </c>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="319">
   <si>
     <t>Image</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1643,9 +1643,6 @@
     <t>20010015</t>
   </si>
   <si>
-    <t>cloud 00</t>
-  </si>
-  <si>
     <t>cloud 01</t>
   </si>
   <si>
@@ -1656,9 +1653,6 @@
   </si>
   <si>
     <t>cloud 04</t>
-  </si>
-  <si>
-    <t>cloud 05</t>
   </si>
 </sst>
 </file>
@@ -2028,14 +2022,7 @@
     <cellStyle name="常规 2 2 2" xfId="3"/>
     <cellStyle name="常规 3" xfId="4"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -2622,13 +2609,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3451,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="10" t="str">
-        <f t="shared" ref="J31:J66" si="2">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
+        <f t="shared" ref="J31:J64" si="2">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
         <v xml:space="preserve">  &lt;Image Name="traffic" FileType="Texture2" AB="cycling/traffic" Enable="1" /&gt;</v>
       </c>
     </row>
@@ -4051,8 +4038,8 @@
         <v>1</v>
       </c>
       <c r="J56" s="10" t="str">
-        <f t="shared" ref="J56:J61" si="5">IF(A56=1,"&lt;Module Name="""&amp;B56&amp;""" Desc="""&amp;C56&amp;"""&gt;",IF(E56="Package","  &lt;Image Name="""&amp;D56&amp;""" FileType="""&amp;F56&amp;""" AB="""&amp;H56&amp;""" Enable="""&amp;I56&amp;""" /&gt;",IF(E56="Single","  &lt;Image Name="""&amp;D56&amp;""" FileType="""&amp;F56&amp;""" Path="""&amp;G56&amp;D56&amp;""" Enable="""&amp;I56&amp;""" /&gt;", IF(A56=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="cloud 00" FileType="Sprite" Path="Cycling/View/cloud 00" Enable="1" /&gt;</v>
+        <f t="shared" ref="J56:J59" si="5">IF(A56=1,"&lt;Module Name="""&amp;B56&amp;""" Desc="""&amp;C56&amp;"""&gt;",IF(E56="Package","  &lt;Image Name="""&amp;D56&amp;""" FileType="""&amp;F56&amp;""" AB="""&amp;H56&amp;""" Enable="""&amp;I56&amp;""" /&gt;",IF(E56="Single","  &lt;Image Name="""&amp;D56&amp;""" FileType="""&amp;F56&amp;""" Path="""&amp;G56&amp;D56&amp;""" Enable="""&amp;I56&amp;""" /&gt;", IF(A56=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="cloud 01" FileType="Sprite" Path="Cycling/View/cloud 01" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -4076,7 +4063,7 @@
       </c>
       <c r="J57" s="10" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="cloud 01" FileType="Sprite" Path="Cycling/View/cloud 01" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="cloud 02" FileType="Sprite" Path="Cycling/View/cloud 02" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -4100,7 +4087,7 @@
       </c>
       <c r="J58" s="10" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="cloud 02" FileType="Sprite" Path="Cycling/View/cloud 02" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="cloud 03" FileType="Sprite" Path="Cycling/View/cloud 03" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -4124,7 +4111,7 @@
       </c>
       <c r="J59" s="10" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="cloud 03" FileType="Sprite" Path="Cycling/View/cloud 03" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="cloud 04" FileType="Sprite" Path="Cycling/View/cloud 04" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -4132,7 +4119,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>319</v>
+        <v>148</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>64</v>
@@ -4147,8 +4134,8 @@
         <v>1</v>
       </c>
       <c r="J60" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="cloud 04" FileType="Sprite" Path="Cycling/View/cloud 04" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="coin" FileType="Sprite" Path="Cycling/View/coin" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -4156,7 +4143,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>320</v>
+        <v>99</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>64</v>
@@ -4171,8 +4158,8 @@
         <v>1</v>
       </c>
       <c r="J61" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="cloud 05" FileType="Sprite" Path="Cycling/View/cloud 05" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -4180,7 +4167,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>64</v>
@@ -4196,7 +4183,7 @@
       </c>
       <c r="J62" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="coin" FileType="Sprite" Path="Cycling/View/coin" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -4204,7 +4191,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>64</v>
@@ -4220,7 +4207,7 @@
       </c>
       <c r="J63" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coord_friend" FileType="Sprite" Path="Cycling/View/coord_friend" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -4228,7 +4215,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>64</v>
@@ -4244,7 +4231,7 @@
       </c>
       <c r="J64" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="cost_panel" FileType="Sprite" Path="Cycling/View/cost_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -4252,7 +4239,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>64</v>
@@ -4267,8 +4254,8 @@
         <v>1</v>
       </c>
       <c r="J65" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="coord_friend" FileType="Sprite" Path="Cycling/View/coord_friend" Enable="1" /&gt;</v>
+        <f t="shared" ref="J65:J86" si="6">IF(A65=1,"&lt;Module Name="""&amp;B65&amp;""" Desc="""&amp;C65&amp;"""&gt;",IF(E65="Package","  &lt;Image Name="""&amp;D65&amp;""" FileType="""&amp;F65&amp;""" AB="""&amp;H65&amp;""" Enable="""&amp;I65&amp;""" /&gt;",IF(E65="Single","  &lt;Image Name="""&amp;D65&amp;""" FileType="""&amp;F65&amp;""" Path="""&amp;G65&amp;D65&amp;""" Enable="""&amp;I65&amp;""" /&gt;", IF(A65=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="disable_button" FileType="Sprite" Path="Cycling/View/disable_button" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -4276,7 +4263,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>64</v>
@@ -4291,8 +4278,8 @@
         <v>1</v>
       </c>
       <c r="J66" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="cost_panel" FileType="Sprite" Path="Cycling/View/cost_panel" Enable="1" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="enable_button" FileType="Sprite" Path="Cycling/View/enable_button" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -4300,7 +4287,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>64</v>
@@ -4315,8 +4302,8 @@
         <v>1</v>
       </c>
       <c r="J67" s="10" t="str">
-        <f t="shared" ref="J67:J88" si="6">IF(A67=1,"&lt;Module Name="""&amp;B67&amp;""" Desc="""&amp;C67&amp;"""&gt;",IF(E67="Package","  &lt;Image Name="""&amp;D67&amp;""" FileType="""&amp;F67&amp;""" AB="""&amp;H67&amp;""" Enable="""&amp;I67&amp;""" /&gt;",IF(E67="Single","  &lt;Image Name="""&amp;D67&amp;""" FileType="""&amp;F67&amp;""" Path="""&amp;G67&amp;D67&amp;""" Enable="""&amp;I67&amp;""" /&gt;", IF(A67=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="disable_button" FileType="Sprite" Path="Cycling/View/disable_button" Enable="1" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -4324,7 +4311,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>64</v>
@@ -4340,7 +4327,7 @@
       </c>
       <c r="J68" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="enable_button" FileType="Sprite" Path="Cycling/View/enable_button" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -4348,7 +4335,7 @@
         <v>3</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>64</v>
@@ -4364,7 +4351,7 @@
       </c>
       <c r="J69" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pay_border" FileType="Sprite" Path="Cycling/View/pay_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -4372,7 +4359,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>64</v>
@@ -4388,7 +4375,7 @@
       </c>
       <c r="J70" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pay_panel" FileType="Sprite" Path="Cycling/View/pay_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4396,7 +4383,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>64</v>
@@ -4412,7 +4399,7 @@
       </c>
       <c r="J71" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="pay_border" FileType="Sprite" Path="Cycling/View/pay_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pay_line" FileType="Sprite" Path="Cycling/View/pay_line" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -4420,7 +4407,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>64</v>
@@ -4436,7 +4423,7 @@
       </c>
       <c r="J72" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="pay_panel" FileType="Sprite" Path="Cycling/View/pay_panel" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -4444,7 +4431,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>64</v>
@@ -4460,7 +4447,7 @@
       </c>
       <c r="J73" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="pay_line" FileType="Sprite" Path="Cycling/View/pay_line" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -4468,7 +4455,7 @@
         <v>3</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>64</v>
@@ -4484,7 +4471,7 @@
       </c>
       <c r="J74" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -4492,7 +4479,7 @@
         <v>3</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>64</v>
@@ -4508,7 +4495,7 @@
       </c>
       <c r="J75" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -4516,7 +4503,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>64</v>
@@ -4532,7 +4519,7 @@
       </c>
       <c r="J76" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -4540,7 +4527,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>64</v>
@@ -4556,7 +4543,7 @@
       </c>
       <c r="J77" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -4564,7 +4551,7 @@
         <v>3</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>64</v>
@@ -4580,7 +4567,7 @@
       </c>
       <c r="J78" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4588,7 +4575,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>64</v>
@@ -4604,7 +4591,7 @@
       </c>
       <c r="J79" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -4612,7 +4599,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>64</v>
@@ -4628,7 +4615,7 @@
       </c>
       <c r="J80" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -4636,7 +4623,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>64</v>
@@ -4652,7 +4639,7 @@
       </c>
       <c r="J81" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4660,7 +4647,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>64</v>
@@ -4676,7 +4663,7 @@
       </c>
       <c r="J82" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="station_panel" FileType="Sprite" Path="Cycling/View/station_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4684,7 +4671,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>64</v>
@@ -4700,7 +4687,7 @@
       </c>
       <c r="J83" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4708,7 +4695,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>64</v>
@@ -4724,7 +4711,7 @@
       </c>
       <c r="J84" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="station_panel" FileType="Sprite" Path="Cycling/View/station_panel" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4732,7 +4719,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>64</v>
@@ -4748,7 +4735,7 @@
       </c>
       <c r="J85" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -4756,7 +4743,7 @@
         <v>3</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>64</v>
@@ -4772,7 +4759,7 @@
       </c>
       <c r="J86" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="tip_error" FileType="Sprite" Path="Cycling/View/tip_error" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -4780,7 +4767,7 @@
         <v>3</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>64</v>
@@ -4795,8 +4782,8 @@
         <v>1</v>
       </c>
       <c r="J87" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
+        <f t="shared" ref="J87:J91" si="7">IF(A87=1,"&lt;Module Name="""&amp;B87&amp;""" Desc="""&amp;C87&amp;"""&gt;",IF(E87="Package","  &lt;Image Name="""&amp;D87&amp;""" FileType="""&amp;F87&amp;""" AB="""&amp;H87&amp;""" Enable="""&amp;I87&amp;""" /&gt;",IF(E87="Single","  &lt;Image Name="""&amp;D87&amp;""" FileType="""&amp;F87&amp;""" Path="""&amp;G87&amp;D87&amp;""" Enable="""&amp;I87&amp;""" /&gt;", IF(A87=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -4804,7 +4791,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>64</v>
@@ -4819,8 +4806,8 @@
         <v>1</v>
       </c>
       <c r="J88" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="tip_error" FileType="Sprite" Path="Cycling/View/tip_error" Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="train1" FileType="Sprite" Path="Cycling/View/train1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -4828,7 +4815,7 @@
         <v>3</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>64</v>
@@ -4843,8 +4830,8 @@
         <v>1</v>
       </c>
       <c r="J89" s="10" t="str">
-        <f t="shared" ref="J89:J93" si="7">IF(A89=1,"&lt;Module Name="""&amp;B89&amp;""" Desc="""&amp;C89&amp;"""&gt;",IF(E89="Package","  &lt;Image Name="""&amp;D89&amp;""" FileType="""&amp;F89&amp;""" AB="""&amp;H89&amp;""" Enable="""&amp;I89&amp;""" /&gt;",IF(E89="Single","  &lt;Image Name="""&amp;D89&amp;""" FileType="""&amp;F89&amp;""" Path="""&amp;G89&amp;D89&amp;""" Enable="""&amp;I89&amp;""" /&gt;", IF(A89=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="train2" FileType="Sprite" Path="Cycling/View/train2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -4852,7 +4839,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>64</v>
@@ -4868,62 +4855,14 @@
       </c>
       <c r="J90" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="train1" FileType="Sprite" Path="Cycling/View/train1" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="train3" FileType="Sprite" Path="Cycling/View/train3" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="15">
-        <v>3</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I91" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J91" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="train2" FileType="Sprite" Path="Cycling/View/train2" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="15">
-        <v>3</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I92" s="15">
-        <v>1</v>
-      </c>
-      <c r="J92" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="train3" FileType="Sprite" Path="Cycling/View/train3" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="A93" s="15">
-        <v>4</v>
-      </c>
-      <c r="J93" s="10" t="str">
         <f t="shared" si="7"/>
         <v>&lt;/Module&gt;</v>
       </c>
@@ -4931,7 +4870,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5271,7 +5210,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="U1">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5567,7 +5506,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6097,7 +6036,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6410,7 +6349,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -1643,16 +1643,17 @@
     <t>20010015</t>
   </si>
   <si>
-    <t>cloud 01</t>
-  </si>
-  <si>
-    <t>cloud 02</t>
-  </si>
-  <si>
-    <t>cloud 03</t>
-  </si>
-  <si>
-    <t>cloud 04</t>
+    <t>cloud_01</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud_02</t>
+  </si>
+  <si>
+    <t>cloud_03</t>
+  </si>
+  <si>
+    <t>cloud_04</t>
   </si>
 </sst>
 </file>
@@ -2024,13 +2025,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2075,6 +2069,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF4B4B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2615,7 +2616,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomRight" activeCell="J56" sqref="J56:J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4039,7 +4040,7 @@
       </c>
       <c r="J56" s="10" t="str">
         <f t="shared" ref="J56:J59" si="5">IF(A56=1,"&lt;Module Name="""&amp;B56&amp;""" Desc="""&amp;C56&amp;"""&gt;",IF(E56="Package","  &lt;Image Name="""&amp;D56&amp;""" FileType="""&amp;F56&amp;""" AB="""&amp;H56&amp;""" Enable="""&amp;I56&amp;""" /&gt;",IF(E56="Single","  &lt;Image Name="""&amp;D56&amp;""" FileType="""&amp;F56&amp;""" Path="""&amp;G56&amp;D56&amp;""" Enable="""&amp;I56&amp;""" /&gt;", IF(A56=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="cloud 01" FileType="Sprite" Path="Cycling/View/cloud 01" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="cloud_01" FileType="Sprite" Path="Cycling/View/cloud_01" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -4063,7 +4064,7 @@
       </c>
       <c r="J57" s="10" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="cloud 02" FileType="Sprite" Path="Cycling/View/cloud 02" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="cloud_02" FileType="Sprite" Path="Cycling/View/cloud_02" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -4087,7 +4088,7 @@
       </c>
       <c r="J58" s="10" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="cloud 03" FileType="Sprite" Path="Cycling/View/cloud 03" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="cloud_03" FileType="Sprite" Path="Cycling/View/cloud_03" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -4111,7 +4112,7 @@
       </c>
       <c r="J59" s="10" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="cloud 04" FileType="Sprite" Path="Cycling/View/cloud 04" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="cloud_04" FileType="Sprite" Path="Cycling/View/cloud_04" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -4870,7 +4871,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5210,7 +5211,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="U1">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5506,7 +5507,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6036,7 +6037,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6349,7 +6350,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="321">
   <si>
     <t>Image</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1654,6 +1654,12 @@
   </si>
   <si>
     <t>cloud_04</t>
+  </si>
+  <si>
+    <t>circle_1</t>
+  </si>
+  <si>
+    <t>circle_2</t>
   </si>
 </sst>
 </file>
@@ -2023,7 +2029,21 @@
     <cellStyle name="常规 2 2 2" xfId="3"/>
     <cellStyle name="常规 3" xfId="4"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2069,13 +2089,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF4B4B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2610,13 +2623,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J56" sqref="J56:J59"/>
+      <selection pane="bottomRight" activeCell="E55" sqref="E55:J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3439,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="10" t="str">
-        <f t="shared" ref="J31:J64" si="2">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
+        <f t="shared" ref="J31:J66" si="2">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
         <v xml:space="preserve">  &lt;Image Name="traffic" FileType="Texture2" AB="cycling/traffic" Enable="1" /&gt;</v>
       </c>
     </row>
@@ -4024,7 +4037,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>64</v>
@@ -4039,8 +4052,8 @@
         <v>1</v>
       </c>
       <c r="J56" s="10" t="str">
-        <f t="shared" ref="J56:J59" si="5">IF(A56=1,"&lt;Module Name="""&amp;B56&amp;""" Desc="""&amp;C56&amp;"""&gt;",IF(E56="Package","  &lt;Image Name="""&amp;D56&amp;""" FileType="""&amp;F56&amp;""" AB="""&amp;H56&amp;""" Enable="""&amp;I56&amp;""" /&gt;",IF(E56="Single","  &lt;Image Name="""&amp;D56&amp;""" FileType="""&amp;F56&amp;""" Path="""&amp;G56&amp;D56&amp;""" Enable="""&amp;I56&amp;""" /&gt;", IF(A56=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="cloud_01" FileType="Sprite" Path="Cycling/View/cloud_01" Enable="1" /&gt;</v>
+        <f t="shared" ref="J56:J57" si="5">IF(A56=1,"&lt;Module Name="""&amp;B56&amp;""" Desc="""&amp;C56&amp;"""&gt;",IF(E56="Package","  &lt;Image Name="""&amp;D56&amp;""" FileType="""&amp;F56&amp;""" AB="""&amp;H56&amp;""" Enable="""&amp;I56&amp;""" /&gt;",IF(E56="Single","  &lt;Image Name="""&amp;D56&amp;""" FileType="""&amp;F56&amp;""" Path="""&amp;G56&amp;D56&amp;""" Enable="""&amp;I56&amp;""" /&gt;", IF(A56=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="circle_1" FileType="Sprite" Path="Cycling/View/circle_1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -4048,7 +4061,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>64</v>
@@ -4064,7 +4077,7 @@
       </c>
       <c r="J57" s="10" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="cloud_02" FileType="Sprite" Path="Cycling/View/cloud_02" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="circle_2" FileType="Sprite" Path="Cycling/View/circle_2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -4072,7 +4085,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>64</v>
@@ -4087,8 +4100,8 @@
         <v>1</v>
       </c>
       <c r="J58" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="cloud_03" FileType="Sprite" Path="Cycling/View/cloud_03" Enable="1" /&gt;</v>
+        <f t="shared" ref="J58:J61" si="6">IF(A58=1,"&lt;Module Name="""&amp;B58&amp;""" Desc="""&amp;C58&amp;"""&gt;",IF(E58="Package","  &lt;Image Name="""&amp;D58&amp;""" FileType="""&amp;F58&amp;""" AB="""&amp;H58&amp;""" Enable="""&amp;I58&amp;""" /&gt;",IF(E58="Single","  &lt;Image Name="""&amp;D58&amp;""" FileType="""&amp;F58&amp;""" Path="""&amp;G58&amp;D58&amp;""" Enable="""&amp;I58&amp;""" /&gt;", IF(A58=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="cloud_01" FileType="Sprite" Path="Cycling/View/cloud_01" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -4096,7 +4109,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>64</v>
@@ -4111,8 +4124,8 @@
         <v>1</v>
       </c>
       <c r="J59" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="cloud_04" FileType="Sprite" Path="Cycling/View/cloud_04" Enable="1" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="cloud_02" FileType="Sprite" Path="Cycling/View/cloud_02" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -4120,7 +4133,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>148</v>
+        <v>317</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>64</v>
@@ -4135,160 +4148,160 @@
         <v>1</v>
       </c>
       <c r="J60" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="cloud_03" FileType="Sprite" Path="Cycling/View/cloud_03" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="15">
+        <v>3</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I61" s="15">
+        <v>1</v>
+      </c>
+      <c r="J61" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="cloud_04" FileType="Sprite" Path="Cycling/View/cloud_04" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="15">
+        <v>3</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I62" s="15">
+        <v>1</v>
+      </c>
+      <c r="J62" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="coin" FileType="Sprite" Path="Cycling/View/coin" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="15">
-        <v>3</v>
-      </c>
-      <c r="D61" s="10" t="s">
+    <row r="63" spans="1:10">
+      <c r="A63" s="15">
+        <v>3</v>
+      </c>
+      <c r="D63" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E61" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G61" s="10" t="s">
+      <c r="E63" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G63" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I61" s="15">
-        <v>1</v>
-      </c>
-      <c r="J61" s="10" t="str">
+      <c r="I63" s="15">
+        <v>1</v>
+      </c>
+      <c r="J63" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="15">
-        <v>3</v>
-      </c>
-      <c r="D62" s="10" t="s">
+    <row r="64" spans="1:10">
+      <c r="A64" s="15">
+        <v>3</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E62" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G62" s="10" t="s">
+      <c r="E64" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G64" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I62" s="15">
-        <v>1</v>
-      </c>
-      <c r="J62" s="10" t="str">
+      <c r="I64" s="15">
+        <v>1</v>
+      </c>
+      <c r="J64" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="15">
-        <v>3</v>
-      </c>
-      <c r="D63" s="10" t="s">
+    <row r="65" spans="1:10">
+      <c r="A65" s="15">
+        <v>3</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E63" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G63" s="10" t="s">
+      <c r="E65" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G65" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I63" s="15">
-        <v>1</v>
-      </c>
-      <c r="J63" s="10" t="str">
+      <c r="I65" s="15">
+        <v>1</v>
+      </c>
+      <c r="J65" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="coord_friend" FileType="Sprite" Path="Cycling/View/coord_friend" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="15">
-        <v>3</v>
-      </c>
-      <c r="D64" s="10" t="s">
+    <row r="66" spans="1:10">
+      <c r="A66" s="15">
+        <v>3</v>
+      </c>
+      <c r="D66" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E64" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G64" s="10" t="s">
+      <c r="E66" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G66" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I64" s="15">
-        <v>1</v>
-      </c>
-      <c r="J64" s="10" t="str">
+      <c r="I66" s="15">
+        <v>1</v>
+      </c>
+      <c r="J66" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  &lt;Image Name="cost_panel" FileType="Sprite" Path="Cycling/View/cost_panel" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="15">
-        <v>3</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I65" s="15">
-        <v>1</v>
-      </c>
-      <c r="J65" s="10" t="str">
-        <f t="shared" ref="J65:J86" si="6">IF(A65=1,"&lt;Module Name="""&amp;B65&amp;""" Desc="""&amp;C65&amp;"""&gt;",IF(E65="Package","  &lt;Image Name="""&amp;D65&amp;""" FileType="""&amp;F65&amp;""" AB="""&amp;H65&amp;""" Enable="""&amp;I65&amp;""" /&gt;",IF(E65="Single","  &lt;Image Name="""&amp;D65&amp;""" FileType="""&amp;F65&amp;""" Path="""&amp;G65&amp;D65&amp;""" Enable="""&amp;I65&amp;""" /&gt;", IF(A65=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="disable_button" FileType="Sprite" Path="Cycling/View/disable_button" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="15">
-        <v>3</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I66" s="15">
-        <v>1</v>
-      </c>
-      <c r="J66" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="enable_button" FileType="Sprite" Path="Cycling/View/enable_button" Enable="1" /&gt;</v>
-      </c>
-    </row>
     <row r="67" spans="1:10">
       <c r="A67" s="15">
         <v>3</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>64</v>
@@ -4303,8 +4316,8 @@
         <v>1</v>
       </c>
       <c r="J67" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
+        <f t="shared" ref="J67:J88" si="7">IF(A67=1,"&lt;Module Name="""&amp;B67&amp;""" Desc="""&amp;C67&amp;"""&gt;",IF(E67="Package","  &lt;Image Name="""&amp;D67&amp;""" FileType="""&amp;F67&amp;""" AB="""&amp;H67&amp;""" Enable="""&amp;I67&amp;""" /&gt;",IF(E67="Single","  &lt;Image Name="""&amp;D67&amp;""" FileType="""&amp;F67&amp;""" Path="""&amp;G67&amp;D67&amp;""" Enable="""&amp;I67&amp;""" /&gt;", IF(A67=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="disable_button" FileType="Sprite" Path="Cycling/View/disable_button" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -4312,7 +4325,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>64</v>
@@ -4327,8 +4340,8 @@
         <v>1</v>
       </c>
       <c r="J68" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="enable_button" FileType="Sprite" Path="Cycling/View/enable_button" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -4336,7 +4349,7 @@
         <v>3</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>64</v>
@@ -4351,8 +4364,8 @@
         <v>1</v>
       </c>
       <c r="J69" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="pay_border" FileType="Sprite" Path="Cycling/View/pay_border" Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -4360,7 +4373,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>64</v>
@@ -4375,8 +4388,8 @@
         <v>1</v>
       </c>
       <c r="J70" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="pay_panel" FileType="Sprite" Path="Cycling/View/pay_panel" Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4384,7 +4397,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>64</v>
@@ -4399,8 +4412,8 @@
         <v>1</v>
       </c>
       <c r="J71" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="pay_line" FileType="Sprite" Path="Cycling/View/pay_line" Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="pay_border" FileType="Sprite" Path="Cycling/View/pay_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -4408,7 +4421,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>64</v>
@@ -4423,8 +4436,8 @@
         <v>1</v>
       </c>
       <c r="J72" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="pay_panel" FileType="Sprite" Path="Cycling/View/pay_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -4432,7 +4445,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>64</v>
@@ -4447,8 +4460,8 @@
         <v>1</v>
       </c>
       <c r="J73" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="pay_line" FileType="Sprite" Path="Cycling/View/pay_line" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -4456,7 +4469,7 @@
         <v>3</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>64</v>
@@ -4471,8 +4484,8 @@
         <v>1</v>
       </c>
       <c r="J74" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -4480,7 +4493,7 @@
         <v>3</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>64</v>
@@ -4495,8 +4508,8 @@
         <v>1</v>
       </c>
       <c r="J75" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -4504,7 +4517,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>64</v>
@@ -4519,8 +4532,8 @@
         <v>1</v>
       </c>
       <c r="J76" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -4528,7 +4541,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>64</v>
@@ -4543,8 +4556,8 @@
         <v>1</v>
       </c>
       <c r="J77" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -4552,7 +4565,7 @@
         <v>3</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>64</v>
@@ -4567,8 +4580,8 @@
         <v>1</v>
       </c>
       <c r="J78" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4576,7 +4589,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>64</v>
@@ -4591,8 +4604,8 @@
         <v>1</v>
       </c>
       <c r="J79" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -4600,7 +4613,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>64</v>
@@ -4615,8 +4628,8 @@
         <v>1</v>
       </c>
       <c r="J80" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -4624,7 +4637,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>64</v>
@@ -4639,8 +4652,8 @@
         <v>1</v>
       </c>
       <c r="J81" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4648,7 +4661,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>64</v>
@@ -4663,8 +4676,8 @@
         <v>1</v>
       </c>
       <c r="J82" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="station_panel" FileType="Sprite" Path="Cycling/View/station_panel" Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4672,7 +4685,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>64</v>
@@ -4687,8 +4700,8 @@
         <v>1</v>
       </c>
       <c r="J83" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4696,7 +4709,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>64</v>
@@ -4711,8 +4724,8 @@
         <v>1</v>
       </c>
       <c r="J84" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="station_panel" FileType="Sprite" Path="Cycling/View/station_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4720,7 +4733,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>64</v>
@@ -4735,8 +4748,8 @@
         <v>1</v>
       </c>
       <c r="J85" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -4744,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>64</v>
@@ -4759,8 +4772,8 @@
         <v>1</v>
       </c>
       <c r="J86" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="tip_error" FileType="Sprite" Path="Cycling/View/tip_error" Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -4768,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>64</v>
@@ -4783,8 +4796,8 @@
         <v>1</v>
       </c>
       <c r="J87" s="10" t="str">
-        <f t="shared" ref="J87:J91" si="7">IF(A87=1,"&lt;Module Name="""&amp;B87&amp;""" Desc="""&amp;C87&amp;"""&gt;",IF(E87="Package","  &lt;Image Name="""&amp;D87&amp;""" FileType="""&amp;F87&amp;""" AB="""&amp;H87&amp;""" Enable="""&amp;I87&amp;""" /&gt;",IF(E87="Single","  &lt;Image Name="""&amp;D87&amp;""" FileType="""&amp;F87&amp;""" Path="""&amp;G87&amp;D87&amp;""" Enable="""&amp;I87&amp;""" /&gt;", IF(A87=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -4792,7 +4805,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>64</v>
@@ -4808,7 +4821,7 @@
       </c>
       <c r="J88" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="train1" FileType="Sprite" Path="Cycling/View/train1" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="tip_error" FileType="Sprite" Path="Cycling/View/tip_error" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -4816,7 +4829,7 @@
         <v>3</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>64</v>
@@ -4831,8 +4844,8 @@
         <v>1</v>
       </c>
       <c r="J89" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="train2" FileType="Sprite" Path="Cycling/View/train2" Enable="1" /&gt;</v>
+        <f t="shared" ref="J89:J93" si="8">IF(A89=1,"&lt;Module Name="""&amp;B89&amp;""" Desc="""&amp;C89&amp;"""&gt;",IF(E89="Package","  &lt;Image Name="""&amp;D89&amp;""" FileType="""&amp;F89&amp;""" AB="""&amp;H89&amp;""" Enable="""&amp;I89&amp;""" /&gt;",IF(E89="Single","  &lt;Image Name="""&amp;D89&amp;""" FileType="""&amp;F89&amp;""" Path="""&amp;G89&amp;D89&amp;""" Enable="""&amp;I89&amp;""" /&gt;", IF(A89=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -4840,7 +4853,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>64</v>
@@ -4855,23 +4868,71 @@
         <v>1</v>
       </c>
       <c r="J90" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="train3" FileType="Sprite" Path="Cycling/View/train3" Enable="1" /&gt;</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">  &lt;Image Name="train1" FileType="Sprite" Path="Cycling/View/train1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="15">
+        <v>3</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I91" s="15">
+        <v>1</v>
+      </c>
+      <c r="J91" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">  &lt;Image Name="train2" FileType="Sprite" Path="Cycling/View/train2" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="15">
+        <v>3</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I92" s="15">
+        <v>1</v>
+      </c>
+      <c r="J92" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">  &lt;Image Name="train3" FileType="Sprite" Path="Cycling/View/train3" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="15">
         <v>4</v>
       </c>
-      <c r="J91" s="10" t="str">
-        <f t="shared" si="7"/>
+      <c r="J93" s="10" t="str">
+        <f t="shared" si="8"/>
         <v>&lt;/Module&gt;</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5211,7 +5272,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="U1">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5507,7 +5568,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6037,7 +6098,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6350,7 +6411,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="324">
   <si>
     <t>Image</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1666,6 +1666,9 @@
   </si>
   <si>
     <t>random_event</t>
+  </si>
+  <si>
+    <t>treasure_box_arrow</t>
   </si>
 </sst>
 </file>
@@ -2035,21 +2038,7 @@
     <cellStyle name="常规 2 2 2" xfId="3"/>
     <cellStyle name="常规 3" xfId="4"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -2636,13 +2625,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A96" sqref="A96"/>
+      <selection pane="bottomRight" activeCell="E94" sqref="E94:J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4329,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="J67" s="10" t="str">
-        <f t="shared" ref="J67:J89" si="7">IF(A67=1,"&lt;Module Name="""&amp;B67&amp;""" Desc="""&amp;C67&amp;"""&gt;",IF(E67="Package","  &lt;Image Name="""&amp;D67&amp;""" FileType="""&amp;F67&amp;""" AB="""&amp;H67&amp;""" Enable="""&amp;I67&amp;""" /&gt;",IF(E67="Single","  &lt;Image Name="""&amp;D67&amp;""" FileType="""&amp;F67&amp;""" Path="""&amp;G67&amp;D67&amp;""" Enable="""&amp;I67&amp;""" /&gt;", IF(A67=4,"&lt;/Module&gt;",""))))</f>
+        <f t="shared" ref="J67:J76" si="7">IF(A67=1,"&lt;Module Name="""&amp;B67&amp;""" Desc="""&amp;C67&amp;"""&gt;",IF(E67="Package","  &lt;Image Name="""&amp;D67&amp;""" FileType="""&amp;F67&amp;""" AB="""&amp;H67&amp;""" Enable="""&amp;I67&amp;""" /&gt;",IF(E67="Single","  &lt;Image Name="""&amp;D67&amp;""" FileType="""&amp;F67&amp;""" Path="""&amp;G67&amp;D67&amp;""" Enable="""&amp;I67&amp;""" /&gt;", IF(A67=4,"&lt;/Module&gt;",""))))</f>
         <v xml:space="preserve">  &lt;Image Name="disable_button" FileType="Sprite" Path="Cycling/View/disable_button" Enable="1" /&gt;</v>
       </c>
     </row>
@@ -4983,17 +4972,41 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="15">
+        <v>3</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I95" s="15">
+        <v>1</v>
+      </c>
+      <c r="J95" s="10" t="str">
+        <f t="shared" ref="J95" si="9">IF(A95=1,"&lt;Module Name="""&amp;B95&amp;""" Desc="""&amp;C95&amp;"""&gt;",IF(E95="Package","  &lt;Image Name="""&amp;D95&amp;""" FileType="""&amp;F95&amp;""" AB="""&amp;H95&amp;""" Enable="""&amp;I95&amp;""" /&gt;",IF(E95="Single","  &lt;Image Name="""&amp;D95&amp;""" FileType="""&amp;F95&amp;""" Path="""&amp;G95&amp;D95&amp;""" Enable="""&amp;I95&amp;""" /&gt;", IF(A95=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="treasure_box_arrow" FileType="Sprite" Path="Cycling/View/treasure_box_arrow" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="15">
         <v>4</v>
       </c>
-      <c r="J95" s="10" t="str">
-        <f t="shared" ref="J90:J95" si="9">IF(A95=1,"&lt;Module Name="""&amp;B95&amp;""" Desc="""&amp;C95&amp;"""&gt;",IF(E95="Package","  &lt;Image Name="""&amp;D95&amp;""" FileType="""&amp;F95&amp;""" AB="""&amp;H95&amp;""" Enable="""&amp;I95&amp;""" /&gt;",IF(E95="Single","  &lt;Image Name="""&amp;D95&amp;""" FileType="""&amp;F95&amp;""" Path="""&amp;G95&amp;D95&amp;""" Enable="""&amp;I95&amp;""" /&gt;", IF(A95=4,"&lt;/Module&gt;",""))))</f>
+      <c r="J96" s="10" t="str">
+        <f t="shared" ref="J96" si="10">IF(A96=1,"&lt;Module Name="""&amp;B96&amp;""" Desc="""&amp;C96&amp;"""&gt;",IF(E96="Package","  &lt;Image Name="""&amp;D96&amp;""" FileType="""&amp;F96&amp;""" AB="""&amp;H96&amp;""" Enable="""&amp;I96&amp;""" /&gt;",IF(E96="Single","  &lt;Image Name="""&amp;D96&amp;""" FileType="""&amp;F96&amp;""" Path="""&amp;G96&amp;D96&amp;""" Enable="""&amp;I96&amp;""" /&gt;", IF(A96=4,"&lt;/Module&gt;",""))))</f>
         <v>&lt;/Module&gt;</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5333,7 +5346,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="U1">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5629,7 +5642,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6159,7 +6172,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6472,7 +6485,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="325">
   <si>
     <t>Image</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1669,6 +1669,10 @@
   </si>
   <si>
     <t>treasure_box_arrow</t>
+  </si>
+  <si>
+    <t>plane</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2038,7 +2042,14 @@
     <cellStyle name="常规 2 2 2" xfId="3"/>
     <cellStyle name="常规 3" xfId="4"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2625,13 +2636,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E94" sqref="E94:J95"/>
+      <selection pane="bottomRight" activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4318,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="J67" s="10" t="str">
-        <f t="shared" ref="J67:J76" si="7">IF(A67=1,"&lt;Module Name="""&amp;B67&amp;""" Desc="""&amp;C67&amp;"""&gt;",IF(E67="Package","  &lt;Image Name="""&amp;D67&amp;""" FileType="""&amp;F67&amp;""" AB="""&amp;H67&amp;""" Enable="""&amp;I67&amp;""" /&gt;",IF(E67="Single","  &lt;Image Name="""&amp;D67&amp;""" FileType="""&amp;F67&amp;""" Path="""&amp;G67&amp;D67&amp;""" Enable="""&amp;I67&amp;""" /&gt;", IF(A67=4,"&lt;/Module&gt;",""))))</f>
+        <f t="shared" ref="J67:J77" si="7">IF(A67=1,"&lt;Module Name="""&amp;B67&amp;""" Desc="""&amp;C67&amp;"""&gt;",IF(E67="Package","  &lt;Image Name="""&amp;D67&amp;""" FileType="""&amp;F67&amp;""" AB="""&amp;H67&amp;""" Enable="""&amp;I67&amp;""" /&gt;",IF(E67="Single","  &lt;Image Name="""&amp;D67&amp;""" FileType="""&amp;F67&amp;""" Path="""&amp;G67&amp;D67&amp;""" Enable="""&amp;I67&amp;""" /&gt;", IF(A67=4,"&lt;/Module&gt;",""))))</f>
         <v xml:space="preserve">  &lt;Image Name="disable_button" FileType="Sprite" Path="Cycling/View/disable_button" Enable="1" /&gt;</v>
       </c>
     </row>
@@ -4471,7 +4482,7 @@
         <v>3</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>102</v>
+        <v>324</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>64</v>
@@ -4486,88 +4497,88 @@
         <v>1</v>
       </c>
       <c r="J74" s="10" t="str">
+        <f t="shared" ref="J74" si="8">IF(A74=1,"&lt;Module Name="""&amp;B74&amp;""" Desc="""&amp;C74&amp;"""&gt;",IF(E74="Package","  &lt;Image Name="""&amp;D74&amp;""" FileType="""&amp;F74&amp;""" AB="""&amp;H74&amp;""" Enable="""&amp;I74&amp;""" /&gt;",IF(E74="Single","  &lt;Image Name="""&amp;D74&amp;""" FileType="""&amp;F74&amp;""" Path="""&amp;G74&amp;D74&amp;""" Enable="""&amp;I74&amp;""" /&gt;", IF(A74=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="plane" FileType="Sprite" Path="Cycling/View/plane" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="15">
+        <v>3</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I75" s="15">
+        <v>1</v>
+      </c>
+      <c r="J75" s="10" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="15">
-        <v>3</v>
-      </c>
-      <c r="D75" s="10" t="s">
+    <row r="76" spans="1:10">
+      <c r="A76" s="15">
+        <v>3</v>
+      </c>
+      <c r="D76" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E75" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G75" s="10" t="s">
+      <c r="E76" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G76" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I75" s="15">
-        <v>1</v>
-      </c>
-      <c r="J75" s="10" t="str">
+      <c r="I76" s="15">
+        <v>1</v>
+      </c>
+      <c r="J76" s="10" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="15">
-        <v>3</v>
-      </c>
-      <c r="D76" s="10" t="s">
+    <row r="77" spans="1:10">
+      <c r="A77" s="15">
+        <v>3</v>
+      </c>
+      <c r="D77" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E76" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G76" s="10" t="s">
+      <c r="E77" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G77" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I76" s="15">
-        <v>1</v>
-      </c>
-      <c r="J76" s="10" t="str">
+      <c r="I77" s="15">
+        <v>1</v>
+      </c>
+      <c r="J77" s="10" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="15">
-        <v>3</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I77" s="15">
-        <v>1</v>
-      </c>
-      <c r="J77" s="10" t="str">
-        <f t="shared" ref="J77:J94" si="8">IF(A77=1,"&lt;Module Name="""&amp;B77&amp;""" Desc="""&amp;C77&amp;"""&gt;",IF(E77="Package","  &lt;Image Name="""&amp;D77&amp;""" FileType="""&amp;F77&amp;""" AB="""&amp;H77&amp;""" Enable="""&amp;I77&amp;""" /&gt;",IF(E77="Single","  &lt;Image Name="""&amp;D77&amp;""" FileType="""&amp;F77&amp;""" Path="""&amp;G77&amp;D77&amp;""" Enable="""&amp;I77&amp;""" /&gt;", IF(A77=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="random_event" FileType="Sprite" Path="Cycling/View/random_event" Enable="1" /&gt;</v>
-      </c>
-    </row>
     <row r="78" spans="1:10">
       <c r="A78" s="15">
         <v>3</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>105</v>
+        <v>322</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>64</v>
@@ -4582,8 +4593,8 @@
         <v>1</v>
       </c>
       <c r="J78" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
+        <f t="shared" ref="J78:J95" si="9">IF(A78=1,"&lt;Module Name="""&amp;B78&amp;""" Desc="""&amp;C78&amp;"""&gt;",IF(E78="Package","  &lt;Image Name="""&amp;D78&amp;""" FileType="""&amp;F78&amp;""" AB="""&amp;H78&amp;""" Enable="""&amp;I78&amp;""" /&gt;",IF(E78="Single","  &lt;Image Name="""&amp;D78&amp;""" FileType="""&amp;F78&amp;""" Path="""&amp;G78&amp;D78&amp;""" Enable="""&amp;I78&amp;""" /&gt;", IF(A78=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="random_event" FileType="Sprite" Path="Cycling/View/random_event" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4591,7 +4602,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>64</v>
@@ -4606,8 +4617,8 @@
         <v>1</v>
       </c>
       <c r="J79" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -4615,7 +4626,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>64</v>
@@ -4630,8 +4641,8 @@
         <v>1</v>
       </c>
       <c r="J80" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -4639,7 +4650,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>64</v>
@@ -4654,8 +4665,8 @@
         <v>1</v>
       </c>
       <c r="J81" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4663,7 +4674,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>64</v>
@@ -4678,8 +4689,8 @@
         <v>1</v>
       </c>
       <c r="J82" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4687,7 +4698,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>64</v>
@@ -4702,8 +4713,8 @@
         <v>1</v>
       </c>
       <c r="J83" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4711,7 +4722,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>64</v>
@@ -4726,8 +4737,8 @@
         <v>1</v>
       </c>
       <c r="J84" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4735,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>64</v>
@@ -4750,8 +4761,8 @@
         <v>1</v>
       </c>
       <c r="J85" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  &lt;Image Name="station_panel" FileType="Sprite" Path="Cycling/View/station_panel" Enable="1" /&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -4759,7 +4770,7 @@
         <v>3</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>64</v>
@@ -4774,8 +4785,8 @@
         <v>1</v>
       </c>
       <c r="J86" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  &lt;Image Name="station_panel" FileType="Sprite" Path="Cycling/View/station_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -4783,7 +4794,7 @@
         <v>3</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>64</v>
@@ -4798,8 +4809,8 @@
         <v>1</v>
       </c>
       <c r="J87" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -4807,7 +4818,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>64</v>
@@ -4822,8 +4833,8 @@
         <v>1</v>
       </c>
       <c r="J88" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -4831,7 +4842,7 @@
         <v>3</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>64</v>
@@ -4846,8 +4857,8 @@
         <v>1</v>
       </c>
       <c r="J89" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  &lt;Image Name="tip_error" FileType="Sprite" Path="Cycling/View/tip_error" Enable="1" /&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -4855,7 +4866,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>64</v>
@@ -4870,8 +4881,8 @@
         <v>1</v>
       </c>
       <c r="J90" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  &lt;Image Name="tip_error" FileType="Sprite" Path="Cycling/View/tip_error" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -4879,7 +4890,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>64</v>
@@ -4894,8 +4905,8 @@
         <v>1</v>
       </c>
       <c r="J91" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  &lt;Image Name="train1" FileType="Sprite" Path="Cycling/View/train1" Enable="1" /&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -4903,7 +4914,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>64</v>
@@ -4918,8 +4929,8 @@
         <v>1</v>
       </c>
       <c r="J92" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  &lt;Image Name="train2" FileType="Sprite" Path="Cycling/View/train2" Enable="1" /&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  &lt;Image Name="train1" FileType="Sprite" Path="Cycling/View/train1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -4927,7 +4938,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>64</v>
@@ -4942,8 +4953,8 @@
         <v>1</v>
       </c>
       <c r="J93" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  &lt;Image Name="train3" FileType="Sprite" Path="Cycling/View/train3" Enable="1" /&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  &lt;Image Name="train2" FileType="Sprite" Path="Cycling/View/train2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -4951,7 +4962,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>321</v>
+        <v>153</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>64</v>
@@ -4966,8 +4977,8 @@
         <v>1</v>
       </c>
       <c r="J94" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  &lt;Image Name="treasure_box" FileType="Sprite" Path="Cycling/View/treasure_box" Enable="1" /&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  &lt;Image Name="train3" FileType="Sprite" Path="Cycling/View/train3" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -4975,7 +4986,7 @@
         <v>3</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>64</v>
@@ -4990,23 +5001,47 @@
         <v>1</v>
       </c>
       <c r="J95" s="10" t="str">
-        <f t="shared" ref="J95" si="9">IF(A95=1,"&lt;Module Name="""&amp;B95&amp;""" Desc="""&amp;C95&amp;"""&gt;",IF(E95="Package","  &lt;Image Name="""&amp;D95&amp;""" FileType="""&amp;F95&amp;""" AB="""&amp;H95&amp;""" Enable="""&amp;I95&amp;""" /&gt;",IF(E95="Single","  &lt;Image Name="""&amp;D95&amp;""" FileType="""&amp;F95&amp;""" Path="""&amp;G95&amp;D95&amp;""" Enable="""&amp;I95&amp;""" /&gt;", IF(A95=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="treasure_box_arrow" FileType="Sprite" Path="Cycling/View/treasure_box_arrow" Enable="1" /&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  &lt;Image Name="treasure_box" FileType="Sprite" Path="Cycling/View/treasure_box" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="15">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I96" s="15">
+        <v>1</v>
       </c>
       <c r="J96" s="10" t="str">
         <f t="shared" ref="J96" si="10">IF(A96=1,"&lt;Module Name="""&amp;B96&amp;""" Desc="""&amp;C96&amp;"""&gt;",IF(E96="Package","  &lt;Image Name="""&amp;D96&amp;""" FileType="""&amp;F96&amp;""" AB="""&amp;H96&amp;""" Enable="""&amp;I96&amp;""" /&gt;",IF(E96="Single","  &lt;Image Name="""&amp;D96&amp;""" FileType="""&amp;F96&amp;""" Path="""&amp;G96&amp;D96&amp;""" Enable="""&amp;I96&amp;""" /&gt;", IF(A96=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="treasure_box_arrow" FileType="Sprite" Path="Cycling/View/treasure_box_arrow" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="15">
+        <v>4</v>
+      </c>
+      <c r="J97" s="10" t="str">
+        <f t="shared" ref="J97" si="11">IF(A97=1,"&lt;Module Name="""&amp;B97&amp;""" Desc="""&amp;C97&amp;"""&gt;",IF(E97="Package","  &lt;Image Name="""&amp;D97&amp;""" FileType="""&amp;F97&amp;""" AB="""&amp;H97&amp;""" Enable="""&amp;I97&amp;""" /&gt;",IF(E97="Single","  &lt;Image Name="""&amp;D97&amp;""" FileType="""&amp;F97&amp;""" Path="""&amp;G97&amp;D97&amp;""" Enable="""&amp;I97&amp;""" /&gt;", IF(A97=4,"&lt;/Module&gt;",""))))</f>
         <v>&lt;/Module&gt;</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5346,7 +5381,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="U1">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5642,7 +5677,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6172,7 +6207,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6485,7 +6520,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -888,15 +888,6 @@
     <t>site_normal</t>
   </si>
   <si>
-    <t xml:space="preserve">stars_highlight </t>
-  </si>
-  <si>
-    <t xml:space="preserve">start_normal </t>
-  </si>
-  <si>
-    <t>ticket _highlight</t>
-  </si>
-  <si>
     <t xml:space="preserve">ticket_normal </t>
   </si>
   <si>
@@ -1672,6 +1663,18 @@
   </si>
   <si>
     <t>plane</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>stars_highlight</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_normal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticket_highlight</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2042,21 +2045,7 @@
     <cellStyle name="常规 2 2 2" xfId="3"/>
     <cellStyle name="常规 3" xfId="4"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <b/>
@@ -2102,6 +2091,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF4B4B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2410,19 +2406,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>159</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>162</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>44</v>
@@ -2430,19 +2426,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>57</v>
@@ -2456,7 +2452,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="10" t="str">
@@ -2642,7 +2638,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J74" sqref="J74"/>
+      <selection pane="bottomRight" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2671,10 +2667,10 @@
         <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>54</v>
@@ -2701,10 +2697,10 @@
         <v>56</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>66</v>
@@ -3393,7 +3389,7 @@
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>64</v>
@@ -3450,7 +3446,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>65</v>
@@ -3459,7 +3455,7 @@
         <v>69</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I31" s="15">
         <v>1</v>
@@ -3474,7 +3470,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>64</v>
@@ -3483,7 +3479,7 @@
         <v>63</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I32" s="15">
         <v>1</v>
@@ -3498,7 +3494,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>64</v>
@@ -3507,7 +3503,7 @@
         <v>63</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I33" s="15">
         <v>1</v>
@@ -3522,7 +3518,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>64</v>
@@ -3531,7 +3527,7 @@
         <v>63</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I34" s="15">
         <v>1</v>
@@ -3546,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>64</v>
@@ -3555,7 +3551,7 @@
         <v>63</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I35" s="15">
         <v>1</v>
@@ -3570,7 +3566,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>64</v>
@@ -3579,7 +3575,7 @@
         <v>63</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I36" s="15">
         <v>1</v>
@@ -3594,7 +3590,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>64</v>
@@ -3603,7 +3599,7 @@
         <v>63</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I37" s="15">
         <v>1</v>
@@ -3618,7 +3614,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>64</v>
@@ -3627,7 +3623,7 @@
         <v>63</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I38" s="15">
         <v>1</v>
@@ -3642,7 +3638,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>64</v>
@@ -3651,7 +3647,7 @@
         <v>63</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I39" s="15">
         <v>1</v>
@@ -3666,7 +3662,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>64</v>
@@ -3675,7 +3671,7 @@
         <v>63</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I40" s="15">
         <v>1</v>
@@ -3690,7 +3686,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>64</v>
@@ -3699,7 +3695,7 @@
         <v>63</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I41" s="15">
         <v>1</v>
@@ -3714,7 +3710,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>64</v>
@@ -3723,7 +3719,7 @@
         <v>63</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I42" s="15">
         <v>1</v>
@@ -3738,7 +3734,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>64</v>
@@ -3747,7 +3743,7 @@
         <v>63</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I43" s="15">
         <v>1</v>
@@ -3762,16 +3758,16 @@
         <v>3</v>
       </c>
       <c r="D44" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="I44" s="15">
         <v>1</v>
@@ -3786,7 +3782,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>64</v>
@@ -3795,7 +3791,7 @@
         <v>63</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I45" s="15">
         <v>1</v>
@@ -3810,7 +3806,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>64</v>
@@ -3819,7 +3815,7 @@
         <v>63</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I46" s="15">
         <v>1</v>
@@ -3834,7 +3830,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>64</v>
@@ -3906,7 +3902,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>64</v>
@@ -3930,7 +3926,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>64</v>
@@ -3954,7 +3950,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>64</v>
@@ -3978,7 +3974,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>64</v>
@@ -4002,7 +3998,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>64</v>
@@ -4026,7 +4022,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>64</v>
@@ -4050,7 +4046,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>64</v>
@@ -4074,7 +4070,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>64</v>
@@ -4098,7 +4094,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>64</v>
@@ -4122,7 +4118,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>64</v>
@@ -4146,7 +4142,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>64</v>
@@ -4170,7 +4166,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>64</v>
@@ -4194,7 +4190,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>64</v>
@@ -4266,7 +4262,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>64</v>
@@ -4290,7 +4286,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>64</v>
@@ -4314,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>64</v>
@@ -4338,7 +4334,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>64</v>
@@ -4410,7 +4406,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>64</v>
@@ -4434,7 +4430,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>64</v>
@@ -4458,7 +4454,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>64</v>
@@ -4482,7 +4478,7 @@
         <v>3</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>64</v>
@@ -4578,7 +4574,7 @@
         <v>3</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>64</v>
@@ -4698,7 +4694,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>64</v>
@@ -4722,7 +4718,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>109</v>
+        <v>322</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>64</v>
@@ -4738,7 +4734,7 @@
       </c>
       <c r="J84" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="stars_highlight " FileType="Sprite" Path="Cycling/View/stars_highlight " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="stars_highlight" FileType="Sprite" Path="Cycling/View/stars_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4746,7 +4742,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>110</v>
+        <v>323</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>64</v>
@@ -4762,7 +4758,7 @@
       </c>
       <c r="J85" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="start_normal " FileType="Sprite" Path="Cycling/View/start_normal " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="start_normal" FileType="Sprite" Path="Cycling/View/start_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -4770,7 +4766,7 @@
         <v>3</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>64</v>
@@ -4794,7 +4790,7 @@
         <v>3</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>111</v>
+        <v>324</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>64</v>
@@ -4810,7 +4806,7 @@
       </c>
       <c r="J87" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket _highlight" FileType="Sprite" Path="Cycling/View/ticket _highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="ticket_highlight" FileType="Sprite" Path="Cycling/View/ticket_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -4818,7 +4814,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>64</v>
@@ -4842,7 +4838,7 @@
         <v>3</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>64</v>
@@ -4866,7 +4862,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>64</v>
@@ -4890,7 +4886,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>64</v>
@@ -4914,7 +4910,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>64</v>
@@ -4938,7 +4934,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>64</v>
@@ -4962,7 +4958,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>64</v>
@@ -4986,7 +4982,7 @@
         <v>3</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>64</v>
@@ -5010,7 +5006,7 @@
         <v>3</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E96" s="10" t="s">
         <v>64</v>
@@ -5041,7 +5037,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5235,19 +5231,19 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="2" t="s">
@@ -5285,19 +5281,19 @@
         <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>40</v>
@@ -5323,10 +5319,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I3" s="6">
         <v>3202</v>
@@ -5347,25 +5343,25 @@
         <v>3202</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C4" s="6">
         <v>32</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E4" s="6">
         <v>3202</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J4" s="6">
         <v>18</v>
@@ -5381,7 +5377,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="U1">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5589,7 +5585,7 @@
         <v>320201</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C12" s="6">
         <v>3202</v>
@@ -5604,7 +5600,7 @@
         <v>320202</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C13" s="6">
         <v>3202</v>
@@ -5619,7 +5615,7 @@
         <v>320203</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C14" s="6">
         <v>3202</v>
@@ -5634,7 +5630,7 @@
         <v>320204</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C15" s="6">
         <v>3202</v>
@@ -5649,7 +5645,7 @@
         <v>320205</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C16" s="6">
         <v>3202</v>
@@ -5664,7 +5660,7 @@
         <v>320206</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C17" s="6">
         <v>3202</v>
@@ -5677,7 +5673,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5711,10 +5707,10 @@
   <sheetData>
     <row r="1" spans="1:19" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -5729,7 +5725,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>28</v>
@@ -5748,16 +5744,16 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>0</v>
@@ -5766,7 +5762,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>4</v>
@@ -5774,10 +5770,10 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>16</v>
@@ -5786,14 +5782,14 @@
         <v>320101</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F3" s="8" t="str">
         <f>C3&amp;"介绍"</f>
         <v>中山陵介绍</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H3" s="6" t="str">
         <f>"&lt;Card CardID="""&amp;A3&amp;""" CardType="""&amp;B3&amp;""" CardName="""&amp;C3&amp;""" ScenicID="""&amp;D3&amp;""" Image="""&amp;E3&amp;""" Text="""&amp;F3&amp;""" Url="""&amp;G3&amp;""" /&gt;"</f>
@@ -5802,10 +5798,10 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>17</v>
@@ -5814,14 +5810,14 @@
         <v>320102</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F4" s="8" t="str">
         <f t="shared" ref="F4:F17" si="0">C4&amp;"介绍"</f>
         <v>总统府介绍</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H4" s="6" t="str">
         <f t="shared" ref="H4:H17" si="1">"&lt;Card CardID="""&amp;A4&amp;""" CardType="""&amp;B4&amp;""" CardName="""&amp;C4&amp;""" ScenicID="""&amp;D4&amp;""" Image="""&amp;E4&amp;""" Text="""&amp;F4&amp;""" Url="""&amp;G4&amp;""" /&gt;"</f>
@@ -5830,10 +5826,10 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="18" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>18</v>
@@ -5842,14 +5838,14 @@
         <v>320103</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>夫子庙介绍</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H5" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5858,10 +5854,10 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>19</v>
@@ -5870,14 +5866,14 @@
         <v>320104</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>瞻园介绍</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H6" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5886,10 +5882,10 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="18" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>20</v>
@@ -5898,14 +5894,14 @@
         <v>320105</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>玄武湖公园介绍</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H7" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5914,10 +5910,10 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="18" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>21</v>
@@ -5926,14 +5922,14 @@
         <v>320106</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>明孝陵介绍</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H8" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5942,10 +5938,10 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="18" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>22</v>
@@ -5954,14 +5950,14 @@
         <v>320107</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>美龄宫介绍</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H9" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5970,10 +5966,10 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="18" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>24</v>
@@ -5982,14 +5978,14 @@
         <v>320108</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>南京大屠杀纪念馆介绍</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H10" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5998,10 +5994,10 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>23</v>
@@ -6010,14 +6006,14 @@
         <v>320109</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>栖霞山介绍</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H11" s="6" t="str">
         <f t="shared" si="1"/>
@@ -6026,26 +6022,26 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="18" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D12" s="6">
         <v>320201</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>西津渡古街介绍</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H12" s="6" t="str">
         <f t="shared" si="1"/>
@@ -6054,26 +6050,26 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="18" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D13" s="6">
         <v>320202</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>金山寺介绍</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H13" s="6" t="str">
         <f t="shared" si="1"/>
@@ -6082,26 +6078,26 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D14" s="6">
         <v>320203</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>北固山介绍</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H14" s="6" t="str">
         <f t="shared" si="1"/>
@@ -6110,26 +6106,26 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="18" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D15" s="6">
         <v>320204</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>焦山介绍</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H15" s="6" t="str">
         <f t="shared" si="1"/>
@@ -6138,19 +6134,19 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="18" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D16" s="6">
         <v>320205</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6163,26 +6159,26 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="18" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D17" s="6">
         <v>320206</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>宝华山国家森林公园介绍</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H17" s="6" t="str">
         <f t="shared" si="1"/>
@@ -6207,7 +6203,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6258,7 +6254,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>15</v>
@@ -6283,7 +6279,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>25</v>
@@ -6297,7 +6293,7 @@
         <v>320101</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C3" s="6">
         <v>3201</v>
@@ -6312,7 +6308,7 @@
         <v>320102</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C4" s="6">
         <v>3201</v>
@@ -6327,7 +6323,7 @@
         <v>320103</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C5" s="6">
         <v>3201</v>
@@ -6342,7 +6338,7 @@
         <v>320104</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C6" s="6">
         <v>3201</v>
@@ -6357,7 +6353,7 @@
         <v>320105</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C7" s="6">
         <v>3201</v>
@@ -6372,7 +6368,7 @@
         <v>320106</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C8" s="6">
         <v>3201</v>
@@ -6387,7 +6383,7 @@
         <v>320107</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C9" s="6">
         <v>3201</v>
@@ -6402,7 +6398,7 @@
         <v>320108</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C10" s="6">
         <v>3201</v>
@@ -6417,7 +6413,7 @@
         <v>320109</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C11" s="6">
         <v>3201</v>
@@ -6432,7 +6428,7 @@
         <v>320201</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C12" s="6">
         <v>3202</v>
@@ -6447,7 +6443,7 @@
         <v>320202</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C13" s="6">
         <v>3202</v>
@@ -6462,7 +6458,7 @@
         <v>320203</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C14" s="6">
         <v>3202</v>
@@ -6477,7 +6473,7 @@
         <v>320204</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C15" s="6">
         <v>3202</v>
@@ -6492,7 +6488,7 @@
         <v>320205</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C16" s="6">
         <v>3202</v>
@@ -6507,7 +6503,7 @@
         <v>320206</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C17" s="6">
         <v>3202</v>
@@ -6520,7 +6516,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6547,7 +6543,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="30" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -6560,164 +6556,164 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="E2" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="F2" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="G2" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="H2" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>238</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="E3" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="F3" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="G3" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="H3" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="I3" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="J3" s="22" t="s">
         <v>248</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="H4" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="I4" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="J4" s="22" t="s">
         <v>256</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="E5" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="F5" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="G5" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="H5" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="I5" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="J5" s="22" t="s">
         <v>266</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="E7" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="F7" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="G7" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="H7" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="I7" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>240</v>
-      </c>
       <c r="J7" s="23" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="24" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K8" s="29" t="str">
         <f>"&lt;Question ID="""&amp;F8&amp;""" Count="""&amp;G8&amp;""" Scheme="""&amp;H8&amp;""" Source="""&amp;I8&amp;""" Score="""&amp;J8&amp;""" /&gt;"</f>
@@ -6757,42 +6753,42 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="E1" s="32" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F1" s="33"/>
       <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>276</v>
-      </c>
       <c r="G2" s="26" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C3" s="27" t="str">
         <f>"&lt;QuestionType ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" /&gt;"</f>
@@ -6802,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G3" s="27" t="str">
         <f>"&lt;Difficutly ID="""&amp;E3&amp;""" Name="""&amp;F3&amp;""" /&gt;"</f>
@@ -6811,10 +6807,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="26" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C4" s="27" t="str">
         <f t="shared" ref="C4:C5" si="0">"&lt;QuestionType ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" /&gt;"</f>
@@ -6824,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G4" s="27" t="str">
         <f t="shared" ref="G4:G5" si="1">"&lt;Difficutly ID="""&amp;E4&amp;""" Name="""&amp;F4&amp;""" /&gt;"</f>
@@ -6833,10 +6829,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="26" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C5" s="27" t="str">
         <f t="shared" si="0"/>
@@ -6846,7 +6842,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G5" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6855,39 +6851,39 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B8" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>288</v>
-      </c>
       <c r="F8" s="28" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>289</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>292</v>
       </c>
       <c r="F9" s="29" t="str">
         <f>"&lt;Scheme ID="""&amp;A9&amp;""" Count="""&amp;B9&amp;""" Matching="""&amp;C9&amp;""" Source="""&amp;D9&amp;""" Score="""&amp;E9&amp;""" /&gt;"</f>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -888,9 +888,6 @@
     <t>site_normal</t>
   </si>
   <si>
-    <t xml:space="preserve">ticket_normal </t>
-  </si>
-  <si>
     <t>timer</t>
   </si>
   <si>
@@ -1675,6 +1672,10 @@
   </si>
   <si>
     <t>ticket_highlight</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticket_normal</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2406,19 +2407,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>158</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>159</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>44</v>
@@ -2426,19 +2427,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>57</v>
@@ -2452,7 +2453,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="10" t="str">
@@ -2635,10 +2636,10 @@
   <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D88" sqref="D88"/>
+      <selection pane="bottomRight" activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2667,10 +2668,10 @@
         <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>54</v>
@@ -2697,10 +2698,10 @@
         <v>56</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>66</v>
@@ -3389,7 +3390,7 @@
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>64</v>
@@ -3446,7 +3447,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>65</v>
@@ -3455,7 +3456,7 @@
         <v>69</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I31" s="15">
         <v>1</v>
@@ -3470,7 +3471,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>64</v>
@@ -3479,7 +3480,7 @@
         <v>63</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I32" s="15">
         <v>1</v>
@@ -3494,7 +3495,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>64</v>
@@ -3503,7 +3504,7 @@
         <v>63</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I33" s="15">
         <v>1</v>
@@ -3518,7 +3519,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>64</v>
@@ -3527,7 +3528,7 @@
         <v>63</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I34" s="15">
         <v>1</v>
@@ -3542,7 +3543,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>64</v>
@@ -3551,7 +3552,7 @@
         <v>63</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I35" s="15">
         <v>1</v>
@@ -3566,7 +3567,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>64</v>
@@ -3575,7 +3576,7 @@
         <v>63</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I36" s="15">
         <v>1</v>
@@ -3590,7 +3591,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>64</v>
@@ -3599,7 +3600,7 @@
         <v>63</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I37" s="15">
         <v>1</v>
@@ -3614,7 +3615,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>64</v>
@@ -3623,7 +3624,7 @@
         <v>63</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I38" s="15">
         <v>1</v>
@@ -3638,7 +3639,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>64</v>
@@ -3647,7 +3648,7 @@
         <v>63</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I39" s="15">
         <v>1</v>
@@ -3662,7 +3663,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>64</v>
@@ -3671,7 +3672,7 @@
         <v>63</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I40" s="15">
         <v>1</v>
@@ -3686,7 +3687,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>64</v>
@@ -3695,7 +3696,7 @@
         <v>63</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I41" s="15">
         <v>1</v>
@@ -3710,7 +3711,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>64</v>
@@ -3719,7 +3720,7 @@
         <v>63</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I42" s="15">
         <v>1</v>
@@ -3734,7 +3735,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>64</v>
@@ -3743,7 +3744,7 @@
         <v>63</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I43" s="15">
         <v>1</v>
@@ -3758,7 +3759,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>64</v>
@@ -3767,7 +3768,7 @@
         <v>63</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I44" s="15">
         <v>1</v>
@@ -3782,7 +3783,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>64</v>
@@ -3791,7 +3792,7 @@
         <v>63</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I45" s="15">
         <v>1</v>
@@ -3806,16 +3807,16 @@
         <v>3</v>
       </c>
       <c r="D46" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="I46" s="15">
         <v>1</v>
@@ -3830,7 +3831,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>64</v>
@@ -3902,7 +3903,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>64</v>
@@ -3926,7 +3927,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>64</v>
@@ -3950,7 +3951,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>64</v>
@@ -3974,7 +3975,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>64</v>
@@ -3998,7 +3999,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>64</v>
@@ -4022,7 +4023,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>64</v>
@@ -4046,7 +4047,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>64</v>
@@ -4070,7 +4071,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>64</v>
@@ -4094,7 +4095,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>64</v>
@@ -4118,7 +4119,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>64</v>
@@ -4142,7 +4143,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>64</v>
@@ -4166,7 +4167,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>64</v>
@@ -4190,7 +4191,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>64</v>
@@ -4262,7 +4263,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>64</v>
@@ -4286,7 +4287,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>64</v>
@@ -4310,7 +4311,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>64</v>
@@ -4334,7 +4335,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>64</v>
@@ -4406,7 +4407,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>64</v>
@@ -4430,7 +4431,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>64</v>
@@ -4454,7 +4455,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>64</v>
@@ -4478,7 +4479,7 @@
         <v>3</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>64</v>
@@ -4574,7 +4575,7 @@
         <v>3</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>64</v>
@@ -4694,7 +4695,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>64</v>
@@ -4718,7 +4719,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>64</v>
@@ -4742,7 +4743,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>64</v>
@@ -4766,7 +4767,7 @@
         <v>3</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>64</v>
@@ -4790,7 +4791,7 @@
         <v>3</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>64</v>
@@ -4814,7 +4815,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>109</v>
+        <v>324</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>64</v>
@@ -4830,7 +4831,7 @@
       </c>
       <c r="J88" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket_normal " FileType="Sprite" Path="Cycling/View/ticket_normal " Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="ticket_normal" FileType="Sprite" Path="Cycling/View/ticket_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -4838,7 +4839,7 @@
         <v>3</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>64</v>
@@ -4862,7 +4863,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>64</v>
@@ -4886,7 +4887,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>64</v>
@@ -4910,7 +4911,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>64</v>
@@ -4934,7 +4935,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>64</v>
@@ -4958,7 +4959,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>64</v>
@@ -4982,7 +4983,7 @@
         <v>3</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>64</v>
@@ -5006,7 +5007,7 @@
         <v>3</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E96" s="10" t="s">
         <v>64</v>
@@ -5231,19 +5232,19 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="2" t="s">
@@ -5281,19 +5282,19 @@
         <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>210</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>40</v>
@@ -5319,10 +5320,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I3" s="6">
         <v>3202</v>
@@ -5343,25 +5344,25 @@
         <v>3202</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="6">
         <v>32</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E4" s="6">
         <v>3202</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J4" s="6">
         <v>18</v>
@@ -5585,7 +5586,7 @@
         <v>320201</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C12" s="6">
         <v>3202</v>
@@ -5600,7 +5601,7 @@
         <v>320202</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C13" s="6">
         <v>3202</v>
@@ -5615,7 +5616,7 @@
         <v>320203</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C14" s="6">
         <v>3202</v>
@@ -5630,7 +5631,7 @@
         <v>320204</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C15" s="6">
         <v>3202</v>
@@ -5645,7 +5646,7 @@
         <v>320205</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" s="6">
         <v>3202</v>
@@ -5660,7 +5661,7 @@
         <v>320206</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C17" s="6">
         <v>3202</v>
@@ -5707,10 +5708,10 @@
   <sheetData>
     <row r="1" spans="1:19" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -5725,7 +5726,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>28</v>
@@ -5744,16 +5745,16 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>168</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>0</v>
@@ -5762,7 +5763,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>4</v>
@@ -5770,10 +5771,10 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>16</v>
@@ -5782,14 +5783,14 @@
         <v>320101</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F3" s="8" t="str">
         <f>C3&amp;"介绍"</f>
         <v>中山陵介绍</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H3" s="6" t="str">
         <f>"&lt;Card CardID="""&amp;A3&amp;""" CardType="""&amp;B3&amp;""" CardName="""&amp;C3&amp;""" ScenicID="""&amp;D3&amp;""" Image="""&amp;E3&amp;""" Text="""&amp;F3&amp;""" Url="""&amp;G3&amp;""" /&gt;"</f>
@@ -5798,10 +5799,10 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>17</v>
@@ -5810,14 +5811,14 @@
         <v>320102</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F4" s="8" t="str">
         <f t="shared" ref="F4:F17" si="0">C4&amp;"介绍"</f>
         <v>总统府介绍</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H4" s="6" t="str">
         <f t="shared" ref="H4:H17" si="1">"&lt;Card CardID="""&amp;A4&amp;""" CardType="""&amp;B4&amp;""" CardName="""&amp;C4&amp;""" ScenicID="""&amp;D4&amp;""" Image="""&amp;E4&amp;""" Text="""&amp;F4&amp;""" Url="""&amp;G4&amp;""" /&gt;"</f>
@@ -5826,10 +5827,10 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>18</v>
@@ -5838,14 +5839,14 @@
         <v>320103</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>夫子庙介绍</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H5" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5854,10 +5855,10 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>19</v>
@@ -5866,14 +5867,14 @@
         <v>320104</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>瞻园介绍</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H6" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5882,10 +5883,10 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>20</v>
@@ -5894,14 +5895,14 @@
         <v>320105</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>玄武湖公园介绍</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H7" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5910,10 +5911,10 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>21</v>
@@ -5922,14 +5923,14 @@
         <v>320106</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>明孝陵介绍</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H8" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5938,10 +5939,10 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>22</v>
@@ -5950,14 +5951,14 @@
         <v>320107</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>美龄宫介绍</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H9" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5966,10 +5967,10 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>24</v>
@@ -5978,14 +5979,14 @@
         <v>320108</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>南京大屠杀纪念馆介绍</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H10" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5994,10 +5995,10 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>23</v>
@@ -6006,14 +6007,14 @@
         <v>320109</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>栖霞山介绍</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H11" s="6" t="str">
         <f t="shared" si="1"/>
@@ -6022,26 +6023,26 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D12" s="6">
         <v>320201</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>西津渡古街介绍</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H12" s="6" t="str">
         <f t="shared" si="1"/>
@@ -6050,26 +6051,26 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D13" s="6">
         <v>320202</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>金山寺介绍</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H13" s="6" t="str">
         <f t="shared" si="1"/>
@@ -6078,26 +6079,26 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D14" s="6">
         <v>320203</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>北固山介绍</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H14" s="6" t="str">
         <f t="shared" si="1"/>
@@ -6106,26 +6107,26 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15" s="6">
         <v>320204</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>焦山介绍</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H15" s="6" t="str">
         <f t="shared" si="1"/>
@@ -6134,19 +6135,19 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D16" s="6">
         <v>320205</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6159,26 +6160,26 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D17" s="6">
         <v>320206</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>宝华山国家森林公园介绍</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H17" s="6" t="str">
         <f t="shared" si="1"/>
@@ -6254,7 +6255,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>15</v>
@@ -6279,7 +6280,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>25</v>
@@ -6293,7 +6294,7 @@
         <v>320101</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C3" s="6">
         <v>3201</v>
@@ -6308,7 +6309,7 @@
         <v>320102</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C4" s="6">
         <v>3201</v>
@@ -6323,7 +6324,7 @@
         <v>320103</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="6">
         <v>3201</v>
@@ -6338,7 +6339,7 @@
         <v>320104</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" s="6">
         <v>3201</v>
@@ -6353,7 +6354,7 @@
         <v>320105</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C7" s="6">
         <v>3201</v>
@@ -6368,7 +6369,7 @@
         <v>320106</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C8" s="6">
         <v>3201</v>
@@ -6383,7 +6384,7 @@
         <v>320107</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C9" s="6">
         <v>3201</v>
@@ -6398,7 +6399,7 @@
         <v>320108</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C10" s="6">
         <v>3201</v>
@@ -6413,7 +6414,7 @@
         <v>320109</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C11" s="6">
         <v>3201</v>
@@ -6428,7 +6429,7 @@
         <v>320201</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C12" s="6">
         <v>3202</v>
@@ -6443,7 +6444,7 @@
         <v>320202</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C13" s="6">
         <v>3202</v>
@@ -6458,7 +6459,7 @@
         <v>320203</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C14" s="6">
         <v>3202</v>
@@ -6473,7 +6474,7 @@
         <v>320204</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C15" s="6">
         <v>3202</v>
@@ -6488,7 +6489,7 @@
         <v>320205</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C16" s="6">
         <v>3202</v>
@@ -6503,7 +6504,7 @@
         <v>320206</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C17" s="6">
         <v>3202</v>
@@ -6543,7 +6544,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -6556,164 +6557,164 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="H2" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>237</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="C3" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="F3" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="G3" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="H3" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="I3" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="J3" s="22" t="s">
         <v>247</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="H4" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="I4" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="J4" s="22" t="s">
         <v>255</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="C5" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="E5" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="F5" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="G5" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="H5" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="I5" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="J5" s="22" t="s">
         <v>265</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="C7" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="D7" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="E7" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="F7" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="G7" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="H7" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="I7" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="I7" s="23" t="s">
-        <v>237</v>
-      </c>
       <c r="J7" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K8" s="29" t="str">
         <f>"&lt;Question ID="""&amp;F8&amp;""" Count="""&amp;G8&amp;""" Scheme="""&amp;H8&amp;""" Source="""&amp;I8&amp;""" Score="""&amp;J8&amp;""" /&gt;"</f>
@@ -6753,42 +6754,42 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="E1" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F1" s="33"/>
       <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>273</v>
-      </c>
       <c r="G2" s="26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C3" s="27" t="str">
         <f>"&lt;QuestionType ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" /&gt;"</f>
@@ -6798,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G3" s="27" t="str">
         <f>"&lt;Difficutly ID="""&amp;E3&amp;""" Name="""&amp;F3&amp;""" /&gt;"</f>
@@ -6807,10 +6808,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>276</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>277</v>
       </c>
       <c r="C4" s="27" t="str">
         <f t="shared" ref="C4:C5" si="0">"&lt;QuestionType ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" /&gt;"</f>
@@ -6820,7 +6821,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G4" s="27" t="str">
         <f t="shared" ref="G4:G5" si="1">"&lt;Difficutly ID="""&amp;E4&amp;""" Name="""&amp;F4&amp;""" /&gt;"</f>
@@ -6829,10 +6830,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>279</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>280</v>
       </c>
       <c r="C5" s="27" t="str">
         <f t="shared" si="0"/>
@@ -6842,7 +6843,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G5" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6851,39 +6852,39 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B8" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="D8" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="E8" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>285</v>
-      </c>
       <c r="F8" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="C9" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="D9" s="24" t="s">
+      <c r="E9" s="24" t="s">
         <v>288</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>289</v>
       </c>
       <c r="F9" s="29" t="str">
         <f>"&lt;Scheme ID="""&amp;A9&amp;""" Count="""&amp;B9&amp;""" Matching="""&amp;C9&amp;""" Source="""&amp;D9&amp;""" Score="""&amp;E9&amp;""" /&gt;"</f>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="321">
   <si>
     <t>Image</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -750,9 +750,6 @@
     <t>Single</t>
   </si>
   <si>
-    <t>Package</t>
-  </si>
-  <si>
     <t>ImagePath</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -765,9 +762,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>Texture2</t>
-  </si>
-  <si>
     <t>Common</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1168,13 +1162,6 @@
   </si>
   <si>
     <t>AB</t>
-  </si>
-  <si>
-    <t>traffic</t>
-  </si>
-  <si>
-    <t>cycling/traffic</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>城市名称拼音</t>
@@ -2407,19 +2394,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>156</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>158</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>44</v>
@@ -2427,19 +2414,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>57</v>
@@ -2453,7 +2440,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="10" t="str">
@@ -2633,13 +2620,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D89" sqref="D89"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2668,16 +2655,16 @@
         <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>58</v>
@@ -2698,16 +2685,16 @@
         <v>56</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>50</v>
@@ -2721,10 +2708,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="6"/>
       <c r="F3" s="6"/>
@@ -2742,7 +2729,7 @@
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>64</v>
@@ -2751,7 +2738,7 @@
         <v>63</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="15">
@@ -2769,7 +2756,7 @@
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>64</v>
@@ -2778,7 +2765,7 @@
         <v>63</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="15">
@@ -2796,7 +2783,7 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>64</v>
@@ -2805,7 +2792,7 @@
         <v>63</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="15">
@@ -2823,7 +2810,7 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>64</v>
@@ -2832,7 +2819,7 @@
         <v>63</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="15">
@@ -2850,7 +2837,7 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>64</v>
@@ -2859,7 +2846,7 @@
         <v>63</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="15">
@@ -2877,7 +2864,7 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>64</v>
@@ -2886,7 +2873,7 @@
         <v>63</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="15">
@@ -2904,7 +2891,7 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>64</v>
@@ -2913,7 +2900,7 @@
         <v>63</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="15">
@@ -2931,7 +2918,7 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>64</v>
@@ -2940,7 +2927,7 @@
         <v>63</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="15">
@@ -2958,7 +2945,7 @@
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>64</v>
@@ -2967,7 +2954,7 @@
         <v>63</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="15">
@@ -2985,7 +2972,7 @@
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>64</v>
@@ -2994,7 +2981,7 @@
         <v>63</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="15">
@@ -3012,7 +2999,7 @@
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>64</v>
@@ -3021,7 +3008,7 @@
         <v>63</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="15">
@@ -3039,7 +3026,7 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>64</v>
@@ -3048,7 +3035,7 @@
         <v>63</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="15">
@@ -3066,7 +3053,7 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>64</v>
@@ -3075,7 +3062,7 @@
         <v>63</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="15">
@@ -3093,7 +3080,7 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>64</v>
@@ -3102,7 +3089,7 @@
         <v>63</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="15">
@@ -3120,7 +3107,7 @@
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>64</v>
@@ -3129,7 +3116,7 @@
         <v>63</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="15">
@@ -3147,7 +3134,7 @@
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>64</v>
@@ -3156,7 +3143,7 @@
         <v>63</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="15">
@@ -3174,7 +3161,7 @@
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>64</v>
@@ -3183,7 +3170,7 @@
         <v>63</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="15">
@@ -3201,7 +3188,7 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>64</v>
@@ -3210,7 +3197,7 @@
         <v>63</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="15">
@@ -3228,7 +3215,7 @@
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>64</v>
@@ -3237,7 +3224,7 @@
         <v>63</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="15">
@@ -3255,7 +3242,7 @@
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>64</v>
@@ -3264,7 +3251,7 @@
         <v>63</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="15">
@@ -3282,7 +3269,7 @@
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>64</v>
@@ -3291,7 +3278,7 @@
         <v>63</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="15">
@@ -3309,7 +3296,7 @@
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>64</v>
@@ -3318,7 +3305,7 @@
         <v>63</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="15">
@@ -3336,16 +3323,16 @@
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="15">
@@ -3363,7 +3350,7 @@
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>64</v>
@@ -3372,7 +3359,7 @@
         <v>63</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="15">
@@ -3390,7 +3377,7 @@
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>64</v>
@@ -3399,7 +3386,7 @@
         <v>63</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="15">
@@ -3444,26 +3431,26 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>189</v>
+        <v>63</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="I31" s="15">
         <v>1</v>
       </c>
       <c r="J31" s="10" t="str">
-        <f t="shared" ref="J31:J66" si="2">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="traffic" FileType="Texture2" AB="cycling/traffic" Enable="1" /&gt;</v>
+        <f t="shared" ref="J31:J65" si="2">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing01" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing01" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3471,7 +3458,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>64</v>
@@ -3480,14 +3467,14 @@
         <v>63</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I32" s="15">
         <v>1</v>
       </c>
       <c r="J32" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing01" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing01" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing02" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing02" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3495,7 +3482,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>64</v>
@@ -3504,14 +3491,14 @@
         <v>63</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I33" s="15">
         <v>1</v>
       </c>
       <c r="J33" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing02" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing02" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing03" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing03" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3519,7 +3506,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>64</v>
@@ -3528,14 +3515,14 @@
         <v>63</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I34" s="15">
         <v>1</v>
       </c>
       <c r="J34" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing03" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing03" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing04" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing04" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3543,7 +3530,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>64</v>
@@ -3552,14 +3539,14 @@
         <v>63</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I35" s="15">
         <v>1</v>
       </c>
       <c r="J35" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing04" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing04" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing05" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing05" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3567,7 +3554,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>64</v>
@@ -3576,14 +3563,14 @@
         <v>63</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I36" s="15">
         <v>1</v>
       </c>
       <c r="J36" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing05" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing05" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing06" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing06" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3591,7 +3578,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>64</v>
@@ -3600,14 +3587,14 @@
         <v>63</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I37" s="15">
         <v>1</v>
       </c>
       <c r="J37" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing06" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing06" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing07" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing07" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3615,7 +3602,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>64</v>
@@ -3624,14 +3611,14 @@
         <v>63</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I38" s="15">
         <v>1</v>
       </c>
       <c r="J38" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing07" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing07" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing08" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing08" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3639,7 +3626,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>64</v>
@@ -3648,14 +3635,14 @@
         <v>63</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I39" s="15">
         <v>1</v>
       </c>
       <c r="J39" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing08" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing08" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing09" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing09" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3663,7 +3650,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>64</v>
@@ -3672,14 +3659,14 @@
         <v>63</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="I40" s="15">
         <v>1</v>
       </c>
       <c r="J40" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing09" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing09" Enable="1" /&gt;</v>
+        <f t="shared" ref="J40" si="3">IF(A40=1,"&lt;Module Name="""&amp;B40&amp;""" Desc="""&amp;C40&amp;"""&gt;",IF(E40="Package","  &lt;Image Name="""&amp;D40&amp;""" FileType="""&amp;F40&amp;""" AB="""&amp;H40&amp;""" Enable="""&amp;I40&amp;""" /&gt;",IF(E40="Single","  &lt;Image Name="""&amp;D40&amp;""" FileType="""&amp;F40&amp;""" Path="""&amp;G40&amp;D40&amp;""" Enable="""&amp;I40&amp;""" /&gt;", IF(A40=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang01" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang01" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3687,7 +3674,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>64</v>
@@ -3696,14 +3683,14 @@
         <v>63</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I41" s="15">
         <v>1</v>
       </c>
       <c r="J41" s="10" t="str">
-        <f t="shared" ref="J41" si="3">IF(A41=1,"&lt;Module Name="""&amp;B41&amp;""" Desc="""&amp;C41&amp;"""&gt;",IF(E41="Package","  &lt;Image Name="""&amp;D41&amp;""" FileType="""&amp;F41&amp;""" AB="""&amp;H41&amp;""" Enable="""&amp;I41&amp;""" /&gt;",IF(E41="Single","  &lt;Image Name="""&amp;D41&amp;""" FileType="""&amp;F41&amp;""" Path="""&amp;G41&amp;D41&amp;""" Enable="""&amp;I41&amp;""" /&gt;", IF(A41=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang01" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang01" Enable="1" /&gt;</v>
+        <f t="shared" ref="J41:J45" si="4">IF(A41=1,"&lt;Module Name="""&amp;B41&amp;""" Desc="""&amp;C41&amp;"""&gt;",IF(E41="Package","  &lt;Image Name="""&amp;D41&amp;""" FileType="""&amp;F41&amp;""" AB="""&amp;H41&amp;""" Enable="""&amp;I41&amp;""" /&gt;",IF(E41="Single","  &lt;Image Name="""&amp;D41&amp;""" FileType="""&amp;F41&amp;""" Path="""&amp;G41&amp;D41&amp;""" Enable="""&amp;I41&amp;""" /&gt;", IF(A41=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang02" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang02" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3711,7 +3698,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>64</v>
@@ -3720,14 +3707,14 @@
         <v>63</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I42" s="15">
         <v>1</v>
       </c>
       <c r="J42" s="10" t="str">
-        <f t="shared" ref="J42:J46" si="4">IF(A42=1,"&lt;Module Name="""&amp;B42&amp;""" Desc="""&amp;C42&amp;"""&gt;",IF(E42="Package","  &lt;Image Name="""&amp;D42&amp;""" FileType="""&amp;F42&amp;""" AB="""&amp;H42&amp;""" Enable="""&amp;I42&amp;""" /&gt;",IF(E42="Single","  &lt;Image Name="""&amp;D42&amp;""" FileType="""&amp;F42&amp;""" Path="""&amp;G42&amp;D42&amp;""" Enable="""&amp;I42&amp;""" /&gt;", IF(A42=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang02" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang02" Enable="1" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang03" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang03" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3735,23 +3722,23 @@
         <v>3</v>
       </c>
       <c r="D43" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>206</v>
       </c>
       <c r="I43" s="15">
         <v>1</v>
       </c>
       <c r="J43" s="10" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang03" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang03" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang04" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang04" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3759,7 +3746,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>64</v>
@@ -3768,14 +3755,14 @@
         <v>63</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I44" s="15">
         <v>1</v>
       </c>
       <c r="J44" s="10" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang04" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang04" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang05" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang05" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3783,7 +3770,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>64</v>
@@ -3792,14 +3779,14 @@
         <v>63</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I45" s="15">
         <v>1</v>
       </c>
       <c r="J45" s="10" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang05" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang05" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang06" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang06" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3807,7 +3794,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>64</v>
@@ -3816,14 +3803,14 @@
         <v>63</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="I46" s="15">
         <v>1</v>
       </c>
       <c r="J46" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang06" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang06" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="arrow_panel" FileType="Sprite" Path="Cycling/View/arrow_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3831,7 +3818,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>64</v>
@@ -3847,7 +3834,7 @@
       </c>
       <c r="J47" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="arrow_panel" FileType="Sprite" Path="Cycling/View/arrow_panel" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="back" FileType="Sprite" Path="Cycling/View/back" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3855,7 +3842,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>64</v>
@@ -3871,7 +3858,7 @@
       </c>
       <c r="J48" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="back" FileType="Sprite" Path="Cycling/View/back" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="book" FileType="Sprite" Path="Cycling/View/book" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3879,7 +3866,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>64</v>
@@ -3895,7 +3882,7 @@
       </c>
       <c r="J49" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="book" FileType="Sprite" Path="Cycling/View/book" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="bus" FileType="Sprite" Path="Cycling/View/bus" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3903,7 +3890,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>64</v>
@@ -3919,7 +3906,7 @@
       </c>
       <c r="J50" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="bus" FileType="Sprite" Path="Cycling/View/bus" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_back1" FileType="Sprite" Path="Cycling/View/card_back1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3927,7 +3914,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>64</v>
@@ -3943,7 +3930,7 @@
       </c>
       <c r="J51" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_back1" FileType="Sprite" Path="Cycling/View/card_back1" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_back2" FileType="Sprite" Path="Cycling/View/card_back2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3951,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>64</v>
@@ -3967,7 +3954,7 @@
       </c>
       <c r="J52" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_back2" FileType="Sprite" Path="Cycling/View/card_back2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_bg" FileType="Sprite" Path="Cycling/View/card_bg" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3975,7 +3962,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>64</v>
@@ -3991,7 +3978,7 @@
       </c>
       <c r="J53" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_bg" FileType="Sprite" Path="Cycling/View/card_bg" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_place" FileType="Sprite" Path="Cycling/View/card_place" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3999,7 +3986,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>64</v>
@@ -4015,7 +4002,7 @@
       </c>
       <c r="J54" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_place" FileType="Sprite" Path="Cycling/View/card_place" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_return" FileType="Sprite" Path="Cycling/View/card_return" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -4023,7 +4010,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>119</v>
+        <v>311</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>64</v>
@@ -4038,8 +4025,8 @@
         <v>1</v>
       </c>
       <c r="J55" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_return" FileType="Sprite" Path="Cycling/View/card_return" Enable="1" /&gt;</v>
+        <f t="shared" ref="J55:J56" si="5">IF(A55=1,"&lt;Module Name="""&amp;B55&amp;""" Desc="""&amp;C55&amp;"""&gt;",IF(E55="Package","  &lt;Image Name="""&amp;D55&amp;""" FileType="""&amp;F55&amp;""" AB="""&amp;H55&amp;""" Enable="""&amp;I55&amp;""" /&gt;",IF(E55="Single","  &lt;Image Name="""&amp;D55&amp;""" FileType="""&amp;F55&amp;""" Path="""&amp;G55&amp;D55&amp;""" Enable="""&amp;I55&amp;""" /&gt;", IF(A55=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="circle_1" FileType="Sprite" Path="Cycling/View/circle_1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -4047,7 +4034,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>64</v>
@@ -4062,8 +4049,8 @@
         <v>1</v>
       </c>
       <c r="J56" s="10" t="str">
-        <f t="shared" ref="J56:J57" si="5">IF(A56=1,"&lt;Module Name="""&amp;B56&amp;""" Desc="""&amp;C56&amp;"""&gt;",IF(E56="Package","  &lt;Image Name="""&amp;D56&amp;""" FileType="""&amp;F56&amp;""" AB="""&amp;H56&amp;""" Enable="""&amp;I56&amp;""" /&gt;",IF(E56="Single","  &lt;Image Name="""&amp;D56&amp;""" FileType="""&amp;F56&amp;""" Path="""&amp;G56&amp;D56&amp;""" Enable="""&amp;I56&amp;""" /&gt;", IF(A56=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="circle_1" FileType="Sprite" Path="Cycling/View/circle_1" Enable="1" /&gt;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="circle_2" FileType="Sprite" Path="Cycling/View/circle_2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -4071,7 +4058,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>64</v>
@@ -4086,8 +4073,8 @@
         <v>1</v>
       </c>
       <c r="J57" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="circle_2" FileType="Sprite" Path="Cycling/View/circle_2" Enable="1" /&gt;</v>
+        <f t="shared" ref="J57:J60" si="6">IF(A57=1,"&lt;Module Name="""&amp;B57&amp;""" Desc="""&amp;C57&amp;"""&gt;",IF(E57="Package","  &lt;Image Name="""&amp;D57&amp;""" FileType="""&amp;F57&amp;""" AB="""&amp;H57&amp;""" Enable="""&amp;I57&amp;""" /&gt;",IF(E57="Single","  &lt;Image Name="""&amp;D57&amp;""" FileType="""&amp;F57&amp;""" Path="""&amp;G57&amp;D57&amp;""" Enable="""&amp;I57&amp;""" /&gt;", IF(A57=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="cloud_01" FileType="Sprite" Path="Cycling/View/cloud_01" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -4095,7 +4082,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>64</v>
@@ -4110,8 +4097,8 @@
         <v>1</v>
       </c>
       <c r="J58" s="10" t="str">
-        <f t="shared" ref="J58:J61" si="6">IF(A58=1,"&lt;Module Name="""&amp;B58&amp;""" Desc="""&amp;C58&amp;"""&gt;",IF(E58="Package","  &lt;Image Name="""&amp;D58&amp;""" FileType="""&amp;F58&amp;""" AB="""&amp;H58&amp;""" Enable="""&amp;I58&amp;""" /&gt;",IF(E58="Single","  &lt;Image Name="""&amp;D58&amp;""" FileType="""&amp;F58&amp;""" Path="""&amp;G58&amp;D58&amp;""" Enable="""&amp;I58&amp;""" /&gt;", IF(A58=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="cloud_01" FileType="Sprite" Path="Cycling/View/cloud_01" Enable="1" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="cloud_02" FileType="Sprite" Path="Cycling/View/cloud_02" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -4119,7 +4106,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>64</v>
@@ -4135,7 +4122,7 @@
       </c>
       <c r="J59" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="cloud_02" FileType="Sprite" Path="Cycling/View/cloud_02" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="cloud_03" FileType="Sprite" Path="Cycling/View/cloud_03" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -4143,7 +4130,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>64</v>
@@ -4159,7 +4146,7 @@
       </c>
       <c r="J60" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="cloud_03" FileType="Sprite" Path="Cycling/View/cloud_03" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="cloud_04" FileType="Sprite" Path="Cycling/View/cloud_04" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -4167,7 +4154,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>314</v>
+        <v>142</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>64</v>
@@ -4182,8 +4169,8 @@
         <v>1</v>
       </c>
       <c r="J61" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="cloud_04" FileType="Sprite" Path="Cycling/View/cloud_04" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="coin" FileType="Sprite" Path="Cycling/View/coin" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -4191,7 +4178,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>64</v>
@@ -4207,7 +4194,7 @@
       </c>
       <c r="J62" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="coin" FileType="Sprite" Path="Cycling/View/coin" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -4215,7 +4202,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>64</v>
@@ -4231,7 +4218,7 @@
       </c>
       <c r="J63" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -4239,7 +4226,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>64</v>
@@ -4255,7 +4242,7 @@
       </c>
       <c r="J64" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coord_friend" FileType="Sprite" Path="Cycling/View/coord_friend" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -4263,7 +4250,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>64</v>
@@ -4279,7 +4266,7 @@
       </c>
       <c r="J65" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="coord_friend" FileType="Sprite" Path="Cycling/View/coord_friend" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="cost_panel" FileType="Sprite" Path="Cycling/View/cost_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -4287,7 +4274,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>64</v>
@@ -4302,8 +4289,8 @@
         <v>1</v>
       </c>
       <c r="J66" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="cost_panel" FileType="Sprite" Path="Cycling/View/cost_panel" Enable="1" /&gt;</v>
+        <f t="shared" ref="J66:J76" si="7">IF(A66=1,"&lt;Module Name="""&amp;B66&amp;""" Desc="""&amp;C66&amp;"""&gt;",IF(E66="Package","  &lt;Image Name="""&amp;D66&amp;""" FileType="""&amp;F66&amp;""" AB="""&amp;H66&amp;""" Enable="""&amp;I66&amp;""" /&gt;",IF(E66="Single","  &lt;Image Name="""&amp;D66&amp;""" FileType="""&amp;F66&amp;""" Path="""&amp;G66&amp;D66&amp;""" Enable="""&amp;I66&amp;""" /&gt;", IF(A66=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="disable_button" FileType="Sprite" Path="Cycling/View/disable_button" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -4311,7 +4298,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>64</v>
@@ -4326,8 +4313,8 @@
         <v>1</v>
       </c>
       <c r="J67" s="10" t="str">
-        <f t="shared" ref="J67:J77" si="7">IF(A67=1,"&lt;Module Name="""&amp;B67&amp;""" Desc="""&amp;C67&amp;"""&gt;",IF(E67="Package","  &lt;Image Name="""&amp;D67&amp;""" FileType="""&amp;F67&amp;""" AB="""&amp;H67&amp;""" Enable="""&amp;I67&amp;""" /&gt;",IF(E67="Single","  &lt;Image Name="""&amp;D67&amp;""" FileType="""&amp;F67&amp;""" Path="""&amp;G67&amp;D67&amp;""" Enable="""&amp;I67&amp;""" /&gt;", IF(A67=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="disable_button" FileType="Sprite" Path="Cycling/View/disable_button" Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="enable_button" FileType="Sprite" Path="Cycling/View/enable_button" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -4335,7 +4322,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>64</v>
@@ -4351,7 +4338,7 @@
       </c>
       <c r="J68" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="enable_button" FileType="Sprite" Path="Cycling/View/enable_button" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -4359,7 +4346,7 @@
         <v>3</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>64</v>
@@ -4375,7 +4362,7 @@
       </c>
       <c r="J69" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -4383,7 +4370,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>64</v>
@@ -4399,7 +4386,7 @@
       </c>
       <c r="J70" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pay_border" FileType="Sprite" Path="Cycling/View/pay_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4407,7 +4394,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>64</v>
@@ -4423,7 +4410,7 @@
       </c>
       <c r="J71" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="pay_border" FileType="Sprite" Path="Cycling/View/pay_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pay_panel" FileType="Sprite" Path="Cycling/View/pay_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -4431,7 +4418,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>64</v>
@@ -4447,7 +4434,7 @@
       </c>
       <c r="J72" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="pay_panel" FileType="Sprite" Path="Cycling/View/pay_panel" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pay_line" FileType="Sprite" Path="Cycling/View/pay_line" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -4455,7 +4442,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>172</v>
+        <v>316</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>64</v>
@@ -4470,8 +4457,8 @@
         <v>1</v>
       </c>
       <c r="J73" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="pay_line" FileType="Sprite" Path="Cycling/View/pay_line" Enable="1" /&gt;</v>
+        <f t="shared" ref="J73" si="8">IF(A73=1,"&lt;Module Name="""&amp;B73&amp;""" Desc="""&amp;C73&amp;"""&gt;",IF(E73="Package","  &lt;Image Name="""&amp;D73&amp;""" FileType="""&amp;F73&amp;""" AB="""&amp;H73&amp;""" Enable="""&amp;I73&amp;""" /&gt;",IF(E73="Single","  &lt;Image Name="""&amp;D73&amp;""" FileType="""&amp;F73&amp;""" Path="""&amp;G73&amp;D73&amp;""" Enable="""&amp;I73&amp;""" /&gt;", IF(A73=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="plane" FileType="Sprite" Path="Cycling/View/plane" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -4479,7 +4466,7 @@
         <v>3</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>64</v>
@@ -4494,8 +4481,8 @@
         <v>1</v>
       </c>
       <c r="J74" s="10" t="str">
-        <f t="shared" ref="J74" si="8">IF(A74=1,"&lt;Module Name="""&amp;B74&amp;""" Desc="""&amp;C74&amp;"""&gt;",IF(E74="Package","  &lt;Image Name="""&amp;D74&amp;""" FileType="""&amp;F74&amp;""" AB="""&amp;H74&amp;""" Enable="""&amp;I74&amp;""" /&gt;",IF(E74="Single","  &lt;Image Name="""&amp;D74&amp;""" FileType="""&amp;F74&amp;""" Path="""&amp;G74&amp;D74&amp;""" Enable="""&amp;I74&amp;""" /&gt;", IF(A74=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="plane" FileType="Sprite" Path="Cycling/View/plane" Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -4503,7 +4490,7 @@
         <v>3</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>64</v>
@@ -4519,7 +4506,7 @@
       </c>
       <c r="J75" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -4527,7 +4514,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>64</v>
@@ -4543,7 +4530,7 @@
       </c>
       <c r="J76" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -4551,7 +4538,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>104</v>
+        <v>314</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>64</v>
@@ -4566,8 +4553,8 @@
         <v>1</v>
       </c>
       <c r="J77" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
+        <f t="shared" ref="J77:J94" si="9">IF(A77=1,"&lt;Module Name="""&amp;B77&amp;""" Desc="""&amp;C77&amp;"""&gt;",IF(E77="Package","  &lt;Image Name="""&amp;D77&amp;""" FileType="""&amp;F77&amp;""" AB="""&amp;H77&amp;""" Enable="""&amp;I77&amp;""" /&gt;",IF(E77="Single","  &lt;Image Name="""&amp;D77&amp;""" FileType="""&amp;F77&amp;""" Path="""&amp;G77&amp;D77&amp;""" Enable="""&amp;I77&amp;""" /&gt;", IF(A77=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="random_event" FileType="Sprite" Path="Cycling/View/random_event" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -4575,7 +4562,7 @@
         <v>3</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>318</v>
+        <v>103</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>64</v>
@@ -4590,8 +4577,8 @@
         <v>1</v>
       </c>
       <c r="J78" s="10" t="str">
-        <f t="shared" ref="J78:J95" si="9">IF(A78=1,"&lt;Module Name="""&amp;B78&amp;""" Desc="""&amp;C78&amp;"""&gt;",IF(E78="Package","  &lt;Image Name="""&amp;D78&amp;""" FileType="""&amp;F78&amp;""" AB="""&amp;H78&amp;""" Enable="""&amp;I78&amp;""" /&gt;",IF(E78="Single","  &lt;Image Name="""&amp;D78&amp;""" FileType="""&amp;F78&amp;""" Path="""&amp;G78&amp;D78&amp;""" Enable="""&amp;I78&amp;""" /&gt;", IF(A78=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="random_event" FileType="Sprite" Path="Cycling/View/random_event" Enable="1" /&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4599,7 +4586,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>64</v>
@@ -4615,7 +4602,7 @@
       </c>
       <c r="J79" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -4623,7 +4610,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>64</v>
@@ -4639,7 +4626,7 @@
       </c>
       <c r="J80" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -4647,7 +4634,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>64</v>
@@ -4663,7 +4650,7 @@
       </c>
       <c r="J81" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4671,7 +4658,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>64</v>
@@ -4687,7 +4674,7 @@
       </c>
       <c r="J82" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4695,7 +4682,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>64</v>
@@ -4711,7 +4698,7 @@
       </c>
       <c r="J83" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="stars_highlight" FileType="Sprite" Path="Cycling/View/stars_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4719,7 +4706,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>64</v>
@@ -4735,7 +4722,7 @@
       </c>
       <c r="J84" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="stars_highlight" FileType="Sprite" Path="Cycling/View/stars_highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="start_normal" FileType="Sprite" Path="Cycling/View/start_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4743,7 +4730,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>322</v>
+        <v>144</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>64</v>
@@ -4759,7 +4746,7 @@
       </c>
       <c r="J85" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="start_normal" FileType="Sprite" Path="Cycling/View/start_normal" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="station_panel" FileType="Sprite" Path="Cycling/View/station_panel" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -4767,7 +4754,7 @@
         <v>3</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>146</v>
+        <v>319</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>64</v>
@@ -4783,7 +4770,7 @@
       </c>
       <c r="J86" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="station_panel" FileType="Sprite" Path="Cycling/View/station_panel" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="ticket_highlight" FileType="Sprite" Path="Cycling/View/ticket_highlight" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -4791,7 +4778,7 @@
         <v>3</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>64</v>
@@ -4807,7 +4794,7 @@
       </c>
       <c r="J87" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket_highlight" FileType="Sprite" Path="Cycling/View/ticket_highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="ticket_normal" FileType="Sprite" Path="Cycling/View/ticket_normal" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -4815,7 +4802,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>324</v>
+        <v>107</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>64</v>
@@ -4831,7 +4818,7 @@
       </c>
       <c r="J88" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket_normal" FileType="Sprite" Path="Cycling/View/ticket_normal" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -4839,7 +4826,7 @@
         <v>3</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>64</v>
@@ -4855,7 +4842,7 @@
       </c>
       <c r="J89" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="tip_error" FileType="Sprite" Path="Cycling/View/tip_error" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -4863,7 +4850,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>64</v>
@@ -4879,7 +4866,7 @@
       </c>
       <c r="J90" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="tip_error" FileType="Sprite" Path="Cycling/View/tip_error" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -4887,7 +4874,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>64</v>
@@ -4903,7 +4890,7 @@
       </c>
       <c r="J91" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="train1" FileType="Sprite" Path="Cycling/View/train1" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -4911,7 +4898,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>64</v>
@@ -4927,7 +4914,7 @@
       </c>
       <c r="J92" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="train1" FileType="Sprite" Path="Cycling/View/train1" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="train2" FileType="Sprite" Path="Cycling/View/train2" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -4935,7 +4922,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>64</v>
@@ -4951,7 +4938,7 @@
       </c>
       <c r="J93" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="train2" FileType="Sprite" Path="Cycling/View/train2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="train3" FileType="Sprite" Path="Cycling/View/train3" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -4959,7 +4946,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>149</v>
+        <v>313</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>64</v>
@@ -4975,7 +4962,7 @@
       </c>
       <c r="J94" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="train3" FileType="Sprite" Path="Cycling/View/train3" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="treasure_box" FileType="Sprite" Path="Cycling/View/treasure_box" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -4983,7 +4970,7 @@
         <v>3</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>64</v>
@@ -4998,40 +4985,16 @@
         <v>1</v>
       </c>
       <c r="J95" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="treasure_box" FileType="Sprite" Path="Cycling/View/treasure_box" Enable="1" /&gt;</v>
+        <f t="shared" ref="J95" si="10">IF(A95=1,"&lt;Module Name="""&amp;B95&amp;""" Desc="""&amp;C95&amp;"""&gt;",IF(E95="Package","  &lt;Image Name="""&amp;D95&amp;""" FileType="""&amp;F95&amp;""" AB="""&amp;H95&amp;""" Enable="""&amp;I95&amp;""" /&gt;",IF(E95="Single","  &lt;Image Name="""&amp;D95&amp;""" FileType="""&amp;F95&amp;""" Path="""&amp;G95&amp;D95&amp;""" Enable="""&amp;I95&amp;""" /&gt;", IF(A95=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="treasure_box_arrow" FileType="Sprite" Path="Cycling/View/treasure_box_arrow" Enable="1" /&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="15">
-        <v>3</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F96" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I96" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J96" s="10" t="str">
-        <f t="shared" ref="J96" si="10">IF(A96=1,"&lt;Module Name="""&amp;B96&amp;""" Desc="""&amp;C96&amp;"""&gt;",IF(E96="Package","  &lt;Image Name="""&amp;D96&amp;""" FileType="""&amp;F96&amp;""" AB="""&amp;H96&amp;""" Enable="""&amp;I96&amp;""" /&gt;",IF(E96="Single","  &lt;Image Name="""&amp;D96&amp;""" FileType="""&amp;F96&amp;""" Path="""&amp;G96&amp;D96&amp;""" Enable="""&amp;I96&amp;""" /&gt;", IF(A96=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="treasure_box_arrow" FileType="Sprite" Path="Cycling/View/treasure_box_arrow" Enable="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
-      <c r="A97" s="15">
-        <v>4</v>
-      </c>
-      <c r="J97" s="10" t="str">
-        <f t="shared" ref="J97" si="11">IF(A97=1,"&lt;Module Name="""&amp;B97&amp;""" Desc="""&amp;C97&amp;"""&gt;",IF(E97="Package","  &lt;Image Name="""&amp;D97&amp;""" FileType="""&amp;F97&amp;""" AB="""&amp;H97&amp;""" Enable="""&amp;I97&amp;""" /&gt;",IF(E97="Single","  &lt;Image Name="""&amp;D97&amp;""" FileType="""&amp;F97&amp;""" Path="""&amp;G97&amp;D97&amp;""" Enable="""&amp;I97&amp;""" /&gt;", IF(A97=4,"&lt;/Module&gt;",""))))</f>
+        <f t="shared" ref="J96" si="11">IF(A96=1,"&lt;Module Name="""&amp;B96&amp;""" Desc="""&amp;C96&amp;"""&gt;",IF(E96="Package","  &lt;Image Name="""&amp;D96&amp;""" FileType="""&amp;F96&amp;""" AB="""&amp;H96&amp;""" Enable="""&amp;I96&amp;""" /&gt;",IF(E96="Single","  &lt;Image Name="""&amp;D96&amp;""" FileType="""&amp;F96&amp;""" Path="""&amp;G96&amp;D96&amp;""" Enable="""&amp;I96&amp;""" /&gt;", IF(A96=4,"&lt;/Module&gt;",""))))</f>
         <v>&lt;/Module&gt;</v>
       </c>
     </row>
@@ -5232,19 +5195,19 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="2" t="s">
@@ -5282,19 +5245,19 @@
         <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>40</v>
@@ -5320,10 +5283,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I3" s="6">
         <v>3202</v>
@@ -5344,25 +5307,25 @@
         <v>3202</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="6">
         <v>32</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E4" s="6">
         <v>3202</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J4" s="6">
         <v>18</v>
@@ -5586,7 +5549,7 @@
         <v>320201</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C12" s="6">
         <v>3202</v>
@@ -5601,7 +5564,7 @@
         <v>320202</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C13" s="6">
         <v>3202</v>
@@ -5616,7 +5579,7 @@
         <v>320203</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C14" s="6">
         <v>3202</v>
@@ -5631,7 +5594,7 @@
         <v>320204</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C15" s="6">
         <v>3202</v>
@@ -5646,7 +5609,7 @@
         <v>320205</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C16" s="6">
         <v>3202</v>
@@ -5661,7 +5624,7 @@
         <v>320206</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C17" s="6">
         <v>3202</v>
@@ -5708,10 +5671,10 @@
   <sheetData>
     <row r="1" spans="1:19" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -5726,7 +5689,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>28</v>
@@ -5745,16 +5708,16 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>0</v>
@@ -5763,7 +5726,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>4</v>
@@ -5771,10 +5734,10 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="18" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>16</v>
@@ -5783,14 +5746,14 @@
         <v>320101</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F3" s="8" t="str">
         <f>C3&amp;"介绍"</f>
         <v>中山陵介绍</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H3" s="6" t="str">
         <f>"&lt;Card CardID="""&amp;A3&amp;""" CardType="""&amp;B3&amp;""" CardName="""&amp;C3&amp;""" ScenicID="""&amp;D3&amp;""" Image="""&amp;E3&amp;""" Text="""&amp;F3&amp;""" Url="""&amp;G3&amp;""" /&gt;"</f>
@@ -5799,10 +5762,10 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="18" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>17</v>
@@ -5811,14 +5774,14 @@
         <v>320102</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F4" s="8" t="str">
         <f t="shared" ref="F4:F17" si="0">C4&amp;"介绍"</f>
         <v>总统府介绍</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H4" s="6" t="str">
         <f t="shared" ref="H4:H17" si="1">"&lt;Card CardID="""&amp;A4&amp;""" CardType="""&amp;B4&amp;""" CardName="""&amp;C4&amp;""" ScenicID="""&amp;D4&amp;""" Image="""&amp;E4&amp;""" Text="""&amp;F4&amp;""" Url="""&amp;G4&amp;""" /&gt;"</f>
@@ -5827,10 +5790,10 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="18" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>18</v>
@@ -5839,14 +5802,14 @@
         <v>320103</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>夫子庙介绍</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H5" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5855,10 +5818,10 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>19</v>
@@ -5867,14 +5830,14 @@
         <v>320104</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>瞻园介绍</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H6" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5883,10 +5846,10 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="18" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>20</v>
@@ -5895,14 +5858,14 @@
         <v>320105</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>玄武湖公园介绍</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H7" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5911,10 +5874,10 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="18" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>21</v>
@@ -5923,14 +5886,14 @@
         <v>320106</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>明孝陵介绍</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H8" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5939,10 +5902,10 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="18" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>22</v>
@@ -5951,14 +5914,14 @@
         <v>320107</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>美龄宫介绍</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H9" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5967,10 +5930,10 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="18" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>24</v>
@@ -5979,14 +5942,14 @@
         <v>320108</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>南京大屠杀纪念馆介绍</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H10" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5995,10 +5958,10 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="18" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>23</v>
@@ -6007,14 +5970,14 @@
         <v>320109</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>栖霞山介绍</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H11" s="6" t="str">
         <f t="shared" si="1"/>
@@ -6023,26 +5986,26 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="18" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D12" s="6">
         <v>320201</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>西津渡古街介绍</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H12" s="6" t="str">
         <f t="shared" si="1"/>
@@ -6051,26 +6014,26 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D13" s="6">
         <v>320202</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>金山寺介绍</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H13" s="6" t="str">
         <f t="shared" si="1"/>
@@ -6079,26 +6042,26 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D14" s="6">
         <v>320203</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>北固山介绍</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H14" s="6" t="str">
         <f t="shared" si="1"/>
@@ -6107,26 +6070,26 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="18" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D15" s="6">
         <v>320204</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>焦山介绍</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H15" s="6" t="str">
         <f t="shared" si="1"/>
@@ -6135,19 +6098,19 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="18" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D16" s="6">
         <v>320205</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6160,26 +6123,26 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="18" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D17" s="6">
         <v>320206</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>宝华山国家森林公园介绍</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H17" s="6" t="str">
         <f t="shared" si="1"/>
@@ -6255,7 +6218,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>15</v>
@@ -6280,7 +6243,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>25</v>
@@ -6294,7 +6257,7 @@
         <v>320101</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C3" s="6">
         <v>3201</v>
@@ -6309,7 +6272,7 @@
         <v>320102</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C4" s="6">
         <v>3201</v>
@@ -6324,7 +6287,7 @@
         <v>320103</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C5" s="6">
         <v>3201</v>
@@ -6339,7 +6302,7 @@
         <v>320104</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C6" s="6">
         <v>3201</v>
@@ -6354,7 +6317,7 @@
         <v>320105</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C7" s="6">
         <v>3201</v>
@@ -6369,7 +6332,7 @@
         <v>320106</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C8" s="6">
         <v>3201</v>
@@ -6384,7 +6347,7 @@
         <v>320107</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C9" s="6">
         <v>3201</v>
@@ -6399,7 +6362,7 @@
         <v>320108</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C10" s="6">
         <v>3201</v>
@@ -6414,7 +6377,7 @@
         <v>320109</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C11" s="6">
         <v>3201</v>
@@ -6429,7 +6392,7 @@
         <v>320201</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C12" s="6">
         <v>3202</v>
@@ -6444,7 +6407,7 @@
         <v>320202</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C13" s="6">
         <v>3202</v>
@@ -6459,7 +6422,7 @@
         <v>320203</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C14" s="6">
         <v>3202</v>
@@ -6474,7 +6437,7 @@
         <v>320204</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C15" s="6">
         <v>3202</v>
@@ -6489,7 +6452,7 @@
         <v>320205</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C16" s="6">
         <v>3202</v>
@@ -6504,7 +6467,7 @@
         <v>320206</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C17" s="6">
         <v>3202</v>
@@ -6544,7 +6507,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="30" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -6557,164 +6520,164 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="F2" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="G2" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="H2" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>233</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="F3" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="G3" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="H3" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="I3" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="J3" s="22" t="s">
         <v>243</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="H4" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="I4" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="J4" s="22" t="s">
         <v>251</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="F5" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="G5" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="H5" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="I5" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="J5" s="22" t="s">
         <v>261</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="F7" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="G7" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="H7" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="I7" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>236</v>
-      </c>
       <c r="J7" s="23" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="24" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K8" s="29" t="str">
         <f>"&lt;Question ID="""&amp;F8&amp;""" Count="""&amp;G8&amp;""" Scheme="""&amp;H8&amp;""" Source="""&amp;I8&amp;""" Score="""&amp;J8&amp;""" /&gt;"</f>
@@ -6754,42 +6717,42 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="31" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="E1" s="32" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F1" s="33"/>
       <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="26" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="26" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C3" s="27" t="str">
         <f>"&lt;QuestionType ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" /&gt;"</f>
@@ -6799,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G3" s="27" t="str">
         <f>"&lt;Difficutly ID="""&amp;E3&amp;""" Name="""&amp;F3&amp;""" /&gt;"</f>
@@ -6808,10 +6771,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="26" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C4" s="27" t="str">
         <f t="shared" ref="C4:C5" si="0">"&lt;QuestionType ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" /&gt;"</f>
@@ -6821,7 +6784,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G4" s="27" t="str">
         <f t="shared" ref="G4:G5" si="1">"&lt;Difficutly ID="""&amp;E4&amp;""" Name="""&amp;F4&amp;""" /&gt;"</f>
@@ -6830,10 +6793,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="26" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C5" s="27" t="str">
         <f t="shared" si="0"/>
@@ -6843,7 +6806,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G5" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6852,39 +6815,39 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="23" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F9" s="29" t="str">
         <f>"&lt;Scheme ID="""&amp;A9&amp;""" Count="""&amp;B9&amp;""" Matching="""&amp;C9&amp;""" Source="""&amp;D9&amp;""" Score="""&amp;E9&amp;""" /&gt;"</f>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="33" r:id="rId1"/>
@@ -2374,13 +2374,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2610,6 +2610,114 @@
         <v>&lt;Item ItemID="20010009" ItemType="20" ItemName="栖霞山" ItemIcon="" ItemDesc="" /&gt;</v>
       </c>
     </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="19" t="str">
+        <f>Card!A12</f>
+        <v>20010010</v>
+      </c>
+      <c r="B13" s="6">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6" t="str">
+        <f>Card!C12</f>
+        <v>西津渡古街</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="10" t="str">
+        <f t="shared" ref="F13:F18" si="1">"&lt;Item ItemID="""&amp;A13&amp;""" ItemType="""&amp;B13&amp;""" ItemName="""&amp;C13&amp;""" ItemIcon="""&amp;D13&amp;""" ItemDesc="""&amp;E13&amp;""" /&gt;"</f>
+        <v>&lt;Item ItemID="20010010" ItemType="21" ItemName="西津渡古街" ItemIcon="" ItemDesc="" /&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="19" t="str">
+        <f>Card!A13</f>
+        <v>20010011</v>
+      </c>
+      <c r="B14" s="6">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6" t="str">
+        <f>Card!C13</f>
+        <v>金山寺</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Item ItemID="20010011" ItemType="22" ItemName="金山寺" ItemIcon="" ItemDesc="" /&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="19" t="str">
+        <f>Card!A14</f>
+        <v>20010012</v>
+      </c>
+      <c r="B15" s="6">
+        <v>23</v>
+      </c>
+      <c r="C15" s="6" t="str">
+        <f>Card!C14</f>
+        <v>北固山</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Item ItemID="20010012" ItemType="23" ItemName="北固山" ItemIcon="" ItemDesc="" /&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="19" t="str">
+        <f>Card!A15</f>
+        <v>20010013</v>
+      </c>
+      <c r="B16" s="6">
+        <v>24</v>
+      </c>
+      <c r="C16" s="6" t="str">
+        <f>Card!C15</f>
+        <v>焦山</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Item ItemID="20010013" ItemType="24" ItemName="焦山" ItemIcon="" ItemDesc="" /&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="19" t="str">
+        <f>Card!A16</f>
+        <v>20010014</v>
+      </c>
+      <c r="B17" s="6">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6" t="str">
+        <f>Card!C16</f>
+        <v>得撒石磨豆腐村</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Item ItemID="20010014" ItemType="25" ItemName="得撒石磨豆腐村" ItemIcon="" ItemDesc="" /&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="19" t="str">
+        <f>Card!A17</f>
+        <v>20010015</v>
+      </c>
+      <c r="B18" s="6">
+        <v>26</v>
+      </c>
+      <c r="C18" s="6" t="str">
+        <f>Card!C17</f>
+        <v>宝华山国家森林公园</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Item ItemID="20010015" ItemType="26" ItemName="宝华山国家森林公园" ItemIcon="" ItemDesc="" /&gt;</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2622,7 +2730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="33" r:id="rId1"/>
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="315">
   <si>
     <t>Image</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -968,33 +968,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>NanJing/card_nanjing01</t>
-  </si>
-  <si>
-    <t>NanJing/card_nanjing02</t>
-  </si>
-  <si>
-    <t>NanJing/card_nanjing03</t>
-  </si>
-  <si>
-    <t>NanJing/card_nanjing04</t>
-  </si>
-  <si>
-    <t>NanJing/card_nanjing05</t>
-  </si>
-  <si>
-    <t>NanJing/card_nanjing06</t>
-  </si>
-  <si>
-    <t>NanJing/card_nanjing07</t>
-  </si>
-  <si>
-    <t>NanJing/card_nanjing08</t>
-  </si>
-  <si>
-    <t>NanJing/card_nanjing09</t>
-  </si>
-  <si>
     <t>arrow_panel</t>
   </si>
   <si>
@@ -1180,25 +1153,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ZhenJiang/card_zhenjiang01</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZhenJiang/card_zhenjiang02</t>
-  </si>
-  <si>
-    <t>ZhenJiang/card_zhenjiang03</t>
-  </si>
-  <si>
-    <t>ZhenJiang/card_zhenjiang04</t>
-  </si>
-  <si>
-    <t>ZhenJiang/card_zhenjiang05</t>
-  </si>
-  <si>
-    <t>ZhenJiang/card_zhenjiang06</t>
-  </si>
-  <si>
     <t>card_zhenjiang01</t>
   </si>
   <si>
@@ -1664,6 +1618,33 @@
   <si>
     <t>ticket_normal</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_nanjing01</t>
+  </si>
+  <si>
+    <t>card_nanjing02</t>
+  </si>
+  <si>
+    <t>card_nanjing03</t>
+  </si>
+  <si>
+    <t>card_nanjing04</t>
+  </si>
+  <si>
+    <t>card_nanjing05</t>
+  </si>
+  <si>
+    <t>card_nanjing06</t>
+  </si>
+  <si>
+    <t>card_nanjing07</t>
+  </si>
+  <si>
+    <t>card_nanjing08</t>
+  </si>
+  <si>
+    <t>card_nanjing09</t>
   </si>
 </sst>
 </file>
@@ -2376,7 +2357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2394,19 +2375,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="21" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>44</v>
@@ -2414,19 +2395,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>57</v>
@@ -2440,7 +2421,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="10" t="str">
@@ -2731,7 +2712,7 @@
   <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
@@ -3758,7 +3739,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>64</v>
@@ -3767,7 +3748,7 @@
         <v>63</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="I40" s="15">
         <v>1</v>
@@ -3782,7 +3763,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>64</v>
@@ -3791,7 +3772,7 @@
         <v>63</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="I41" s="15">
         <v>1</v>
@@ -3806,7 +3787,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>64</v>
@@ -3815,7 +3796,7 @@
         <v>63</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="I42" s="15">
         <v>1</v>
@@ -3830,7 +3811,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>64</v>
@@ -3839,7 +3820,7 @@
         <v>63</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="I43" s="15">
         <v>1</v>
@@ -3854,7 +3835,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>64</v>
@@ -3863,7 +3844,7 @@
         <v>63</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="I44" s="15">
         <v>1</v>
@@ -3878,7 +3859,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>64</v>
@@ -3887,7 +3868,7 @@
         <v>63</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="I45" s="15">
         <v>1</v>
@@ -3902,7 +3883,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>64</v>
@@ -3974,7 +3955,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>64</v>
@@ -4118,7 +4099,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>64</v>
@@ -4142,7 +4123,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>64</v>
@@ -4166,7 +4147,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>64</v>
@@ -4190,7 +4171,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>64</v>
@@ -4214,7 +4195,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>64</v>
@@ -4238,7 +4219,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>64</v>
@@ -4262,7 +4243,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>64</v>
@@ -4358,7 +4339,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>64</v>
@@ -4382,7 +4363,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>64</v>
@@ -4406,7 +4387,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>64</v>
@@ -4478,7 +4459,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>64</v>
@@ -4502,7 +4483,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>64</v>
@@ -4526,7 +4507,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>64</v>
@@ -4550,7 +4531,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>64</v>
@@ -4646,7 +4627,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>64</v>
@@ -4790,7 +4771,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>64</v>
@@ -4814,7 +4795,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>64</v>
@@ -4838,7 +4819,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>64</v>
@@ -4862,7 +4843,7 @@
         <v>3</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>64</v>
@@ -4886,7 +4867,7 @@
         <v>3</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>64</v>
@@ -4934,7 +4915,7 @@
         <v>3</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>64</v>
@@ -4982,7 +4963,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>64</v>
@@ -5006,7 +4987,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>64</v>
@@ -5030,7 +5011,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>64</v>
@@ -5054,7 +5035,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>64</v>
@@ -5078,7 +5059,7 @@
         <v>3</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>64</v>
@@ -5303,19 +5284,19 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="2" t="s">
@@ -5353,19 +5334,19 @@
         <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>40</v>
@@ -5391,10 +5372,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="I3" s="6">
         <v>3202</v>
@@ -5415,25 +5396,25 @@
         <v>3202</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C4" s="6">
         <v>32</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E4" s="6">
         <v>3202</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="J4" s="6">
         <v>18</v>
@@ -5657,7 +5638,7 @@
         <v>320201</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C12" s="6">
         <v>3202</v>
@@ -5672,7 +5653,7 @@
         <v>320202</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C13" s="6">
         <v>3202</v>
@@ -5687,7 +5668,7 @@
         <v>320203</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C14" s="6">
         <v>3202</v>
@@ -5702,7 +5683,7 @@
         <v>320204</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C15" s="6">
         <v>3202</v>
@@ -5717,7 +5698,7 @@
         <v>320205</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C16" s="6">
         <v>3202</v>
@@ -5732,7 +5713,7 @@
         <v>320206</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C17" s="6">
         <v>3202</v>
@@ -5757,12 +5738,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
       <selection pane="bottomLeft" activeCell="C222" sqref="C222:C228"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A17"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -5779,10 +5760,10 @@
   <sheetData>
     <row r="1" spans="1:19" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -5797,7 +5778,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>28</v>
@@ -5816,16 +5797,16 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="19" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>0</v>
@@ -5834,7 +5815,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>4</v>
@@ -5842,10 +5823,10 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="18" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>16</v>
@@ -5854,26 +5835,26 @@
         <v>320101</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>131</v>
+        <v>306</v>
       </c>
       <c r="F3" s="8" t="str">
         <f>C3&amp;"介绍"</f>
         <v>中山陵介绍</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="H3" s="6" t="str">
         <f>"&lt;Card CardID="""&amp;A3&amp;""" CardType="""&amp;B3&amp;""" CardName="""&amp;C3&amp;""" ScenicID="""&amp;D3&amp;""" Image="""&amp;E3&amp;""" Text="""&amp;F3&amp;""" Url="""&amp;G3&amp;""" /&gt;"</f>
-        <v>&lt;Card CardID="20010001" CardType="01" CardName="中山陵" ScenicID="320101" Image="NanJing/card_nanjing01" Text="中山陵介绍" Url="https://baike.baidu.com/item/%E4%B8%AD%E5%B1%B1%E9%99%B5/246397" /&gt;</v>
+        <v>&lt;Card CardID="20010001" CardType="01" CardName="中山陵" ScenicID="320101" Image="card_nanjing01" Text="中山陵介绍" Url="https://baike.baidu.com/item/%E4%B8%AD%E5%B1%B1%E9%99%B5/246397" /&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="18" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>17</v>
@@ -5882,26 +5863,26 @@
         <v>320102</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>132</v>
+        <v>307</v>
       </c>
       <c r="F4" s="8" t="str">
         <f t="shared" ref="F4:F17" si="0">C4&amp;"介绍"</f>
         <v>总统府介绍</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="H4" s="6" t="str">
         <f t="shared" ref="H4:H17" si="1">"&lt;Card CardID="""&amp;A4&amp;""" CardType="""&amp;B4&amp;""" CardName="""&amp;C4&amp;""" ScenicID="""&amp;D4&amp;""" Image="""&amp;E4&amp;""" Text="""&amp;F4&amp;""" Url="""&amp;G4&amp;""" /&gt;"</f>
-        <v>&lt;Card CardID="20010002" CardType="01" CardName="总统府" ScenicID="320102" Image="NanJing/card_nanjing02" Text="总统府介绍" Url="https://baike.baidu.com/item/%E5%8D%97%E4%BA%AC%E6%80%BB%E7%BB%9F%E5%BA%9C/3027343?fromtitle=%E6%80%BB%E7%BB%9F%E5%BA%9C&amp;fromid=18727656" /&gt;</v>
+        <v>&lt;Card CardID="20010002" CardType="01" CardName="总统府" ScenicID="320102" Image="card_nanjing02" Text="总统府介绍" Url="https://baike.baidu.com/item/%E5%8D%97%E4%BA%AC%E6%80%BB%E7%BB%9F%E5%BA%9C/3027343?fromtitle=%E6%80%BB%E7%BB%9F%E5%BA%9C&amp;fromid=18727656" /&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="18" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>18</v>
@@ -5910,26 +5891,26 @@
         <v>320103</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>133</v>
+        <v>308</v>
       </c>
       <c r="F5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>夫子庙介绍</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="H5" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="20010003" CardType="01" CardName="夫子庙" ScenicID="320103" Image="NanJing/card_nanjing03" Text="夫子庙介绍" Url="https://baike.baidu.com/item/%E5%8D%97%E4%BA%AC%E5%A4%AB%E5%AD%90%E5%BA%99/510169?fromtitle=%E5%A4%AB%E5%AD%90%E5%BA%99&amp;fromid=978934" /&gt;</v>
+        <v>&lt;Card CardID="20010003" CardType="01" CardName="夫子庙" ScenicID="320103" Image="card_nanjing03" Text="夫子庙介绍" Url="https://baike.baidu.com/item/%E5%8D%97%E4%BA%AC%E5%A4%AB%E5%AD%90%E5%BA%99/510169?fromtitle=%E5%A4%AB%E5%AD%90%E5%BA%99&amp;fromid=978934" /&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="18" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>19</v>
@@ -5938,26 +5919,26 @@
         <v>320104</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c r="F6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>瞻园介绍</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="H6" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="20010004" CardType="01" CardName="瞻园" ScenicID="320104" Image="NanJing/card_nanjing04" Text="瞻园介绍" Url="https://baike.baidu.com/item/%E8%A9%B9%E5%9B%AD" /&gt;</v>
+        <v>&lt;Card CardID="20010004" CardType="01" CardName="瞻园" ScenicID="320104" Image="card_nanjing04" Text="瞻园介绍" Url="https://baike.baidu.com/item/%E8%A9%B9%E5%9B%AD" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="18" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>20</v>
@@ -5966,26 +5947,26 @@
         <v>320105</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="F7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>玄武湖公园介绍</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="H7" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="20010005" CardType="01" CardName="玄武湖公园" ScenicID="320105" Image="NanJing/card_nanjing05" Text="玄武湖公园介绍" Url="https://baike.baidu.com/item/%E7%8E%84%E6%AD%A6%E6%B9%96?fromtitle=%E7%8E%84%E6%AD%A6%E6%B9%96%E5%85%AC%E5%9B%AD&amp;fromid=217739" /&gt;</v>
+        <v>&lt;Card CardID="20010005" CardType="01" CardName="玄武湖公园" ScenicID="320105" Image="card_nanjing05" Text="玄武湖公园介绍" Url="https://baike.baidu.com/item/%E7%8E%84%E6%AD%A6%E6%B9%96?fromtitle=%E7%8E%84%E6%AD%A6%E6%B9%96%E5%85%AC%E5%9B%AD&amp;fromid=217739" /&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="18" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>21</v>
@@ -5994,26 +5975,26 @@
         <v>320106</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>136</v>
+        <v>311</v>
       </c>
       <c r="F8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>明孝陵介绍</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="H8" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="20010006" CardType="01" CardName="明孝陵" ScenicID="320106" Image="NanJing/card_nanjing06" Text="明孝陵介绍" Url="https://baike.baidu.com/item/%E6%98%8E%E5%AD%9D%E9%99%B5/751826" /&gt;</v>
+        <v>&lt;Card CardID="20010006" CardType="01" CardName="明孝陵" ScenicID="320106" Image="card_nanjing06" Text="明孝陵介绍" Url="https://baike.baidu.com/item/%E6%98%8E%E5%AD%9D%E9%99%B5/751826" /&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="18" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>22</v>
@@ -6022,26 +6003,26 @@
         <v>320107</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>137</v>
+        <v>312</v>
       </c>
       <c r="F9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>美龄宫介绍</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="H9" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="20010007" CardType="01" CardName="美龄宫" ScenicID="320107" Image="NanJing/card_nanjing07" Text="美龄宫介绍" Url="https://baike.baidu.com/item/%E5%9B%BD%E6%B0%91%E6%94%BF%E5%BA%9C%E4%B8%BB%E5%B8%AD%E5%AE%98%E9%82%B8%E6%97%A7%E5%9D%80?fromtitle=%E7%BE%8E%E9%BE%84%E5%AE%AB&amp;fromid=1173649" /&gt;</v>
+        <v>&lt;Card CardID="20010007" CardType="01" CardName="美龄宫" ScenicID="320107" Image="card_nanjing07" Text="美龄宫介绍" Url="https://baike.baidu.com/item/%E5%9B%BD%E6%B0%91%E6%94%BF%E5%BA%9C%E4%B8%BB%E5%B8%AD%E5%AE%98%E9%82%B8%E6%97%A7%E5%9D%80?fromtitle=%E7%BE%8E%E9%BE%84%E5%AE%AB&amp;fromid=1173649" /&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="18" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>24</v>
@@ -6050,26 +6031,26 @@
         <v>320108</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>138</v>
+        <v>313</v>
       </c>
       <c r="F10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>南京大屠杀纪念馆介绍</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="H10" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="20010008" CardType="01" CardName="南京大屠杀纪念馆" ScenicID="320108" Image="NanJing/card_nanjing08" Text="南京大屠杀纪念馆介绍" Url="https://baike.baidu.com/item/%E4%BE%B5%E5%8D%8E%E6%97%A5%E5%86%9B%E5%8D%97%E4%BA%AC%E5%A4%A7%E5%B1%A0%E6%9D%80%E9%81%87%E9%9A%BE%E5%90%8C%E8%83%9E%E7%BA%AA%E5%BF%B5%E9%A6%86" /&gt;</v>
+        <v>&lt;Card CardID="20010008" CardType="01" CardName="南京大屠杀纪念馆" ScenicID="320108" Image="card_nanjing08" Text="南京大屠杀纪念馆介绍" Url="https://baike.baidu.com/item/%E4%BE%B5%E5%8D%8E%E6%97%A5%E5%86%9B%E5%8D%97%E4%BA%AC%E5%A4%A7%E5%B1%A0%E6%9D%80%E9%81%87%E9%9A%BE%E5%90%8C%E8%83%9E%E7%BA%AA%E5%BF%B5%E9%A6%86" /&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="18" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>23</v>
@@ -6078,147 +6059,147 @@
         <v>320109</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>139</v>
+        <v>314</v>
       </c>
       <c r="F11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>栖霞山介绍</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="H11" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="20010009" CardType="01" CardName="栖霞山" ScenicID="320109" Image="NanJing/card_nanjing09" Text="栖霞山介绍" Url="https://baike.baidu.com/item/%E6%A0%96%E9%9C%9E%E5%B1%B1/151842" /&gt;</v>
+        <v>&lt;Card CardID="20010009" CardType="01" CardName="栖霞山" ScenicID="320109" Image="card_nanjing09" Text="栖霞山介绍" Url="https://baike.baidu.com/item/%E6%A0%96%E9%9C%9E%E5%B1%B1/151842" /&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="18" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D12" s="6">
         <v>320201</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>西津渡古街介绍</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="H12" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="20010010" CardType="01" CardName="西津渡古街" ScenicID="320201" Image="ZhenJiang/card_zhenjiang01" Text="西津渡古街介绍" Url="https://baike.baidu.com/item/%E8%A5%BF%E6%B4%A5%E6%B8%A1%E5%8F%A4%E8%A1%97/3265815?fr=aladdin" /&gt;</v>
+        <v>&lt;Card CardID="20010010" CardType="01" CardName="西津渡古街" ScenicID="320201" Image="card_zhenjiang01" Text="西津渡古街介绍" Url="https://baike.baidu.com/item/%E8%A5%BF%E6%B4%A5%E6%B8%A1%E5%8F%A4%E8%A1%97/3265815?fr=aladdin" /&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="18" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D13" s="6">
         <v>320202</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>金山寺介绍</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="H13" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="20010011" CardType="01" CardName="金山寺" ScenicID="320202" Image="ZhenJiang/card_zhenjiang02" Text="金山寺介绍" Url="https://baike.baidu.com/item/%E9%87%91%E5%B1%B1%E5%AF%BA/3942" /&gt;</v>
+        <v>&lt;Card CardID="20010011" CardType="01" CardName="金山寺" ScenicID="320202" Image="card_zhenjiang02" Text="金山寺介绍" Url="https://baike.baidu.com/item/%E9%87%91%E5%B1%B1%E5%AF%BA/3942" /&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="18" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D14" s="6">
         <v>320203</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>北固山介绍</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="H14" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="20010012" CardType="01" CardName="北固山" ScenicID="320203" Image="ZhenJiang/card_zhenjiang03" Text="北固山介绍" Url="https://baike.baidu.com/item/%E5%8C%97%E5%9B%BA%E5%B1%B1/625922" /&gt;</v>
+        <v>&lt;Card CardID="20010012" CardType="01" CardName="北固山" ScenicID="320203" Image="card_zhenjiang03" Text="北固山介绍" Url="https://baike.baidu.com/item/%E5%8C%97%E5%9B%BA%E5%B1%B1/625922" /&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="18" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D15" s="6">
         <v>320204</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>焦山介绍</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="H15" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="20010013" CardType="01" CardName="焦山" ScenicID="320204" Image="ZhenJiang/card_zhenjiang04" Text="焦山介绍" Url="https://baike.baidu.com/item/%E7%84%A6%E5%B1%B1%E9%A3%8E%E6%99%AF%E5%8C%BA/7985811?fromtitle=%E7%84%A6%E5%B1%B1&amp;fromid=922275" /&gt;</v>
+        <v>&lt;Card CardID="20010013" CardType="01" CardName="焦山" ScenicID="320204" Image="card_zhenjiang04" Text="焦山介绍" Url="https://baike.baidu.com/item/%E7%84%A6%E5%B1%B1%E9%A3%8E%E6%99%AF%E5%8C%BA/7985811?fromtitle=%E7%84%A6%E5%B1%B1&amp;fromid=922275" /&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="18" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D16" s="6">
         <v>320205</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6226,35 +6207,35 @@
       </c>
       <c r="H16" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="20010014" CardType="01" CardName="得撒石磨豆腐村" ScenicID="320205" Image="ZhenJiang/card_zhenjiang05" Text="得撒石磨豆腐村介绍" Url="" /&gt;</v>
+        <v>&lt;Card CardID="20010014" CardType="01" CardName="得撒石磨豆腐村" ScenicID="320205" Image="card_zhenjiang05" Text="得撒石磨豆腐村介绍" Url="" /&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="18" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D17" s="6">
         <v>320206</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>宝华山国家森林公园介绍</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="H17" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Card CardID="20010015" CardType="01" CardName="宝华山国家森林公园" ScenicID="320206" Image="ZhenJiang/card_zhenjiang06" Text="宝华山国家森林公园介绍" Url="https://baike.baidu.com/item/%E6%B1%9F%E8%8B%8F%E5%AE%9D%E5%8D%8E%E5%B1%B1%E5%9B%BD%E5%AE%B6%E6%A3%AE%E6%9E%97%E5%85%AC%E5%9B%AD?fromtitle=%E5%AE%9D%E5%8D%8E%E5%B1%B1%E5%9B%BD%E5%AE%B6%E6%A3%AE%E6%9E%97%E5%85%AC%E5%9B%AD&amp;fromid=10566126" /&gt;</v>
+        <v>&lt;Card CardID="20010015" CardType="01" CardName="宝华山国家森林公园" ScenicID="320206" Image="card_zhenjiang06" Text="宝华山国家森林公园介绍" Url="https://baike.baidu.com/item/%E6%B1%9F%E8%8B%8F%E5%AE%9D%E5%8D%8E%E5%B1%B1%E5%9B%BD%E5%AE%B6%E6%A3%AE%E6%9E%97%E5%85%AC%E5%9B%AD?fromtitle=%E5%AE%9D%E5%8D%8E%E5%B1%B1%E5%9B%BD%E5%AE%B6%E6%A3%AE%E6%9E%97%E5%85%AC%E5%9B%AD&amp;fromid=10566126" /&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6326,7 +6307,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>15</v>
@@ -6351,7 +6332,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>25</v>
@@ -6365,7 +6346,7 @@
         <v>320101</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C3" s="6">
         <v>3201</v>
@@ -6380,7 +6361,7 @@
         <v>320102</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C4" s="6">
         <v>3201</v>
@@ -6395,7 +6376,7 @@
         <v>320103</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C5" s="6">
         <v>3201</v>
@@ -6410,7 +6391,7 @@
         <v>320104</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C6" s="6">
         <v>3201</v>
@@ -6425,7 +6406,7 @@
         <v>320105</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C7" s="6">
         <v>3201</v>
@@ -6440,7 +6421,7 @@
         <v>320106</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C8" s="6">
         <v>3201</v>
@@ -6455,7 +6436,7 @@
         <v>320107</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C9" s="6">
         <v>3201</v>
@@ -6470,7 +6451,7 @@
         <v>320108</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C10" s="6">
         <v>3201</v>
@@ -6485,7 +6466,7 @@
         <v>320109</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C11" s="6">
         <v>3201</v>
@@ -6500,7 +6481,7 @@
         <v>320201</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C12" s="6">
         <v>3202</v>
@@ -6515,7 +6496,7 @@
         <v>320202</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C13" s="6">
         <v>3202</v>
@@ -6530,7 +6511,7 @@
         <v>320203</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C14" s="6">
         <v>3202</v>
@@ -6545,7 +6526,7 @@
         <v>320204</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C15" s="6">
         <v>3202</v>
@@ -6560,7 +6541,7 @@
         <v>320205</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C16" s="6">
         <v>3202</v>
@@ -6575,7 +6556,7 @@
         <v>320206</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C17" s="6">
         <v>3202</v>
@@ -6615,7 +6596,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="30" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -6628,164 +6609,164 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="23" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="24" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="24" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="24" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="23" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="24" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="K8" s="29" t="str">
         <f>"&lt;Question ID="""&amp;F8&amp;""" Count="""&amp;G8&amp;""" Scheme="""&amp;H8&amp;""" Source="""&amp;I8&amp;""" Score="""&amp;J8&amp;""" /&gt;"</f>
@@ -6825,42 +6806,42 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="31" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="E1" s="32" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="F1" s="33"/>
       <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="26" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="26" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C3" s="27" t="str">
         <f>"&lt;QuestionType ID="""&amp;A3&amp;""" Name="""&amp;B3&amp;""" /&gt;"</f>
@@ -6870,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="G3" s="27" t="str">
         <f>"&lt;Difficutly ID="""&amp;E3&amp;""" Name="""&amp;F3&amp;""" /&gt;"</f>
@@ -6879,10 +6860,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="26" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C4" s="27" t="str">
         <f t="shared" ref="C4:C5" si="0">"&lt;QuestionType ID="""&amp;A4&amp;""" Name="""&amp;B4&amp;""" /&gt;"</f>
@@ -6892,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="G4" s="27" t="str">
         <f t="shared" ref="G4:G5" si="1">"&lt;Difficutly ID="""&amp;E4&amp;""" Name="""&amp;F4&amp;""" /&gt;"</f>
@@ -6901,10 +6882,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="26" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C5" s="27" t="str">
         <f t="shared" si="0"/>
@@ -6914,7 +6895,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G5" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6923,39 +6904,39 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="23" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="24" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="F9" s="29" t="str">
         <f>"&lt;Scheme ID="""&amp;A9&amp;""" Count="""&amp;B9&amp;""" Matching="""&amp;C9&amp;""" Source="""&amp;D9&amp;""" Score="""&amp;E9&amp;""" /&gt;"</f>

--- a/Resources/configs/ConfigBuilder.xlsx
+++ b/Resources/configs/ConfigBuilder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="749" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="33" r:id="rId1"/>
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="323">
   <si>
     <t>Image</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1645,6 +1645,35 @@
   </si>
   <si>
     <t>card_nanjing09</t>
+  </si>
+  <si>
+    <t>common/avatar</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>Spine</t>
+  </si>
+  <si>
+    <t>cycling/view</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycling/site</t>
+  </si>
+  <si>
+    <t>avatar</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2709,13 +2738,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2831,11 +2860,11 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="10" t="str">
-        <f t="shared" ref="J4:J29" si="0">IF(A4=1,"&lt;Module Name="""&amp;B4&amp;""" Desc="""&amp;C4&amp;"""&gt;",IF(E4="Package","  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" AB="""&amp;H4&amp;""" Enable="""&amp;I4&amp;""" /&gt;",IF(E4="Single","  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" Path="""&amp;G4&amp;D4&amp;""" Enable="""&amp;I4&amp;""" /&gt;", IF(A4=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a001" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a001" Enable="1" /&gt;</v>
+        <f t="shared" ref="J4:J30" si="0">IF(A4=1,"&lt;Module Name="""&amp;B4&amp;""" Desc="""&amp;C4&amp;"""&gt;",IF(E4="Package","  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" AB="""&amp;H4&amp;""" Enable="""&amp;I4&amp;""" /&gt;",IF(E4="Single","  &lt;Image Name="""&amp;D4&amp;""" FileType="""&amp;F4&amp;""" Path="""&amp;G4&amp;D4&amp;""" Enable="""&amp;I4&amp;""" /&gt;", IF(A4=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a001" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a001" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2858,11 +2887,11 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a002" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a002" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a002" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a002" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2885,11 +2914,11 @@
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a003" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a003" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a003" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a003" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2912,11 +2941,11 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a004" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a004" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a004" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a004" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2939,11 +2968,11 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a005" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a005" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a005" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a005" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2966,11 +2995,11 @@
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a006" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a006" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a006" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a006" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2993,11 +3022,11 @@
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a007" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a007" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a007" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a007" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3020,11 +3049,11 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a008" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a008" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a008" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a008" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3047,11 +3076,11 @@
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a009" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a009" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a009" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a009" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3074,11 +3103,11 @@
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a010" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a010" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a010" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a010" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3101,11 +3130,11 @@
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a011" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a011" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a011" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a011" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3128,11 +3157,11 @@
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a012" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a012" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a012" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a012" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3155,11 +3184,11 @@
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a013" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a013" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a013" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a013" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3182,11 +3211,11 @@
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a014" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a014" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-a014" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-a014" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3209,11 +3238,11 @@
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0001" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0001" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0001" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0001" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3236,11 +3265,11 @@
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0002" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0002" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0002" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0002" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3263,11 +3292,11 @@
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0003" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0003" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0003" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0003" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3290,11 +3319,11 @@
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0004" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0004" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0004" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0004" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3317,11 +3346,11 @@
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0005" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0005" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0005" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0005" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3344,11 +3373,11 @@
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0006" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0006" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0006" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0006" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3371,11 +3400,11 @@
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0007" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0007" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0007" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0007" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3398,11 +3427,11 @@
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0008" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0008" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0008" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0008" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3425,11 +3454,11 @@
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0009" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0009" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0009" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0009" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3452,11 +3481,11 @@
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0010" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0010" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="app-icon-avatar-p0010" FileType="Sprite" Path="Common/Avatar/app-icon-avatar-p0010" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3479,67 +3508,70 @@
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="10" t="str">
-        <f t="shared" ref="J28" si="1">IF(A28=1,"&lt;Module Name="""&amp;B28&amp;""" Desc="""&amp;C28&amp;"""&gt;",IF(E28="Package","  &lt;Image Name="""&amp;D28&amp;""" FileType="""&amp;F28&amp;""" AB="""&amp;H28&amp;""" Enable="""&amp;I28&amp;""" /&gt;",IF(E28="Single","  &lt;Image Name="""&amp;D28&amp;""" FileType="""&amp;F28&amp;""" Path="""&amp;G28&amp;D28&amp;""" Enable="""&amp;I28&amp;""" /&gt;", IF(A28=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="bg_circle" FileType="Sprite" Path="Common/Avatar/bg_circle" Enable="1" /&gt;</v>
+        <f t="shared" ref="J28:J29" si="1">IF(A28=1,"&lt;Module Name="""&amp;B28&amp;""" Desc="""&amp;C28&amp;"""&gt;",IF(E28="Package","  &lt;Image Name="""&amp;D28&amp;""" FileType="""&amp;F28&amp;""" AB="""&amp;H28&amp;""" Enable="""&amp;I28&amp;""" /&gt;",IF(E28="Single","  &lt;Image Name="""&amp;D28&amp;""" FileType="""&amp;F28&amp;""" Path="""&amp;G28&amp;D28&amp;""" Enable="""&amp;I28&amp;""" /&gt;", IF(A28=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="bg_circle" FileType="Sprite" Path="Common/Avatar/bg_circle" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>317</v>
+      </c>
       <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="H29" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="I29" s="15">
+        <v>1</v>
+      </c>
       <c r="J29" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;Image Name="avatar" FileType="Spine" AB="common/avatar" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="17">
+        <v>4</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="J30" s="10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;/Module&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="15">
-        <v>1</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="F30" s="13"/>
-      <c r="J30" s="10" t="str">
-        <f>IF(A30=1,"&lt;Module Name="""&amp;B30&amp;""" Desc="""&amp;C30&amp;"""&gt;",IF(E30="Package","  &lt;Image Name="""&amp;D30&amp;""" FileType="""&amp;F30&amp;""" AB="""&amp;H30&amp;""" Enable="""&amp;I30&amp;""" /&gt;",IF(E30="Single","  &lt;Image Name="""&amp;D30&amp;""" FileType="""&amp;F30&amp;""" Path="""&amp;G30&amp;D30&amp;""" Enable="""&amp;I30&amp;""" /&gt;", IF(A30=4,"&lt;/Module&gt;",""))))</f>
-        <v>&lt;Module Name="Cycling" Desc="骑行游戏"&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="15">
-        <v>3</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I31" s="15">
         <v>1</v>
       </c>
+      <c r="B31" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="F31" s="13"/>
       <c r="J31" s="10" t="str">
-        <f t="shared" ref="J31:J65" si="2">IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing01" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing01" Enable="1" /&gt;</v>
+        <f>IF(A31=1,"&lt;Module Name="""&amp;B31&amp;""" Desc="""&amp;C31&amp;"""&gt;",IF(E31="Package","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" AB="""&amp;H31&amp;""" Enable="""&amp;I31&amp;""" /&gt;",IF(E31="Single","  &lt;Image Name="""&amp;D31&amp;""" FileType="""&amp;F31&amp;""" Path="""&amp;G31&amp;D31&amp;""" Enable="""&amp;I31&amp;""" /&gt;", IF(A31=4,"&lt;/Module&gt;",""))))</f>
+        <v>&lt;Module Name="Cycling" Desc="骑行游戏"&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3547,7 +3579,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>64</v>
@@ -3559,11 +3591,11 @@
         <v>121</v>
       </c>
       <c r="I32" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing02" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing02" Enable="1" /&gt;</v>
+        <f t="shared" ref="J32:J66" si="2">IF(A32=1,"&lt;Module Name="""&amp;B32&amp;""" Desc="""&amp;C32&amp;"""&gt;",IF(E32="Package","  &lt;Image Name="""&amp;D32&amp;""" FileType="""&amp;F32&amp;""" AB="""&amp;H32&amp;""" Enable="""&amp;I32&amp;""" /&gt;",IF(E32="Single","  &lt;Image Name="""&amp;D32&amp;""" FileType="""&amp;F32&amp;""" Path="""&amp;G32&amp;D32&amp;""" Enable="""&amp;I32&amp;""" /&gt;", IF(A32=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing01" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing01" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3571,7 +3603,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>64</v>
@@ -3583,11 +3615,11 @@
         <v>121</v>
       </c>
       <c r="I33" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing03" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing03" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing02" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing02" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3595,7 +3627,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>64</v>
@@ -3607,11 +3639,11 @@
         <v>121</v>
       </c>
       <c r="I34" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing04" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing04" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing03" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing03" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3619,7 +3651,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>64</v>
@@ -3631,11 +3663,11 @@
         <v>121</v>
       </c>
       <c r="I35" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing05" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing05" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing04" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing04" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3643,7 +3675,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>64</v>
@@ -3655,11 +3687,11 @@
         <v>121</v>
       </c>
       <c r="I36" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing06" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing06" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing05" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing05" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3667,7 +3699,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>64</v>
@@ -3679,11 +3711,11 @@
         <v>121</v>
       </c>
       <c r="I37" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing07" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing07" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing06" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing06" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3691,7 +3723,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>64</v>
@@ -3703,11 +3735,11 @@
         <v>121</v>
       </c>
       <c r="I38" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing08" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing08" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing07" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing07" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3715,7 +3747,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>64</v>
@@ -3727,11 +3759,11 @@
         <v>121</v>
       </c>
       <c r="I39" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_nanjing09" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing09" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing08" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing08" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3739,7 +3771,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>64</v>
@@ -3748,14 +3780,14 @@
         <v>63</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c r="I40" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="10" t="str">
-        <f t="shared" ref="J40" si="3">IF(A40=1,"&lt;Module Name="""&amp;B40&amp;""" Desc="""&amp;C40&amp;"""&gt;",IF(E40="Package","  &lt;Image Name="""&amp;D40&amp;""" FileType="""&amp;F40&amp;""" AB="""&amp;H40&amp;""" Enable="""&amp;I40&amp;""" /&gt;",IF(E40="Single","  &lt;Image Name="""&amp;D40&amp;""" FileType="""&amp;F40&amp;""" Path="""&amp;G40&amp;D40&amp;""" Enable="""&amp;I40&amp;""" /&gt;", IF(A40=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang01" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang01" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="card_nanjing09" FileType="Sprite" Path="Cycling/Site/NanJing/card_nanjing09" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3763,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>64</v>
@@ -3775,11 +3807,11 @@
         <v>187</v>
       </c>
       <c r="I41" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="10" t="str">
-        <f t="shared" ref="J41:J45" si="4">IF(A41=1,"&lt;Module Name="""&amp;B41&amp;""" Desc="""&amp;C41&amp;"""&gt;",IF(E41="Package","  &lt;Image Name="""&amp;D41&amp;""" FileType="""&amp;F41&amp;""" AB="""&amp;H41&amp;""" Enable="""&amp;I41&amp;""" /&gt;",IF(E41="Single","  &lt;Image Name="""&amp;D41&amp;""" FileType="""&amp;F41&amp;""" Path="""&amp;G41&amp;D41&amp;""" Enable="""&amp;I41&amp;""" /&gt;", IF(A41=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang02" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang02" Enable="1" /&gt;</v>
+        <f t="shared" ref="J41" si="3">IF(A41=1,"&lt;Module Name="""&amp;B41&amp;""" Desc="""&amp;C41&amp;"""&gt;",IF(E41="Package","  &lt;Image Name="""&amp;D41&amp;""" FileType="""&amp;F41&amp;""" AB="""&amp;H41&amp;""" Enable="""&amp;I41&amp;""" /&gt;",IF(E41="Single","  &lt;Image Name="""&amp;D41&amp;""" FileType="""&amp;F41&amp;""" Path="""&amp;G41&amp;D41&amp;""" Enable="""&amp;I41&amp;""" /&gt;", IF(A41=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang01" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang01" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3787,7 +3819,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>64</v>
@@ -3799,11 +3831,11 @@
         <v>187</v>
       </c>
       <c r="I42" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang03" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang03" Enable="1" /&gt;</v>
+        <f t="shared" ref="J42:J46" si="4">IF(A42=1,"&lt;Module Name="""&amp;B42&amp;""" Desc="""&amp;C42&amp;"""&gt;",IF(E42="Package","  &lt;Image Name="""&amp;D42&amp;""" FileType="""&amp;F42&amp;""" AB="""&amp;H42&amp;""" Enable="""&amp;I42&amp;""" /&gt;",IF(E42="Single","  &lt;Image Name="""&amp;D42&amp;""" FileType="""&amp;F42&amp;""" Path="""&amp;G42&amp;D42&amp;""" Enable="""&amp;I42&amp;""" /&gt;", IF(A42=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang02" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang02" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3811,7 +3843,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>64</v>
@@ -3823,11 +3855,11 @@
         <v>187</v>
       </c>
       <c r="I43" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="10" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang04" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang04" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang03" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang03" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3835,7 +3867,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>64</v>
@@ -3847,11 +3879,11 @@
         <v>187</v>
       </c>
       <c r="I44" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" s="10" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang05" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang05" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang04" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang04" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3859,7 +3891,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>64</v>
@@ -3871,11 +3903,11 @@
         <v>187</v>
       </c>
       <c r="I45" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="10" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang06" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang06" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang05" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang05" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3883,7 +3915,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>64</v>
@@ -3892,14 +3924,14 @@
         <v>63</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="I46" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="arrow_panel" FileType="Sprite" Path="Cycling/View/arrow_panel" Enable="1" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  &lt;Image Name="card_zhenjiang06" FileType="Sprite" Path="Cycling/Site/ZhenJiang/card_zhenjiang06" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3907,7 +3939,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>64</v>
@@ -3919,11 +3951,11 @@
         <v>59</v>
       </c>
       <c r="I47" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="back" FileType="Sprite" Path="Cycling/View/back" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="arrow_panel" FileType="Sprite" Path="Cycling/View/arrow_panel" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3931,7 +3963,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>64</v>
@@ -3943,11 +3975,11 @@
         <v>59</v>
       </c>
       <c r="I48" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="book" FileType="Sprite" Path="Cycling/View/book" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="back" FileType="Sprite" Path="Cycling/View/back" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3955,7 +3987,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>64</v>
@@ -3967,11 +3999,11 @@
         <v>59</v>
       </c>
       <c r="I49" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="bus" FileType="Sprite" Path="Cycling/View/bus" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="book" FileType="Sprite" Path="Cycling/View/book" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3979,7 +4011,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>64</v>
@@ -3991,11 +4023,11 @@
         <v>59</v>
       </c>
       <c r="I50" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_back1" FileType="Sprite" Path="Cycling/View/card_back1" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="bus" FileType="Sprite" Path="Cycling/View/bus" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -4003,7 +4035,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>64</v>
@@ -4015,11 +4047,11 @@
         <v>59</v>
       </c>
       <c r="I51" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_back2" FileType="Sprite" Path="Cycling/View/card_back2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_back1" FileType="Sprite" Path="Cycling/View/card_back1" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -4027,7 +4059,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>64</v>
@@ -4039,11 +4071,11 @@
         <v>59</v>
       </c>
       <c r="I52" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_bg" FileType="Sprite" Path="Cycling/View/card_bg" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_back2" FileType="Sprite" Path="Cycling/View/card_back2" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -4051,7 +4083,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>64</v>
@@ -4063,11 +4095,11 @@
         <v>59</v>
       </c>
       <c r="I53" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_place" FileType="Sprite" Path="Cycling/View/card_place" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_bg" FileType="Sprite" Path="Cycling/View/card_bg" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -4075,7 +4107,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>64</v>
@@ -4087,11 +4119,11 @@
         <v>59</v>
       </c>
       <c r="I54" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="card_return" FileType="Sprite" Path="Cycling/View/card_return" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="card_place" FileType="Sprite" Path="Cycling/View/card_place" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -4099,7 +4131,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>296</v>
+        <v>117</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>64</v>
@@ -4111,11 +4143,11 @@
         <v>59</v>
       </c>
       <c r="I55" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="10" t="str">
-        <f t="shared" ref="J55:J56" si="5">IF(A55=1,"&lt;Module Name="""&amp;B55&amp;""" Desc="""&amp;C55&amp;"""&gt;",IF(E55="Package","  &lt;Image Name="""&amp;D55&amp;""" FileType="""&amp;F55&amp;""" AB="""&amp;H55&amp;""" Enable="""&amp;I55&amp;""" /&gt;",IF(E55="Single","  &lt;Image Name="""&amp;D55&amp;""" FileType="""&amp;F55&amp;""" Path="""&amp;G55&amp;D55&amp;""" Enable="""&amp;I55&amp;""" /&gt;", IF(A55=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="circle_1" FileType="Sprite" Path="Cycling/View/circle_1" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="card_return" FileType="Sprite" Path="Cycling/View/card_return" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -4123,7 +4155,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>64</v>
@@ -4135,11 +4167,11 @@
         <v>59</v>
       </c>
       <c r="I56" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  &lt;Image Name="circle_2" FileType="Sprite" Path="Cycling/View/circle_2" Enable="1" /&gt;</v>
+        <f t="shared" ref="J56:J57" si="5">IF(A56=1,"&lt;Module Name="""&amp;B56&amp;""" Desc="""&amp;C56&amp;"""&gt;",IF(E56="Package","  &lt;Image Name="""&amp;D56&amp;""" FileType="""&amp;F56&amp;""" AB="""&amp;H56&amp;""" Enable="""&amp;I56&amp;""" /&gt;",IF(E56="Single","  &lt;Image Name="""&amp;D56&amp;""" FileType="""&amp;F56&amp;""" Path="""&amp;G56&amp;D56&amp;""" Enable="""&amp;I56&amp;""" /&gt;", IF(A56=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="circle_1" FileType="Sprite" Path="Cycling/View/circle_1" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -4147,7 +4179,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>64</v>
@@ -4159,11 +4191,11 @@
         <v>59</v>
       </c>
       <c r="I57" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="10" t="str">
-        <f t="shared" ref="J57:J60" si="6">IF(A57=1,"&lt;Module Name="""&amp;B57&amp;""" Desc="""&amp;C57&amp;"""&gt;",IF(E57="Package","  &lt;Image Name="""&amp;D57&amp;""" FileType="""&amp;F57&amp;""" AB="""&amp;H57&amp;""" Enable="""&amp;I57&amp;""" /&gt;",IF(E57="Single","  &lt;Image Name="""&amp;D57&amp;""" FileType="""&amp;F57&amp;""" Path="""&amp;G57&amp;D57&amp;""" Enable="""&amp;I57&amp;""" /&gt;", IF(A57=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="cloud_01" FileType="Sprite" Path="Cycling/View/cloud_01" Enable="1" /&gt;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  &lt;Image Name="circle_2" FileType="Sprite" Path="Cycling/View/circle_2" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -4171,7 +4203,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>64</v>
@@ -4183,11 +4215,11 @@
         <v>59</v>
       </c>
       <c r="I58" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="cloud_02" FileType="Sprite" Path="Cycling/View/cloud_02" Enable="1" /&gt;</v>
+        <f t="shared" ref="J58:J61" si="6">IF(A58=1,"&lt;Module Name="""&amp;B58&amp;""" Desc="""&amp;C58&amp;"""&gt;",IF(E58="Package","  &lt;Image Name="""&amp;D58&amp;""" FileType="""&amp;F58&amp;""" AB="""&amp;H58&amp;""" Enable="""&amp;I58&amp;""" /&gt;",IF(E58="Single","  &lt;Image Name="""&amp;D58&amp;""" FileType="""&amp;F58&amp;""" Path="""&amp;G58&amp;D58&amp;""" Enable="""&amp;I58&amp;""" /&gt;", IF(A58=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="cloud_01" FileType="Sprite" Path="Cycling/View/cloud_01" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -4195,7 +4227,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>64</v>
@@ -4207,11 +4239,11 @@
         <v>59</v>
       </c>
       <c r="I59" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="cloud_03" FileType="Sprite" Path="Cycling/View/cloud_03" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="cloud_02" FileType="Sprite" Path="Cycling/View/cloud_02" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -4219,7 +4251,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>64</v>
@@ -4231,11 +4263,11 @@
         <v>59</v>
       </c>
       <c r="I60" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" s="10" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  &lt;Image Name="cloud_04" FileType="Sprite" Path="Cycling/View/cloud_04" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="cloud_03" FileType="Sprite" Path="Cycling/View/cloud_03" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -4243,7 +4275,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>133</v>
+        <v>295</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>64</v>
@@ -4255,11 +4287,11 @@
         <v>59</v>
       </c>
       <c r="I61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="coin" FileType="Sprite" Path="Cycling/View/coin" Enable="1" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  &lt;Image Name="cloud_04" FileType="Sprite" Path="Cycling/View/cloud_04" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -4267,7 +4299,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>64</v>
@@ -4279,11 +4311,11 @@
         <v>59</v>
       </c>
       <c r="I62" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coin" FileType="Sprite" Path="Cycling/View/coin" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -4291,7 +4323,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>64</v>
@@ -4303,11 +4335,11 @@
         <v>59</v>
       </c>
       <c r="I63" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coin_border" FileType="Sprite" Path="Cycling/View/coin_border" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -4315,7 +4347,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>64</v>
@@ -4327,11 +4359,11 @@
         <v>59</v>
       </c>
       <c r="I64" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="coord_friend" FileType="Sprite" Path="Cycling/View/coord_friend" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coord" FileType="Sprite" Path="Cycling/View/coord" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -4339,7 +4371,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>64</v>
@@ -4351,11 +4383,11 @@
         <v>59</v>
       </c>
       <c r="I65" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;Image Name="cost_panel" FileType="Sprite" Path="Cycling/View/cost_panel" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="coord_friend" FileType="Sprite" Path="Cycling/View/coord_friend" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -4363,7 +4395,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>64</v>
@@ -4375,11 +4407,11 @@
         <v>59</v>
       </c>
       <c r="I66" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" s="10" t="str">
-        <f t="shared" ref="J66:J76" si="7">IF(A66=1,"&lt;Module Name="""&amp;B66&amp;""" Desc="""&amp;C66&amp;"""&gt;",IF(E66="Package","  &lt;Image Name="""&amp;D66&amp;""" FileType="""&amp;F66&amp;""" AB="""&amp;H66&amp;""" Enable="""&amp;I66&amp;""" /&gt;",IF(E66="Single","  &lt;Image Name="""&amp;D66&amp;""" FileType="""&amp;F66&amp;""" Path="""&amp;G66&amp;D66&amp;""" Enable="""&amp;I66&amp;""" /&gt;", IF(A66=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="disable_button" FileType="Sprite" Path="Cycling/View/disable_button" Enable="1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Image Name="cost_panel" FileType="Sprite" Path="Cycling/View/cost_panel" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -4387,7 +4419,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>64</v>
@@ -4399,11 +4431,11 @@
         <v>59</v>
       </c>
       <c r="I67" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="enable_button" FileType="Sprite" Path="Cycling/View/enable_button" Enable="1" /&gt;</v>
+        <f t="shared" ref="J67:J77" si="7">IF(A67=1,"&lt;Module Name="""&amp;B67&amp;""" Desc="""&amp;C67&amp;"""&gt;",IF(E67="Package","  &lt;Image Name="""&amp;D67&amp;""" FileType="""&amp;F67&amp;""" AB="""&amp;H67&amp;""" Enable="""&amp;I67&amp;""" /&gt;",IF(E67="Single","  &lt;Image Name="""&amp;D67&amp;""" FileType="""&amp;F67&amp;""" Path="""&amp;G67&amp;D67&amp;""" Enable="""&amp;I67&amp;""" /&gt;", IF(A67=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="disable_button" FileType="Sprite" Path="Cycling/View/disable_button" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -4411,7 +4443,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>64</v>
@@ -4423,11 +4455,11 @@
         <v>59</v>
       </c>
       <c r="I68" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="enable_button" FileType="Sprite" Path="Cycling/View/enable_button" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -4435,7 +4467,7 @@
         <v>3</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>64</v>
@@ -4447,11 +4479,11 @@
         <v>59</v>
       </c>
       <c r="I69" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="go" FileType="Sprite" Path="Cycling/View/go" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -4459,7 +4491,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>64</v>
@@ -4471,11 +4503,11 @@
         <v>59</v>
       </c>
       <c r="I70" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="pay_border" FileType="Sprite" Path="Cycling/View/pay_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="hp_border" FileType="Sprite" Path="Cycling/View/hp_border" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4483,7 +4515,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>64</v>
@@ -4495,11 +4527,11 @@
         <v>59</v>
       </c>
       <c r="I71" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="pay_panel" FileType="Sprite" Path="Cycling/View/pay_panel" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pay_border" FileType="Sprite" Path="Cycling/View/pay_border" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -4507,7 +4539,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>64</v>
@@ -4519,11 +4551,11 @@
         <v>59</v>
       </c>
       <c r="I72" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="pay_line" FileType="Sprite" Path="Cycling/View/pay_line" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pay_panel" FileType="Sprite" Path="Cycling/View/pay_panel" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -4531,7 +4563,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>301</v>
+        <v>161</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>64</v>
@@ -4543,11 +4575,11 @@
         <v>59</v>
       </c>
       <c r="I73" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" s="10" t="str">
-        <f t="shared" ref="J73" si="8">IF(A73=1,"&lt;Module Name="""&amp;B73&amp;""" Desc="""&amp;C73&amp;"""&gt;",IF(E73="Package","  &lt;Image Name="""&amp;D73&amp;""" FileType="""&amp;F73&amp;""" AB="""&amp;H73&amp;""" Enable="""&amp;I73&amp;""" /&gt;",IF(E73="Single","  &lt;Image Name="""&amp;D73&amp;""" FileType="""&amp;F73&amp;""" Path="""&amp;G73&amp;D73&amp;""" Enable="""&amp;I73&amp;""" /&gt;", IF(A73=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="plane" FileType="Sprite" Path="Cycling/View/plane" Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="pay_line" FileType="Sprite" Path="Cycling/View/pay_line" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -4555,7 +4587,7 @@
         <v>3</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>100</v>
+        <v>301</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>64</v>
@@ -4567,11 +4599,11 @@
         <v>59</v>
       </c>
       <c r="I74" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="1" /&gt;</v>
+        <f t="shared" ref="J74" si="8">IF(A74=1,"&lt;Module Name="""&amp;B74&amp;""" Desc="""&amp;C74&amp;"""&gt;",IF(E74="Package","  &lt;Image Name="""&amp;D74&amp;""" FileType="""&amp;F74&amp;""" AB="""&amp;H74&amp;""" Enable="""&amp;I74&amp;""" /&gt;",IF(E74="Single","  &lt;Image Name="""&amp;D74&amp;""" FileType="""&amp;F74&amp;""" Path="""&amp;G74&amp;D74&amp;""" Enable="""&amp;I74&amp;""" /&gt;", IF(A74=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="plane" FileType="Sprite" Path="Cycling/View/plane" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -4579,7 +4611,7 @@
         <v>3</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>64</v>
@@ -4591,11 +4623,11 @@
         <v>59</v>
       </c>
       <c r="I75" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pop_border1" FileType="Sprite" Path="Cycling/View/pop_border1" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -4603,7 +4635,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>64</v>
@@ -4615,11 +4647,11 @@
         <v>59</v>
       </c>
       <c r="I76" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="pop_border2" FileType="Sprite" Path="Cycling/View/pop_border2" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -4627,7 +4659,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>299</v>
+        <v>102</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>64</v>
@@ -4639,11 +4671,11 @@
         <v>59</v>
       </c>
       <c r="I77" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="10" t="str">
-        <f t="shared" ref="J77:J94" si="9">IF(A77=1,"&lt;Module Name="""&amp;B77&amp;""" Desc="""&amp;C77&amp;"""&gt;",IF(E77="Package","  &lt;Image Name="""&amp;D77&amp;""" FileType="""&amp;F77&amp;""" AB="""&amp;H77&amp;""" Enable="""&amp;I77&amp;""" /&gt;",IF(E77="Single","  &lt;Image Name="""&amp;D77&amp;""" FileType="""&amp;F77&amp;""" Path="""&amp;G77&amp;D77&amp;""" Enable="""&amp;I77&amp;""" /&gt;", IF(A77=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="random_event" FileType="Sprite" Path="Cycling/View/random_event" Enable="1" /&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  &lt;Image Name="progress" FileType="Sprite" Path="Cycling/View/progress" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -4651,7 +4683,7 @@
         <v>3</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>103</v>
+        <v>299</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>64</v>
@@ -4663,11 +4695,11 @@
         <v>59</v>
       </c>
       <c r="I78" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="1" /&gt;</v>
+        <f t="shared" ref="J78:J95" si="9">IF(A78=1,"&lt;Module Name="""&amp;B78&amp;""" Desc="""&amp;C78&amp;"""&gt;",IF(E78="Package","  &lt;Image Name="""&amp;D78&amp;""" FileType="""&amp;F78&amp;""" AB="""&amp;H78&amp;""" Enable="""&amp;I78&amp;""" /&gt;",IF(E78="Single","  &lt;Image Name="""&amp;D78&amp;""" FileType="""&amp;F78&amp;""" Path="""&amp;G78&amp;D78&amp;""" Enable="""&amp;I78&amp;""" /&gt;", IF(A78=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="random_event" FileType="Sprite" Path="Cycling/View/random_event" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4675,7 +4707,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>64</v>
@@ -4687,11 +4719,11 @@
         <v>59</v>
       </c>
       <c r="I79" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_highlight" FileType="Sprite" Path="Cycling/View/scenicspot_highlight" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -4699,7 +4731,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>64</v>
@@ -4711,11 +4743,11 @@
         <v>59</v>
       </c>
       <c r="I80" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="scenicspot_normal" FileType="Sprite" Path="Cycling/View/scenicspot_normal" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -4723,7 +4755,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>64</v>
@@ -4735,11 +4767,11 @@
         <v>59</v>
       </c>
       <c r="I81" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_highlight" FileType="Sprite" Path="Cycling/View/site_highlight" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4747,7 +4779,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>64</v>
@@ -4759,11 +4791,11 @@
         <v>59</v>
       </c>
       <c r="I82" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_normal" FileType="Sprite" Path="Cycling/View/site_normal" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4771,7 +4803,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>302</v>
+        <v>118</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>64</v>
@@ -4783,11 +4815,11 @@
         <v>59</v>
       </c>
       <c r="I83" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="stars_highlight" FileType="Sprite" Path="Cycling/View/stars_highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="site_normal2" FileType="Sprite" Path="Cycling/View/site_normal2" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4795,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>64</v>
@@ -4807,11 +4839,11 @@
         <v>59</v>
       </c>
       <c r="I84" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="start_normal" FileType="Sprite" Path="Cycling/View/start_normal" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="stars_highlight" FileType="Sprite" Path="Cycling/View/stars_highlight" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4819,7 +4851,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>135</v>
+        <v>303</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>64</v>
@@ -4831,11 +4863,11 @@
         <v>59</v>
       </c>
       <c r="I85" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="station_panel" FileType="Sprite" Path="Cycling/View/station_panel" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="start_normal" FileType="Sprite" Path="Cycling/View/start_normal" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -4843,7 +4875,7 @@
         <v>3</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>304</v>
+        <v>135</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>64</v>
@@ -4855,11 +4887,11 @@
         <v>59</v>
       </c>
       <c r="I86" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket_highlight" FileType="Sprite" Path="Cycling/View/ticket_highlight" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="station_panel" FileType="Sprite" Path="Cycling/View/station_panel" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -4867,7 +4899,7 @@
         <v>3</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>64</v>
@@ -4879,11 +4911,11 @@
         <v>59</v>
       </c>
       <c r="I87" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="ticket_normal" FileType="Sprite" Path="Cycling/View/ticket_normal" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="ticket_highlight" FileType="Sprite" Path="Cycling/View/ticket_highlight" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -4891,7 +4923,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>107</v>
+        <v>305</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>64</v>
@@ -4903,11 +4935,11 @@
         <v>59</v>
       </c>
       <c r="I88" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="ticket_normal" FileType="Sprite" Path="Cycling/View/ticket_normal" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -4915,7 +4947,7 @@
         <v>3</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>64</v>
@@ -4927,11 +4959,11 @@
         <v>59</v>
       </c>
       <c r="I89" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="tip_error" FileType="Sprite" Path="Cycling/View/tip_error" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="timer" FileType="Sprite" Path="Cycling/View/timer" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -4939,7 +4971,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>64</v>
@@ -4951,11 +4983,11 @@
         <v>59</v>
       </c>
       <c r="I90" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="tip_error" FileType="Sprite" Path="Cycling/View/tip_error" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -4963,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>64</v>
@@ -4975,11 +5007,11 @@
         <v>59</v>
       </c>
       <c r="I91" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="train1" FileType="Sprite" Path="Cycling/View/train1" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="title_border" FileType="Sprite" Path="Cycling/View/title_border" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -4987,7 +5019,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>64</v>
@@ -4999,11 +5031,11 @@
         <v>59</v>
       </c>
       <c r="I92" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="train2" FileType="Sprite" Path="Cycling/View/train2" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="train1" FileType="Sprite" Path="Cycling/View/train1" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -5011,7 +5043,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>64</v>
@@ -5023,11 +5055,11 @@
         <v>59</v>
       </c>
       <c r="I93" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="train3" FileType="Sprite" Path="Cycling/View/train3" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="train2" FileType="Sprite" Path="Cycling/View/train2" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -5035,7 +5067,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>298</v>
+        <v>138</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>64</v>
@@ -5047,11 +5079,11 @@
         <v>59</v>
       </c>
       <c r="I94" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" s="10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  &lt;Image Name="treasure_box" FileType="Sprite" Path="Cycling/View/treasure_box" Enable="1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Image Name="train3" FileType="Sprite" Path="Cycling/View/train3" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -5059,7 +5091,7 @@
         <v>3</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>64</v>
@@ -5071,19 +5103,91 @@
         <v>59</v>
       </c>
       <c r="I95" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" s="10" t="str">
-        <f t="shared" ref="J95" si="10">IF(A95=1,"&lt;Module Name="""&amp;B95&amp;""" Desc="""&amp;C95&amp;"""&gt;",IF(E95="Package","  &lt;Image Name="""&amp;D95&amp;""" FileType="""&amp;F95&amp;""" AB="""&amp;H95&amp;""" Enable="""&amp;I95&amp;""" /&gt;",IF(E95="Single","  &lt;Image Name="""&amp;D95&amp;""" FileType="""&amp;F95&amp;""" Path="""&amp;G95&amp;D95&amp;""" Enable="""&amp;I95&amp;""" /&gt;", IF(A95=4,"&lt;/Module&gt;",""))))</f>
-        <v xml:space="preserve">  &lt;Image Name="treasure_box_arrow" FileType="Sprite" Path="Cycling/View/treasure_box_arrow" Enable="1" /&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  &lt;Image Name="treasure_box" FileType="Sprite" Path="Cycling/View/treasure_box" Enable="0" /&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="15">
+        <v>3</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I96" s="15">
+        <v>0</v>
+      </c>
+      <c r="J96" s="10" t="str">
+        <f t="shared" ref="J96" si="10">IF(A96=1,"&lt;Module Name="""&amp;B96&amp;""" Desc="""&amp;C96&amp;"""&gt;",IF(E96="Package","  &lt;Image Name="""&amp;D96&amp;""" FileType="""&amp;F96&amp;""" AB="""&amp;H96&amp;""" Enable="""&amp;I96&amp;""" /&gt;",IF(E96="Single","  &lt;Image Name="""&amp;D96&amp;""" FileType="""&amp;F96&amp;""" Path="""&amp;G96&amp;D96&amp;""" Enable="""&amp;I96&amp;""" /&gt;", IF(A96=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="treasure_box_arrow" FileType="Sprite" Path="Cycling/View/treasure_box_arrow" Enable="0" /&gt;</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="15">
+        <v>3</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="I97" s="15">
+        <v>1</v>
+      </c>
+      <c r="J97" s="10" t="str">
+        <f>IF(A97=1,"&lt;Module Name="""&amp;B97&amp;""" Desc="""&amp;C97&amp;"""&gt;",IF(E97="Package","  &lt;Image Name="""&amp;D97&amp;""" FileType="""&amp;F97&amp;""" AB="""&amp;H97&amp;""" Enable="""&amp;I97&amp;""" /&gt;",IF(E97="Single","  &lt;Image Name="""&amp;D97&amp;""" FileType="""&amp;F97&amp;""" Path="""&amp;G97&amp;D97&amp;""" Enable="""&amp;I97&amp;""" /&gt;", IF(A97=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="view" FileType="Spine" AB="cycling/view" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="15">
+        <v>3</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="I98" s="15">
+        <v>1</v>
+      </c>
+      <c r="J98" s="10" t="str">
+        <f>IF(A98=1,"&lt;Module Name="""&amp;B98&amp;""" Desc="""&amp;C98&amp;"""&gt;",IF(E98="Package","  &lt;Image Name="""&amp;D98&amp;""" FileType="""&amp;F98&amp;""" AB="""&amp;H98&amp;""" Enable="""&amp;I98&amp;""" /&gt;",IF(E98="Single","  &lt;Image Name="""&amp;D98&amp;""" FileType="""&amp;F98&amp;""" Path="""&amp;G98&amp;D98&amp;""" Enable="""&amp;I98&amp;""" /&gt;", IF(A98=4,"&lt;/Module&gt;",""))))</f>
+        <v xml:space="preserve">  &lt;Image Name="site" FileType="Spine" AB="cycling/site" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="15">
         <v>4</v>
       </c>
-      <c r="J96" s="10" t="str">
-        <f t="shared" ref="J96" si="11">IF(A96=1,"&lt;Module Name="""&amp;B96&amp;""" Desc="""&amp;C96&amp;"""&gt;",IF(E96="Package","  &lt;Image Name="""&amp;D96&amp;""" FileType="""&amp;F96&amp;""" AB="""&amp;H96&amp;""" Enable="""&amp;I96&amp;""" /&gt;",IF(E96="Single","  &lt;Image Name="""&amp;D96&amp;""" FileType="""&amp;F96&amp;""" Path="""&amp;G96&amp;D96&amp;""" Enable="""&amp;I96&amp;""" /&gt;", IF(A96=4,"&lt;/Module&gt;",""))))</f>
+      <c r="J99" s="10" t="str">
+        <f>IF(A99=1,"&lt;Module Name="""&amp;B99&amp;""" Desc="""&amp;C99&amp;"""&gt;",IF(E101="Package","  &lt;Image Name="""&amp;D99&amp;""" FileType="""&amp;F99&amp;""" AB="""&amp;H99&amp;""" Enable="""&amp;I99&amp;""" /&gt;",IF(E101="Single","  &lt;Image Name="""&amp;D99&amp;""" FileType="""&amp;F99&amp;""" Path="""&amp;G99&amp;D99&amp;""" Enable="""&amp;I99&amp;""" /&gt;", IF(A99=4,"&lt;/Module&gt;",""))))</f>
         <v>&lt;/Module&gt;</v>
       </c>
     </row>
@@ -5095,10 +5199,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I30:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I31:I1048576">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F28 F30:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F29 F31:F1048576">
       <formula1>"Sprite,Texture1,Texture2,Spine"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">
@@ -5738,7 +5842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C222" sqref="C222:C228"/>
       <selection pane="topRight" activeCell="C222" sqref="C222:C228"/>
